--- a/zl.xlsx
+++ b/zl.xlsx
@@ -337,7 +337,7 @@
     <t>https://framerusercontent.com/images/xYWUE6fSnRyPyBimyskHG7Gws.png</t>
   </si>
   <si>
-    <t>Streamline获得了Figma 2022年最佳图形资源奖。世界上最大的图标、插图、表情符号和元素集</t>
+    <t>世界上最大的图标、插图、表情符号和元素集</t>
   </si>
   <si>
     <t>克隆窝</t>
@@ -5454,7 +5454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5498,10 +5498,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment vertical="top"/>
@@ -5901,70 +5897,70 @@
   <dimension ref="A1:DI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9" style="28"/>
+    <col min="6" max="6" width="9" style="27"/>
     <col min="7" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="9" style="28"/>
+    <col min="12" max="12" width="9" style="27"/>
     <col min="13" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="9" style="28"/>
+    <col min="18" max="18" width="9" style="27"/>
     <col min="19" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="9" style="28"/>
+    <col min="24" max="24" width="9" style="27"/>
     <col min="25" max="29" width="9" style="3"/>
-    <col min="30" max="30" width="9" style="28"/>
+    <col min="30" max="30" width="9" style="27"/>
     <col min="31" max="35" width="9" style="3"/>
-    <col min="36" max="36" width="9" style="28"/>
+    <col min="36" max="36" width="9" style="27"/>
     <col min="37" max="41" width="9" style="3"/>
-    <col min="42" max="42" width="9" style="28"/>
+    <col min="42" max="42" width="9" style="27"/>
     <col min="43" max="47" width="9" style="3"/>
-    <col min="48" max="48" width="9" style="28"/>
+    <col min="48" max="48" width="9" style="27"/>
     <col min="49" max="53" width="9" style="3"/>
-    <col min="54" max="54" width="9" style="28"/>
+    <col min="54" max="54" width="9" style="27"/>
     <col min="55" max="59" width="9" style="3"/>
-    <col min="60" max="60" width="9" style="29"/>
+    <col min="60" max="60" width="9" style="28"/>
     <col min="61" max="65" width="9" style="3"/>
-    <col min="66" max="66" width="9" style="28"/>
+    <col min="66" max="66" width="9" style="27"/>
     <col min="67" max="71" width="9" style="3"/>
-    <col min="72" max="72" width="9" style="28"/>
+    <col min="72" max="72" width="9" style="27"/>
     <col min="73" max="77" width="9" style="3"/>
-    <col min="78" max="78" width="9" style="28"/>
+    <col min="78" max="78" width="9" style="27"/>
     <col min="79" max="83" width="9" style="3"/>
-    <col min="84" max="84" width="9" style="28"/>
+    <col min="84" max="84" width="9" style="27"/>
     <col min="85" max="89" width="9" style="3"/>
-    <col min="90" max="90" width="9" style="28"/>
+    <col min="90" max="90" width="9" style="27"/>
     <col min="91" max="95" width="9" style="3"/>
-    <col min="96" max="96" width="9" style="30"/>
+    <col min="96" max="96" width="9" style="29"/>
     <col min="97" max="101" width="9" style="3"/>
-    <col min="102" max="102" width="9" style="30"/>
+    <col min="102" max="102" width="9" style="29"/>
     <col min="103" max="107" width="9" style="3"/>
-    <col min="108" max="108" width="9" style="30"/>
+    <col min="108" max="108" width="9" style="29"/>
     <col min="109" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -5979,7 +5975,7 @@
       <c r="AW1" s="2"/>
       <c r="BC1" s="2"/>
       <c r="BI1" s="2"/>
-      <c r="BN1" s="29"/>
+      <c r="BN1" s="28"/>
       <c r="BO1" s="2"/>
       <c r="BU1" s="2"/>
       <c r="CA1" s="2"/>
@@ -5989,21 +5985,21 @@
       <c r="CY1" s="2"/>
       <c r="DE1" s="2"/>
     </row>
-    <row r="2" s="27" customFormat="1" ht="13.8" spans="1:113">
+    <row r="2" s="26" customFormat="1" ht="13.8" spans="1:113">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
@@ -6019,103 +6015,103 @@
       <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="34"/>
+      <c r="R2" s="33"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="34"/>
+      <c r="X2" s="33"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="34"/>
+      <c r="AD2" s="33"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="34"/>
+      <c r="AJ2" s="33"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="34"/>
+      <c r="AP2" s="33"/>
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
       <c r="AU2" s="8"/>
-      <c r="AV2" s="34"/>
+      <c r="AV2" s="33"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
-      <c r="BB2" s="34"/>
+      <c r="BB2" s="33"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
-      <c r="BH2" s="35"/>
+      <c r="BH2" s="34"/>
       <c r="BI2" s="8"/>
       <c r="BJ2" s="8"/>
       <c r="BK2" s="8"/>
       <c r="BL2" s="8"/>
       <c r="BM2" s="8"/>
-      <c r="BN2" s="35"/>
+      <c r="BN2" s="34"/>
       <c r="BO2" s="8"/>
       <c r="BP2" s="8"/>
       <c r="BQ2" s="8"/>
       <c r="BR2" s="8"/>
       <c r="BS2" s="8"/>
-      <c r="BT2" s="34"/>
+      <c r="BT2" s="33"/>
       <c r="BU2" s="8"/>
       <c r="BV2" s="8"/>
       <c r="BW2" s="8"/>
       <c r="BX2" s="8"/>
       <c r="BY2" s="8"/>
-      <c r="BZ2" s="34"/>
+      <c r="BZ2" s="33"/>
       <c r="CA2" s="8"/>
       <c r="CB2" s="8"/>
       <c r="CC2" s="8"/>
       <c r="CD2" s="8"/>
       <c r="CE2" s="8"/>
-      <c r="CF2" s="34"/>
+      <c r="CF2" s="33"/>
       <c r="CG2" s="8"/>
       <c r="CH2" s="8"/>
       <c r="CI2" s="8"/>
       <c r="CJ2" s="8"/>
       <c r="CK2" s="8"/>
-      <c r="CL2" s="34"/>
+      <c r="CL2" s="33"/>
       <c r="CM2" s="8"/>
       <c r="CN2" s="8"/>
       <c r="CO2" s="8"/>
       <c r="CP2" s="8"/>
       <c r="CQ2" s="8"/>
-      <c r="CR2" s="36"/>
+      <c r="CR2" s="35"/>
       <c r="CS2" s="8"/>
       <c r="CT2" s="8"/>
       <c r="CU2" s="8"/>
       <c r="CV2" s="8"/>
       <c r="CW2" s="8"/>
-      <c r="CX2" s="36"/>
+      <c r="CX2" s="35"/>
       <c r="CY2" s="8"/>
       <c r="CZ2" s="8"/>
       <c r="DA2" s="8"/>
       <c r="DB2" s="8"/>
       <c r="DC2" s="8"/>
-      <c r="DD2" s="36"/>
+      <c r="DD2" s="35"/>
       <c r="DE2" s="8"/>
       <c r="DF2" s="8"/>
       <c r="DG2" s="8"/>
@@ -6131,7 +6127,7 @@
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
@@ -6141,7 +6137,7 @@
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6151,7 +6147,7 @@
       <c r="Q3" s="9"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="22"/>
+      <c r="AA3" s="21"/>
       <c r="AC3" s="9"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -6160,7 +6156,7 @@
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="22"/>
+      <c r="AY3" s="21"/>
       <c r="BA3" s="9"/>
       <c r="BC3" s="8"/>
       <c r="BD3" s="5"/>
@@ -6169,7 +6165,7 @@
       <c r="BG3" s="8"/>
       <c r="BJ3" s="4"/>
       <c r="BK3" s="7"/>
-      <c r="BN3" s="29"/>
+      <c r="BN3" s="28"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BU3" s="8"/>
@@ -6185,10 +6181,10 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="37"/>
+      <c r="CX3" s="36"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="37"/>
+      <c r="DD3" s="36"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
@@ -6199,7 +6195,7 @@
       <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6227,7 +6223,7 @@
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="22"/>
+      <c r="AS4" s="21"/>
       <c r="AU4" s="9"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
@@ -6248,7 +6244,7 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="38"/>
+      <c r="CV4" s="37"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
@@ -6261,7 +6257,7 @@
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
@@ -6269,7 +6265,7 @@
       <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="7"/>
@@ -6341,7 +6337,7 @@
       <c r="O6" s="4"/>
       <c r="Q6" s="9"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="22"/>
+      <c r="U6" s="21"/>
       <c r="W6" s="9"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -6364,9 +6360,9 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="16"/>
-      <c r="DG6" s="16"/>
-      <c r="DH6" s="38"/>
+      <c r="DF6" s="15"/>
+      <c r="DG6" s="15"/>
+      <c r="DH6" s="37"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
       <c r="A7" s="3" t="s">
@@ -6375,7 +6371,7 @@
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
@@ -6418,7 +6414,7 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="16"/>
+      <c r="DF7" s="15"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
       <c r="A8" s="3" t="s">
@@ -6427,7 +6423,7 @@
       <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
@@ -6475,8 +6471,8 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="16"/>
-      <c r="DG8" s="16"/>
+      <c r="DF8" s="15"/>
+      <c r="DG8" s="15"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
       <c r="A9" s="3" t="s">
@@ -6485,7 +6481,7 @@
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
@@ -6522,11 +6518,11 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="16"/>
+      <c r="CU9" s="15"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="16"/>
-      <c r="DG9" s="16"/>
+      <c r="DF9" s="15"/>
+      <c r="DG9" s="15"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
       <c r="A10" s="3" t="s">
@@ -6535,7 +6531,7 @@
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
@@ -6545,7 +6541,7 @@
       <c r="G10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="4"/>
@@ -6572,7 +6568,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="16"/>
+      <c r="BQ10" s="15"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6587,7 +6583,7 @@
       <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
         <v>75</v>
       </c>
@@ -6597,7 +6593,7 @@
       <c r="H11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="3" t="s">
         <v>78</v>
       </c>
@@ -6620,15 +6616,15 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="16"/>
+      <c r="BQ11" s="15"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="16"/>
-      <c r="DG11" s="16"/>
+      <c r="DF11" s="15"/>
+      <c r="DG11" s="15"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
       <c r="A12" s="3" t="s">
@@ -6637,7 +6633,7 @@
       <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
         <v>81</v>
       </c>
@@ -6647,7 +6643,7 @@
       <c r="H12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="3" t="s">
         <v>84</v>
       </c>
@@ -6666,7 +6662,7 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="16"/>
+      <c r="CU12" s="15"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
       <c r="A13" s="3" t="s">
@@ -6675,7 +6671,7 @@
       <c r="B13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="3" t="s">
         <v>87</v>
       </c>
@@ -6705,7 +6701,7 @@
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="16"/>
+      <c r="CN13" s="15"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
@@ -6738,7 +6734,7 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="16"/>
+      <c r="CN14" s="15"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
@@ -6775,7 +6771,7 @@
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="3" t="s">
         <v>101</v>
       </c>
@@ -6881,7 +6877,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="23"/>
+      <c r="AX21" s="22"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -6909,8 +6905,8 @@
       <c r="CC24" s="4"/>
     </row>
     <row r="25" ht="13.8" spans="2:80">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="E25" s="9"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -6920,17 +6916,17 @@
     </row>
     <row r="26" ht="13.8" spans="2:80">
       <c r="B26" s="7"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="21"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="23"/>
+      <c r="BD26" s="22"/>
       <c r="BE26" s="7"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
       <c r="BE27" s="7"/>
@@ -6947,7 +6943,7 @@
     </row>
     <row r="29" ht="13.8" spans="2:80">
       <c r="B29" s="7"/>
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
       <c r="T29" s="5"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
@@ -6955,7 +6951,7 @@
     </row>
     <row r="30" ht="13.8" spans="2:81">
       <c r="B30" s="7"/>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -6972,7 +6968,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="18"/>
+      <c r="BU32" s="17"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7019,7 +7015,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="19"/>
+      <c r="BW40" s="18"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7036,7 +7032,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="23"/>
+      <c r="CB43" s="22"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7055,12 +7051,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="23"/>
+      <c r="CB49" s="22"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="23"/>
-      <c r="CC50" s="16"/>
+      <c r="CB50" s="22"/>
+      <c r="CC50" s="15"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7110,7 +7106,7 @@
       <c r="A2" t="s">
         <v>1017</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>1018</v>
       </c>
       <c r="C2"/>
@@ -7124,7 +7120,7 @@
       <c r="A3" t="s">
         <v>1020</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>1021</v>
       </c>
       <c r="C3"/>
@@ -7140,7 +7136,7 @@
       <c r="A4" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>1024</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -7156,7 +7152,7 @@
       <c r="A5" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>1027</v>
       </c>
       <c r="C5" s="3"/>
@@ -7174,7 +7170,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="9"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
@@ -7247,7 +7243,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -8744,7 +8740,7 @@
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
@@ -8905,7 +8901,7 @@
       <c r="A17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -8953,7 +8949,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="3"/>
@@ -9001,7 +8997,7 @@
       <c r="M2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="6" t="s">
         <v>193</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -9034,7 +9030,7 @@
       <c r="M3" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9064,7 +9060,7 @@
       <c r="M4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="6" t="s">
         <v>210</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -9078,7 +9074,7 @@
       <c r="B5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>214</v>
       </c>
@@ -9099,7 +9095,7 @@
       <c r="M5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="6" t="s">
         <v>219</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -9134,7 +9130,7 @@
       <c r="M6" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="6" t="s">
         <v>229</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -9169,7 +9165,7 @@
       <c r="M7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="6" t="s">
         <v>239</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -9204,7 +9200,7 @@
       <c r="M8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="6" t="s">
         <v>249</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -9241,7 +9237,7 @@
       <c r="M9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="6" t="s">
         <v>260</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -9276,7 +9272,7 @@
       <c r="M10" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="6" t="s">
         <v>269</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -9552,7 +9548,7 @@
       <c r="B2" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
         <v>328</v>
       </c>
@@ -9603,7 +9599,7 @@
       <c r="A5" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>336</v>
       </c>
       <c r="C5" s="3"/>
@@ -9614,7 +9610,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
@@ -10008,7 +10004,7 @@
       <c r="B3" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
         <v>406</v>
       </c>
@@ -10222,7 +10218,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>459</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -10519,7 +10515,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>527</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -10554,7 +10550,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>530</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10580,7 +10576,7 @@
       <c r="B2" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
         <v>537</v>
       </c>
@@ -10813,7 +10809,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11054,7 +11050,7 @@
       <c r="AK3" t="s">
         <v>642</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AL3" s="6" t="s">
         <v>643</v>
       </c>
       <c r="AM3"/>
@@ -11132,7 +11128,7 @@
       <c r="AK4" t="s">
         <v>663</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AL4" s="6" t="s">
         <v>664</v>
       </c>
       <c r="AM4"/>
@@ -11173,7 +11169,7 @@
         <v>674</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="19" t="s">
         <v>675</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -11291,7 +11287,7 @@
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>675</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -11354,7 +11350,7 @@
       <c r="AK7" t="s">
         <v>721</v>
       </c>
-      <c r="AL7" s="14" t="s">
+      <c r="AL7" s="6" t="s">
         <v>722</v>
       </c>
       <c r="AM7"/>
@@ -11432,7 +11428,7 @@
       <c r="AK8" t="s">
         <v>744</v>
       </c>
-      <c r="AL8" s="14" t="s">
+      <c r="AL8" s="6" t="s">
         <v>745</v>
       </c>
       <c r="AM8"/>
@@ -11494,7 +11490,7 @@
       <c r="Z9" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="AA9" s="16"/>
+      <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
         <v>763</v>
       </c>
@@ -11599,7 +11595,7 @@
       <c r="N11" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="6" t="s">
         <v>786</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -11690,7 +11686,7 @@
       <c r="G15" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="6" t="s">
         <v>809</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -11701,7 +11697,7 @@
       <c r="G16" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="6" t="s">
         <v>812</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -11890,7 +11886,7 @@
       <c r="B4" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>849</v>
       </c>
       <c r="E4" s="8"/>
@@ -12139,7 +12135,7 @@
       <c r="G9" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="6" t="s">
         <v>915</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -12151,7 +12147,7 @@
       <c r="N9" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="3" t="s">
         <v>919</v>
       </c>
@@ -12394,7 +12390,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>976</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -12512,7 +12508,7 @@
       <c r="B29" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
         <v>1006</v>
       </c>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -42,15 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1273">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
   <si>
     <t>本站支持 &lt;b style="color:#bc37e79e;"&gt;站内搜索&lt;/b&gt; 分类不够细致，推荐直接搜索关键词，搜索框输入文字试试吧</t>
-  </si>
-  <si>
-    <t>最后更新⌚ 2024年3月31日</t>
   </si>
   <si>
     <r>
@@ -5896,8 +5893,8 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
@@ -5948,23 +5945,24 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="31" t="str">
+        <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
+        <v>最后更新⌚ 2024年4月13日</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="M1" s="13"/>
       <c r="S1" s="2"/>
@@ -5987,33 +5985,33 @@
     </row>
     <row r="2" s="26" customFormat="1" ht="13.8" spans="1:113">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
@@ -6117,29 +6115,29 @@
       <c r="DG2" s="8"/>
       <c r="DH2" s="8"/>
       <c r="DI2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="9"/>
       <c r="N3" s="4"/>
@@ -6190,27 +6188,27 @@
     </row>
     <row r="4" ht="13.8" spans="1:111">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9"/>
       <c r="N4" s="4"/>
@@ -6252,25 +6250,25 @@
     </row>
     <row r="5" ht="13.8" spans="1:111">
       <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="9"/>
       <c r="N5" s="4"/>
@@ -6309,28 +6307,28 @@
     </row>
     <row r="6" ht="13.8" spans="1:112">
       <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K6" s="9"/>
       <c r="N6" s="4"/>
@@ -6366,26 +6364,26 @@
     </row>
     <row r="7" ht="13.8" spans="1:110">
       <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K7" s="9"/>
       <c r="N7" s="4"/>
@@ -6418,29 +6416,29 @@
     </row>
     <row r="8" ht="13.8" spans="1:111">
       <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -6476,26 +6474,26 @@
     </row>
     <row r="9" ht="13.8" spans="1:111">
       <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -6526,27 +6524,27 @@
     </row>
     <row r="10" ht="13.8" spans="1:105">
       <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -6578,24 +6576,24 @@
     </row>
     <row r="11" ht="13.8" spans="1:111">
       <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -6628,24 +6626,24 @@
     </row>
     <row r="12" ht="13.8" spans="1:99">
       <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -6666,26 +6664,26 @@
     </row>
     <row r="13" ht="13.8" spans="1:98">
       <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N13" s="4"/>
       <c r="T13" s="4"/>
@@ -6706,19 +6704,19 @@
     </row>
     <row r="14" ht="13.8" spans="7:99">
       <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="4"/>
       <c r="T14" s="4"/>
@@ -6740,13 +6738,13 @@
     </row>
     <row r="15" ht="13.8" spans="7:99">
       <c r="G15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="N15" s="4"/>
       <c r="T15" s="5"/>
@@ -6766,14 +6764,14 @@
     </row>
     <row r="16" ht="13.8" spans="7:98">
       <c r="G16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N16" s="4"/>
       <c r="T16" s="4"/>
@@ -6792,13 +6790,13 @@
     </row>
     <row r="17" ht="13.8" spans="7:86">
       <c r="G17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="N17" s="4"/>
       <c r="T17" s="5"/>
@@ -6818,16 +6816,16 @@
     </row>
     <row r="18" ht="13.8" spans="7:86">
       <c r="G18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="N18" s="4"/>
       <c r="T18" s="5"/>
@@ -7092,40 +7090,40 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1017</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1018</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1020</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1021</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7134,13 +7132,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1025</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7150,14 +7148,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1027</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7278,14 +7276,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7295,76 +7293,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1031</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1032</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1034</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1035</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1037</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1038</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1040</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1041</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>1045</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1046</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7420,321 +7418,321 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>1052</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>1056</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1057</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>1060</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1061</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1065</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>1069</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1073</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1074</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1077</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1078</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1081</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1084</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1085</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>1088</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1089</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1097</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1101</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>1105</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1109</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>1121</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1122</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>1125</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1126</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7764,240 +7762,240 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1132</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1133</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1134</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1136</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1139</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1140</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1142</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1143</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1146</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1148</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1149</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1150</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1151</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1153</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1155</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1156</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1158</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1159</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>1164</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1166</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1168</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1169</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1172</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1175</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8020,150 +8018,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1179</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1180</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1182</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1183</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1187</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1188</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1189</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1190</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1193</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1194</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1196</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1205</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1206</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8194,14 +8192,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8211,16 +8209,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1214</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1215</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8232,19 +8230,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1217</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
@@ -8255,14 +8253,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1218</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1219</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -8274,16 +8272,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1224</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8295,14 +8293,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1225</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1226</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8314,32 +8312,32 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1231</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>1234</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1235</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -8382,158 +8380,158 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1239</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1243</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1247</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1252</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>1260</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1261</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1264</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1265</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1268</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1269</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1272</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1273</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8603,140 +8601,140 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="3"/>
@@ -8746,16 +8744,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="3"/>
@@ -8765,16 +8763,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="3"/>
@@ -8785,127 +8783,127 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8950,544 +8948,544 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -9531,26 +9529,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
@@ -9561,14 +9559,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
@@ -9579,14 +9577,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9597,14 +9595,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -9615,16 +9613,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -9635,14 +9633,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -9653,62 +9651,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -9774,146 +9772,146 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -9948,22 +9946,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -9972,486 +9970,486 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -10462,14 +10460,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -10480,14 +10478,14 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10498,14 +10496,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10516,14 +10514,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="G23" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10551,254 +10549,254 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" t="s">
         <v>532</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>533</v>
-      </c>
-      <c r="M1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -10864,40 +10862,40 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AK1" t="s">
         <v>599</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>600</v>
       </c>
       <c r="AL1"/>
       <c r="AM1"/>
@@ -10906,77 +10904,77 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AH2" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AK2" t="s">
         <v>620</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="AM2"/>
       <c r="AN2"/>
@@ -10984,74 +10982,74 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AK3" t="s">
         <v>641</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -11059,77 +11057,77 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AH4" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AK4" t="s">
         <v>662</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="AM4"/>
       <c r="AN4"/>
@@ -11137,424 +11135,424 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>676</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AC5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AH5" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AK5" t="s">
         <v>683</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="AM5"/>
       <c r="AN5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>694</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>700</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AH6" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AK6" t="s">
         <v>703</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>705</v>
       </c>
       <c r="AM6"/>
       <c r="AN6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>676</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="M7" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>713</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AH7" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AK7" t="s">
         <v>720</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="AM7"/>
       <c r="AN7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AH8" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AK8" t="s">
         <v>743</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>745</v>
       </c>
       <c r="AM8"/>
       <c r="AN8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>748</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>755</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AH9" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="Y10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AB10" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>777</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE10" s="3"/>
       <c r="AH10" s="3"/>
@@ -11569,48 +11567,48 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>782</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>787</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="Y11" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11"/>
@@ -11623,85 +11621,85 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>794</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>795</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="4" t="s">
         <v>798</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="13" spans="7:14">
       <c r="G13" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>800</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>801</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="14" spans="7:10">
       <c r="G14" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="15" spans="7:10">
       <c r="G15" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="16" spans="7:10">
       <c r="G16" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11746,469 +11744,469 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>815</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>834</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>835</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>846</v>
-      </c>
       <c r="W3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>848</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>849</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>850</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>851</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>853</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>854</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>861</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>862</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>867</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>870</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>880</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>881</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>884</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>889</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>890</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>896</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>905</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>906</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>908</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>909</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>917</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>918</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>921</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>924</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>926</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>927</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q10"/>
       <c r="S10" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>932</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>933</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E11" s="3"/>
       <c r="M11"/>
@@ -12217,29 +12215,29 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="S11" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>935</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>936</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>941</v>
       </c>
       <c r="E12" s="3"/>
       <c r="M12"/>
@@ -12248,311 +12246,311 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="V12" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>945</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>946</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>947</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>953</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>954</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>958</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>959</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>960</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>963</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>967</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>968</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>969</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>970</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>976</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>977</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>982</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>983</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>984</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>986</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>987</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>989</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>990</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>995</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>998</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>999</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>1002</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>1004</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>1005</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>1008</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1011</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>1013</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5">

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="18288" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1272">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -361,10 +361,10 @@
     <t>搜索、发现、测试并为您的项目创建漂亮的调色板</t>
   </si>
   <si>
-    <t>免费gpt收录站</t>
-  </si>
-  <si>
-    <t>https://www.mydyjs.com</t>
+    <t>免费ChatGpt</t>
+  </si>
+  <si>
+    <t>https://www.kulayu.com/chatgpt.html</t>
   </si>
   <si>
     <t>可以使用，来自没用的研究所收集的chatgpt</t>
@@ -382,13 +382,11 @@
     <t>世界上最大的 lottie 动画平台,嵌入性很高。</t>
   </si>
   <si>
-    <t>免费ChatGpt</t>
-  </si>
-  <si>
-    <t>https://chat.dzyai.com/#?u=83957</t>
-  </si>
-  <si>
-    <t>微信看广告增加使用次数，响应速度挺快的，前面的用不了备用这个</t>
+    <t xml:space="preserve">https://dw.dwai.life/list
+</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;授权码&lt;/b&gt;扫码关注公众号可获取</t>
   </si>
   <si>
     <t>lordicon</t>
@@ -5893,8 +5891,8 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
@@ -5947,7 +5945,7 @@
       </c>
       <c r="C1" s="31" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年4月13日</v>
+        <v>最后更新⌚ 2024年4月15日</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>2</v>
@@ -6476,7 +6474,7 @@
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="15"/>
@@ -6524,27 +6522,27 @@
     </row>
     <row r="10" ht="13.8" spans="1:105">
       <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -6576,24 +6574,24 @@
     </row>
     <row r="11" ht="13.8" spans="1:111">
       <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -6626,24 +6624,24 @@
     </row>
     <row r="12" ht="13.8" spans="1:99">
       <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -6664,26 +6662,26 @@
     </row>
     <row r="13" ht="13.8" spans="1:98">
       <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="N13" s="4"/>
       <c r="T13" s="4"/>
@@ -6704,16 +6702,16 @@
     </row>
     <row r="14" ht="13.8" spans="7:99">
       <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>54</v>
@@ -6738,13 +6736,13 @@
     </row>
     <row r="15" ht="13.8" spans="7:99">
       <c r="G15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="N15" s="4"/>
       <c r="T15" s="5"/>
@@ -6764,14 +6762,14 @@
     </row>
     <row r="16" ht="13.8" spans="7:98">
       <c r="G16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N16" s="4"/>
       <c r="T16" s="4"/>
@@ -6790,13 +6788,13 @@
     </row>
     <row r="17" ht="13.8" spans="7:86">
       <c r="G17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="N17" s="4"/>
       <c r="T17" s="5"/>
@@ -6816,16 +6814,16 @@
     </row>
     <row r="18" ht="13.8" spans="7:86">
       <c r="G18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="N18" s="4"/>
       <c r="T18" s="5"/>
@@ -7065,6 +7063,10 @@
       <c r="BW53" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://www.kulayu.com/chatgpt.html"/>
+    <hyperlink ref="B10" r:id="rId2" display="https://dw.dwai.life/list&#10;"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -7090,40 +7092,40 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1017</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1019</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1020</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7132,13 +7134,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1024</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7148,14 +7150,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1025</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1026</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7276,14 +7278,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7293,28 +7295,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1033</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1034</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7323,28 +7325,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1036</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1037</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1039</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1040</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -7353,16 +7355,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1045</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7418,28 +7420,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>1050</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1051</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7448,50 +7450,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>1055</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1056</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>1059</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1060</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>1063</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1064</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>54</v>
@@ -7500,16 +7502,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1067</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1068</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7518,142 +7520,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1072</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1073</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1076</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1077</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1080</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1083</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1084</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1088</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1096</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1100</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7661,78 +7663,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1108</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1117</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>1120</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1121</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>1122</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1125</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7762,28 +7764,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1131</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7792,14 +7794,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7808,140 +7810,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1135</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1136</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1138</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1139</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1141</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1142</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1144</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1145</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1149</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1150</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1151</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1152</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1157</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1158</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>1162</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1163</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -7949,53 +7951,53 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1164</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1165</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>1167</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1168</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1170</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1171</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>1173</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1174</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8018,150 +8020,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1179</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1181</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1182</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1186</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1187</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1188</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1189</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1192</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1193</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>1196</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1197</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1200</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1201</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1204</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1205</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>1208</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1209</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8192,14 +8194,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8209,16 +8211,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1213</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1214</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8230,16 +8232,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1216</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8253,14 +8255,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1217</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1218</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -8272,16 +8274,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>1222</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1223</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8293,14 +8295,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1224</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1225</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8312,32 +8314,32 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1234</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -8380,14 +8382,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8398,10 +8400,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1238</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8409,16 +8411,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1241</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1242</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8426,112 +8428,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>1246</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1251</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>1256</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>1259</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1260</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1263</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1264</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1267</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1268</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1272</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8601,140 +8603,140 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="3"/>
@@ -8744,16 +8746,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="3"/>
@@ -8763,16 +8765,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="3"/>
@@ -8789,10 +8791,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>26</v>
@@ -8800,31 +8802,31 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>54</v>
@@ -8832,78 +8834,78 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8948,458 +8950,458 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>15</v>
@@ -9407,29 +9409,29 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>15</v>
@@ -9437,55 +9439,55 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -9529,26 +9531,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
@@ -9559,14 +9561,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
@@ -9577,14 +9579,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9595,14 +9597,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>335</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -9613,16 +9615,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -9633,14 +9635,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -9651,62 +9653,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -9772,70 +9774,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -9844,74 +9846,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -9946,22 +9948,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -9970,133 +9972,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>54</v>
@@ -10105,286 +10107,286 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -10394,10 +10396,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>54</v>
@@ -10405,51 +10407,51 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -10460,14 +10462,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -10478,14 +10480,14 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10496,14 +10498,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10514,14 +10516,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="G23" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10549,105 +10551,105 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" t="s">
         <v>531</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>532</v>
-      </c>
-      <c r="M1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -10655,130 +10657,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
@@ -10786,14 +10788,14 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
@@ -10862,40 +10864,40 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AK1" t="s">
         <v>598</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>599</v>
       </c>
       <c r="AL1"/>
       <c r="AM1"/>
@@ -10904,77 +10906,77 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>608</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AH2" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AK2" t="s">
         <v>619</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="AM2"/>
       <c r="AN2"/>
@@ -10982,74 +10984,74 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>634</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AK3" t="s">
         <v>640</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -11057,77 +11059,77 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AH4" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AK4" t="s">
         <v>661</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="AM4"/>
       <c r="AN4"/>
@@ -11135,395 +11137,395 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AH5" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AK5" t="s">
         <v>682</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>684</v>
       </c>
       <c r="AM5"/>
       <c r="AN5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>687</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>693</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AH6" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AK6" t="s">
         <v>702</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>704</v>
       </c>
       <c r="AM6"/>
       <c r="AN6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="M7" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>711</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>712</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AH7" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AK7" t="s">
         <v>719</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>721</v>
       </c>
       <c r="AM7"/>
       <c r="AN7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AH8" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AK8" t="s">
         <v>742</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="AM8"/>
       <c r="AN8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>750</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="5" t="s">
         <v>760</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>761</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AH9" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>767</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>770</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -11533,23 +11535,23 @@
         <v>24</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="Y10" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AB10" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>776</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11567,48 +11569,48 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>786</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="Y11" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11"/>
@@ -11621,85 +11623,85 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>794</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="13" spans="7:14">
       <c r="G13" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>800</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="14" spans="7:10">
       <c r="G14" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="15" spans="7:10">
       <c r="G15" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="16" spans="7:10">
       <c r="G16" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11744,134 +11746,134 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>814</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>827</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>833</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>834</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>845</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
@@ -11879,334 +11881,334 @@
     </row>
     <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>847</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>848</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>853</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>855</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>856</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>860</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>861</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>863</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>866</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>869</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>874</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>882</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>883</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>888</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>900</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>907</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>908</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>910</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>911</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>917</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>919</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>920</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>922</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>923</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>925</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>926</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q10"/>
       <c r="S10" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>928</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>929</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>931</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>932</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E11" s="3"/>
       <c r="M11"/>
@@ -12215,29 +12217,29 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="S11" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>934</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>935</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>940</v>
       </c>
       <c r="E12" s="3"/>
       <c r="M12"/>
@@ -12246,73 +12248,73 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="V12" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>944</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>951</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -12320,219 +12322,219 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>959</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>961</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>962</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>967</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>968</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>969</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>973</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>974</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>980</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>981</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>983</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>985</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>986</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>989</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>994</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>998</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1002</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>1007</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -12540,14 +12542,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>1012</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1013</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="1300">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -382,8 +382,7 @@
     <t>世界上最大的 lottie 动画平台,嵌入性很高。</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dw.dwai.life/list
-</t>
+    <t>https://dw.dwai.life/list</t>
   </si>
   <si>
     <t>&lt;b&gt;授权码&lt;/b&gt;扫码关注公众号可获取</t>
@@ -2150,16 +2149,16 @@
     <t>三D模型</t>
   </si>
   <si>
-    <t>免费图片</t>
-  </si>
-  <si>
-    <t>https://getquicker.net/Sharedaction?code=4eb8bf9f-b28b-498e-bb76-08db3a59838c</t>
-  </si>
-  <si>
-    <t>https://files.getquicker.net/_icons/16E29181C09DA59F9A66F79852C87BBB122BB5B7.png</t>
-  </si>
-  <si>
-    <t>免费、无版权、高质量图片网站。由我收藏整理</t>
+    <t>那些免费的砖</t>
+  </si>
+  <si>
+    <t>https://www.thosefree.com/design</t>
+  </si>
+  <si>
+    <t>https://img.thosefree.com/static/logo.png</t>
+  </si>
+  <si>
+    <t>一个专注收集各种免费字体 图片 icon图标 视频等各种免费资源的网站</t>
   </si>
   <si>
     <t>iconfont</t>
@@ -2214,162 +2213,6 @@
   </si>
   <si>
     <t>https://www.cgtrader.com</t>
-  </si>
-  <si>
-    <t>那些免费的砖</t>
-  </si>
-  <si>
-    <t>https://www.thosefree.com/design</t>
-  </si>
-  <si>
-    <t>https://img.thosefree.com/static/logo.png</t>
-  </si>
-  <si>
-    <t>一个专注收集各种免费字体 图片 icon图标 视频等各种免费资源的网站</t>
-  </si>
-  <si>
-    <t>Bigstock</t>
-  </si>
-  <si>
-    <t>https://www.bigstockphoto.com/zh/</t>
-  </si>
-  <si>
-    <t>超过8800万张照片、视频和矢量图的素材图库</t>
-  </si>
-  <si>
-    <t>模库网</t>
-  </si>
-  <si>
-    <t>http://www.mcool.com/free.php</t>
-  </si>
-  <si>
-    <t>https://www.mcool.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>免费设计素材模板下载图库共享网站</t>
-  </si>
-  <si>
-    <t>西田样机</t>
-  </si>
-  <si>
-    <t>https://mockup.sitapix.com</t>
-  </si>
-  <si>
-    <t>专门提供免费高质量的样机素材。包括美妆洗化、食品饮料、包装盒袋、办公用品等，下载链接百度网盘上</t>
-  </si>
-  <si>
-    <t>免费商用字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://www.zifh.com</t>
-  </si>
-  <si>
-    <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
-  </si>
-  <si>
-    <t>免版税音乐</t>
-  </si>
-  <si>
-    <t>https://elements.envato.com/audio/royalty-free-music</t>
-  </si>
-  <si>
-    <t>sketchfab</t>
-  </si>
-  <si>
-    <t>https://sketchfab.com</t>
-  </si>
-  <si>
-    <t>Librestock</t>
-  </si>
-  <si>
-    <t>https://librestock.com/</t>
-  </si>
-  <si>
-    <t>一键搜索国外50多个免费图片网站的搜索引擎</t>
-  </si>
-  <si>
-    <t>图标搜索引擎</t>
-  </si>
-  <si>
-    <t>https://yesicon.app</t>
-  </si>
-  <si>
-    <t>169 组开源icon、免费的图标库</t>
-  </si>
-  <si>
-    <t>魔酷网</t>
-  </si>
-  <si>
-    <t>https://blender.kim</t>
-  </si>
-  <si>
-    <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
-  </si>
-  <si>
-    <t>免费高质量样机</t>
-  </si>
-  <si>
-    <t>http://www.ls.graphics</t>
-  </si>
-  <si>
-    <t>免费高质量样机、插和UI工具</t>
-  </si>
-  <si>
-    <t>猫啃网(免费字体)&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://www.maoken.com</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/10/30/tmp9664bdac1b06592f933c.png</t>
-  </si>
-  <si>
-    <t>免费下载无版权可商用字体-英文中文字体</t>
-  </si>
-  <si>
-    <t>VIDEVO</t>
-  </si>
-  <si>
-    <t>https://www.videvo.net/video/courier-knocking-on-door-to-deliver-parcel/514722/</t>
-  </si>
-  <si>
-    <t>Videvo 是一个提供免费 视频剪辑素材 下载的网站</t>
-  </si>
-  <si>
-    <t>3dwarehouse</t>
-  </si>
-  <si>
-    <t>https://3dwarehouse.sketchup.com</t>
-  </si>
-  <si>
-    <t>觅元素</t>
-  </si>
-  <si>
-    <t>http://www.51yuansu.com</t>
-  </si>
-  <si>
-    <t>免抠素材,位图,透明背景素材,透明背景图片,免抠png,高清png</t>
-  </si>
-  <si>
-    <t>icon搜索</t>
-  </si>
-  <si>
-    <t>https://icon-sets.iconify.design</t>
-  </si>
-  <si>
-    <t>所有图标集都是开源的</t>
-  </si>
-  <si>
-    <t>魔顿网</t>
-  </si>
-  <si>
-    <t>http://www.modown.cn/?aff=70874</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/www.modown.cn.png</t>
-  </si>
-  <si>
-    <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
   </si>
   <si>
     <r>
@@ -2398,6 +2241,150 @@
     <t>矢量图，照片，psd免费样机等免费下载</t>
   </si>
   <si>
+    <t>图标搜索引擎</t>
+  </si>
+  <si>
+    <t>https://yesicon.app</t>
+  </si>
+  <si>
+    <t>169 组开源icon、免费的图标库</t>
+  </si>
+  <si>
+    <t>模库网</t>
+  </si>
+  <si>
+    <t>http://www.mcool.com/free.php</t>
+  </si>
+  <si>
+    <t>https://www.mcool.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>免费设计素材模板下载图库共享网站</t>
+  </si>
+  <si>
+    <t>西田样机</t>
+  </si>
+  <si>
+    <t>https://mockup.sitapix.com</t>
+  </si>
+  <si>
+    <t>专门提供免费高质量的样机素材。包括美妆洗化、食品饮料、包装盒袋、办公用品等，下载链接百度网盘上</t>
+  </si>
+  <si>
+    <t>免费商用字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://www.zifh.com</t>
+  </si>
+  <si>
+    <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
+  </si>
+  <si>
+    <t>免版税音乐</t>
+  </si>
+  <si>
+    <t>https://elements.envato.com/audio/royalty-free-music</t>
+  </si>
+  <si>
+    <t>sketchfab</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com</t>
+  </si>
+  <si>
+    <t>Unsplash</t>
+  </si>
+  <si>
+    <t>https://unsplash.com</t>
+  </si>
+  <si>
+    <t>最知名的无版权图片网站，这家以风景为主，数量足够多</t>
+  </si>
+  <si>
+    <t>icon搜索</t>
+  </si>
+  <si>
+    <t>https://icon-sets.iconify.design</t>
+  </si>
+  <si>
+    <t>所有图标集都是开源的</t>
+  </si>
+  <si>
+    <t>魔酷网</t>
+  </si>
+  <si>
+    <t>https://blender.kim</t>
+  </si>
+  <si>
+    <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
+  </si>
+  <si>
+    <t>免费高质量样机</t>
+  </si>
+  <si>
+    <t>http://www.ls.graphics</t>
+  </si>
+  <si>
+    <t>免费高质量样机、插和UI工具</t>
+  </si>
+  <si>
+    <t>猫啃网(免费字体)&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://www.maoken.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/10/30/tmp9664bdac1b06592f933c.png</t>
+  </si>
+  <si>
+    <t>免费下载无版权可商用字体-英文中文字体</t>
+  </si>
+  <si>
+    <t>VIDEVO</t>
+  </si>
+  <si>
+    <t>https://www.videvo.net/video/courier-knocking-on-door-to-deliver-parcel/514722/</t>
+  </si>
+  <si>
+    <t>Videvo 是一个提供免费 视频剪辑素材 下载的网站</t>
+  </si>
+  <si>
+    <t>3dwarehouse</t>
+  </si>
+  <si>
+    <t>https://3dwarehouse.sketchup.com</t>
+  </si>
+  <si>
+    <t>Pixabay中文</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/zh</t>
+  </si>
+  <si>
+    <t>拥有一百万张免费正版高清图片素材，涵盖照片、插画、矢量图、视频等分类</t>
+  </si>
+  <si>
+    <t>iconmonstr</t>
+  </si>
+  <si>
+    <t>https://iconmonstr.com</t>
+  </si>
+  <si>
+    <t>所有图标皆可免费使用于个人和商业用途，可以免费下载和使用。</t>
+  </si>
+  <si>
+    <t>魔顿网</t>
+  </si>
+  <si>
+    <t>http://www.modown.cn/?aff=70874</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.modown.cn.png</t>
+  </si>
+  <si>
+    <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
+  </si>
+  <si>
     <t>找字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
   </si>
   <si>
@@ -2425,22 +2412,19 @@
     <t>家居和室内设计软件 适合您所有设备的完美解决方案</t>
   </si>
   <si>
-    <t>矢量插画下载</t>
-  </si>
-  <si>
-    <t>http://undraw.co/illustrations</t>
-  </si>
-  <si>
-    <t>免抠矢量插画下载</t>
-  </si>
-  <si>
-    <t>iconmonstr</t>
-  </si>
-  <si>
-    <t>https://iconmonstr.com</t>
-  </si>
-  <si>
-    <t>所有图标皆可免费使用于个人和商业用途，可以免费下载和使用。</t>
+    <t>Pexels中文</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/zh-cn</t>
+  </si>
+  <si>
+    <t>支持中文搜索，比较好的一点是有「热门作者排行榜」，平常没事的时候来收收图也挺好的</t>
+  </si>
+  <si>
+    <t>谷歌图标</t>
+  </si>
+  <si>
+    <t>https://fonts.google.com/icons?icon.query=people</t>
   </si>
   <si>
     <t>3D溜溜网</t>
@@ -2485,10 +2469,22 @@
     <t>3D Models for Professionals</t>
   </si>
   <si>
-    <t>谷歌图标</t>
-  </si>
-  <si>
-    <t>https://fonts.google.com/icons?icon.query=people</t>
+    <t>影视飓风</t>
+  </si>
+  <si>
+    <t>https://www.ysjf.com/materialLibrary</t>
+  </si>
+  <si>
+    <t>B站up主影视飓风旗下的高清4K免费素材库</t>
+  </si>
+  <si>
+    <t>免费图标</t>
+  </si>
+  <si>
+    <t>https://www.streamlinehq.com/freebies</t>
+  </si>
+  <si>
+    <t>统一设计感很强</t>
   </si>
   <si>
     <t>CG模型网</t>
@@ -2536,22 +2532,25 @@
     <t>免费 3D 模型，也有付费模型</t>
   </si>
   <si>
-    <t>免抠图片网</t>
-  </si>
-  <si>
-    <t>https://miankoutupian.com</t>
-  </si>
-  <si>
-    <t>免费的免抠图片素材网站,png透明背景图片素材库，支持以图搜图功能，提供了海量的高质量免抠图片素材免费下载，专门为设计师搜索和分享优质的无背景图和剪贴画，用户无需注册即可免费下载使用。</t>
-  </si>
-  <si>
-    <t>免费图标</t>
-  </si>
-  <si>
-    <t>https://www.streamlinehq.com/freebies</t>
-  </si>
-  <si>
-    <t>统一设计感很强</t>
+    <t>StockCake</t>
+  </si>
+  <si>
+    <t>https://stockcake.com</t>
+  </si>
+  <si>
+    <t>一个提供人工智能生成照片的网站，网站上提供了数量庞大和多样化的 AI 生成照片</t>
+  </si>
+  <si>
+    <t>Noun Project</t>
+  </si>
+  <si>
+    <t>https://thenounproject.com</t>
+  </si>
+  <si>
+    <t>免费图标网站，icon，photo  (来自同事沛沛推荐)</t>
+  </si>
+  <si>
+    <t>紫 沛</t>
   </si>
   <si>
     <t>爱给网</t>
@@ -2605,25 +2604,22 @@
     <t>免费的数量少</t>
   </si>
   <si>
-    <t>PNG素材网</t>
-  </si>
-  <si>
-    <t>https://www.pngsucai.com</t>
-  </si>
-  <si>
-    <t>PNG素材网提供免费的PNG图片下载服务，并保持内容的持续更新。</t>
-  </si>
-  <si>
-    <t>Noun Project</t>
-  </si>
-  <si>
-    <t>https://thenounproject.com</t>
-  </si>
-  <si>
-    <t>免费图标网站，icon，photo  (来自同事沛沛推荐)</t>
-  </si>
-  <si>
-    <t>紫 沛</t>
+    <t>Foodiesfeed</t>
+  </si>
+  <si>
+    <t>https://www.foodiesfeed.com</t>
+  </si>
+  <si>
+    <t>最全食物图片站</t>
+  </si>
+  <si>
+    <t>免费 Icon</t>
+  </si>
+  <si>
+    <t>https://www.mingcute.com</t>
+  </si>
+  <si>
+    <t>MingCute 一套极简风格的开源图标库，这套图标目前包含线性和填充 2 种图标形式</t>
   </si>
   <si>
     <t>品牌vi手册下载</t>
@@ -2665,22 +2661,22 @@
     <t>来自印度尼西亚的专业合唱团出品的免费商用音乐片段素材库</t>
   </si>
   <si>
-    <t>电影海报下载&lt;i style="font-size:0px"&gt;poster&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://www.impawards.com</t>
-  </si>
-  <si>
-    <t>全国电影高清海报下载，中文搜不到搜电影的英文名</t>
-  </si>
-  <si>
-    <t>免费 Icon</t>
-  </si>
-  <si>
-    <t>https://www.mingcute.com</t>
-  </si>
-  <si>
-    <t>MingCute 一套极简风格的开源图标库，这套图标目前包含线性和填充 2 种图标形式</t>
+    <t>Gratisography</t>
+  </si>
+  <si>
+    <t>https://gratisography.com</t>
+  </si>
+  <si>
+    <t>每周都会更新，图片角度和题材都比较另类，人物图片不少，另外他家的 logo 也比较另类</t>
+  </si>
+  <si>
+    <t>ICONS8</t>
+  </si>
+  <si>
+    <t>https://igoutu.cn/icons</t>
+  </si>
+  <si>
+    <t>相互搭配的1,345,300个免费图标</t>
   </si>
   <si>
     <r>
@@ -2715,6 +2711,114 @@
     <t>搜字体网提供图片字体识别、字体搜索、找字体、字体查询、求字体、识别字体、字体在线演示与字体下载服务，是提供给设计师的免费字体识别在线网站</t>
   </si>
   <si>
+    <t>免抠图片网</t>
+  </si>
+  <si>
+    <t>https://miankoutupian.com</t>
+  </si>
+  <si>
+    <t>免费的免抠图片素材网站,png透明背景图片素材库，支持以图搜图功能，提供了海量的高质量免抠图片素材免费下载，专门为设计师搜索和分享优质的无背景图和剪贴画，用户无需注册即可免费下载使用。</t>
+  </si>
+  <si>
+    <t>字节跳动图标库</t>
+  </si>
+  <si>
+    <t>https://iconpark.oceanengine.com</t>
+  </si>
+  <si>
+    <t>2600+基础图标icon，29 种图标分类，提供更多的选择</t>
+  </si>
+  <si>
+    <t>素材资源</t>
+  </si>
+  <si>
+    <t>https://sucaizy.com</t>
+  </si>
+  <si>
+    <t>https://sucaizy.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>免费CG素材免费设计素材分享软件工具分享剪辑模板 PS插件 AE插件 后期模板 建模模型</t>
+  </si>
+  <si>
+    <t>识字体网</t>
+  </si>
+  <si>
+    <t>https://www.likefont.com</t>
+  </si>
+  <si>
+    <t>在线字体识别,只需要上传图片即可字体识别搜字体</t>
+  </si>
+  <si>
+    <t>PNG素材网</t>
+  </si>
+  <si>
+    <t>https://www.pngsucai.com</t>
+  </si>
+  <si>
+    <t>PNG素材网提供免费的PNG图片下载服务，并保持内容的持续更新。</t>
+  </si>
+  <si>
+    <t>IconBrew</t>
+  </si>
+  <si>
+    <t>https://iconbrew.com</t>
+  </si>
+  <si>
+    <t>国外免费开源的图标库</t>
+  </si>
+  <si>
+    <t>Freebiesupply</t>
+  </si>
+  <si>
+    <t>https://freebiesupply.com</t>
+  </si>
+  <si>
+    <t>全球优秀设计师提供的免费设计资源</t>
+  </si>
+  <si>
+    <t>Pngimg</t>
+  </si>
+  <si>
+    <t>https://pngimg.com</t>
+  </si>
+  <si>
+    <t>提供了海量的高质量 PNG 图片，专门为设计师搜索和分享优质的无背景图和剪贴画，用户无需注册即可免费下载使用！</t>
+  </si>
+  <si>
+    <t>矢量图标</t>
+  </si>
+  <si>
+    <t>https://www.brandsoftheworld.com</t>
+  </si>
+  <si>
+    <t>免费提供下载的矢量标志库</t>
+  </si>
+  <si>
+    <t>Istockphoto</t>
+  </si>
+  <si>
+    <t>https://www.istockphoto.com</t>
+  </si>
+  <si>
+    <t>CleanPNG</t>
+  </si>
+  <si>
+    <t>https://www.cleanpng.com</t>
+  </si>
+  <si>
+    <t>数百万高清PNG，无限免费下载</t>
+  </si>
+  <si>
+    <t>logo下载</t>
+  </si>
+  <si>
+    <t>https://worldvectorlogo.com/search/xiaomi</t>
+  </si>
+  <si>
+    <t>可以下载各种品牌的矢量logo</t>
+  </si>
+  <si>
     <t>视觉传达</t>
   </si>
   <si>
@@ -2724,34 +2828,40 @@
     <t>免费素材共享平台，专注海外商业设计精品素材。PS插件,PS动作,PS软件,AI,软件设计软件,图层样式,PS笔刷,AI笔刷,AI动作</t>
   </si>
   <si>
-    <t>ICONS8</t>
-  </si>
-  <si>
-    <t>https://igoutu.cn/icons</t>
-  </si>
-  <si>
-    <t>相互搭配的1,345,300个免费图标</t>
-  </si>
-  <si>
-    <t>素材资源</t>
-  </si>
-  <si>
-    <t>https://sucaizy.com</t>
-  </si>
-  <si>
-    <t>https://sucaizy.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>免费CG素材免费设计素材分享软件工具分享剪辑模板 PS插件 AE插件 后期模板 建模模型</t>
-  </si>
-  <si>
-    <t>识字体网</t>
-  </si>
-  <si>
-    <t>https://www.likefont.com</t>
-  </si>
-  <si>
-    <t>在线字体识别,只需要上传图片即可字体识别搜字体</t>
+    <t>PNGDirs</t>
+  </si>
+  <si>
+    <t>https://www.pngdirs.com</t>
+  </si>
+  <si>
+    <t>10万+PNG图片素材免费下载，透明背景图片，无需抠图</t>
+  </si>
+  <si>
+    <t>App图标</t>
+  </si>
+  <si>
+    <t>https://icon.zhheo.com</t>
+  </si>
+  <si>
+    <t>应用图标库 - App高清图标下载，搜索app名称即可下载</t>
+  </si>
+  <si>
+    <t>矢量插画下载</t>
+  </si>
+  <si>
+    <t>http://undraw.co/illustrations</t>
+  </si>
+  <si>
+    <t>免抠矢量插画下载</t>
+  </si>
+  <si>
+    <t>Pictogram2</t>
+  </si>
+  <si>
+    <t>https://pictogram2.com</t>
+  </si>
+  <si>
+    <t>免费商用小人icon矢量素材下载网站</t>
   </si>
   <si>
     <t>lifeofpix&lt;sup&gt; *&lt;/sup&gt;</t>
@@ -2763,64 +2873,37 @@
     <t>免费提供高分辨率照片，个人和商业使用均无版权限制</t>
   </si>
   <si>
-    <t>字节跳动图标库</t>
-  </si>
-  <si>
-    <t>https://iconpark.oceanengine.com</t>
-  </si>
-  <si>
-    <t>2600+基础图标icon，29 种图标分类，提供更多的选择</t>
-  </si>
-  <si>
-    <t>Freebiesupply</t>
-  </si>
-  <si>
-    <t>https://freebiesupply.com</t>
-  </si>
-  <si>
-    <t>全球优秀设计师提供的免费设计资源</t>
-  </si>
-  <si>
-    <t>IconBrew</t>
-  </si>
-  <si>
-    <t>https://iconbrew.com</t>
-  </si>
-  <si>
-    <t>国外免费开源的图标库</t>
-  </si>
-  <si>
-    <t>Istockphoto</t>
-  </si>
-  <si>
-    <t>https://www.istockphoto.com</t>
-  </si>
-  <si>
-    <t>矢量图标</t>
-  </si>
-  <si>
-    <t>https://www.brandsoftheworld.com</t>
-  </si>
-  <si>
-    <t>免费提供下载的矢量标志库</t>
-  </si>
-  <si>
-    <t>logo下载</t>
-  </si>
-  <si>
-    <t>https://worldvectorlogo.com/search/xiaomi</t>
-  </si>
-  <si>
-    <t>可以下载各种品牌的矢量logo</t>
-  </si>
-  <si>
-    <t>App图标</t>
-  </si>
-  <si>
-    <t>https://icon.zhheo.com</t>
-  </si>
-  <si>
-    <t>应用图标库 - App高清图标下载，搜索app名称即可下载</t>
+    <t>Reshot</t>
+  </si>
+  <si>
+    <t>https://www.reshot.com</t>
+  </si>
+  <si>
+    <t>Librestock</t>
+  </si>
+  <si>
+    <t>https://librestock.com/</t>
+  </si>
+  <si>
+    <t>一键搜索国外50多个免费图片网站的搜索引擎</t>
+  </si>
+  <si>
+    <t>Bigstock</t>
+  </si>
+  <si>
+    <t>https://www.bigstockphoto.com/zh/</t>
+  </si>
+  <si>
+    <t>超过8800万张照片、视频和矢量图的素材图库</t>
+  </si>
+  <si>
+    <t>电影海报下载&lt;i style="font-size:0px"&gt;poster&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://www.impawards.com</t>
+  </si>
+  <si>
+    <t>全国电影高清海报下载，中文搜不到搜电影的英文名</t>
   </si>
   <si>
     <t>🧰 在线工具</t>
@@ -5449,7 +5532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5514,6 +5597,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -5524,36 +5614,11 @@
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5564,11 +5629,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5891,112 +5987,112 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="3"/>
+    <col min="1" max="5" width="9" style="26"/>
     <col min="6" max="6" width="9" style="27"/>
-    <col min="7" max="11" width="9" style="3"/>
+    <col min="7" max="11" width="9" style="26"/>
     <col min="12" max="12" width="9" style="27"/>
-    <col min="13" max="17" width="9" style="3"/>
+    <col min="13" max="17" width="9" style="26"/>
     <col min="18" max="18" width="9" style="27"/>
-    <col min="19" max="23" width="9" style="3"/>
+    <col min="19" max="23" width="9" style="26"/>
     <col min="24" max="24" width="9" style="27"/>
-    <col min="25" max="29" width="9" style="3"/>
+    <col min="25" max="29" width="9" style="26"/>
     <col min="30" max="30" width="9" style="27"/>
-    <col min="31" max="35" width="9" style="3"/>
+    <col min="31" max="35" width="9" style="26"/>
     <col min="36" max="36" width="9" style="27"/>
-    <col min="37" max="41" width="9" style="3"/>
+    <col min="37" max="41" width="9" style="26"/>
     <col min="42" max="42" width="9" style="27"/>
-    <col min="43" max="47" width="9" style="3"/>
+    <col min="43" max="47" width="9" style="26"/>
     <col min="48" max="48" width="9" style="27"/>
-    <col min="49" max="53" width="9" style="3"/>
+    <col min="49" max="53" width="9" style="26"/>
     <col min="54" max="54" width="9" style="27"/>
-    <col min="55" max="59" width="9" style="3"/>
+    <col min="55" max="59" width="9" style="26"/>
     <col min="60" max="60" width="9" style="28"/>
-    <col min="61" max="65" width="9" style="3"/>
+    <col min="61" max="65" width="9" style="26"/>
     <col min="66" max="66" width="9" style="27"/>
-    <col min="67" max="71" width="9" style="3"/>
+    <col min="67" max="71" width="9" style="26"/>
     <col min="72" max="72" width="9" style="27"/>
-    <col min="73" max="77" width="9" style="3"/>
+    <col min="73" max="77" width="9" style="26"/>
     <col min="78" max="78" width="9" style="27"/>
-    <col min="79" max="83" width="9" style="3"/>
+    <col min="79" max="83" width="9" style="26"/>
     <col min="84" max="84" width="9" style="27"/>
-    <col min="85" max="89" width="9" style="3"/>
+    <col min="85" max="89" width="9" style="26"/>
     <col min="90" max="90" width="9" style="27"/>
-    <col min="91" max="95" width="9" style="3"/>
+    <col min="91" max="95" width="9" style="26"/>
     <col min="96" max="96" width="9" style="29"/>
-    <col min="97" max="101" width="9" style="3"/>
+    <col min="97" max="101" width="9" style="26"/>
     <col min="102" max="102" width="9" style="29"/>
-    <col min="103" max="107" width="9" style="3"/>
+    <col min="103" max="107" width="9" style="26"/>
     <col min="108" max="108" width="9" style="29"/>
-    <col min="109" max="16384" width="9" style="3"/>
+    <col min="109" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="31" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年4月15日</v>
+        <v>最后更新⌚ 2024年4月27日</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="13"/>
-      <c r="S1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BI1" s="2"/>
+      <c r="S1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BI1" s="13"/>
       <c r="BN1" s="28"/>
-      <c r="BO1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="DE1" s="2"/>
+      <c r="BO1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="DE1" s="13"/>
     </row>
     <row r="2" s="26" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -6005,170 +6101,168 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="27"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="34"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="33"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="33"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="35"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="35"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
-      <c r="DA2" s="8"/>
-      <c r="DB2" s="8"/>
-      <c r="DC2" s="8"/>
-      <c r="DD2" s="35"/>
-      <c r="DE2" s="8"/>
-      <c r="DF2" s="8"/>
-      <c r="DG2" s="8"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="28"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="26"/>
+      <c r="BZ2" s="27"/>
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="27"/>
+      <c r="CG2" s="26"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="26"/>
+      <c r="CN2" s="26"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="29"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="26"/>
+      <c r="CU2" s="26"/>
+      <c r="CV2" s="26"/>
+      <c r="CW2" s="26"/>
+      <c r="CX2" s="29"/>
+      <c r="CY2" s="26"/>
+      <c r="CZ2" s="26"/>
+      <c r="DA2" s="26"/>
+      <c r="DB2" s="26"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="29"/>
+      <c r="DE2" s="26"/>
+      <c r="DF2" s="26"/>
+      <c r="DG2" s="26"/>
+      <c r="DH2" s="26"/>
+      <c r="DI2" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="35"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="35"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="21"/>
-      <c r="AC3" s="9"/>
+      <c r="AA3" s="38"/>
+      <c r="AC3" s="35"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="9"/>
+      <c r="AI3" s="35"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="21"/>
-      <c r="BA3" s="9"/>
-      <c r="BC3" s="8"/>
+      <c r="AY3" s="38"/>
+      <c r="BA3" s="35"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="7"/>
+      <c r="BK3" s="36"/>
       <c r="BN3" s="28"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
-      <c r="BU3" s="8"/>
       <c r="BV3" s="4"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
+      <c r="BW3" s="26"/>
+      <c r="BX3" s="26"/>
+      <c r="BY3" s="26"/>
       <c r="CB3" s="4"/>
       <c r="CC3" s="4"/>
       <c r="CH3" s="4"/>
@@ -6177,121 +6271,119 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="36"/>
+      <c r="CX3" s="40"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="36"/>
+      <c r="DD3" s="40"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="35"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="36"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AA4" s="36"/>
+      <c r="AC4" s="36"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="21"/>
-      <c r="AU4" s="9"/>
+      <c r="AS4" s="38"/>
+      <c r="AU4" s="35"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="9"/>
+      <c r="BG4" s="35"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="7"/>
+      <c r="BK4" s="36"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
-      <c r="BU4" s="8"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="8"/>
+      <c r="BX4" s="26"/>
+      <c r="BY4" s="26"/>
       <c r="CB4" s="4"/>
       <c r="CH4" s="4"/>
       <c r="CN4" s="4"/>
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="37"/>
+      <c r="CV4" s="41"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
     <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="35"/>
+      <c r="G5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="35"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="35"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="9"/>
+      <c r="AU5" s="35"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="10"/>
+      <c r="BF5" s="39"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
-      <c r="BU5" s="8"/>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26"/>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
       <c r="CH5" s="4"/>
@@ -6304,7 +6396,7 @@
       <c r="DG5" s="4"/>
     </row>
     <row r="6" ht="13.8" spans="1:112">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6313,10 +6405,10 @@
       <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6325,16 +6417,16 @@
       <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="35"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="35"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="21"/>
-      <c r="W6" s="9"/>
+      <c r="U6" s="38"/>
+      <c r="W6" s="35"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6343,9 +6435,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="9"/>
+      <c r="BG6" s="35"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="7"/>
+      <c r="BK6" s="36"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6356,22 +6448,22 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="15"/>
-      <c r="DG6" s="15"/>
-      <c r="DH6" s="37"/>
+      <c r="DF6" s="34"/>
+      <c r="DG6" s="34"/>
+      <c r="DH6" s="41"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="26" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6380,16 +6472,16 @@
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="35"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="7"/>
-      <c r="Q7" s="9"/>
+      <c r="O7" s="36"/>
+      <c r="Q7" s="35"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="U7" s="36"/>
+      <c r="W7" s="36"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6410,23 +6502,23 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="15"/>
+      <c r="DF7" s="34"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="26" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6435,12 +6527,12 @@
       <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="35"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6450,7 +6542,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="7"/>
+      <c r="AU8" s="36"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6467,21 +6559,21 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="15"/>
-      <c r="DG8" s="15"/>
+      <c r="DF8" s="34"/>
+      <c r="DG8" s="34"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="26" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6490,12 +6582,12 @@
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="26" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="35"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6514,39 +6606,39 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="15"/>
+      <c r="CU9" s="34"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="15"/>
-      <c r="DG9" s="15"/>
+      <c r="DF9" s="34"/>
+      <c r="DG9" s="34"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="37" t="s">
         <v>69</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="26" t="s">
         <v>70</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="35"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6555,7 +6647,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="9"/>
+      <c r="AO10" s="35"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6564,7 +6656,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="15"/>
+      <c r="BQ10" s="34"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6573,37 +6665,37 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="26" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="26" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="35"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="7"/>
-      <c r="AO11" s="7"/>
+      <c r="AM11" s="36"/>
+      <c r="AO11" s="36"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6612,35 +6704,35 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="15"/>
+      <c r="BQ11" s="34"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="15"/>
-      <c r="DG11" s="15"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="34"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="26" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="26" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="5"/>
@@ -6658,20 +6750,20 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="15"/>
+      <c r="CU12" s="34"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="26" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6680,7 +6772,7 @@
       <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="26" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="4"/>
@@ -6690,18 +6782,18 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="7"/>
+      <c r="BE13" s="36"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="15"/>
+      <c r="CN13" s="34"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="26" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -6710,10 +6802,10 @@
       <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="26" t="s">
         <v>54</v>
       </c>
       <c r="N14" s="4"/>
@@ -6730,18 +6822,18 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="15"/>
+      <c r="CN14" s="34"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="26" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="26" t="s">
         <v>96</v>
       </c>
       <c r="N15" s="4"/>
@@ -6752,7 +6844,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="7"/>
+      <c r="BE15" s="36"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -6761,14 +6853,14 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="26" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="26" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="4"/>
@@ -6787,13 +6879,13 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="26" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="26" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="4"/>
@@ -6804,16 +6896,16 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="7"/>
+      <c r="BE17" s="36"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="7"/>
+      <c r="BK17" s="36"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="26" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -6822,7 +6914,7 @@
       <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="26" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="4"/>
@@ -6858,7 +6950,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="7"/>
+      <c r="AF20" s="36"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -6873,7 +6965,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="22"/>
+      <c r="AX21" s="24"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -6901,9 +6993,9 @@
       <c r="CC24" s="4"/>
     </row>
     <row r="25" ht="13.8" spans="2:80">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="BV25" s="5"/>
@@ -6911,21 +7003,21 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="7"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="38"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="22"/>
-      <c r="BE26" s="7"/>
+      <c r="BD26" s="24"/>
+      <c r="BE26" s="36"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="7"/>
+      <c r="BE27" s="36"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
@@ -6938,16 +7030,16 @@
       <c r="CC28" s="4"/>
     </row>
     <row r="29" ht="13.8" spans="2:80">
-      <c r="B29" s="7"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="34"/>
       <c r="T29" s="5"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="7"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="34"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -6991,7 +7083,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="7"/>
+      <c r="CC36" s="36"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7028,7 +7120,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="22"/>
+      <c r="CB43" s="24"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7047,12 +7139,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="22"/>
+      <c r="CB49" s="24"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="22"/>
-      <c r="CC50" s="15"/>
+      <c r="CB50" s="24"/>
+      <c r="CC50" s="34"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7063,10 +7155,6 @@
       <c r="BW53" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://www.kulayu.com/chatgpt.html"/>
-    <hyperlink ref="B10" r:id="rId2" display="https://dw.dwai.life/list&#10;"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -7092,7 +7180,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1014</v>
+        <v>1042</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7104,28 +7192,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1016</v>
+        <v>1044</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1017</v>
+        <v>1045</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7134,13 +7222,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7150,14 +7238,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7278,14 +7366,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7295,28 +7383,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7325,28 +7413,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -7355,16 +7443,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7420,28 +7508,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7450,50 +7538,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1055</v>
+        <v>1083</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1058</v>
+        <v>1086</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1059</v>
+        <v>1087</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1060</v>
+        <v>1088</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1061</v>
+        <v>1089</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1062</v>
+        <v>1090</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1063</v>
+        <v>1091</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>54</v>
@@ -7502,16 +7590,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1064</v>
+        <v>1092</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1065</v>
+        <v>1093</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1066</v>
+        <v>1094</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1067</v>
+        <v>1095</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7520,142 +7608,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1068</v>
+        <v>1096</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1069</v>
+        <v>1097</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1070</v>
+        <v>1098</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1071</v>
+        <v>1099</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1072</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1076</v>
+        <v>1104</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1078</v>
+        <v>1106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1080</v>
+        <v>1108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1082</v>
+        <v>1110</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1084</v>
+        <v>1112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1087</v>
+        <v>1115</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1089</v>
+        <v>1117</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1091</v>
+        <v>1119</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1092</v>
+        <v>1120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1093</v>
+        <v>1121</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1094</v>
+        <v>1122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1095</v>
+        <v>1123</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1096</v>
+        <v>1124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1097</v>
+        <v>1125</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1098</v>
+        <v>1126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1099</v>
+        <v>1127</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1100</v>
+        <v>1128</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1101</v>
+        <v>1129</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1102</v>
+        <v>1130</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1103</v>
+        <v>1131</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7663,78 +7751,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1104</v>
+        <v>1132</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1105</v>
+        <v>1133</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1106</v>
+        <v>1134</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1107</v>
+        <v>1135</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1108</v>
+        <v>1136</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1109</v>
+        <v>1137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1110</v>
+        <v>1138</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1111</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1112</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1113</v>
+        <v>1141</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1114</v>
+        <v>1142</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1115</v>
+        <v>1143</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1116</v>
+        <v>1144</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1117</v>
+        <v>1145</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1118</v>
+        <v>1146</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1119</v>
+        <v>1147</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1120</v>
+        <v>1148</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1121</v>
+        <v>1149</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1122</v>
+        <v>1150</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1123</v>
+        <v>1151</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1124</v>
+        <v>1152</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7764,28 +7852,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1125</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1126</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1127</v>
+        <v>1155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1128</v>
+        <v>1156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1129</v>
+        <v>1157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1130</v>
+        <v>1158</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7794,14 +7882,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1131</v>
+        <v>1159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1132</v>
+        <v>1160</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1133</v>
+        <v>1161</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7810,140 +7898,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1135</v>
+        <v>1163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1137</v>
+        <v>1165</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1138</v>
+        <v>1166</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1139</v>
+        <v>1167</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1140</v>
+        <v>1168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1141</v>
+        <v>1169</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1142</v>
+        <v>1170</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1143</v>
+        <v>1171</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1144</v>
+        <v>1172</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1145</v>
+        <v>1173</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1146</v>
+        <v>1174</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1147</v>
+        <v>1175</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1145</v>
+        <v>1173</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1148</v>
+        <v>1176</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1149</v>
+        <v>1177</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1145</v>
+        <v>1173</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1150</v>
+        <v>1178</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1151</v>
+        <v>1179</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1152</v>
+        <v>1180</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1153</v>
+        <v>1181</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1154</v>
+        <v>1182</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1155</v>
+        <v>1183</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1156</v>
+        <v>1184</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1157</v>
+        <v>1185</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1158</v>
+        <v>1186</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1159</v>
+        <v>1187</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1160</v>
+        <v>1188</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1161</v>
+        <v>1189</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1162</v>
+        <v>1190</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -7951,53 +8039,53 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1163</v>
+        <v>1191</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1164</v>
+        <v>1192</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1165</v>
+        <v>1193</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1166</v>
+        <v>1194</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1167</v>
+        <v>1195</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1168</v>
+        <v>1196</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1169</v>
+        <v>1197</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1170</v>
+        <v>1198</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1171</v>
+        <v>1199</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1172</v>
+        <v>1200</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1173</v>
+        <v>1201</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1174</v>
+        <v>1202</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8020,150 +8108,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1175</v>
+        <v>1203</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1176</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1177</v>
+        <v>1205</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1178</v>
+        <v>1206</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1179</v>
+        <v>1207</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1180</v>
+        <v>1208</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1181</v>
+        <v>1209</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1185</v>
+        <v>1213</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1186</v>
+        <v>1214</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1187</v>
+        <v>1215</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1188</v>
+        <v>1216</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1187</v>
+        <v>1215</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1189</v>
+        <v>1217</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1190</v>
+        <v>1218</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1191</v>
+        <v>1219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1192</v>
+        <v>1220</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1193</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1194</v>
+        <v>1222</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1195</v>
+        <v>1223</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1196</v>
+        <v>1224</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1197</v>
+        <v>1225</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1198</v>
+        <v>1226</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1199</v>
+        <v>1227</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1200</v>
+        <v>1228</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1201</v>
+        <v>1229</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1203</v>
+        <v>1231</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1204</v>
+        <v>1232</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1205</v>
+        <v>1233</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1206</v>
+        <v>1234</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1207</v>
+        <v>1235</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1208</v>
+        <v>1236</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8194,14 +8282,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1209</v>
+        <v>1237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8211,16 +8299,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>1210</v>
+        <v>1238</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1211</v>
+        <v>1239</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1212</v>
+        <v>1240</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1213</v>
+        <v>1241</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8232,16 +8320,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1214</v>
+        <v>1242</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1160</v>
+        <v>1188</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1161</v>
+        <v>1189</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1215</v>
+        <v>1243</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8255,14 +8343,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1216</v>
+        <v>1244</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1217</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>1218</v>
+        <v>1246</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -8274,16 +8362,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1219</v>
+        <v>1247</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1220</v>
+        <v>1248</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1221</v>
+        <v>1249</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8295,14 +8383,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1223</v>
+        <v>1251</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1224</v>
+        <v>1252</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1225</v>
+        <v>1253</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8314,32 +8402,32 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1226</v>
+        <v>1254</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1227</v>
+        <v>1255</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1228</v>
+        <v>1256</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1229</v>
+        <v>1257</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1230</v>
+        <v>1258</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1231</v>
+        <v>1259</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1232</v>
+        <v>1260</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1233</v>
+        <v>1261</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -8382,14 +8470,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1234</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1235</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8400,10 +8488,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1236</v>
+        <v>1264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1237</v>
+        <v>1265</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8411,16 +8499,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1238</v>
+        <v>1266</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1239</v>
+        <v>1267</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1240</v>
+        <v>1268</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1241</v>
+        <v>1269</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8428,112 +8516,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1242</v>
+        <v>1270</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1243</v>
+        <v>1271</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1244</v>
+        <v>1272</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1245</v>
+        <v>1273</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1246</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1247</v>
+        <v>1275</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1248</v>
+        <v>1276</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1249</v>
+        <v>1277</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1250</v>
+        <v>1278</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1251</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1252</v>
+        <v>1280</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1254</v>
+        <v>1282</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1255</v>
+        <v>1283</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1256</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1257</v>
+        <v>1285</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1129</v>
+        <v>1157</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1259</v>
+        <v>1287</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1260</v>
+        <v>1288</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1261</v>
+        <v>1289</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1262</v>
+        <v>1290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1263</v>
+        <v>1291</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1264</v>
+        <v>1292</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1265</v>
+        <v>1293</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1266</v>
+        <v>1294</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1267</v>
+        <v>1295</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1268</v>
+        <v>1296</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1269</v>
+        <v>1297</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1270</v>
+        <v>1298</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1271</v>
+        <v>1299</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8949,7 +9037,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="3"/>
@@ -9074,7 +9162,7 @@
       <c r="B5" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3" t="s">
         <v>212</v>
       </c>
@@ -9524,7 +9612,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -9548,7 +9636,7 @@
       <c r="B2" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3" t="s">
         <v>326</v>
       </c>
@@ -9599,7 +9687,7 @@
       <c r="A5" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C5" s="3"/>
@@ -9753,9 +9841,6 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://colorswall.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10004,7 +10089,7 @@
       <c r="B3" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="3" t="s">
         <v>404</v>
       </c>
@@ -10218,7 +10303,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>457</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -10515,7 +10600,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="25" t="s">
         <v>525</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -10550,7 +10635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>528</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10576,7 +10661,7 @@
       <c r="B2" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3" t="s">
         <v>535</v>
       </c>
@@ -10809,7 +10894,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -10837,10 +10922,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ48"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -10908,7 +10993,7 @@
       <c r="A2" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>600</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -10917,7 +11002,9 @@
       <c r="D2" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>603</v>
       </c>
@@ -10983,75 +11070,76 @@
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AK3" t="s">
         <v>639</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -11059,325 +11147,316 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AH4" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AK4" t="s">
         <v>660</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="AM4"/>
       <c r="AN4"/>
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="19" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>678</v>
+      </c>
+      <c r="AL5" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>682</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="AM5"/>
       <c r="AN5" t="s">
+        <v>680</v>
+      </c>
+      <c r="AO5"/>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="AO5"/>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>692</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AK6" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AM6"/>
       <c r="AN6" t="s">
+        <v>699</v>
+      </c>
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="AO6"/>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="M7" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>708</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF7" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AH7" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AK7" t="s">
         <v>718</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="AM7"/>
       <c r="AN7" t="s">
+        <v>720</v>
+      </c>
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="AO7"/>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>727</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -11438,94 +11517,90 @@
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>747</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>749</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="3"/>
+      <c r="M9" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="AF9" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AH9" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="AH9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="4" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="10" spans="1:43">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -11538,20 +11613,20 @@
         <v>502</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="Y10" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AB10" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>775</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11569,48 +11644,51 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>780</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="Y11" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>786</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>787</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11"/>
@@ -11622,94 +11700,198 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>792</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>793</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="P12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="13" spans="7:14">
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="20" t="s">
         <v>798</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>800</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>801</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="M13" s="4" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="14" spans="7:10">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10">
+        <v>810</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>816</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="16" spans="7:10">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>810</v>
+        <v>823</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>824</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
@@ -11717,6 +11899,13 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11746,134 +11935,134 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>182</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>838</v>
+        <v>866</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>839</v>
+        <v>867</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>843</v>
+        <v>871</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
@@ -11881,334 +12070,334 @@
     </row>
     <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>852</v>
+        <v>880</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>853</v>
+        <v>881</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>855</v>
+        <v>883</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>856</v>
+        <v>884</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="8" t="s">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>859</v>
+        <v>887</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>863</v>
+        <v>891</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>915</v>
+        <v>943</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="3" t="s">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>918</v>
+        <v>946</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="Q10"/>
       <c r="S10" s="3" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="E11" s="3"/>
       <c r="M11"/>
@@ -12217,29 +12406,29 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="S11" s="3" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>936</v>
+        <v>964</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="E12" s="3"/>
       <c r="M12"/>
@@ -12248,73 +12437,73 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>943</v>
+        <v>971</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>944</v>
+        <v>972</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>947</v>
+        <v>975</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>949</v>
+        <v>977</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -12322,219 +12511,219 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>979</v>
+        <v>1007</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>983</v>
+        <v>1011</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1007</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -12542,14 +12731,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
-    <sheet name="导航网站" sheetId="2" r:id="rId2"/>
-    <sheet name="设计网站" sheetId="3" r:id="rId3"/>
+    <sheet name="设计网站" sheetId="3" r:id="rId2"/>
+    <sheet name="导航网站" sheetId="2" r:id="rId3"/>
     <sheet name="配色网站" sheetId="4" r:id="rId4"/>
     <sheet name="书籍搜索" sheetId="5" r:id="rId5"/>
     <sheet name="软件下载" sheetId="7" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1315">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -585,222 +585,6 @@
     <t>一个我为人人，人人为我的免费blender云渲染平台</t>
   </si>
   <si>
-    <t>💎 设计导航</t>
-  </si>
-  <si>
-    <t>（和本站相似，以下每一个导航都汇集了很多 &lt;i  style="color:#bc37e79e;"&gt; 设计人 &lt;/i&gt;常用方方面面）</t>
-  </si>
-  <si>
-    <t>icon-jingxuan</t>
-  </si>
-  <si>
-    <t>其他导航</t>
-  </si>
-  <si>
-    <t>一些非纯设计的导航网站</t>
-  </si>
-  <si>
-    <t>千图设计导航</t>
-  </si>
-  <si>
-    <t>http://hao.58pic.com</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/08/15/tmp2DFfdfed8b6a56b7edb.png</t>
-  </si>
-  <si>
-    <t>千图设计导航 · 可以自定义的设计导</t>
-  </si>
-  <si>
-    <t>神秘的热心网友</t>
-  </si>
-  <si>
-    <t>https://imyshare.com</t>
-  </si>
-  <si>
-    <t>iMyShare - 收集免费实用有趣的东西，做最好的资源导航</t>
-  </si>
-  <si>
-    <t>SBKKO导航</t>
-  </si>
-  <si>
-    <t>http://nav.sbkko.com</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/08/15/tmpE977d93cdc66b18ac1c8.png</t>
-  </si>
-  <si>
-    <t>精选各类博客,书籍,影视,免费素材,免费图片,设计工具,图片搜索等各类强大的网站</t>
-  </si>
-  <si>
-    <t>帮小忙</t>
-  </si>
-  <si>
-    <t>https://tool.browser.qq.com</t>
-  </si>
-  <si>
-    <t>腾讯QQ在线工具箱平台，提供证件照生成，表情包制作，PDF转换，文字提取，二维码生成，数据校验、照片修复、等在线服务</t>
-  </si>
-  <si>
-    <t>广告人的网址导航</t>
-  </si>
-  <si>
-    <t>http://www.addog.vip</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/08/15/adddd93ab4efbd45940c6.png</t>
-  </si>
-  <si>
-    <t>LKs Site</t>
-  </si>
-  <si>
-    <t>https://lkssite.vip</t>
-  </si>
-  <si>
-    <t>B站博主 -LKs- 每一期B站都有视频讲解《良心到难以置信的网站推荐》</t>
-  </si>
-  <si>
-    <t>优设导航</t>
-  </si>
-  <si>
-    <t>http://hao.uisdc.com</t>
-  </si>
-  <si>
-    <t>https://image.uisdc.com/wp-content/uploads/2018/09/nav-dkt-new2018.jpg</t>
-  </si>
-  <si>
-    <t>优设精选设计师网站导航</t>
-  </si>
-  <si>
-    <t>设一个计&lt;i style="font-size:0px"&gt;考研kaoyan设计书籍shejishuji&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>https://kzdh.landall.cn</t>
-  </si>
-  <si>
-    <t>https://kzdh.landall.cn/wp-content/uploads/2022/09/logoliangfssss.png</t>
-  </si>
-  <si>
-    <t>设一个计 | 私人收藏夹,蓝代旗下，考研设计书籍下载</t>
-  </si>
-  <si>
-    <t>设计导航</t>
-  </si>
-  <si>
-    <t>http://hao.shejidaren.com</t>
-  </si>
-  <si>
-    <t>设计导航 - 精选最好的设计网站大全</t>
-  </si>
-  <si>
-    <t>上网导航-海阔蓝</t>
-  </si>
-  <si>
-    <t>https://nav.hklan.top</t>
-  </si>
-  <si>
-    <t>https://nav.hklan.top/data/user/admin/favicon/favicon.ico</t>
-  </si>
-  <si>
-    <t>海阔蓝上网导航 是一款使用PHP + SQLite3/MySQL 开发的简约导航/书签管理器</t>
-  </si>
-  <si>
-    <t>设计百宝箱</t>
-  </si>
-  <si>
-    <t>http://www.shejibox.cn</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/10/30/tmpFDD665baec687eff2334.png</t>
-  </si>
-  <si>
-    <t>设计百宝箱-全球高质量设计师网址导航大全</t>
-  </si>
-  <si>
-    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
-  </si>
-  <si>
-    <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
-  </si>
-  <si>
-    <t>灰大字体导航</t>
-  </si>
-  <si>
-    <t>https://www.pslkzs.com/fonts.php</t>
-  </si>
-  <si>
-    <t>https://www.pslkzs.com/images/favicon.ico</t>
-  </si>
-  <si>
-    <t>网站中标注可商用字体，在所有合法场景下都是可以免费商用的。但不排除版权方或者字体作者突然更改了授权许可方式</t>
-  </si>
-  <si>
-    <t>灰大设计导航</t>
-  </si>
-  <si>
-    <t>https://www.huisezhizhao.com</t>
-  </si>
-  <si>
-    <t>https://www.huisezhizhao.com/nav/images/nav.ico</t>
-  </si>
-  <si>
-    <t>灰色执照创建的设计师导航网站，包含多实用工具👍</t>
-  </si>
-  <si>
-    <t>UI设计师导航网</t>
-  </si>
-  <si>
-    <t>http://so.uigreat.com</t>
-  </si>
-  <si>
-    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
-  </si>
-  <si>
-    <t>设计师网站导航</t>
-  </si>
-  <si>
-    <t>https://dsxdh.com/design</t>
-  </si>
-  <si>
-    <t>大师兄导航下的设计师网址导航模块</t>
-  </si>
-  <si>
-    <t>搜图导航</t>
-  </si>
-  <si>
-    <t>https://www.91sotu.com</t>
-  </si>
-  <si>
-    <t>涵盖了高清无版权图库、创意灵感、素材资源、教程文章、设计工具、绘画涂鸦、建模贴图、设计社区、字体下载、图标下载等领域</t>
-  </si>
-  <si>
-    <t>Seeseed</t>
-  </si>
-  <si>
-    <t>https://www.seeseed.com</t>
-  </si>
-  <si>
-    <t>设计素材资源导航，无穷尽设计可能, 为设计师提供国内外最全的设计灵感、设计素材、设计工具、设计教程</t>
-  </si>
-  <si>
-    <t>doyoudo资源导航</t>
-  </si>
-  <si>
-    <t>https://doyoudo.com/resources</t>
-  </si>
-  <si>
-    <t>由doyoudo作者们精心挑选的、免费、好用、国内也能打开的设计资源</t>
-  </si>
-  <si>
-    <t>Boss设计导航</t>
-  </si>
-  <si>
-    <t>https://nav.bossdesign.cn/?z-l.top</t>
-  </si>
-  <si>
-    <t>航整理收录了优秀国外设计网站，包含各式各样优质的设计资源和设计神器，比如创意灵感、素材图库、在线配色、UI/UX 设计，设计师必备设计导航站。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -977,7 +761,7 @@
     <t>https://www.ui.cn/Public/img/favicon.ico</t>
   </si>
   <si>
-    <t>UI中国用户体验平台,中国用户体验联盟理事单位。国内极具影响力的设计平台之一</t>
+    <t>UI中国用户体验平台,有设计作品和教程分享</t>
   </si>
   <si>
     <t>Instagram &lt;sup&gt; *&lt;/sup&gt;</t>
@@ -1245,6 +1029,249 @@
   </si>
   <si>
     <t>高效的产品设计协作平台 无缝衔接产品、设计、研发流程 降低沟通成本，缩短开发周期，提高工作效率</t>
+  </si>
+  <si>
+    <t>京东设计共享平台</t>
+  </si>
+  <si>
+    <t>https://jelly.jd.com</t>
+  </si>
+  <si>
+    <t>设计师的经验能量补给站！</t>
+  </si>
+  <si>
+    <t>优设文章</t>
+  </si>
+  <si>
+    <t>https://www.uisdc.com/archives</t>
+  </si>
+  <si>
+    <t>创作者每日必读的前沿设计趋势、设计方法论和大厂落地经验之谈</t>
+  </si>
+  <si>
+    <t>jellyStore</t>
+  </si>
+  <si>
+    <t>https://jelly.jd.com/jellyStore/5fead12eb402750151b51d2e#expandAll?0=_&amp;1=b&amp;2=l&amp;3=a&amp;4=n&amp;5=k</t>
+  </si>
+  <si>
+    <t>设计精品双周更新</t>
+  </si>
+  <si>
+    <t>💎 设计导航</t>
+  </si>
+  <si>
+    <t>（和本站相似，以下每一个导航都汇集了很多 &lt;i  style="color:#bc37e79e;"&gt; 设计人 &lt;/i&gt;常用方方面面）</t>
+  </si>
+  <si>
+    <t>icon-jingxuan</t>
+  </si>
+  <si>
+    <t>其他导航</t>
+  </si>
+  <si>
+    <t>一些非纯设计的导航网站</t>
+  </si>
+  <si>
+    <t>千图设计导航</t>
+  </si>
+  <si>
+    <t>http://hao.58pic.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/tmp2DFfdfed8b6a56b7edb.png</t>
+  </si>
+  <si>
+    <t>千图设计导航 · 可以自定义的设计导</t>
+  </si>
+  <si>
+    <t>神秘的热心网友</t>
+  </si>
+  <si>
+    <t>https://imyshare.com</t>
+  </si>
+  <si>
+    <t>iMyShare - 收集免费实用有趣的东西，做最好的资源导航</t>
+  </si>
+  <si>
+    <t>SBKKO导航</t>
+  </si>
+  <si>
+    <t>http://nav.sbkko.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/tmpE977d93cdc66b18ac1c8.png</t>
+  </si>
+  <si>
+    <t>精选各类博客,书籍,影视,免费素材,免费图片,设计工具,图片搜索等各类强大的网站</t>
+  </si>
+  <si>
+    <t>帮小忙</t>
+  </si>
+  <si>
+    <t>https://tool.browser.qq.com</t>
+  </si>
+  <si>
+    <t>腾讯QQ在线工具箱平台，提供证件照生成，表情包制作，PDF转换，文字提取，二维码生成，数据校验、照片修复、等在线服务</t>
+  </si>
+  <si>
+    <t>广告人的网址导航</t>
+  </si>
+  <si>
+    <t>http://www.addog.vip</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/adddd93ab4efbd45940c6.png</t>
+  </si>
+  <si>
+    <t>LKs Site</t>
+  </si>
+  <si>
+    <t>https://lkssite.vip</t>
+  </si>
+  <si>
+    <t>B站博主 -LKs- 每一期B站都有视频讲解《良心到难以置信的网站推荐》</t>
+  </si>
+  <si>
+    <t>优设导航</t>
+  </si>
+  <si>
+    <t>http://hao.uisdc.com</t>
+  </si>
+  <si>
+    <t>https://image.uisdc.com/wp-content/uploads/2018/09/nav-dkt-new2018.jpg</t>
+  </si>
+  <si>
+    <t>优设精选设计师网站导航</t>
+  </si>
+  <si>
+    <t>设一个计&lt;i style="font-size:0px"&gt;考研kaoyan设计书籍shejishuji&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://kzdh.landall.cn</t>
+  </si>
+  <si>
+    <t>https://kzdh.landall.cn/wp-content/uploads/2022/09/logoliangfssss.png</t>
+  </si>
+  <si>
+    <t>设一个计 | 私人收藏夹,蓝代旗下，考研设计书籍下载</t>
+  </si>
+  <si>
+    <t>设计导航</t>
+  </si>
+  <si>
+    <t>http://hao.shejidaren.com</t>
+  </si>
+  <si>
+    <t>设计导航 - 精选最好的设计网站大全</t>
+  </si>
+  <si>
+    <t>上网导航-海阔蓝</t>
+  </si>
+  <si>
+    <t>https://nav.hklan.top</t>
+  </si>
+  <si>
+    <t>https://nav.hklan.top/data/user/admin/favicon/favicon.ico</t>
+  </si>
+  <si>
+    <t>海阔蓝上网导航 是一款使用PHP + SQLite3/MySQL 开发的简约导航/书签管理器</t>
+  </si>
+  <si>
+    <t>设计百宝箱</t>
+  </si>
+  <si>
+    <t>http://www.shejibox.cn</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/10/30/tmpFDD665baec687eff2334.png</t>
+  </si>
+  <si>
+    <t>设计百宝箱-全球高质量设计师网址导航大全</t>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
+  </si>
+  <si>
+    <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
+  </si>
+  <si>
+    <t>灰大字体导航</t>
+  </si>
+  <si>
+    <t>https://www.pslkzs.com/fonts.php</t>
+  </si>
+  <si>
+    <t>https://www.pslkzs.com/images/favicon.ico</t>
+  </si>
+  <si>
+    <t>网站中标注可商用字体，在所有合法场景下都是可以免费商用的。但不排除版权方或者字体作者突然更改了授权许可方式</t>
+  </si>
+  <si>
+    <t>灰大设计导航</t>
+  </si>
+  <si>
+    <t>https://www.huisezhizhao.com</t>
+  </si>
+  <si>
+    <t>https://www.huisezhizhao.com/nav/images/nav.ico</t>
+  </si>
+  <si>
+    <t>灰色执照创建的设计师导航网站，包含多实用工具👍</t>
+  </si>
+  <si>
+    <t>UI设计师导航网</t>
+  </si>
+  <si>
+    <t>http://so.uigreat.com</t>
+  </si>
+  <si>
+    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
+  </si>
+  <si>
+    <t>设计师网站导航</t>
+  </si>
+  <si>
+    <t>https://dsxdh.com/design</t>
+  </si>
+  <si>
+    <t>大师兄导航下的设计师网址导航模块</t>
+  </si>
+  <si>
+    <t>搜图导航</t>
+  </si>
+  <si>
+    <t>https://www.91sotu.com</t>
+  </si>
+  <si>
+    <t>涵盖了高清无版权图库、创意灵感、素材资源、教程文章、设计工具、绘画涂鸦、建模贴图、设计社区、字体下载、图标下载等领域</t>
+  </si>
+  <si>
+    <t>Seeseed</t>
+  </si>
+  <si>
+    <t>https://www.seeseed.com</t>
+  </si>
+  <si>
+    <t>设计素材资源导航，无穷尽设计可能, 为设计师提供国内外最全的设计灵感、设计素材、设计工具、设计教程</t>
+  </si>
+  <si>
+    <t>doyoudo资源导航</t>
+  </si>
+  <si>
+    <t>https://doyoudo.com/resources</t>
+  </si>
+  <si>
+    <t>由doyoudo作者们精心挑选的、免费、好用、国内也能打开的设计资源</t>
+  </si>
+  <si>
+    <t>Boss设计导航</t>
+  </si>
+  <si>
+    <t>https://nav.bossdesign.cn/?z-l.top</t>
+  </si>
+  <si>
+    <t>航整理收录了优秀国外设计网站，包含各式各样优质的设计资源和设计神器，比如创意灵感、素材图库、在线配色、UI/UX 设计，设计师必备设计导航站。</t>
   </si>
   <si>
     <t>🎨 配色网站</t>
@@ -2846,6 +2873,15 @@
     <t>应用图标库 - App高清图标下载，搜索app名称即可下载</t>
   </si>
   <si>
+    <t>blender植物资产</t>
+  </si>
+  <si>
+    <t>https://gscatter.com</t>
+  </si>
+  <si>
+    <t>最大的blender植物资产插件Grasswald 对所有人免费！花草植物盆栽树叶枯树模型资产</t>
+  </si>
+  <si>
     <t>矢量插画下载</t>
   </si>
   <si>
@@ -2921,7 +2957,7 @@
     <t>🖼️ 以图搜图</t>
   </si>
   <si>
-    <t>文件转换</t>
+    <t>转换工具</t>
   </si>
   <si>
     <t>Bigjpg</t>
@@ -3356,6 +3392,15 @@
   </si>
   <si>
     <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
+  </si>
+  <si>
+    <t>Kbps→Mbps</t>
+  </si>
+  <si>
+    <t>https://purecalculators.com/zh-CN/convert-kbps-to-mbps</t>
+  </si>
+  <si>
+    <t>将 Kbps 转换为 Mbps</t>
   </si>
   <si>
     <t>https://wch666.com/api/b/img_zip_new/</t>
@@ -5594,12 +5639,12 @@
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -6041,7 +6086,7 @@
       </c>
       <c r="C1" s="31" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年4月27日</v>
+        <v>最后更新⌚ 2024年4月28日</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>2</v>
@@ -6108,106 +6153,22 @@
         <v>15</v>
       </c>
       <c r="L2" s="27"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
       <c r="R2" s="27"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
       <c r="AD2" s="27"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
       <c r="AJ2" s="27"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
       <c r="AP2" s="27"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
       <c r="AV2" s="27"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
       <c r="BB2" s="27"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
       <c r="BH2" s="28"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
       <c r="BN2" s="28"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="26"/>
       <c r="BT2" s="27"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
       <c r="BZ2" s="27"/>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
       <c r="CF2" s="27"/>
-      <c r="CG2" s="26"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="26"/>
       <c r="CL2" s="27"/>
-      <c r="CM2" s="26"/>
-      <c r="CN2" s="26"/>
-      <c r="CO2" s="26"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
       <c r="CR2" s="29"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="26"/>
-      <c r="CU2" s="26"/>
-      <c r="CV2" s="26"/>
-      <c r="CW2" s="26"/>
       <c r="CX2" s="29"/>
-      <c r="CY2" s="26"/>
-      <c r="CZ2" s="26"/>
-      <c r="DA2" s="26"/>
-      <c r="DB2" s="26"/>
-      <c r="DC2" s="26"/>
       <c r="DD2" s="29"/>
-      <c r="DE2" s="26"/>
-      <c r="DF2" s="26"/>
-      <c r="DG2" s="26"/>
-      <c r="DH2" s="26"/>
       <c r="DI2" s="26" t="s">
         <v>16</v>
       </c>
@@ -6252,17 +6213,12 @@
       <c r="BA3" s="35"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
       <c r="BJ3" s="4"/>
       <c r="BK3" s="36"/>
       <c r="BN3" s="28"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
-      <c r="BW3" s="26"/>
-      <c r="BX3" s="26"/>
-      <c r="BY3" s="26"/>
       <c r="CB3" s="4"/>
       <c r="CC3" s="4"/>
       <c r="CH3" s="4"/>
@@ -6325,8 +6281,6 @@
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
-      <c r="BX4" s="26"/>
-      <c r="BY4" s="26"/>
       <c r="CB4" s="4"/>
       <c r="CH4" s="4"/>
       <c r="CN4" s="4"/>
@@ -6382,8 +6336,6 @@
       <c r="BP5" s="4"/>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
-      <c r="BX5" s="26"/>
-      <c r="BY5" s="26"/>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
       <c r="CH5" s="4"/>
@@ -6566,7 +6518,7 @@
       <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="34"/>
@@ -6616,7 +6568,7 @@
       <c r="A10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="34"/>
@@ -7180,40 +7132,40 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1048</v>
+        <v>1063</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7222,13 +7174,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7238,14 +7190,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7366,14 +7318,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7383,28 +7335,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7413,28 +7365,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -7443,16 +7395,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7508,28 +7460,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7538,50 +7490,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1080</v>
+        <v>1095</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1086</v>
+        <v>1101</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1087</v>
+        <v>1102</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1090</v>
+        <v>1105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1091</v>
+        <v>1106</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>54</v>
@@ -7590,16 +7542,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1093</v>
+        <v>1108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1094</v>
+        <v>1109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1095</v>
+        <v>1110</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7608,142 +7560,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1098</v>
+        <v>1113</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1099</v>
+        <v>1114</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1100</v>
+        <v>1115</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1102</v>
+        <v>1117</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1103</v>
+        <v>1118</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1106</v>
+        <v>1121</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1103</v>
+        <v>1118</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1107</v>
+        <v>1122</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1108</v>
+        <v>1123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1109</v>
+        <v>1124</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1112</v>
+        <v>1127</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1113</v>
+        <v>1128</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1115</v>
+        <v>1130</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1116</v>
+        <v>1131</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1117</v>
+        <v>1132</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1118</v>
+        <v>1133</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1119</v>
+        <v>1134</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1121</v>
+        <v>1136</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1122</v>
+        <v>1137</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1123</v>
+        <v>1138</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1124</v>
+        <v>1139</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1126</v>
+        <v>1141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1127</v>
+        <v>1142</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1129</v>
+        <v>1144</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7751,78 +7703,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1133</v>
+        <v>1148</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1134</v>
+        <v>1149</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1137</v>
+        <v>1152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1140</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1141</v>
+        <v>1156</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1142</v>
+        <v>1157</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1149</v>
+        <v>1164</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7852,28 +7804,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1156</v>
+        <v>1171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1157</v>
+        <v>1172</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7882,14 +7834,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7898,140 +7850,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1166</v>
+        <v>1181</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1169</v>
+        <v>1184</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1170</v>
+        <v>1185</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1171</v>
+        <v>1186</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1177</v>
+        <v>1192</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1182</v>
+        <v>1197</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1184</v>
+        <v>1199</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1185</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -8039,53 +7991,53 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1191</v>
+        <v>1206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1198</v>
+        <v>1213</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1200</v>
+        <v>1215</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1201</v>
+        <v>1216</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1202</v>
+        <v>1217</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8108,150 +8060,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1203</v>
+        <v>1218</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1204</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1205</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1207</v>
+        <v>1222</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1210</v>
+        <v>1225</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1211</v>
+        <v>1226</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1212</v>
+        <v>1227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1213</v>
+        <v>1228</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1214</v>
+        <v>1229</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1215</v>
+        <v>1230</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1216</v>
+        <v>1231</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1215</v>
+        <v>1230</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1217</v>
+        <v>1232</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1221</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1222</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1223</v>
+        <v>1238</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1224</v>
+        <v>1239</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1225</v>
+        <v>1240</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1227</v>
+        <v>1242</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1228</v>
+        <v>1243</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1229</v>
+        <v>1244</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1234</v>
+        <v>1249</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8282,14 +8234,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8299,16 +8251,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1240</v>
+        <v>1255</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8320,16 +8272,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1242</v>
+        <v>1257</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8343,14 +8295,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -8362,16 +8314,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1248</v>
+        <v>1263</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1249</v>
+        <v>1264</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8383,14 +8335,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1251</v>
+        <v>1266</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8402,32 +8354,32 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1258</v>
+        <v>1273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -8470,14 +8422,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1262</v>
+        <v>1277</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1263</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8488,10 +8440,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1265</v>
+        <v>1280</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8499,16 +8451,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1267</v>
+        <v>1282</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8516,112 +8468,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1274</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1276</v>
+        <v>1291</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1279</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1157</v>
+        <v>1172</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1289</v>
+        <v>1304</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1290</v>
+        <v>1305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1291</v>
+        <v>1306</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1292</v>
+        <v>1307</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1293</v>
+        <v>1308</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1294</v>
+        <v>1309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1295</v>
+        <v>1310</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1297</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1298</v>
+        <v>1313</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1299</v>
+        <v>1314</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8674,6 +8626,621 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="5" width="8.88888888888889" style="4"/>
+    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="7" max="11" width="8.88888888888889" style="4"/>
+    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="13" max="17" width="8.88888888888889" style="4"/>
+    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="19" max="16384" width="8.88888888888889" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="M2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="M3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="M4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="G6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="M6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="22.8" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K19"/>
@@ -8691,140 +9258,140 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="3" t="s">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="3"/>
@@ -8834,16 +9401,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="3"/>
@@ -8853,16 +9420,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="3"/>
@@ -8879,10 +9446,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>26</v>
@@ -8890,31 +9457,31 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>310</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>54</v>
@@ -8922,78 +9489,78 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>169</v>
+        <v>321</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>172</v>
+        <v>324</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>177</v>
+        <v>329</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>178</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9009,596 +9576,6 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
-    <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
-    <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
-    <col min="19" max="16384" width="8.88888888888889" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="M2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="M3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="M4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="G5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="M6" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="M7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="M8" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="M9" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="M10" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9619,26 +9596,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="3" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
@@ -9649,14 +9626,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
@@ -9667,14 +9644,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9685,14 +9662,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>334</v>
+        <v>342</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -9703,16 +9680,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -9723,14 +9700,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -9741,62 +9718,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -9859,70 +9836,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -9931,74 +9908,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10033,22 +10010,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10057,133 +10034,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="3" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>54</v>
@@ -10192,286 +10169,286 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -10481,10 +10458,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>54</v>
@@ -10492,51 +10469,51 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -10547,14 +10524,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -10565,14 +10542,14 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10583,14 +10560,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10601,14 +10578,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="G23" s="25" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10636,105 +10613,105 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="22" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="G1" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M1" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="3" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -10742,130 +10719,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
@@ -10873,14 +10850,14 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
@@ -10925,7 +10902,7 @@
   <dimension ref="A1:AQ49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -10949,40 +10926,40 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="11" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="AK1" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="AL1"/>
       <c r="AM1"/>
@@ -10991,155 +10968,155 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AK2" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="19" t="s">
-        <v>621</v>
+      <c r="A3" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="AK3" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -11147,73 +11124,73 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>642</v>
+        <v>650</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="AK4" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="AM4"/>
       <c r="AN4"/>
@@ -11221,386 +11198,386 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>663</v>
+        <v>671</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="S5" s="19" t="s">
-        <v>621</v>
+      <c r="S5" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="AK5" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="AM5"/>
       <c r="AN5" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>682</v>
+        <v>690</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>691</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="AK6" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="AM6"/>
       <c r="AN6" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>701</v>
+        <v>709</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>710</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="AK7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="AM7"/>
       <c r="AN7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>722</v>
+        <v>730</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>731</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="AK8" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="AM8"/>
       <c r="AN8" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>746</v>
+        <v>754</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>755</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>765</v>
+        <v>773</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>774</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -11610,23 +11587,23 @@
         <v>24</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11644,51 +11621,51 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="3" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11"/>
@@ -11701,186 +11678,194 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="4" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>798</v>
+        <v>806</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="21" t="s">
-        <v>805</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>806</v>
+        <v>814</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>815</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>815</v>
+        <v>823</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>824</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>819</v>
+        <v>828</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>824</v>
+        <v>835</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>836</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>830</v>
+        <v>841</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
@@ -11918,8 +11903,8 @@
   <sheetPr/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -11935,134 +11920,134 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
@@ -12070,334 +12055,334 @@
     </row>
     <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="8" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="3" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="Q10"/>
       <c r="S10" s="3" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="E11" s="3"/>
       <c r="M11"/>
@@ -12406,29 +12391,29 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="S11" s="3" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="E12" s="3"/>
       <c r="M12"/>
@@ -12437,73 +12422,82 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:22">
       <c r="A14" s="3" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="S14" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -12511,219 +12505,219 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -12731,14 +12725,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="1319">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -794,7 +794,7 @@
     <t>纹藏Wenzang.art中国纹样线上博物馆</t>
   </si>
   <si>
-    <t>A站 &lt;sup&gt; *&lt;/sup&gt;</t>
+    <t>ArtStation&lt;sup&gt; *&lt;/sup&gt;</t>
   </si>
   <si>
     <t>https://www.artstation.com</t>
@@ -1172,7 +1172,7 @@
     <t>https://nav.hklan.top</t>
   </si>
   <si>
-    <t>https://nav.hklan.top/data/user/admin/favicon/favicon.ico</t>
+    <t>https://nav.hklan.top/wp-content/uploads/2024/04/1714119940-%E5%9C%86%E5%A4%B4%E5%83%8F.png</t>
   </si>
   <si>
     <t>海阔蓝上网导航 是一款使用PHP + SQLite3/MySQL 开发的简约导航/书签管理器</t>
@@ -1322,7 +1322,7 @@
     <t>https://lingdaima.com/jianbianse</t>
   </si>
   <si>
-    <t>https://lingdaima.com/static/img/jianbianse.png</t>
+    <t>http://lingdaima.com/static/img/jianbianse.png</t>
   </si>
   <si>
     <t>在线生成CSS渐变色工具</t>
@@ -1896,10 +1896,19 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI Emoji"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>⚙</t>
+      <t>‍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
     </r>
     <r>
       <rPr>
@@ -1908,20 +1917,32 @@
         <rFont val="等线 Light"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 软件插件</t>
+      <t>️浏览器</t>
     </r>
   </si>
   <si>
-    <t>（也包含软件下载)</t>
-  </si>
-  <si>
     <t>icon-annex</t>
   </si>
   <si>
-    <t>PS插件</t>
-  </si>
-  <si>
-    <t>AI插件</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⚙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️软件插件</t>
+    </r>
+  </si>
+  <si>
+    <t>adobe插件以及其他设计软件插件</t>
   </si>
   <si>
     <t>LookAE</t>
@@ -1940,18 +1961,6 @@
   </si>
   <si>
     <t>现在新用户需邀请码（收费）ps插件网-立志帮助更多的中国PS插件用户</t>
-  </si>
-  <si>
-    <t>Astute Graphics&lt;i style="font-size:0px"&gt;ai插件&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>https://www.bilibili.com/video/BV1j24y1j7E6</t>
-  </si>
-  <si>
-    <t>https://astutegraphics.com/images/ag_favicon.png</t>
-  </si>
-  <si>
-    <t>关注up后，会自动发网盘链接，AI的一实用的插件合集</t>
   </si>
   <si>
     <t>extfans</t>
@@ -2129,6 +2138,18 @@
     <t>沉浸式翻译是一款浏览器插件，可以智能识别网页主内容区进行双语翻译，插件支持全平台浏览器，PDF文件翻译，EPUB电子书双语翻译、制作、导出，字幕文件翻译等功能</t>
   </si>
   <si>
+    <t>Astute Graphics&lt;i style="font-size:0px"&gt;ai插件&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1j24y1j7E6</t>
+  </si>
+  <si>
+    <t>https://astutegraphics.com/images/ag_favicon.png</t>
+  </si>
+  <si>
+    <t>关注up后，会自动发网盘链接，AI的一实用的插件合集</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -2152,28 +2173,28 @@
     <t>icon-mianfei-xianxing</t>
   </si>
   <si>
-    <t>icon图标</t>
-  </si>
-  <si>
-    <t>资源站点</t>
+    <t>🔰 icon图标</t>
+  </si>
+  <si>
+    <t>💠 资源站点</t>
   </si>
   <si>
     <t>包含3D资产hdr..音效，VI手册等</t>
   </si>
   <si>
-    <t>PSD样机</t>
-  </si>
-  <si>
-    <t>字体相关</t>
+    <t>🔳 PSD样机</t>
+  </si>
+  <si>
+    <t>🖍️字体相关</t>
   </si>
   <si>
     <t>包含识别字体的网站</t>
   </si>
   <si>
-    <t>音效/视频</t>
-  </si>
-  <si>
-    <t>三D模型</t>
+    <t>🎼🎬 音效/视频</t>
+  </si>
+  <si>
+    <t>🎠 三D模型</t>
   </si>
   <si>
     <t>那些免费的砖</t>
@@ -2951,22 +2972,25 @@
     <t>icon-gongju</t>
   </si>
   <si>
+    <t>🖼️ 在线抠图</t>
+  </si>
+  <si>
+    <t>🖼️ 以图搜图</t>
+  </si>
+  <si>
+    <t>🔁 转换工具</t>
+  </si>
+  <si>
+    <t>Bigjpg</t>
+  </si>
+  <si>
+    <t>https://bigjpg.com</t>
+  </si>
+  <si>
+    <t>AI人工智能图片无损放大 - 使用人工智能深度卷积神经网络(CNN)无损放大图片</t>
+  </si>
+  <si>
     <t>在线抠图</t>
-  </si>
-  <si>
-    <t>🖼️ 以图搜图</t>
-  </si>
-  <si>
-    <t>转换工具</t>
-  </si>
-  <si>
-    <t>Bigjpg</t>
-  </si>
-  <si>
-    <t>https://bigjpg.com</t>
-  </si>
-  <si>
-    <t>AI人工智能图片无损放大 - 使用人工智能深度卷积神经网络(CNN)无损放大图片</t>
   </si>
   <si>
     <t>https://www.remove.bg/zh</t>
@@ -3797,7 +3821,7 @@
     <t>https://space.bilibili.com/449144107</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qrjrlk.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711035618022518784.jpg</t>
   </si>
   <si>
     <r>
@@ -3873,13 +3897,13 @@
     <t>http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qsic8k.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711035828742828032.jpg</t>
   </si>
   <si>
     <t>👍【虚幻4】UE4初学者系列教程合集-全中文新手入门教程</t>
   </si>
   <si>
-    <t>buttom djtj</t>
+    <t>buttom 禹</t>
   </si>
   <si>
     <t>开源AI冒险社区</t>
@@ -3921,7 +3945,7 @@
     <t>http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qt5gvs.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711035969362460672.jpg</t>
   </si>
   <si>
     <t>孙慢慢字体设计</t>
@@ -3933,7 +3957,7 @@
     <t>http://space.bilibili.com/25433581</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qtgf9o.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711035912371630080.jpg</t>
   </si>
   <si>
     <t>up主京译达雅（PS,AI,PR,AE,C4D等教程）</t>
@@ -3945,7 +3969,7 @@
     <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qu1mn3.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711036409548681216.jpg</t>
   </si>
   <si>
     <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
@@ -3957,7 +3981,7 @@
     <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qul9vs.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711037518289002496.jpg</t>
   </si>
   <si>
     <t>Pr2015教程全57集</t>
@@ -3969,19 +3993,19 @@
     <t>https://www.bilibili.com/video/BV1As4y127HW</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qv0x0u.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711037815131185152.jpg</t>
   </si>
   <si>
     <t>B站首门系统的AI绘画入门教程,零基础玩转StableDiffusion就看这个系列的视频了！</t>
   </si>
   <si>
-    <t>系列AE教程</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
-  </si>
-  <si>
-    <t>http://img.errui.top/i/2023/10/21/qv8158.webp</t>
+    <t>GenJi是真想教会你</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/49746395</t>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711038368808964096.jpg</t>
   </si>
   <si>
     <t>AE软件课程入门【2018全套零基础AE教程】</t>
@@ -3993,7 +4017,7 @@
     <t>https://www.bilibili.com/video/BV1QY411P7E7</t>
   </si>
   <si>
-    <t>http://img.errui.top/i/2023/10/21/qwulmq.webp</t>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240504/711037038937538560.jpg</t>
   </si>
   <si>
     <t>👍敬伟PS教程全集，建议初学者看这个，特别详细！！！</t>
@@ -4438,6 +4462,9 @@
     <t>https://www.daoshipingjia.org</t>
   </si>
   <si>
+    <t>https://www.daoshipingjia.org/assets/logo.png</t>
+  </si>
+  <si>
     <t>无需登录即可搜索学校、导师</t>
   </si>
   <si>
@@ -4572,6 +4599,15 @@
     </r>
   </si>
   <si>
+    <t>音乐搜索器</t>
+  </si>
+  <si>
+    <t>https://www.yeyulingfeng.com/tools/music</t>
+  </si>
+  <si>
+    <t>无广告，不需要登陆注册，即可解析下载各大平台音乐</t>
+  </si>
+  <si>
     <t>网易云音乐</t>
   </si>
   <si>
@@ -4662,7 +4698,7 @@
     <t>https://nav.1888866.xyz</t>
   </si>
   <si>
-    <t>https://tools.wjqserver.xyz/https://raw.githubusercontent.com/WJQSERVER/blogimage/main/web-resource/wjqserver-studio.ico</t>
+    <t>https://q2.qlogo.cn/headimg_dl?dst_uin=107975154&amp;spec=100</t>
   </si>
   <si>
     <t>WJQ大佬的导航网站：京东代挂、饿了么代挂等</t>
@@ -4847,7 +4883,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -4867,6 +4903,20 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="等线 Light"/>
@@ -4879,23 +4929,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4918,7 +4954,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4931,6 +4972,12 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5431,153 +5478,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5597,23 +5644,31 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5622,11 +5677,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5635,12 +5686,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5652,15 +5699,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5680,35 +5733,35 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6038,106 +6091,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="26"/>
-    <col min="6" max="6" width="9" style="27"/>
-    <col min="7" max="11" width="9" style="26"/>
-    <col min="12" max="12" width="9" style="27"/>
-    <col min="13" max="17" width="9" style="26"/>
-    <col min="18" max="18" width="9" style="27"/>
-    <col min="19" max="23" width="9" style="26"/>
-    <col min="24" max="24" width="9" style="27"/>
-    <col min="25" max="29" width="9" style="26"/>
-    <col min="30" max="30" width="9" style="27"/>
-    <col min="31" max="35" width="9" style="26"/>
-    <col min="36" max="36" width="9" style="27"/>
-    <col min="37" max="41" width="9" style="26"/>
-    <col min="42" max="42" width="9" style="27"/>
-    <col min="43" max="47" width="9" style="26"/>
-    <col min="48" max="48" width="9" style="27"/>
-    <col min="49" max="53" width="9" style="26"/>
-    <col min="54" max="54" width="9" style="27"/>
-    <col min="55" max="59" width="9" style="26"/>
-    <col min="60" max="60" width="9" style="28"/>
-    <col min="61" max="65" width="9" style="26"/>
-    <col min="66" max="66" width="9" style="27"/>
-    <col min="67" max="71" width="9" style="26"/>
-    <col min="72" max="72" width="9" style="27"/>
-    <col min="73" max="77" width="9" style="26"/>
-    <col min="78" max="78" width="9" style="27"/>
-    <col min="79" max="83" width="9" style="26"/>
-    <col min="84" max="84" width="9" style="27"/>
-    <col min="85" max="89" width="9" style="26"/>
-    <col min="90" max="90" width="9" style="27"/>
-    <col min="91" max="95" width="9" style="26"/>
-    <col min="96" max="96" width="9" style="29"/>
-    <col min="97" max="101" width="9" style="26"/>
-    <col min="102" max="102" width="9" style="29"/>
-    <col min="103" max="107" width="9" style="26"/>
-    <col min="108" max="108" width="9" style="29"/>
-    <col min="109" max="16384" width="9" style="26"/>
+    <col min="1" max="5" width="9" style="28"/>
+    <col min="6" max="6" width="9" style="29"/>
+    <col min="7" max="11" width="9" style="28"/>
+    <col min="12" max="12" width="9" style="29"/>
+    <col min="13" max="17" width="9" style="28"/>
+    <col min="18" max="18" width="9" style="29"/>
+    <col min="19" max="23" width="9" style="28"/>
+    <col min="24" max="24" width="9" style="29"/>
+    <col min="25" max="29" width="9" style="28"/>
+    <col min="30" max="30" width="9" style="29"/>
+    <col min="31" max="35" width="9" style="28"/>
+    <col min="36" max="36" width="9" style="29"/>
+    <col min="37" max="41" width="9" style="28"/>
+    <col min="42" max="42" width="9" style="29"/>
+    <col min="43" max="47" width="9" style="28"/>
+    <col min="48" max="48" width="9" style="29"/>
+    <col min="49" max="53" width="9" style="28"/>
+    <col min="54" max="54" width="9" style="29"/>
+    <col min="55" max="59" width="9" style="28"/>
+    <col min="60" max="60" width="9" style="30"/>
+    <col min="61" max="65" width="9" style="28"/>
+    <col min="66" max="66" width="9" style="29"/>
+    <col min="67" max="71" width="9" style="28"/>
+    <col min="72" max="72" width="9" style="29"/>
+    <col min="73" max="77" width="9" style="28"/>
+    <col min="78" max="78" width="9" style="29"/>
+    <col min="79" max="83" width="9" style="28"/>
+    <col min="84" max="84" width="9" style="29"/>
+    <col min="85" max="89" width="9" style="28"/>
+    <col min="90" max="90" width="9" style="29"/>
+    <col min="91" max="95" width="9" style="28"/>
+    <col min="96" max="96" width="9" style="31"/>
+    <col min="97" max="101" width="9" style="28"/>
+    <col min="102" max="102" width="9" style="31"/>
+    <col min="103" max="107" width="9" style="28"/>
+    <col min="108" max="108" width="9" style="31"/>
+    <col min="109" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="33" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年4月28日</v>
-      </c>
-      <c r="D1" s="32" t="s">
+        <v>最后更新⌚ 2024年5月4日</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="DE1" s="13"/>
-    </row>
-    <row r="2" s="26" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="26" t="s">
+      <c r="M1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CM1" s="15"/>
+      <c r="CS1" s="15"/>
+      <c r="CY1" s="15"/>
+      <c r="DE1" s="15"/>
+    </row>
+    <row r="2" s="28" customFormat="1" ht="13.8" spans="1:113">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -6146,76 +6199,76 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BH2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BT2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CL2" s="27"/>
-      <c r="CR2" s="29"/>
-      <c r="CX2" s="29"/>
-      <c r="DD2" s="29"/>
-      <c r="DI2" s="26" t="s">
+      <c r="L2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BH2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BT2" s="29"/>
+      <c r="BZ2" s="29"/>
+      <c r="CF2" s="29"/>
+      <c r="CL2" s="29"/>
+      <c r="CR2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DI2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="37"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="37"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="38"/>
-      <c r="AC3" s="35"/>
+      <c r="AA3" s="40"/>
+      <c r="AC3" s="37"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="35"/>
+      <c r="AI3" s="37"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="38"/>
-      <c r="BA3" s="35"/>
+      <c r="AY3" s="40"/>
+      <c r="BA3" s="37"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="36"/>
-      <c r="BN3" s="28"/>
+      <c r="BK3" s="38"/>
+      <c r="BN3" s="30"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6227,56 +6280,56 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="40"/>
+      <c r="CX3" s="42"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="40"/>
+      <c r="DD3" s="42"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="37"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="36"/>
+      <c r="Q4" s="38"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="36"/>
-      <c r="AC4" s="36"/>
+      <c r="AA4" s="38"/>
+      <c r="AC4" s="38"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="38"/>
-      <c r="AU4" s="35"/>
+      <c r="AS4" s="40"/>
+      <c r="AU4" s="37"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="35"/>
+      <c r="BG4" s="37"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="36"/>
+      <c r="BK4" s="38"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6287,50 +6340,50 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="41"/>
+      <c r="CV4" s="43"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
     <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="37"/>
+      <c r="G5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="37"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="35"/>
+      <c r="Q5" s="37"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="35"/>
+      <c r="AU5" s="37"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="39"/>
+      <c r="BF5" s="41"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6348,7 +6401,7 @@
       <c r="DG5" s="4"/>
     </row>
     <row r="6" ht="13.8" spans="1:112">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6357,10 +6410,10 @@
       <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="28" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6369,16 +6422,16 @@
       <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="37"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="35"/>
+      <c r="Q6" s="37"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="38"/>
-      <c r="W6" s="35"/>
+      <c r="U6" s="40"/>
+      <c r="W6" s="37"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6387,9 +6440,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="35"/>
+      <c r="BG6" s="37"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="36"/>
+      <c r="BK6" s="38"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6400,22 +6453,22 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="34"/>
-      <c r="DG6" s="34"/>
-      <c r="DH6" s="41"/>
+      <c r="DF6" s="36"/>
+      <c r="DG6" s="36"/>
+      <c r="DH6" s="43"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="28" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6424,16 +6477,16 @@
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="37"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="36"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="38"/>
+      <c r="Q7" s="37"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="36"/>
-      <c r="W7" s="36"/>
+      <c r="U7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6454,23 +6507,23 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="34"/>
+      <c r="DF7" s="36"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="28" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6479,12 +6532,12 @@
       <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="28" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="35"/>
+      <c r="Q8" s="37"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6494,7 +6547,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="36"/>
+      <c r="AU8" s="38"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6511,21 +6564,21 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="34"/>
-      <c r="DG8" s="34"/>
+      <c r="DF8" s="36"/>
+      <c r="DG8" s="36"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="28" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6534,12 +6587,12 @@
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="28" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="37"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6558,39 +6611,39 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="34"/>
+      <c r="CU9" s="36"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="34"/>
-      <c r="DG9" s="34"/>
+      <c r="DF9" s="36"/>
+      <c r="DG9" s="36"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="39" t="s">
         <v>69</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="28" t="s">
         <v>70</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="37"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6599,7 +6652,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="35"/>
+      <c r="AO10" s="37"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6608,7 +6661,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="34"/>
+      <c r="BQ10" s="36"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6617,37 +6670,37 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="28" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="28" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="37"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="36"/>
-      <c r="AO11" s="36"/>
+      <c r="AM11" s="38"/>
+      <c r="AO11" s="38"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6656,35 +6709,35 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="34"/>
+      <c r="BQ11" s="36"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="34"/>
+      <c r="DF11" s="36"/>
+      <c r="DG11" s="36"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="28" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="26" t="s">
+      <c r="I12" s="40"/>
+      <c r="J12" s="28" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="5"/>
@@ -6702,20 +6755,20 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="34"/>
+      <c r="CU12" s="36"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="28" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6724,7 +6777,7 @@
       <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="28" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="4"/>
@@ -6734,18 +6787,18 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="36"/>
+      <c r="BE13" s="38"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="34"/>
+      <c r="CN13" s="36"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="28" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -6754,10 +6807,10 @@
       <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="28" t="s">
         <v>54</v>
       </c>
       <c r="N14" s="4"/>
@@ -6774,18 +6827,18 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="34"/>
+      <c r="CN14" s="36"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="28" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="28" t="s">
         <v>96</v>
       </c>
       <c r="N15" s="4"/>
@@ -6796,7 +6849,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="36"/>
+      <c r="BE15" s="38"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -6805,14 +6858,14 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="28" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="36"/>
+      <c r="J16" s="28" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="4"/>
@@ -6831,13 +6884,13 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="28" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="4"/>
@@ -6848,16 +6901,16 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="36"/>
+      <c r="BE17" s="38"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="36"/>
+      <c r="BK17" s="38"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="28" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -6866,7 +6919,7 @@
       <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="28" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="4"/>
@@ -6902,7 +6955,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="36"/>
+      <c r="AF20" s="38"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -6917,7 +6970,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="24"/>
+      <c r="AX21" s="25"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -6945,9 +6998,9 @@
       <c r="CC24" s="4"/>
     </row>
     <row r="25" ht="13.8" spans="2:80">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="BV25" s="5"/>
@@ -6955,21 +7008,21 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="36"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="36"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="38"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="36"/>
+      <c r="BE27" s="38"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
@@ -6982,16 +7035,16 @@
       <c r="CC28" s="4"/>
     </row>
     <row r="29" ht="13.8" spans="2:80">
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="36"/>
       <c r="T29" s="5"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="36"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="36"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -7008,7 +7061,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="17"/>
+      <c r="BU32" s="18"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7035,7 +7088,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="36"/>
+      <c r="CC36" s="38"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7055,7 +7108,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="18"/>
+      <c r="BW40" s="19"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7072,7 +7125,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="24"/>
+      <c r="CB43" s="25"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7091,12 +7144,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="24"/>
+      <c r="CB49" s="25"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="24"/>
-      <c r="CC50" s="34"/>
+      <c r="CB50" s="25"/>
+      <c r="CC50" s="36"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7124,21 +7177,21 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="14"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="14"/>
     <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>1057</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7146,7 +7199,7 @@
       <c r="A2" t="s">
         <v>1058</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>1059</v>
       </c>
       <c r="C2"/>
@@ -7160,7 +7213,7 @@
       <c r="A3" t="s">
         <v>1061</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>1062</v>
       </c>
       <c r="C3"/>
@@ -7176,13 +7229,13 @@
       <c r="A4" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>1065</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7192,32 +7245,32 @@
       <c r="A5" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="11"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7226,7 +7279,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7236,14 +7289,14 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -7283,7 +7336,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -7317,7 +7370,7 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>1070</v>
       </c>
       <c r="B1" s="3"/>
@@ -7411,7 +7464,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -7452,8 +7505,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -7471,7 +7524,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1090</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7480,10 +7533,10 @@
       <c r="C2" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
@@ -7501,7 +7554,7 @@
       <c r="D3" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>1098</v>
       </c>
       <c r="F3" s="1"/>
@@ -7516,7 +7569,7 @@
       <c r="C4" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>1102</v>
       </c>
       <c r="E4" s="3"/>
@@ -7529,13 +7582,13 @@
       <c r="B5" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>1105</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="1"/>
@@ -7565,7 +7618,7 @@
       <c r="B7" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>1113</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -7631,7 +7684,7 @@
       <c r="B11" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>1129</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -7646,7 +7699,7 @@
       <c r="B12" s="4" t="s">
         <v>1132</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>1133</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -7661,7 +7714,7 @@
       <c r="B13" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>1137</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -7676,7 +7729,7 @@
       <c r="B14" s="4" t="s">
         <v>1140</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>1141</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -7691,7 +7744,7 @@
       <c r="B15" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>1145</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -7705,10 +7758,10 @@
       <c r="A16" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>1149</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -7723,7 +7776,7 @@
       <c r="B17" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>1153</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -7797,7 +7850,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -8035,13 +8088,18 @@
       <c r="B17" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>1217</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E17" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" display="https://www.daoshipingjia.org/assets/logo.png"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8060,150 +8118,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>1222</v>
+      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>1225</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8224,17 +8282,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8250,15 +8308,13 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1255</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>1256</v>
       </c>
@@ -8275,17 +8331,15 @@
         <v>1257</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1204</v>
+        <v>1258</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>1260</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -8295,16 +8349,20 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>1261</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1204</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>1262</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -8314,14 +8372,12 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B5" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>1264</v>
       </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
         <v>1265</v>
       </c>
@@ -8337,12 +8393,14 @@
       <c r="A6" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>1268</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8354,14 +8412,12 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B7" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>1271</v>
       </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>1272</v>
       </c>
@@ -8372,7 +8428,7 @@
       <c r="A8" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>1274</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -8385,10 +8441,18 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1280</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
@@ -8400,7 +8464,17 @@
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.yeyulingfeng.com/tools/music"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8411,8 +8485,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -8422,14 +8496,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8440,10 +8514,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8451,16 +8525,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1283</v>
+        <v>1286</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1287</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8468,112 +8542,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1172</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8620,6 +8694,9 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://q2.qlogo.cn/headimg_dl?dst_uin=107975154&amp;spec=100"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8630,30 +8707,30 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="14"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="14"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="14"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -8694,7 +8771,7 @@
       <c r="M2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>119</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -8727,7 +8804,7 @@
       <c r="M3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8757,7 +8834,7 @@
       <c r="M4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="8" t="s">
         <v>136</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -8771,11 +8848,11 @@
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
       <c r="G5" s="3" t="s">
         <v>141</v>
       </c>
@@ -8792,7 +8869,7 @@
       <c r="M5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="8" t="s">
         <v>145</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -8806,11 +8883,11 @@
       <c r="B6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="G6" s="3" t="s">
         <v>150</v>
       </c>
@@ -8827,7 +8904,7 @@
       <c r="M6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="8" t="s">
         <v>155</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -8862,7 +8939,7 @@
       <c r="M7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="8" t="s">
         <v>165</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -8897,7 +8974,7 @@
       <c r="M8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="8" t="s">
         <v>175</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -8934,7 +9011,7 @@
       <c r="M9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="8" t="s">
         <v>186</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -8969,7 +9046,7 @@
       <c r="M10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="8" t="s">
         <v>195</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -9192,7 +9269,7 @@
       <c r="A21" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="8" t="s">
         <v>251</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -9203,7 +9280,7 @@
       <c r="A22" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C22" s="3"/>
@@ -9218,7 +9295,7 @@
       <c r="A23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C23" s="3"/>
@@ -9246,18 +9323,18 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="14"/>
     <col min="7" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9266,7 +9343,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>261</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -9289,7 +9366,7 @@
       <c r="D2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="G2" s="3" t="s">
         <v>268</v>
       </c>
@@ -9315,7 +9392,7 @@
       <c r="D3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="G3" s="3" t="s">
         <v>275</v>
       </c>
@@ -9341,7 +9418,7 @@
       <c r="D4" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>281</v>
       </c>
@@ -9367,7 +9444,7 @@
       <c r="D5" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
       <c r="G5" s="3" t="s">
         <v>288</v>
       </c>
@@ -9389,30 +9466,39 @@
       <c r="B6" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>302</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -9420,18 +9506,20 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>304</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -9440,126 +9528,109 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>312</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>311</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9589,7 +9660,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -9613,11 +9684,11 @@
       <c r="B2" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -9631,11 +9702,11 @@
       <c r="B3" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -9664,7 +9735,7 @@
       <c r="A5" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C5" s="3"/>
@@ -9675,7 +9746,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
@@ -9685,7 +9756,7 @@
       <c r="B6" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>347</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -9818,6 +9889,9 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="http://lingdaima.com/static/img/jianbianse.png"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9859,7 +9933,7 @@
       <c r="D2" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
@@ -10066,11 +10140,11 @@
       <c r="B3" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -10099,7 +10173,7 @@
       <c r="D4" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>421</v>
       </c>
@@ -10180,7 +10254,7 @@
       <c r="D7" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="G7" s="3" t="s">
         <v>440</v>
       </c>
@@ -10249,7 +10323,7 @@
       <c r="J9" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
@@ -10272,18 +10346,18 @@
       <c r="H10" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>467</v>
       </c>
       <c r="C11" s="4"/>
@@ -10495,10 +10569,10 @@
       <c r="A19" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>520</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -10526,7 +10600,7 @@
       <c r="G20" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="8" t="s">
         <v>526</v>
       </c>
       <c r="I20" s="3"/>
@@ -10544,7 +10618,7 @@
       <c r="G21" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="8" t="s">
         <v>529</v>
       </c>
       <c r="I21" s="3"/>
@@ -10562,7 +10636,7 @@
       <c r="G22" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="8" t="s">
         <v>532</v>
       </c>
       <c r="I22" s="3"/>
@@ -10577,10 +10651,10 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="8" t="s">
         <v>535</v>
       </c>
       <c r="I23" s="3"/>
@@ -10598,10 +10672,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -10611,107 +10685,93 @@
     <col min="18" max="18" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="14.4" spans="1:8">
       <c r="A1" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>538</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>540</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="11"/>
+      <c r="G2" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -10726,142 +10786,154 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="3"/>
@@ -10871,7 +10943,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -10901,32 +10973,32 @@
   <sheetPr/>
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="14"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="14"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="14"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="12"/>
+    <col min="24" max="24" width="8.88888888888889" style="14"/>
     <col min="25" max="29" width="8.88888888888889" style="4"/>
-    <col min="30" max="30" width="8.88888888888889" style="12"/>
+    <col min="30" max="30" width="8.88888888888889" style="14"/>
     <col min="31" max="35" width="8.88888888888889" style="4"/>
-    <col min="36" max="36" width="8.88888888888889" style="12"/>
+    <col min="36" max="36" width="8.88888888888889" style="14"/>
     <col min="37" max="41" width="8.88888888888889" style="4"/>
-    <col min="42" max="42" width="8.88888888888889" style="12"/>
+    <col min="42" max="42" width="8.88888888888889" style="14"/>
     <col min="43" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="11" t="s">
-        <v>598</v>
+      <c r="A1" s="13" t="s">
+        <v>597</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>110</v>
@@ -10934,32 +11006,32 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AK1" t="s">
         <v>606</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>607</v>
       </c>
       <c r="AL1"/>
       <c r="AM1"/>
@@ -10968,79 +11040,79 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AH2" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AK2" t="s">
         <v>627</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="AM2"/>
       <c r="AN2"/>
@@ -11048,75 +11120,75 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AF3" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AK3" t="s">
         <v>647</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>649</v>
       </c>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -11124,73 +11196,73 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AH4" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AK4" t="s">
         <v>668</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="AM4"/>
       <c r="AN4"/>
@@ -11198,386 +11270,386 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>680</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y5" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>681</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>682</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF5" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AH5" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AK5" t="s">
         <v>686</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" s="8" t="s">
         <v>687</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="AM5"/>
       <c r="AN5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="M6" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF6" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AH6" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AK6" t="s">
         <v>705</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" s="8" t="s">
         <v>706</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="AM6"/>
       <c r="AN6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>719</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AF7" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AH7" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AK7" t="s">
         <v>726</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" s="8" t="s">
         <v>727</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="AM7"/>
       <c r="AN7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF8" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AH8" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AK8" t="s">
         <v>750</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="AM8"/>
       <c r="AN8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>760</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="3" t="s">
-        <v>769</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="AF9" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AH9" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>776</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>777</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -11590,20 +11662,20 @@
         <v>511</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="Y10" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AB10" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>783</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11621,51 +11693,51 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>787</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>788</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>793</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="Y11" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11"/>
@@ -11678,190 +11750,190 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>798</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="8" t="s">
         <v>800</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>801</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="8" t="s">
         <v>812</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>814</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="P15" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>832</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>833</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="8" t="s">
         <v>841</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11903,65 +11975,65 @@
   <sheetPr/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="14"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="14"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="14"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>853</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="10" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="3" t="s">
-        <v>855</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>861</v>
@@ -11999,7 +12071,7 @@
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>870</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -12008,10 +12080,10 @@
       <c r="C3" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="10"/>
       <c r="G3" s="3" t="s">
         <v>874</v>
       </c>
@@ -12054,16 +12126,16 @@
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:23">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>885</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>888</v>
       </c>
@@ -12099,7 +12171,7 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>897</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -12108,10 +12180,10 @@
       <c r="C5" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>901</v>
       </c>
@@ -12213,7 +12285,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>928</v>
@@ -12309,7 +12381,7 @@
       <c r="G9" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>953</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -12321,7 +12393,7 @@
       <c r="N9" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="3" t="s">
         <v>957</v>
       </c>
@@ -12479,7 +12551,7 @@
       <c r="S14" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="T14" s="19" t="s">
+      <c r="T14" s="8" t="s">
         <v>995</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -12573,7 +12645,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>1017</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -12691,7 +12763,7 @@
       <c r="B29" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="3" t="s">
         <v>1047</v>
       </c>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowHeight="13500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1338">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -1001,6 +1001,18 @@
     <t>做图做视频必备_在线设计神器_海量版权素材模板</t>
   </si>
   <si>
+    <t>原研哉</t>
+  </si>
+  <si>
+    <t>https://www.ndc.co.jp/hara/cn</t>
+  </si>
+  <si>
+    <t>https://www.abc.design/wp-content/uploads/2022/07/2022072002541073.png</t>
+  </si>
+  <si>
+    <t>日本平面设计师</t>
+  </si>
+  <si>
     <t>即时设计</t>
   </si>
   <si>
@@ -1056,6 +1068,42 @@
   </si>
   <si>
     <t>设计精品双周更新</t>
+  </si>
+  <si>
+    <t>陈幼坚</t>
+  </si>
+  <si>
+    <t>https://www.alanchandesign.com</t>
+  </si>
+  <si>
+    <t>陈幼坚设计公司</t>
+  </si>
+  <si>
+    <t>王志弘</t>
+  </si>
+  <si>
+    <t>https://wangzhihong.com</t>
+  </si>
+  <si>
+    <t>台湾平面设计师</t>
+  </si>
+  <si>
+    <t>靳刘高设计</t>
+  </si>
+  <si>
+    <t>http://www.klandk.com</t>
+  </si>
+  <si>
+    <t>靳刘高设计公司</t>
+  </si>
+  <si>
+    <t>理所设计</t>
+  </si>
+  <si>
+    <t>http://www.reesaw.com</t>
+  </si>
+  <si>
+    <t>探索吃喝玩乐新体验</t>
   </si>
   <si>
     <t>💎 设计导航</t>
@@ -2176,27 +2224,27 @@
     <t>🔰 icon图标</t>
   </si>
   <si>
+    <t>🎠 三D模型</t>
+  </si>
+  <si>
+    <t>🔳 PSD样机</t>
+  </si>
+  <si>
+    <t>🖍️字体相关</t>
+  </si>
+  <si>
+    <t>包含识别字体的网站</t>
+  </si>
+  <si>
+    <t>🎼🎬 音效/视频</t>
+  </si>
+  <si>
     <t>💠 资源站点</t>
   </si>
   <si>
     <t>包含3D资产hdr..音效，VI手册等</t>
   </si>
   <si>
-    <t>🔳 PSD样机</t>
-  </si>
-  <si>
-    <t>🖍️字体相关</t>
-  </si>
-  <si>
-    <t>包含识别字体的网站</t>
-  </si>
-  <si>
-    <t>🎼🎬 音效/视频</t>
-  </si>
-  <si>
-    <t>🎠 三D模型</t>
-  </si>
-  <si>
     <t>那些免费的砖</t>
   </si>
   <si>
@@ -2218,6 +2266,42 @@
     <t>阿里巴巴矢量图标库</t>
   </si>
   <si>
+    <t>cgtrader</t>
+  </si>
+  <si>
+    <t>https://www.cgtrader.com</t>
+  </si>
+  <si>
+    <t>MOCKUP样机</t>
+  </si>
+  <si>
+    <t>https://mockupplanet.com</t>
+  </si>
+  <si>
+    <t>国外免费样机下载网站  Great Collection of Best Free Mockups From The Web</t>
+  </si>
+  <si>
+    <t>免费中文字体收集计划&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/12828fe3-8806-4350-bfbe-4fc1d032e5db#b767fbea-6aa4-41ce-beea-afddf1e0cf5e</t>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230806/612647991352705024.svg</t>
+  </si>
+  <si>
+    <t>收集自互联网公开信息，由doyoudo.com的展哥维护。</t>
+  </si>
+  <si>
+    <t>免版税视频</t>
+  </si>
+  <si>
+    <t>https://elements.envato.com/stock-video</t>
+  </si>
+  <si>
+    <t>Royalty Free Stock Videos https://elements.envato.com/stock-video</t>
+  </si>
+  <si>
     <t>Poly Haven</t>
   </si>
   <si>
@@ -2225,42 +2309,6 @@
   </si>
   <si>
     <t>3D免费资产库 UE5 Blender hdr 材质</t>
-  </si>
-  <si>
-    <t>MOCKUP样机</t>
-  </si>
-  <si>
-    <t>https://mockupplanet.com</t>
-  </si>
-  <si>
-    <t>国外免费样机下载网站  Great Collection of Best Free Mockups From The Web</t>
-  </si>
-  <si>
-    <t>免费中文字体收集计划&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>https://flowus.cn/share/12828fe3-8806-4350-bfbe-4fc1d032e5db#b767fbea-6aa4-41ce-beea-afddf1e0cf5e</t>
-  </si>
-  <si>
-    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230806/612647991352705024.svg</t>
-  </si>
-  <si>
-    <t>收集自互联网公开信息，由doyoudo.com的展哥维护。</t>
-  </si>
-  <si>
-    <t>免版税视频</t>
-  </si>
-  <si>
-    <t>https://elements.envato.com/stock-video</t>
-  </si>
-  <si>
-    <t>Royalty Free Stock Videos https://elements.envato.com/stock-video</t>
-  </si>
-  <si>
-    <t>cgtrader</t>
-  </si>
-  <si>
-    <t>https://www.cgtrader.com</t>
   </si>
   <si>
     <r>
@@ -2298,6 +2346,36 @@
     <t>169 组开源icon、免费的图标库</t>
   </si>
   <si>
+    <t>sketchfab</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com</t>
+  </si>
+  <si>
+    <t>西田样机</t>
+  </si>
+  <si>
+    <t>https://mockup.sitapix.com</t>
+  </si>
+  <si>
+    <t>专门提供免费高质量的样机素材。包括美妆洗化、食品饮料、包装盒袋、办公用品等，下载链接百度网盘上</t>
+  </si>
+  <si>
+    <t>免费商用字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://www.zifh.com</t>
+  </si>
+  <si>
+    <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
+  </si>
+  <si>
+    <t>免版税音乐</t>
+  </si>
+  <si>
+    <t>https://elements.envato.com/audio/royalty-free-music</t>
+  </si>
+  <si>
     <t>模库网</t>
   </si>
   <si>
@@ -2310,34 +2388,67 @@
     <t>免费设计素材模板下载图库共享网站</t>
   </si>
   <si>
-    <t>西田样机</t>
-  </si>
-  <si>
-    <t>https://mockup.sitapix.com</t>
-  </si>
-  <si>
-    <t>专门提供免费高质量的样机素材。包括美妆洗化、食品饮料、包装盒袋、办公用品等，下载链接百度网盘上</t>
-  </si>
-  <si>
-    <t>免费商用字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://www.zifh.com</t>
-  </si>
-  <si>
-    <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
-  </si>
-  <si>
-    <t>免版税音乐</t>
-  </si>
-  <si>
-    <t>https://elements.envato.com/audio/royalty-free-music</t>
-  </si>
-  <si>
-    <t>sketchfab</t>
-  </si>
-  <si>
-    <t>https://sketchfab.com</t>
+    <t>freepik下载器</t>
+  </si>
+  <si>
+    <t>https://www.52pojie.cn/thread-1852691-1-1.html</t>
+  </si>
+  <si>
+    <t>可下载皇冠素材</t>
+  </si>
+  <si>
+    <t>icon搜索</t>
+  </si>
+  <si>
+    <t>https://icon-sets.iconify.design</t>
+  </si>
+  <si>
+    <t>所有图标集都是开源的</t>
+  </si>
+  <si>
+    <t>3dwarehouse</t>
+  </si>
+  <si>
+    <t>https://3dwarehouse.sketchup.com</t>
+  </si>
+  <si>
+    <t>免费高质量样机</t>
+  </si>
+  <si>
+    <t>http://www.ls.graphics</t>
+  </si>
+  <si>
+    <t>免费高质量样机、插和UI工具</t>
+  </si>
+  <si>
+    <t>猫啃网(免费字体)&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://www.maoken.com</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/10/30/tmp9664bdac1b06592f933c.png</t>
+  </si>
+  <si>
+    <t>免费下载无版权可商用字体-英文中文字体</t>
+  </si>
+  <si>
+    <t>VIDEVO</t>
+  </si>
+  <si>
+    <t>https://www.videvo.net/video/courier-knocking-on-door-to-deliver-parcel/514722/</t>
+  </si>
+  <si>
+    <t>Videvo 是一个提供免费 视频剪辑素材 下载的网站</t>
+  </si>
+  <si>
+    <t>魔酷网</t>
+  </si>
+  <si>
+    <t>https://blender.kim</t>
+  </si>
+  <si>
+    <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
   </si>
   <si>
     <t>Unsplash</t>
@@ -2349,58 +2460,52 @@
     <t>最知名的无版权图片网站，这家以风景为主，数量足够多</t>
   </si>
   <si>
-    <t>icon搜索</t>
-  </si>
-  <si>
-    <t>https://icon-sets.iconify.design</t>
-  </si>
-  <si>
-    <t>所有图标集都是开源的</t>
-  </si>
-  <si>
-    <t>魔酷网</t>
-  </si>
-  <si>
-    <t>https://blender.kim</t>
-  </si>
-  <si>
-    <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
-  </si>
-  <si>
-    <t>免费高质量样机</t>
-  </si>
-  <si>
-    <t>http://www.ls.graphics</t>
-  </si>
-  <si>
-    <t>免费高质量样机、插和UI工具</t>
-  </si>
-  <si>
-    <t>猫啃网(免费字体)&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://www.maoken.com</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/10/30/tmp9664bdac1b06592f933c.png</t>
-  </si>
-  <si>
-    <t>免费下载无版权可商用字体-英文中文字体</t>
-  </si>
-  <si>
-    <t>VIDEVO</t>
-  </si>
-  <si>
-    <t>https://www.videvo.net/video/courier-knocking-on-door-to-deliver-parcel/514722/</t>
-  </si>
-  <si>
-    <t>Videvo 是一个提供免费 视频剪辑素材 下载的网站</t>
-  </si>
-  <si>
-    <t>3dwarehouse</t>
-  </si>
-  <si>
-    <t>https://3dwarehouse.sketchup.com</t>
+    <t>iconmonstr</t>
+  </si>
+  <si>
+    <t>https://iconmonstr.com</t>
+  </si>
+  <si>
+    <t>所有图标皆可免费使用于个人和商业用途，可以免费下载和使用。</t>
+  </si>
+  <si>
+    <t>Live Home 3D</t>
+  </si>
+  <si>
+    <t>https://www.livehome3d.com</t>
+  </si>
+  <si>
+    <t>家居和室内设计软件 适合您所有设备的完美解决方案</t>
+  </si>
+  <si>
+    <t>找字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://zfont.cn</t>
+  </si>
+  <si>
+    <t>免费商用中文字体，显示字体使用许可范围，无套路下载</t>
+  </si>
+  <si>
+    <t>mixkit</t>
+  </si>
+  <si>
+    <t>https://mixkit.co</t>
+  </si>
+  <si>
+    <t>Free assets for your next video project</t>
+  </si>
+  <si>
+    <t>魔顿网</t>
+  </si>
+  <si>
+    <t>http://www.modown.cn/?aff=70874</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.modown.cn.png</t>
+  </si>
+  <si>
+    <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
   </si>
   <si>
     <t>Pixabay中文</t>
@@ -2412,52 +2517,52 @@
     <t>拥有一百万张免费正版高清图片素材，涵盖照片、插画、矢量图、视频等分类</t>
   </si>
   <si>
-    <t>iconmonstr</t>
-  </si>
-  <si>
-    <t>https://iconmonstr.com</t>
-  </si>
-  <si>
-    <t>所有图标皆可免费使用于个人和商业用途，可以免费下载和使用。</t>
-  </si>
-  <si>
-    <t>魔顿网</t>
-  </si>
-  <si>
-    <t>http://www.modown.cn/?aff=70874</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/www.modown.cn.png</t>
-  </si>
-  <si>
-    <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
-  </si>
-  <si>
-    <t>找字体&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>https://zfont.cn</t>
-  </si>
-  <si>
-    <t>免费商用中文字体，显示字体使用许可范围，无套路下载</t>
-  </si>
-  <si>
-    <t>mixkit</t>
-  </si>
-  <si>
-    <t>https://mixkit.co</t>
-  </si>
-  <si>
-    <t>Free assets for your next video project</t>
-  </si>
-  <si>
-    <t>Live Home 3D</t>
-  </si>
-  <si>
-    <t>https://www.livehome3d.com</t>
-  </si>
-  <si>
-    <t>家居和室内设计软件 适合您所有设备的完美解决方案</t>
+    <t>谷歌图标</t>
+  </si>
+  <si>
+    <t>https://fonts.google.com/icons?icon.query=people</t>
+  </si>
+  <si>
+    <t>TurboSquid</t>
+  </si>
+  <si>
+    <t>https://www.turbosquid.com</t>
+  </si>
+  <si>
+    <t>3D Models for Professionals</t>
+  </si>
+  <si>
+    <t>resourceboy（免费）</t>
+  </si>
+  <si>
+    <t>https://resourceboy.com</t>
+  </si>
+  <si>
+    <t>免费样机，缺点是只能英文搜(可以先用本站搜索集成的百度翻译先翻译成英文后搜索)</t>
+  </si>
+  <si>
+    <t>100font&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://www.100font.com</t>
+  </si>
+  <si>
+    <t>coverr</t>
+  </si>
+  <si>
+    <t>https://coverr.co</t>
+  </si>
+  <si>
+    <t>Beautiful Free Stock Video Footage</t>
+  </si>
+  <si>
+    <t>CG模型网</t>
+  </si>
+  <si>
+    <t>https://www.cgmodel.com</t>
+  </si>
+  <si>
+    <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
   </si>
   <si>
     <t>Pexels中文</t>
@@ -2469,214 +2574,157 @@
     <t>支持中文搜索，比较好的一点是有「热门作者排行榜」，平常没事的时候来收收图也挺好的</t>
   </si>
   <si>
-    <t>谷歌图标</t>
-  </si>
-  <si>
-    <t>https://fonts.google.com/icons?icon.query=people</t>
+    <t>免费图标</t>
+  </si>
+  <si>
+    <t>https://www.streamlinehq.com/freebies</t>
+  </si>
+  <si>
+    <t>统一设计感很强</t>
+  </si>
+  <si>
+    <t>free3d</t>
+  </si>
+  <si>
+    <t>https://free3d.com/zh/</t>
+  </si>
+  <si>
+    <t>免费 3D 模型，也有付费模型</t>
+  </si>
+  <si>
+    <t>ANTHONY BOYD GRAPHICS</t>
+  </si>
+  <si>
+    <t>https://www.anthonyboyd.graphics</t>
+  </si>
+  <si>
+    <t>高质量样机，常更新，以及贴图</t>
+  </si>
+  <si>
+    <t>Fonts2u&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>http://zh.fonts2u.com</t>
+  </si>
+  <si>
+    <t>免费上提供了大量的中文字体和英文字体</t>
+  </si>
+  <si>
+    <t>免费视频搜索引擎</t>
+  </si>
+  <si>
+    <t>https://video.librestock.com</t>
+  </si>
+  <si>
+    <t>一个免费且易于使用的视频素材搜索引擎，它的目标是帮助用户快速找到并获取高质量的免费视频素材。该网站汇集了多个提供优质免费视频素材的网站，如DroneStock...</t>
+  </si>
+  <si>
+    <t>爱给网</t>
+  </si>
+  <si>
+    <t>http://aigei.com/design/?m=b_4425938</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/10/30/imagebe36eabde79ccbe2.png</t>
+  </si>
+  <si>
+    <t>免费提供效配乐|3D模型|视频|游戏素材资源下载  PS素材,png素材，PS笔刷，AE模板，MG动画，PS样机 免抠元素 免抠背景 PPT  图库 字体 网页模板 UI界面 灵感</t>
+  </si>
+  <si>
+    <t>影视飓风</t>
+  </si>
+  <si>
+    <t>https://www.ysjf.com/materialLibrary</t>
+  </si>
+  <si>
+    <t>B站up主影视飓风旗下的高清4K免费素材库</t>
+  </si>
+  <si>
+    <t>Noun Project</t>
+  </si>
+  <si>
+    <t>https://thenounproject.com</t>
+  </si>
+  <si>
+    <t>免费图标网站，icon，photo  (来自同事沛沛推荐)</t>
+  </si>
+  <si>
+    <t>紫 沛</t>
+  </si>
+  <si>
+    <t>3DModels</t>
+  </si>
+  <si>
+    <t>https://3dmodels.org/zh/free/</t>
+  </si>
+  <si>
+    <t>免费的数量少</t>
+  </si>
+  <si>
+    <t>MockDrop在线样机</t>
+  </si>
+  <si>
+    <t>https://mockdrop.io</t>
+  </si>
+  <si>
+    <t>在线生成免费样机模型界面</t>
+  </si>
+  <si>
+    <t>免费商用字体</t>
+  </si>
+  <si>
+    <t>https://uiiiuiii.com/tool/typeface</t>
+  </si>
+  <si>
+    <t>https://uiiiuiii.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>优设网收集的免费商用中文字体，还是更推荐猫啃网和找字体—版权更清晰。</t>
+  </si>
+  <si>
+    <t>Filmmusic</t>
+  </si>
+  <si>
+    <t>https://filmmusic.io</t>
+  </si>
+  <si>
+    <t>提供免费可商业用途的音频资源</t>
+  </si>
+  <si>
+    <t>品牌vi手册下载</t>
+  </si>
+  <si>
+    <t>https://brandingstyleguides.com/guide</t>
+  </si>
+  <si>
+    <t>品牌vi手册下载| Branding Style Guides（注册需要科学上网）</t>
+  </si>
+  <si>
+    <t>StockCake</t>
+  </si>
+  <si>
+    <t>https://stockcake.com</t>
+  </si>
+  <si>
+    <t>一个提供人工智能生成照片的网站，网站上提供了数量庞大和多样化的 AI 生成照片</t>
+  </si>
+  <si>
+    <t>免费 Icon</t>
+  </si>
+  <si>
+    <t>https://www.mingcute.com</t>
+  </si>
+  <si>
+    <t>MingCute 一套极简风格的开源图标库，这套图标目前包含线性和填充 2 种图标形式</t>
   </si>
   <si>
     <t>3D溜溜网</t>
   </si>
   <si>
-    <t>https://www.3d66.com</t>
-  </si>
-  <si>
-    <t>3D模型免费下载 打造一流的3DMax模型库</t>
-  </si>
-  <si>
-    <t>resourceboy（免费）</t>
-  </si>
-  <si>
-    <t>https://resourceboy.com</t>
-  </si>
-  <si>
-    <t>免费样机，缺点是只能英文搜(可以先用本站搜索集成的百度翻译先翻译成英文后搜索)</t>
-  </si>
-  <si>
-    <t>100font&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://www.100font.com</t>
-  </si>
-  <si>
-    <t>coverr</t>
-  </si>
-  <si>
-    <t>https://coverr.co</t>
-  </si>
-  <si>
-    <t>Beautiful Free Stock Video Footage</t>
-  </si>
-  <si>
-    <t>TurboSquid</t>
-  </si>
-  <si>
-    <t>https://www.turbosquid.com</t>
-  </si>
-  <si>
-    <t>3D Models for Professionals</t>
-  </si>
-  <si>
-    <t>影视飓风</t>
-  </si>
-  <si>
-    <t>https://www.ysjf.com/materialLibrary</t>
-  </si>
-  <si>
-    <t>B站up主影视飓风旗下的高清4K免费素材库</t>
-  </si>
-  <si>
-    <t>免费图标</t>
-  </si>
-  <si>
-    <t>https://www.streamlinehq.com/freebies</t>
-  </si>
-  <si>
-    <t>统一设计感很强</t>
-  </si>
-  <si>
-    <t>CG模型网</t>
-  </si>
-  <si>
-    <t>https://www.cgmodel.com</t>
-  </si>
-  <si>
-    <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
-  </si>
-  <si>
-    <t>ANTHONY BOYD GRAPHICS</t>
-  </si>
-  <si>
-    <t>https://www.anthonyboyd.graphics</t>
-  </si>
-  <si>
-    <t>高质量样机，常更新，以及贴图</t>
-  </si>
-  <si>
-    <t>Fonts2u&lt;i style="font-size:0px"&gt;ziti&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>http://zh.fonts2u.com</t>
-  </si>
-  <si>
-    <t>免费上提供了大量的中文字体和英文字体</t>
-  </si>
-  <si>
-    <t>免费视频搜索引擎</t>
-  </si>
-  <si>
-    <t>https://video.librestock.com</t>
-  </si>
-  <si>
-    <t>一个免费且易于使用的视频素材搜索引擎，它的目标是帮助用户快速找到并获取高质量的免费视频素材。该网站汇集了多个提供优质免费视频素材的网站，如DroneStock...</t>
-  </si>
-  <si>
-    <t>free3d</t>
-  </si>
-  <si>
-    <t>https://free3d.com/zh/</t>
-  </si>
-  <si>
-    <t>免费 3D 模型，也有付费模型</t>
-  </si>
-  <si>
-    <t>StockCake</t>
-  </si>
-  <si>
-    <t>https://stockcake.com</t>
-  </si>
-  <si>
-    <t>一个提供人工智能生成照片的网站，网站上提供了数量庞大和多样化的 AI 生成照片</t>
-  </si>
-  <si>
-    <t>Noun Project</t>
-  </si>
-  <si>
-    <t>https://thenounproject.com</t>
-  </si>
-  <si>
-    <t>免费图标网站，icon，photo  (来自同事沛沛推荐)</t>
-  </si>
-  <si>
-    <t>紫 沛</t>
-  </si>
-  <si>
-    <t>爱给网</t>
-  </si>
-  <si>
-    <t>http://aigei.com/design/?m=b_4425938</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/10/30/imagebe36eabde79ccbe2.png</t>
-  </si>
-  <si>
-    <t>免费提供效配乐|3D模型|视频|游戏素材资源下载  PS素材,png素材，PS笔刷，AE模板，MG动画，PS样机 免抠元素 免抠背景 PPT  图库 字体 网页模板 UI界面 灵感</t>
-  </si>
-  <si>
-    <t>MockDrop在线样机</t>
-  </si>
-  <si>
-    <t>https://mockdrop.io</t>
-  </si>
-  <si>
-    <t>在线生成免费样机模型界面</t>
-  </si>
-  <si>
-    <t>免费商用字体</t>
-  </si>
-  <si>
-    <t>https://uiiiuiii.com/tool/typeface</t>
-  </si>
-  <si>
-    <t>https://uiiiuiii.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>优设网收集的免费商用中文字体，还是更推荐猫啃网和找字体—版权更清晰。</t>
-  </si>
-  <si>
-    <t>Filmmusic</t>
-  </si>
-  <si>
-    <t>https://filmmusic.io</t>
-  </si>
-  <si>
-    <t>提供免费可商业用途的音频资源</t>
-  </si>
-  <si>
-    <t>3DModels</t>
-  </si>
-  <si>
-    <t>https://3dmodels.org/zh/free/</t>
-  </si>
-  <si>
-    <t>免费的数量少</t>
-  </si>
-  <si>
-    <t>Foodiesfeed</t>
-  </si>
-  <si>
-    <t>https://www.foodiesfeed.com</t>
-  </si>
-  <si>
-    <t>最全食物图片站</t>
-  </si>
-  <si>
-    <t>免费 Icon</t>
-  </si>
-  <si>
-    <t>https://www.mingcute.com</t>
-  </si>
-  <si>
-    <t>MingCute 一套极简风格的开源图标库，这套图标目前包含线性和填充 2 种图标形式</t>
-  </si>
-  <si>
-    <t>品牌vi手册下载</t>
-  </si>
-  <si>
-    <t>https://brandingstyleguides.com/guide</t>
-  </si>
-  <si>
-    <t>品牌vi手册下载| Branding Style Guides（注册需要科学上网）</t>
+    <t>https://3d.3d66.com/model/_1_0_1.html</t>
+  </si>
+  <si>
+    <t>网站中的免费3d模型</t>
   </si>
   <si>
     <t>云米素材（部分免费）</t>
@@ -2707,24 +2755,6 @@
   </si>
   <si>
     <t>来自印度尼西亚的专业合唱团出品的免费商用音乐片段素材库</t>
-  </si>
-  <si>
-    <t>Gratisography</t>
-  </si>
-  <si>
-    <t>https://gratisography.com</t>
-  </si>
-  <si>
-    <t>每周都会更新，图片角度和题材都比较另类，人物图片不少，另外他家的 logo 也比较另类</t>
-  </si>
-  <si>
-    <t>ICONS8</t>
-  </si>
-  <si>
-    <t>https://igoutu.cn/icons</t>
-  </si>
-  <si>
-    <t>相互搭配的1,345,300个免费图标</t>
   </si>
   <si>
     <r>
@@ -2747,6 +2777,24 @@
     </r>
   </si>
   <si>
+    <t>Foodiesfeed</t>
+  </si>
+  <si>
+    <t>https://www.foodiesfeed.com</t>
+  </si>
+  <si>
+    <t>最全食物图片站</t>
+  </si>
+  <si>
+    <t>ICONS8</t>
+  </si>
+  <si>
+    <t>https://igoutu.cn/icons</t>
+  </si>
+  <si>
+    <t>相互搭配的1,345,300个免费图标</t>
+  </si>
+  <si>
     <t>搜字体</t>
   </si>
   <si>
@@ -2759,6 +2807,54 @@
     <t>搜字体网提供图片字体识别、字体搜索、找字体、字体查询、求字体、识别字体、字体在线演示与字体下载服务，是提供给设计师的免费字体识别在线网站</t>
   </si>
   <si>
+    <t>素材资源</t>
+  </si>
+  <si>
+    <t>https://sucaizy.com</t>
+  </si>
+  <si>
+    <t>https://sucaizy.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>免费CG素材免费设计素材分享软件工具分享剪辑模板 PS插件 AE插件 后期模板 建模模型</t>
+  </si>
+  <si>
+    <t>Gratisography</t>
+  </si>
+  <si>
+    <t>https://gratisography.com</t>
+  </si>
+  <si>
+    <t>每周都会更新，图片角度和题材都比较另类，人物图片不少，另外他家的 logo 也比较另类</t>
+  </si>
+  <si>
+    <t>字节跳动图标库</t>
+  </si>
+  <si>
+    <t>https://iconpark.oceanengine.com</t>
+  </si>
+  <si>
+    <t>2600+基础图标icon，29 种图标分类，提供更多的选择</t>
+  </si>
+  <si>
+    <t>识字体网</t>
+  </si>
+  <si>
+    <t>https://www.likefont.com</t>
+  </si>
+  <si>
+    <t>在线字体识别,只需要上传图片即可字体识别搜字体</t>
+  </si>
+  <si>
+    <t>Freebiesupply</t>
+  </si>
+  <si>
+    <t>https://freebiesupply.com</t>
+  </si>
+  <si>
+    <t>全球优秀设计师提供的免费设计资源</t>
+  </si>
+  <si>
     <t>免抠图片网</t>
   </si>
   <si>
@@ -2768,34 +2864,19 @@
     <t>免费的免抠图片素材网站,png透明背景图片素材库，支持以图搜图功能，提供了海量的高质量免抠图片素材免费下载，专门为设计师搜索和分享优质的无背景图和剪贴画，用户无需注册即可免费下载使用。</t>
   </si>
   <si>
-    <t>字节跳动图标库</t>
-  </si>
-  <si>
-    <t>https://iconpark.oceanengine.com</t>
-  </si>
-  <si>
-    <t>2600+基础图标icon，29 种图标分类，提供更多的选择</t>
-  </si>
-  <si>
-    <t>素材资源</t>
-  </si>
-  <si>
-    <t>https://sucaizy.com</t>
-  </si>
-  <si>
-    <t>https://sucaizy.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>免费CG素材免费设计素材分享软件工具分享剪辑模板 PS插件 AE插件 后期模板 建模模型</t>
-  </si>
-  <si>
-    <t>识字体网</t>
-  </si>
-  <si>
-    <t>https://www.likefont.com</t>
-  </si>
-  <si>
-    <t>在线字体识别,只需要上传图片即可字体识别搜字体</t>
+    <t>IconBrew</t>
+  </si>
+  <si>
+    <t>https://iconbrew.com</t>
+  </si>
+  <si>
+    <t>国外免费开源的图标库</t>
+  </si>
+  <si>
+    <t>Istockphoto</t>
+  </si>
+  <si>
+    <t>https://www.istockphoto.com</t>
   </si>
   <si>
     <t>PNG素材网</t>
@@ -2807,22 +2888,22 @@
     <t>PNG素材网提供免费的PNG图片下载服务，并保持内容的持续更新。</t>
   </si>
   <si>
-    <t>IconBrew</t>
-  </si>
-  <si>
-    <t>https://iconbrew.com</t>
-  </si>
-  <si>
-    <t>国外免费开源的图标库</t>
-  </si>
-  <si>
-    <t>Freebiesupply</t>
-  </si>
-  <si>
-    <t>https://freebiesupply.com</t>
-  </si>
-  <si>
-    <t>全球优秀设计师提供的免费设计资源</t>
+    <t>矢量图标</t>
+  </si>
+  <si>
+    <t>https://www.brandsoftheworld.com</t>
+  </si>
+  <si>
+    <t>免费提供下载的矢量标志库</t>
+  </si>
+  <si>
+    <t>视觉传达</t>
+  </si>
+  <si>
+    <t>https://shijuechuanda.com</t>
+  </si>
+  <si>
+    <t>免费素材共享平台，专注海外商业设计精品素材。PS插件,PS动作,PS软件,AI,软件设计软件,图层样式,PS笔刷,AI笔刷,AI动作</t>
   </si>
   <si>
     <t>Pngimg</t>
@@ -2834,19 +2915,22 @@
     <t>提供了海量的高质量 PNG 图片，专门为设计师搜索和分享优质的无背景图和剪贴画，用户无需注册即可免费下载使用！</t>
   </si>
   <si>
-    <t>矢量图标</t>
-  </si>
-  <si>
-    <t>https://www.brandsoftheworld.com</t>
-  </si>
-  <si>
-    <t>免费提供下载的矢量标志库</t>
-  </si>
-  <si>
-    <t>Istockphoto</t>
-  </si>
-  <si>
-    <t>https://www.istockphoto.com</t>
+    <t>logo下载</t>
+  </si>
+  <si>
+    <t>https://worldvectorlogo.com/search/xiaomi</t>
+  </si>
+  <si>
+    <t>可以下载各种品牌的矢量logo</t>
+  </si>
+  <si>
+    <t>blender植物资产</t>
+  </si>
+  <si>
+    <t>https://gscatter.com</t>
+  </si>
+  <si>
+    <t>最大的blender植物资产插件Grasswald 对所有人免费！花草植物盆栽树叶枯树模型资产</t>
   </si>
   <si>
     <t>CleanPNG</t>
@@ -2858,22 +2942,13 @@
     <t>数百万高清PNG，无限免费下载</t>
   </si>
   <si>
-    <t>logo下载</t>
-  </si>
-  <si>
-    <t>https://worldvectorlogo.com/search/xiaomi</t>
-  </si>
-  <si>
-    <t>可以下载各种品牌的矢量logo</t>
-  </si>
-  <si>
-    <t>视觉传达</t>
-  </si>
-  <si>
-    <t>https://shijuechuanda.com</t>
-  </si>
-  <si>
-    <t>免费素材共享平台，专注海外商业设计精品素材。PS插件,PS动作,PS软件,AI,软件设计软件,图层样式,PS笔刷,AI笔刷,AI动作</t>
+    <t>App图标</t>
+  </si>
+  <si>
+    <t>https://icon.zhheo.com</t>
+  </si>
+  <si>
+    <t>应用图标库 - App高清图标下载，搜索app名称即可下载</t>
   </si>
   <si>
     <t>PNGDirs</t>
@@ -2885,22 +2960,13 @@
     <t>10万+PNG图片素材免费下载，透明背景图片，无需抠图</t>
   </si>
   <si>
-    <t>App图标</t>
-  </si>
-  <si>
-    <t>https://icon.zhheo.com</t>
-  </si>
-  <si>
-    <t>应用图标库 - App高清图标下载，搜索app名称即可下载</t>
-  </si>
-  <si>
-    <t>blender植物资产</t>
-  </si>
-  <si>
-    <t>https://gscatter.com</t>
-  </si>
-  <si>
-    <t>最大的blender植物资产插件Grasswald 对所有人免费！花草植物盆栽树叶枯树模型资产</t>
+    <t>Pictogram2</t>
+  </si>
+  <si>
+    <t>https://pictogram2.com</t>
+  </si>
+  <si>
+    <t>免费商用小人icon矢量素材下载网站</t>
   </si>
   <si>
     <t>矢量插画下载</t>
@@ -2912,13 +2978,10 @@
     <t>免抠矢量插画下载</t>
   </si>
   <si>
-    <t>Pictogram2</t>
-  </si>
-  <si>
-    <t>https://pictogram2.com</t>
-  </si>
-  <si>
-    <t>免费商用小人icon矢量素材下载网站</t>
+    <t>Reshot</t>
+  </si>
+  <si>
+    <t>https://www.reshot.com</t>
   </si>
   <si>
     <t>lifeofpix&lt;sup&gt; *&lt;/sup&gt;</t>
@@ -2930,10 +2993,13 @@
     <t>免费提供高分辨率照片，个人和商业使用均无版权限制</t>
   </si>
   <si>
-    <t>Reshot</t>
-  </si>
-  <si>
-    <t>https://www.reshot.com</t>
+    <t>Bigstock</t>
+  </si>
+  <si>
+    <t>https://www.bigstockphoto.com/zh/</t>
+  </si>
+  <si>
+    <t>超过8800万张照片、视频和矢量图的素材图库</t>
   </si>
   <si>
     <t>Librestock</t>
@@ -2943,15 +3009,6 @@
   </si>
   <si>
     <t>一键搜索国外50多个免费图片网站的搜索引擎</t>
-  </si>
-  <si>
-    <t>Bigstock</t>
-  </si>
-  <si>
-    <t>https://www.bigstockphoto.com/zh/</t>
-  </si>
-  <si>
-    <t>超过8800万张照片、视频和矢量图的素材图库</t>
   </si>
   <si>
     <t>电影海报下载&lt;i style="font-size:0px"&gt;poster&lt;/i&gt;</t>
@@ -4903,20 +4960,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="等线 Light"/>
@@ -4929,9 +4972,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5493,7 +5550,7 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5644,31 +5701,23 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5677,7 +5726,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5686,12 +5739,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -5705,7 +5762,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -5739,13 +5796,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -5755,10 +5812,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6139,7 +6196,7 @@
       </c>
       <c r="C1" s="33" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年5月4日</v>
+        <v>最后更新⌚ 2024年5月7日</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>2</v>
@@ -6156,24 +6213,24 @@
       <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BI1" s="15"/>
+      <c r="M1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BI1" s="13"/>
       <c r="BN1" s="30"/>
-      <c r="BO1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="CA1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CM1" s="15"/>
-      <c r="CS1" s="15"/>
-      <c r="CY1" s="15"/>
-      <c r="DE1" s="15"/>
+      <c r="BO1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="DE1" s="13"/>
     </row>
     <row r="2" s="28" customFormat="1" ht="13.8" spans="1:113">
       <c r="A2" s="28" t="s">
@@ -6571,7 +6628,7 @@
       <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="36"/>
@@ -6621,7 +6678,7 @@
       <c r="A10" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="36"/>
@@ -7061,7 +7118,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="18"/>
+      <c r="BU32" s="17"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7108,7 +7165,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="19"/>
+      <c r="BW40" s="18"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7177,48 +7234,48 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="14"/>
+    <col min="6" max="6" width="8.88888888888889" style="12"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="14"/>
+    <col min="12" max="12" width="8.88888888888889" style="12"/>
     <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
-        <v>1057</v>
+      <c r="A1" s="13" t="s">
+        <v>1076</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="14" t="s">
-        <v>261</v>
+      <c r="F1" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1059</v>
+        <v>1077</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1078</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1062</v>
+        <v>1080</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1081</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7227,15 +7284,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1065</v>
+        <v>1083</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1084</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>1085</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7243,34 +7300,34 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1068</v>
+        <v>1086</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1087</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>1088</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="9"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="9"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7279,7 +7336,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="9"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7289,14 +7346,14 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -7336,7 +7393,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -7370,15 +7427,15 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="13" t="s">
-        <v>1070</v>
+      <c r="A1" s="11" t="s">
+        <v>1089</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7388,28 +7445,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1072</v>
+        <v>1091</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1074</v>
+        <v>1093</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1076</v>
+        <v>1095</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7418,28 +7475,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1079</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1080</v>
+        <v>1099</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1081</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -7448,23 +7505,23 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1084</v>
+        <v>1103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1085</v>
+        <v>1104</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1087</v>
+        <v>1106</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -7513,98 +7570,98 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1088</v>
+        <v>1107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1089</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>1090</v>
+      <c r="A2" s="8" t="s">
+        <v>1109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1091</v>
+        <v>1110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E2" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1094</v>
+        <v>1113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1095</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>1098</v>
+        <v>1116</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1117</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1099</v>
+        <v>1118</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>1102</v>
+        <v>1120</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1121</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1103</v>
+        <v>1122</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1105</v>
+        <v>1123</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1124</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7613,142 +7670,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1113</v>
+        <v>1131</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1132</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1114</v>
+        <v>1133</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1115</v>
+        <v>1134</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1116</v>
+        <v>1135</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1117</v>
+        <v>1136</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1119</v>
+        <v>1138</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1120</v>
+        <v>1139</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1121</v>
+        <v>1140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1122</v>
+        <v>1141</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1123</v>
+        <v>1142</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1124</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1125</v>
+        <v>1144</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1126</v>
+        <v>1145</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1127</v>
+        <v>1146</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>1129</v>
+        <v>1147</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1148</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1130</v>
+        <v>1149</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1131</v>
+        <v>1150</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1133</v>
+        <v>1151</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1134</v>
+        <v>1153</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1135</v>
+        <v>1154</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>1137</v>
+        <v>1155</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1156</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1138</v>
+        <v>1157</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>1141</v>
+        <v>1159</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1160</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1142</v>
+        <v>1161</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>1145</v>
+        <v>1163</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1164</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1146</v>
+        <v>1165</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7756,78 +7813,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>1149</v>
+        <v>1166</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1168</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1150</v>
+        <v>1169</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1151</v>
+        <v>1170</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>1153</v>
+        <v>1171</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1172</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1154</v>
+        <v>1173</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1155</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1156</v>
+        <v>1175</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1157</v>
+        <v>1176</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1158</v>
+        <v>1177</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1159</v>
+        <v>1178</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1160</v>
+        <v>1179</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1162</v>
+        <v>1181</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1163</v>
+        <v>1182</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1164</v>
+        <v>1183</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1165</v>
+        <v>1184</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1166</v>
+        <v>1185</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1167</v>
+        <v>1186</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7850,35 +7907,35 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="N39" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1168</v>
+        <v>1187</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1170</v>
+        <v>1189</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1171</v>
+        <v>1190</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1172</v>
+        <v>1191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1173</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7887,14 +7944,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1174</v>
+        <v>1193</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1175</v>
+        <v>1194</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1176</v>
+        <v>1195</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7903,140 +7960,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1177</v>
+        <v>1196</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1178</v>
+        <v>1197</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1180</v>
+        <v>1199</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1182</v>
+        <v>1201</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1183</v>
+        <v>1202</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1184</v>
+        <v>1203</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1185</v>
+        <v>1204</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1186</v>
+        <v>1205</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1187</v>
+        <v>1206</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1189</v>
+        <v>1208</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1190</v>
+        <v>1209</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1192</v>
+        <v>1211</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1193</v>
+        <v>1212</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1194</v>
+        <v>1213</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1196</v>
+        <v>1215</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1197</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1198</v>
+        <v>1217</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1199</v>
+        <v>1218</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1200</v>
+        <v>1219</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1201</v>
+        <v>1220</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1202</v>
+        <v>1221</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1203</v>
+        <v>1222</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1204</v>
+        <v>1223</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1205</v>
+        <v>1224</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -8044,62 +8101,59 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1206</v>
+        <v>1225</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1207</v>
+        <v>1226</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1208</v>
+        <v>1227</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1209</v>
+        <v>1228</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1210</v>
+        <v>1229</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1211</v>
+        <v>1230</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1212</v>
+        <v>1231</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1213</v>
+        <v>1232</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1214</v>
+        <v>1233</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1215</v>
+        <v>1234</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1216</v>
+        <v>1235</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1217</v>
+        <v>1236</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1218</v>
+        <v>1237</v>
       </c>
       <c r="E17" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="https://www.daoshipingjia.org/assets/logo.png"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8118,150 +8172,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1219</v>
+        <v>1238</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1220</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1221</v>
+        <v>1240</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C2" s="9"/>
+        <v>1241</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1223</v>
+        <v>1242</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1224</v>
+        <v>1243</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>1244</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1226</v>
+        <v>1245</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1227</v>
+        <v>1246</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1228</v>
+        <v>1247</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1229</v>
+        <v>1248</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1230</v>
+        <v>1249</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1231</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>1251</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1231</v>
+        <v>1250</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1233</v>
+        <v>1252</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1234</v>
+        <v>1253</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1235</v>
+        <v>1254</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1236</v>
+        <v>1255</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1237</v>
+        <v>1256</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1238</v>
+        <v>1257</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1239</v>
+        <v>1258</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1240</v>
+        <v>1259</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1241</v>
+        <v>1260</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1242</v>
+        <v>1261</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1243</v>
+        <v>1262</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1244</v>
+        <v>1263</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1245</v>
+        <v>1264</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1246</v>
+        <v>1265</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1247</v>
+        <v>1266</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1248</v>
+        <v>1267</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1249</v>
+        <v>1268</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1250</v>
+        <v>1269</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1251</v>
+        <v>1270</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1252</v>
+        <v>1271</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8285,21 +8339,21 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1253</v>
+        <v>1272</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8309,14 +8363,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1255</v>
+        <v>1273</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1274</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1256</v>
+        <v>1275</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8328,16 +8382,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1257</v>
+        <v>1276</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1258</v>
+        <v>1277</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1259</v>
+        <v>1278</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8349,16 +8403,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1261</v>
+        <v>1280</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1203</v>
+        <v>1222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1204</v>
+        <v>1223</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1262</v>
+        <v>1281</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -8372,14 +8426,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1264</v>
+        <v>1282</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1283</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8391,16 +8445,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1267</v>
+        <v>1285</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1286</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1268</v>
+        <v>1287</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1269</v>
+        <v>1288</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8412,46 +8466,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1270</v>
+        <v>1289</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1271</v>
+        <v>1290</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1274</v>
+        <v>1292</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1293</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1275</v>
+        <v>1294</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1277</v>
+        <v>1296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1278</v>
+        <v>1297</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1279</v>
+        <v>1298</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1280</v>
+        <v>1299</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -8472,9 +8526,6 @@
       <c r="E11" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.yeyulingfeng.com/tools/music"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8486,7 +8537,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -8496,14 +8547,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1281</v>
+        <v>1300</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1282</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8514,10 +8565,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1284</v>
+        <v>1303</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8525,16 +8576,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1285</v>
+        <v>1304</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1286</v>
+        <v>1305</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1288</v>
+        <v>1307</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8542,112 +8593,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1289</v>
+        <v>1308</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1290</v>
+        <v>1309</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1292</v>
+        <v>1311</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1293</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1294</v>
+        <v>1313</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1295</v>
+        <v>1314</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1298</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1299</v>
+        <v>1318</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1300</v>
+        <v>1319</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1302</v>
+        <v>1321</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1303</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1304</v>
+        <v>1323</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1305</v>
+        <v>1324</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1172</v>
+        <v>1191</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1306</v>
+        <v>1325</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1307</v>
+        <v>1326</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1308</v>
+        <v>1327</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1309</v>
+        <v>1328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1310</v>
+        <v>1329</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1311</v>
+        <v>1330</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1312</v>
+        <v>1331</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1313</v>
+        <v>1332</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1314</v>
+        <v>1333</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1315</v>
+        <v>1334</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1316</v>
+        <v>1335</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1317</v>
+        <v>1336</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1318</v>
+        <v>1337</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8694,9 +8745,6 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://q2.qlogo.cn/headimg_dl?dst_uin=107975154&amp;spec=100"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8705,20 +8753,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="14"/>
+    <col min="6" max="6" width="8.88888888888889" style="12"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="14"/>
+    <col min="12" max="12" width="8.88888888888889" style="12"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="14"/>
+    <col min="18" max="18" width="8.88888888888889" style="12"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
@@ -8730,7 +8778,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -8771,7 +8819,7 @@
       <c r="M2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -8804,7 +8852,7 @@
       <c r="M3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8834,7 +8882,7 @@
       <c r="M4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>136</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -8852,7 +8900,7 @@
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
         <v>141</v>
       </c>
@@ -8869,7 +8917,7 @@
       <c r="M5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>145</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -8883,11 +8931,11 @@
       <c r="B6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
       <c r="G6" s="3" t="s">
         <v>150</v>
       </c>
@@ -8904,7 +8952,7 @@
       <c r="M6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>155</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -8939,7 +8987,7 @@
       <c r="M7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>165</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -8974,7 +9022,7 @@
       <c r="M8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>175</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -9011,7 +9059,7 @@
       <c r="M9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="6" t="s">
         <v>186</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -9046,7 +9094,7 @@
       <c r="M10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="6" t="s">
         <v>195</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -9211,7 +9259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>237</v>
       </c>
@@ -9223,69 +9271,81 @@
         <v>239</v>
       </c>
       <c r="E17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>54</v>
@@ -9293,23 +9353,61 @@
     </row>
     <row r="23" ht="22.8" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="21" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9329,176 +9427,176 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="14"/>
+    <col min="6" max="6" width="8.88888888888889" style="12"/>
     <col min="7" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
-        <v>259</v>
+      <c r="A1" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="14" t="s">
-        <v>261</v>
+      <c r="F1" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>283</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="G3" s="3" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>294</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>310</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="G6" s="3" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>297</v>
+        <v>312</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K6" s="11"/>
+        <v>314</v>
+      </c>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>318</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -9512,12 +9610,12 @@
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>
@@ -9528,31 +9626,31 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>324</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
@@ -9560,78 +9658,78 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>329</v>
+        <v>344</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9660,35 +9758,35 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E43" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>351</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -9697,16 +9795,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>353</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>354</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -9715,14 +9813,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9733,34 +9831,34 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>343</v>
+        <v>358</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -9771,14 +9869,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -9789,62 +9887,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -9889,9 +9987,6 @@
       <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="http://lingdaima.com/static/img/jianbianse.png"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9910,70 +10005,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>388</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -9982,74 +10077,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10084,22 +10179,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10108,133 +10203,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>436</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>54</v>
@@ -10243,286 +10338,286 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>455</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K9" s="11"/>
+        <v>474</v>
+      </c>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I10" s="9"/>
+        <v>480</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="K10" s="9"/>
+        <v>481</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>467</v>
+        <v>482</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -10532,10 +10627,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>54</v>
@@ -10543,51 +10638,51 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>520</v>
+        <v>534</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -10598,14 +10693,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>526</v>
+        <v>541</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -10616,14 +10711,14 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>529</v>
+        <v>544</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10634,14 +10729,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>532</v>
+        <v>547</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>548</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10652,14 +10747,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="G23" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>535</v>
+        <v>550</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10687,91 +10782,91 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
       <c r="A1" s="22" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="H1" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>559</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -10779,130 +10874,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
@@ -10910,29 +11005,29 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -10971,34 +11066,34 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ49"/>
+  <dimension ref="A1:AQ50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="14"/>
+    <col min="6" max="6" width="8.88888888888889" style="12"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="14"/>
+    <col min="12" max="12" width="8.88888888888889" style="12"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="14"/>
+    <col min="18" max="18" width="8.88888888888889" style="12"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="14"/>
+    <col min="24" max="24" width="8.88888888888889" style="12"/>
     <col min="25" max="29" width="8.88888888888889" style="4"/>
-    <col min="30" max="30" width="8.88888888888889" style="14"/>
+    <col min="30" max="30" width="8.88888888888889" style="12"/>
     <col min="31" max="35" width="8.88888888888889" style="4"/>
-    <col min="36" max="36" width="8.88888888888889" style="14"/>
+    <col min="36" max="36" width="8.88888888888889" style="12"/>
     <col min="37" max="41" width="8.88888888888889" style="4"/>
-    <col min="42" max="42" width="8.88888888888889" style="14"/>
+    <col min="42" max="42" width="8.88888888888889" style="12"/>
     <col min="43" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="13" t="s">
-        <v>597</v>
+    <row r="1" spans="1:38">
+      <c r="A1" s="11" t="s">
+        <v>613</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>110</v>
@@ -11006,676 +11101,680 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="14" t="s">
-        <v>598</v>
+      <c r="F1" s="12" t="s">
+        <v>614</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>601</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M1" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
       <c r="S1" s="4" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AL1"/>
-      <c r="AM1"/>
-      <c r="AN1"/>
-      <c r="AO1"/>
+        <v>620</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>612</v>
+        <v>627</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>628</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="M2" t="s">
+        <v>630</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="S2" s="3" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>625</v>
+        <v>639</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>627</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
+        <v>641</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="20" t="s">
-        <v>629</v>
+      <c r="A3" s="19" t="s">
+        <v>645</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>633</v>
+        <v>648</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q3" s="3"/>
+      <c r="M3" t="s">
+        <v>651</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="S3" s="3" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
+        <v>659</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>651</v>
-      </c>
+      <c r="A4" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>653</v>
+        <v>668</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q4" s="3"/>
+        <v>670</v>
+      </c>
+      <c r="M4" t="s">
+        <v>671</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
       <c r="S4" s="3" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>666</v>
+        <v>680</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>668</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
+        <v>682</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>671</v>
+        <v>686</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>687</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>674</v>
+        <v>689</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>690</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="S5" s="20" t="s">
-        <v>629</v>
+        <v>691</v>
+      </c>
+      <c r="M5" t="s">
+        <v>692</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q5"/>
+      <c r="S5" s="19" t="s">
+        <v>645</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>684</v>
+        <v>698</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>686</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="AM5"/>
-      <c r="AN5" t="s">
-        <v>688</v>
-      </c>
-      <c r="AO5"/>
+        <v>700</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>690</v>
+        <v>705</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>708</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="M6" t="s">
+        <v>710</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q6"/>
       <c r="S6" s="3" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>703</v>
+        <v>718</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>719</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>705</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="AM6"/>
-      <c r="AN6" t="s">
-        <v>707</v>
-      </c>
-      <c r="AO6"/>
+        <v>720</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>709</v>
+        <v>724</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>725</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>712</v>
+        <v>727</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>728</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q7" s="3"/>
+        <v>729</v>
+      </c>
+      <c r="M7" t="s">
+        <v>730</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q7"/>
       <c r="S7" s="3" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>724</v>
+        <v>739</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>740</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>726</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="AM7"/>
-      <c r="AN7" t="s">
-        <v>728</v>
-      </c>
-      <c r="AO7"/>
-    </row>
-    <row r="8" spans="1:41">
+        <v>741</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AO7" s="3"/>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>730</v>
+        <v>746</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>747</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q8" s="3"/>
+        <v>752</v>
+      </c>
+      <c r="M8" t="s">
+        <v>753</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q8"/>
       <c r="S8" s="3" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>748</v>
+        <v>763</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>764</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>750</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="AM8"/>
-      <c r="AN8" t="s">
-        <v>752</v>
-      </c>
-      <c r="AO8"/>
-    </row>
-    <row r="9" spans="1:34">
+        <v>765</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>754</v>
+        <v>769</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>770</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>771</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>761</v>
+      <c r="M9" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="AA9" s="16"/>
+        <v>783</v>
+      </c>
+      <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="AF9" s="8" t="s">
-        <v>770</v>
+        <v>785</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>771</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>773</v>
+        <v>789</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>790</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>776</v>
+        <v>792</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>793</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q10" s="3"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
       <c r="Y10" s="3" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11683,266 +11782,265 @@
       <c r="AE10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
+      <c r="AK10" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="1"/>
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A11" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>787</v>
+        <v>806</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="AC11" s="3"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
+      <c r="AK11" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="AP11" s="1"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>816</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>798</v>
+        <v>817</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>800</v>
+        <v>818</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>819</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="M12" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>807</v>
+      <c r="AK12" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>825</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>809</v>
+        <v>826</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="21" t="s">
-        <v>813</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>815</v>
+        <v>828</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>834</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>817</v>
+        <v>835</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>836</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>824</v>
+        <v>837</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>826</v>
+        <v>844</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>845</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>833</v>
+      <c r="A16" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>849</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>835</v>
+        <v>850</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>851</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>839</v>
+      <c r="A17" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>855</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>841</v>
+        <v>856</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>843</v>
+        <v>858</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>859</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>846</v>
+        <v>861</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>862</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>850</v>
+      <c r="A19" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>868</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="3"/>
@@ -11950,12 +12048,8 @@
     <row r="25" spans="5:5">
       <c r="E25" s="3"/>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+    <row r="26" spans="5:5">
+      <c r="E26" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
@@ -11963,6 +12057,13 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11982,479 +12083,479 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="14"/>
+    <col min="6" max="6" width="8.88888888888889" style="12"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="14"/>
+    <col min="12" max="12" width="8.88888888888889" style="12"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="14"/>
+    <col min="18" max="18" width="8.88888888888889" style="12"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="14" t="s">
-        <v>853</v>
+      <c r="F1" s="12" t="s">
+        <v>872</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="10" t="s">
-        <v>857</v>
+      <c r="A2" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="E2" s="10"/>
+        <v>877</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="10" t="s">
-        <v>870</v>
+      <c r="A3" s="8" t="s">
+        <v>889</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>891</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:23">
-      <c r="A4" s="10" t="s">
-        <v>885</v>
+      <c r="A4" s="8" t="s">
+        <v>904</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>905</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="10" t="s">
-        <v>897</v>
+      <c r="A5" s="8" t="s">
+        <v>916</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>918</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>953</v>
+        <v>971</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>972</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="O9" s="16"/>
+        <v>975</v>
+      </c>
+      <c r="O9" s="15"/>
       <c r="P9" s="3" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="Q10"/>
       <c r="S10" s="3" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="E11" s="3"/>
       <c r="M11"/>
@@ -12463,29 +12564,29 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="S11" s="3" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="E12" s="3"/>
       <c r="M12"/>
@@ -12494,82 +12595,82 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
-        <v>980</v>
+        <v>999</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>988</v>
+        <v>1007</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="3" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="E14" s="3"/>
       <c r="S14" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>995</v>
+        <v>1013</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>1014</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>998</v>
+        <v>1017</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -12577,219 +12678,219 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1013</v>
+        <v>1032</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18" t="s">
-        <v>1017</v>
+      <c r="A21" s="17" t="s">
+        <v>1036</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1028</v>
+        <v>1047</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1034</v>
+        <v>1053</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1036</v>
+        <v>1055</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C29" s="19"/>
+        <v>1065</v>
+      </c>
+      <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -12797,14 +12898,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>1054</v>
+        <v>1073</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13500" activeTab="7"/>
+    <workbookView windowWidth="19788" windowHeight="13500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1349">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -299,24 +299,7 @@
     <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
-      </rPr>
-      <t>🦄</t>
-    </r>
+    <t>Vega AI</t>
   </si>
   <si>
     <t>https://www.vegaai.net</t>
@@ -1904,6 +1887,15 @@
     <t>免费为网友提供无毒，无广告，无限使用的各类软件下载</t>
   </si>
   <si>
+    <t>Syncthing</t>
+  </si>
+  <si>
+    <t>https://www.shephe.com/2019/07/use-syncthing-to-synchronize-your-own-files</t>
+  </si>
+  <si>
+    <t>使用Syncthing搭建个人同步服务器</t>
+  </si>
+  <si>
     <t>枫音应用</t>
   </si>
   <si>
@@ -1911,6 +1903,15 @@
   </si>
   <si>
     <t>专注分享免费、绿色、无毒无广的实用软件！</t>
+  </si>
+  <si>
+    <t>Tailscale</t>
+  </si>
+  <si>
+    <t>https://sspai.com/post/66822</t>
+  </si>
+  <si>
+    <t>让你可以随时随地用 NAS 和家里的电脑</t>
   </si>
   <si>
     <t>乐享网</t>
@@ -3140,6 +3141,84 @@
     <t>AI自动抠图-千图网旗下抠图工具</t>
   </si>
   <si>
+    <t>亚马逊 搜图</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/stylesnap</t>
+  </si>
+  <si>
+    <t>亚马逊以图搜图 shop the look</t>
+  </si>
+  <si>
+    <t>在线PDF</t>
+  </si>
+  <si>
+    <t>https://www.pdf2go.com/zh</t>
+  </si>
+  <si>
+    <t>免费PDF在线转换工具</t>
+  </si>
+  <si>
+    <t>老照片修复</t>
+  </si>
+  <si>
+    <t>https://jpghd.com</t>
+  </si>
+  <si>
+    <t>https://jpghd.com/htdocs/favicon.ico</t>
+  </si>
+  <si>
+    <t>利用2023年最先进人工智能 AI 将老照片无损高清修复（支持老照片修复、老照片上色和魔法动态照片）</t>
+  </si>
+  <si>
+    <t>去除gif背景</t>
+  </si>
+  <si>
+    <t>http://www.unscreen.com/upload</t>
+  </si>
+  <si>
+    <t>AI自动抠图去除gif背景 unscreen.com</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/stylesnap</t>
+  </si>
+  <si>
+    <t>小日本站亚马逊以图搜图，需科学上网</t>
+  </si>
+  <si>
+    <t>迅捷PDF转换器</t>
+  </si>
+  <si>
+    <t>http://app.xunjiepdf.com</t>
+  </si>
+  <si>
+    <t>👍迅捷PDF转换器，免费版可以借我的会员有效期：2023-4-3</t>
+  </si>
+  <si>
+    <t>水印一键去去去</t>
+  </si>
+  <si>
+    <t>https://quququ.cn</t>
+  </si>
+  <si>
+    <t>https://quququ.cn/icon.png</t>
+  </si>
+  <si>
+    <t>一款图片在线去水印网站，永久免费，使用人工智能技术，支持批量去除图片中的文字、标志，多余物体等多种水印，去水印不留痕，不压画质， 高质不糊图！</t>
+  </si>
+  <si>
+    <t>Pixian.ai(抠图) &lt;sup&gt; *&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>https://pixian.ai</t>
+  </si>
+  <si>
+    <t>https://dq2gn5p12glyq.cloudfront.net/p/assets/m/favicons/pixian/apple-touch-icon-180_e5c5e123409b599a279b94c9a92e643f.png</t>
+  </si>
+  <si>
+    <t>基于AI能力的一键轻松实现在线免费抠图的智能工具</t>
+  </si>
+  <si>
     <t>whatanime</t>
   </si>
   <si>
@@ -3147,87 +3226,6 @@
   </si>
   <si>
     <t>whatanime（以图搜动画）</t>
-  </si>
-  <si>
-    <t>在线PDF</t>
-  </si>
-  <si>
-    <t>https://www.pdf2go.com/zh</t>
-  </si>
-  <si>
-    <t>免费PDF在线转换工具</t>
-  </si>
-  <si>
-    <t>老照片修复</t>
-  </si>
-  <si>
-    <t>https://jpghd.com</t>
-  </si>
-  <si>
-    <t>https://jpghd.com/htdocs/favicon.ico</t>
-  </si>
-  <si>
-    <t>利用2023年最先进人工智能 AI 将老照片无损高清修复（支持老照片修复、老照片上色和魔法动态照片）</t>
-  </si>
-  <si>
-    <t>去除gif背景</t>
-  </si>
-  <si>
-    <t>http://www.unscreen.com/upload</t>
-  </si>
-  <si>
-    <t>AI自动抠图去除gif背景 unscreen.com</t>
-  </si>
-  <si>
-    <t>SauceNAO</t>
-  </si>
-  <si>
-    <t>http://saucenao.com</t>
-  </si>
-  <si>
-    <t>SauceNAO（专门搜P站图）</t>
-  </si>
-  <si>
-    <t>迅捷PDF转换器</t>
-  </si>
-  <si>
-    <t>http://app.xunjiepdf.com</t>
-  </si>
-  <si>
-    <t>👍迅捷PDF转换器，免费版可以借我的会员有效期：2023-4-3</t>
-  </si>
-  <si>
-    <t>水印一键去去去</t>
-  </si>
-  <si>
-    <t>https://quququ.cn</t>
-  </si>
-  <si>
-    <t>https://quququ.cn/icon.png</t>
-  </si>
-  <si>
-    <t>一款图片在线去水印网站，永久免费，使用人工智能技术，支持批量去除图片中的文字、标志，多余物体等多种水印，去水印不留痕，不压画质， 高质不糊图！</t>
-  </si>
-  <si>
-    <t>Pixian.ai(抠图) &lt;sup&gt; *&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>https://pixian.ai</t>
-  </si>
-  <si>
-    <t>https://dq2gn5p12glyq.cloudfront.net/p/assets/m/favicons/pixian/apple-touch-icon-180_e5c5e123409b599a279b94c9a92e643f.png</t>
-  </si>
-  <si>
-    <t>基于AI能力的一键轻松实现在线免费抠图的智能工具</t>
-  </si>
-  <si>
-    <t>搜狗识图</t>
-  </si>
-  <si>
-    <t>http://pic.sogou.com</t>
-  </si>
-  <si>
-    <t>搜狗图片 识图</t>
   </si>
   <si>
     <t>文档格式在线转换</t>
@@ -3283,6 +3281,81 @@
     <t>这个没上一个好用,上一个需要科学上网</t>
   </si>
   <si>
+    <t>SauceNAO</t>
+  </si>
+  <si>
+    <t>http://saucenao.com</t>
+  </si>
+  <si>
+    <t>SauceNAO（专门搜P站图）</t>
+  </si>
+  <si>
+    <t>在线转换</t>
+  </si>
+  <si>
+    <t>http://www.aconvert.com/cn/</t>
+  </si>
+  <si>
+    <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像</t>
+  </si>
+  <si>
+    <t>在线xmind</t>
+  </si>
+  <si>
+    <t>https://tools.fun/xmind.html</t>
+  </si>
+  <si>
+    <t>https://tools.fun/assets/image/6f33286edb.png</t>
+  </si>
+  <si>
+    <t>Xmind在线思维导图制作,和前面的流程图互补使用</t>
+  </si>
+  <si>
+    <t>BgSub</t>
+  </si>
+  <si>
+    <t>https://bgsub.cn</t>
+  </si>
+  <si>
+    <t>使用AI技术自动抠图，删除或替换图像背景的网站</t>
+  </si>
+  <si>
+    <t>搜狗识图</t>
+  </si>
+  <si>
+    <t>http://pic.sogou.com</t>
+  </si>
+  <si>
+    <t>搜狗图片 识图</t>
+  </si>
+  <si>
+    <t>在线格式转换</t>
+  </si>
+  <si>
+    <t>http://zhuanhuan.supfree.net</t>
+  </si>
+  <si>
+    <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
+  </si>
+  <si>
+    <t>ProcessOn</t>
+  </si>
+  <si>
+    <t>http://www.processon.com</t>
+  </si>
+  <si>
+    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
+  </si>
+  <si>
+    <t>Dewatermark</t>
+  </si>
+  <si>
+    <t>https://dewatermark.ai</t>
+  </si>
+  <si>
+    <t>Ai在线去水印，一键免费免登录水印去除</t>
+  </si>
+  <si>
     <t>360图片</t>
   </si>
   <si>
@@ -3292,34 +3365,22 @@
     <t>360图片（以图搜动画）</t>
   </si>
   <si>
-    <t>在线转换</t>
-  </si>
-  <si>
-    <t>http://www.aconvert.com/cn/</t>
-  </si>
-  <si>
-    <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像</t>
-  </si>
-  <si>
-    <t>在线xmind</t>
-  </si>
-  <si>
-    <t>https://tools.fun/xmind.html</t>
-  </si>
-  <si>
-    <t>https://tools.fun/assets/image/6f33286edb.png</t>
-  </si>
-  <si>
-    <t>Xmind在线思维导图制作,和前面的流程图互补使用</t>
-  </si>
-  <si>
-    <t>BgSub</t>
-  </si>
-  <si>
-    <t>https://bgsub.cn</t>
-  </si>
-  <si>
-    <t>使用AI技术自动抠图，删除或替换图像背景的网站</t>
+    <t>Zamzar 在线格式转换</t>
+  </si>
+  <si>
+    <t>http://www.zamzar.com</t>
+  </si>
+  <si>
+    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
+  </si>
+  <si>
+    <t>改图鸭</t>
+  </si>
+  <si>
+    <t>https://www.gaituya.com</t>
+  </si>
+  <si>
+    <t>在线证件照、图片压缩、图片编辑、图片格式转换工具</t>
   </si>
   <si>
     <t>iPlant 植物智</t>
@@ -3331,31 +3392,22 @@
     <t>以图搜植物,提供植物物种百科、图片、分布、识别&lt;sup&gt; +&lt;/sup&gt;等相关信息和工具</t>
   </si>
   <si>
-    <t>在线格式转换</t>
-  </si>
-  <si>
-    <t>http://zhuanhuan.supfree.net</t>
-  </si>
-  <si>
-    <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
-  </si>
-  <si>
-    <t>ProcessOn</t>
-  </si>
-  <si>
-    <t>http://www.processon.com</t>
-  </si>
-  <si>
-    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
-  </si>
-  <si>
-    <t>Dewatermark</t>
-  </si>
-  <si>
-    <t>https://dewatermark.ai</t>
-  </si>
-  <si>
-    <t>Ai在线去水印，一键免费免登录水印去除</t>
+    <t>在线文件转换</t>
+  </si>
+  <si>
+    <t>https://products.groupdocs.app/zh/conversion/total</t>
+  </si>
+  <si>
+    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
+  </si>
+  <si>
+    <t>改图神器</t>
+  </si>
+  <si>
+    <t>https://img.logosc.cn</t>
+  </si>
+  <si>
+    <t>这是一款完全免费简单好用的在线万能图片编辑器，无需注册即开即用，支持多种格式图片。功能包括：图片编辑、一键抠图、格式转换、水印添加、图片压缩、无损放大、漫画头像、证件照制作、转矢量图、透明背景、GIF编辑器</t>
   </si>
   <si>
     <t>搜图神器</t>
@@ -3367,22 +3419,25 @@
     <t>汇聚全球图片搜索引擎，免费下载海量资源，提供丰富素材满足你的用图需求！支持PC和移动端，包括二次元、插画、唯美、风景、美女壁纸等</t>
   </si>
   <si>
-    <t>Zamzar 在线格式转换</t>
-  </si>
-  <si>
-    <t>http://www.zamzar.com</t>
-  </si>
-  <si>
-    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
-  </si>
-  <si>
-    <t>改图鸭</t>
-  </si>
-  <si>
-    <t>https://www.gaituya.com</t>
-  </si>
-  <si>
-    <t>在线证件照、图片压缩、图片编辑、图片格式转换工具</t>
+    <t>STP转换为blender文件</t>
+  </si>
+  <si>
+    <t>https://imagetostl.com/cn/convert/file/stp/to/blend</t>
+  </si>
+  <si>
+    <t>将您的 3D 网格/模型 STP 文件转换为 BLEND</t>
+  </si>
+  <si>
+    <t>免费视频压缩</t>
+  </si>
+  <si>
+    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
+  </si>
+  <si>
+    <t>兵哥推荐，免费的视频压缩工具</t>
   </si>
   <si>
     <t>谷歌搜图</t>
@@ -3392,45 +3447,6 @@
   </si>
   <si>
     <t>谷歌识图</t>
-  </si>
-  <si>
-    <t>在线文件转换</t>
-  </si>
-  <si>
-    <t>https://products.groupdocs.app/zh/conversion/total</t>
-  </si>
-  <si>
-    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
-  </si>
-  <si>
-    <t>改图神器</t>
-  </si>
-  <si>
-    <t>https://img.logosc.cn</t>
-  </si>
-  <si>
-    <t>这是一款完全免费简单好用的在线万能图片编辑器，无需注册即开即用，支持多种格式图片。功能包括：图片编辑、一键抠图、格式转换、水印添加、图片压缩、无损放大、漫画头像、证件照制作、转矢量图、透明背景、GIF编辑器</t>
-  </si>
-  <si>
-    <t>STP转换为blender文件</t>
-  </si>
-  <si>
-    <t>https://imagetostl.com/cn/convert/file/stp/to/blend</t>
-  </si>
-  <si>
-    <t>将您的 3D 网格/模型 STP 文件转换为 BLEND</t>
-  </si>
-  <si>
-    <t>免费视频压缩</t>
-  </si>
-  <si>
-    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
-  </si>
-  <si>
-    <t>兵哥推荐，免费的视频压缩工具</t>
   </si>
   <si>
     <t>图片转矢量</t>
@@ -5681,7 +5697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5743,12 +5759,16 @@
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -6142,75 +6162,75 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="28"/>
-    <col min="6" max="6" width="9" style="29"/>
-    <col min="7" max="11" width="9" style="28"/>
-    <col min="12" max="12" width="9" style="29"/>
-    <col min="13" max="17" width="9" style="28"/>
-    <col min="18" max="18" width="9" style="29"/>
-    <col min="19" max="23" width="9" style="28"/>
-    <col min="24" max="24" width="9" style="29"/>
-    <col min="25" max="29" width="9" style="28"/>
-    <col min="30" max="30" width="9" style="29"/>
-    <col min="31" max="35" width="9" style="28"/>
-    <col min="36" max="36" width="9" style="29"/>
-    <col min="37" max="41" width="9" style="28"/>
-    <col min="42" max="42" width="9" style="29"/>
-    <col min="43" max="47" width="9" style="28"/>
-    <col min="48" max="48" width="9" style="29"/>
-    <col min="49" max="53" width="9" style="28"/>
-    <col min="54" max="54" width="9" style="29"/>
-    <col min="55" max="59" width="9" style="28"/>
-    <col min="60" max="60" width="9" style="30"/>
-    <col min="61" max="65" width="9" style="28"/>
-    <col min="66" max="66" width="9" style="29"/>
-    <col min="67" max="71" width="9" style="28"/>
-    <col min="72" max="72" width="9" style="29"/>
-    <col min="73" max="77" width="9" style="28"/>
-    <col min="78" max="78" width="9" style="29"/>
-    <col min="79" max="83" width="9" style="28"/>
-    <col min="84" max="84" width="9" style="29"/>
-    <col min="85" max="89" width="9" style="28"/>
-    <col min="90" max="90" width="9" style="29"/>
-    <col min="91" max="95" width="9" style="28"/>
-    <col min="96" max="96" width="9" style="31"/>
-    <col min="97" max="101" width="9" style="28"/>
-    <col min="102" max="102" width="9" style="31"/>
-    <col min="103" max="107" width="9" style="28"/>
-    <col min="108" max="108" width="9" style="31"/>
-    <col min="109" max="16384" width="9" style="28"/>
+    <col min="1" max="5" width="9" style="29"/>
+    <col min="6" max="6" width="9" style="30"/>
+    <col min="7" max="11" width="9" style="29"/>
+    <col min="12" max="12" width="9" style="30"/>
+    <col min="13" max="17" width="9" style="29"/>
+    <col min="18" max="18" width="9" style="30"/>
+    <col min="19" max="23" width="9" style="29"/>
+    <col min="24" max="24" width="9" style="30"/>
+    <col min="25" max="29" width="9" style="29"/>
+    <col min="30" max="30" width="9" style="30"/>
+    <col min="31" max="35" width="9" style="29"/>
+    <col min="36" max="36" width="9" style="30"/>
+    <col min="37" max="41" width="9" style="29"/>
+    <col min="42" max="42" width="9" style="30"/>
+    <col min="43" max="47" width="9" style="29"/>
+    <col min="48" max="48" width="9" style="30"/>
+    <col min="49" max="53" width="9" style="29"/>
+    <col min="54" max="54" width="9" style="30"/>
+    <col min="55" max="59" width="9" style="29"/>
+    <col min="60" max="60" width="9" style="31"/>
+    <col min="61" max="65" width="9" style="29"/>
+    <col min="66" max="66" width="9" style="30"/>
+    <col min="67" max="71" width="9" style="29"/>
+    <col min="72" max="72" width="9" style="30"/>
+    <col min="73" max="77" width="9" style="29"/>
+    <col min="78" max="78" width="9" style="30"/>
+    <col min="79" max="83" width="9" style="29"/>
+    <col min="84" max="84" width="9" style="30"/>
+    <col min="85" max="89" width="9" style="29"/>
+    <col min="90" max="90" width="9" style="30"/>
+    <col min="91" max="95" width="9" style="29"/>
+    <col min="96" max="96" width="9" style="32"/>
+    <col min="97" max="101" width="9" style="29"/>
+    <col min="102" max="102" width="9" style="32"/>
+    <col min="103" max="107" width="9" style="29"/>
+    <col min="108" max="108" width="9" style="32"/>
+    <col min="109" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="str">
+      <c r="C1" s="34" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年5月7日</v>
-      </c>
-      <c r="D1" s="34" t="s">
+        <v>最后更新⌚ 2024年5月20日</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="13"/>
@@ -6222,7 +6242,7 @@
       <c r="AW1" s="13"/>
       <c r="BC1" s="13"/>
       <c r="BI1" s="13"/>
-      <c r="BN1" s="30"/>
+      <c r="BN1" s="31"/>
       <c r="BO1" s="13"/>
       <c r="BU1" s="13"/>
       <c r="CA1" s="13"/>
@@ -6232,22 +6252,22 @@
       <c r="CY1" s="13"/>
       <c r="DE1" s="13"/>
     </row>
-    <row r="2" s="28" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="28" t="s">
+    <row r="2" s="29" customFormat="1" ht="13.8" spans="1:113">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -6256,76 +6276,76 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BH2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BT2" s="29"/>
-      <c r="BZ2" s="29"/>
-      <c r="CF2" s="29"/>
-      <c r="CL2" s="29"/>
-      <c r="CR2" s="31"/>
-      <c r="CX2" s="31"/>
-      <c r="DD2" s="31"/>
-      <c r="DI2" s="28" t="s">
+      <c r="L2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BH2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BT2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CF2" s="30"/>
+      <c r="CL2" s="30"/>
+      <c r="CR2" s="32"/>
+      <c r="CX2" s="32"/>
+      <c r="DD2" s="32"/>
+      <c r="DI2" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="38"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="40"/>
-      <c r="AC3" s="37"/>
+      <c r="AA3" s="41"/>
+      <c r="AC3" s="38"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="37"/>
+      <c r="AI3" s="38"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="40"/>
-      <c r="BA3" s="37"/>
+      <c r="AY3" s="41"/>
+      <c r="BA3" s="38"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="38"/>
-      <c r="BN3" s="30"/>
+      <c r="BK3" s="39"/>
+      <c r="BN3" s="31"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6337,56 +6357,56 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="42"/>
+      <c r="CX3" s="43"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="42"/>
+      <c r="DD3" s="43"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="28" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="38"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="38"/>
+      <c r="Q4" s="39"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="38"/>
-      <c r="AC4" s="38"/>
+      <c r="AA4" s="39"/>
+      <c r="AC4" s="39"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="40"/>
-      <c r="AU4" s="37"/>
+      <c r="AS4" s="41"/>
+      <c r="AU4" s="38"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="37"/>
+      <c r="BG4" s="38"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="38"/>
+      <c r="BK4" s="39"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6397,50 +6417,50 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="43"/>
+      <c r="CV4" s="44"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
     <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="G5" s="28" t="s">
+      <c r="E5" s="38"/>
+      <c r="G5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="38"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="38"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="37"/>
+      <c r="AU5" s="38"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="41"/>
+      <c r="BF5" s="42"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6458,7 +6478,7 @@
       <c r="DG5" s="4"/>
     </row>
     <row r="6" ht="13.8" spans="1:112">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -6467,10 +6487,10 @@
       <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6479,16 +6499,16 @@
       <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="38"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="38"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="40"/>
-      <c r="W6" s="37"/>
+      <c r="U6" s="41"/>
+      <c r="W6" s="38"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6497,9 +6517,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="37"/>
+      <c r="BG6" s="38"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="38"/>
+      <c r="BK6" s="39"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6510,22 +6530,22 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="36"/>
-      <c r="DG6" s="36"/>
-      <c r="DH6" s="43"/>
+      <c r="DF6" s="37"/>
+      <c r="DG6" s="37"/>
+      <c r="DH6" s="44"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="29" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6534,16 +6554,16 @@
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="38"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="38"/>
-      <c r="Q7" s="37"/>
+      <c r="O7" s="39"/>
+      <c r="Q7" s="38"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="W7" s="39"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6564,23 +6584,23 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="36"/>
+      <c r="DF7" s="37"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6589,12 +6609,12 @@
       <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="29" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="37"/>
+      <c r="Q8" s="38"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6604,7 +6624,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="38"/>
+      <c r="AU8" s="39"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6621,21 +6641,21 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="36"/>
-      <c r="DG8" s="36"/>
+      <c r="DF8" s="37"/>
+      <c r="DG8" s="37"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6644,12 +6664,12 @@
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="29" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="38"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6668,39 +6688,39 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="36"/>
+      <c r="CU9" s="37"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="36"/>
-      <c r="DG9" s="36"/>
+      <c r="DF9" s="37"/>
+      <c r="DG9" s="37"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="40" t="s">
         <v>69</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="37"/>
+      <c r="Q10" s="38"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6709,7 +6729,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="37"/>
+      <c r="AO10" s="38"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6718,7 +6738,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="36"/>
+      <c r="BQ10" s="37"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6727,37 +6747,37 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="28" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="29" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="37"/>
+      <c r="Q11" s="38"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="38"/>
-      <c r="AO11" s="38"/>
+      <c r="AM11" s="39"/>
+      <c r="AO11" s="39"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6766,35 +6786,35 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="36"/>
+      <c r="BQ11" s="37"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="36"/>
-      <c r="DG11" s="36"/>
+      <c r="DF11" s="37"/>
+      <c r="DG11" s="37"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="29" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="28" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="29" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="5"/>
@@ -6812,20 +6832,20 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="36"/>
+      <c r="CU12" s="37"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="29" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6834,7 +6854,7 @@
       <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="29" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="4"/>
@@ -6844,18 +6864,18 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="38"/>
+      <c r="BE13" s="39"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="36"/>
+      <c r="CN13" s="37"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -6864,10 +6884,10 @@
       <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="29" t="s">
         <v>54</v>
       </c>
       <c r="N14" s="4"/>
@@ -6884,18 +6904,18 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="36"/>
+      <c r="CN14" s="37"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="29" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="29" t="s">
         <v>96</v>
       </c>
       <c r="N15" s="4"/>
@@ -6906,7 +6926,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="38"/>
+      <c r="BE15" s="39"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -6915,14 +6935,14 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="29" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="28" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="29" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="4"/>
@@ -6941,13 +6961,13 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="29" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="29" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="4"/>
@@ -6958,16 +6978,16 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="38"/>
+      <c r="BE17" s="39"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="38"/>
+      <c r="BK17" s="39"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="29" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -6976,7 +6996,7 @@
       <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="29" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="4"/>
@@ -7012,7 +7032,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="38"/>
+      <c r="AF20" s="39"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -7027,7 +7047,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="25"/>
+      <c r="AX21" s="26"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7055,9 +7075,9 @@
       <c r="CC24" s="4"/>
     </row>
     <row r="25" ht="13.8" spans="2:80">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="BV25" s="5"/>
@@ -7065,21 +7085,21 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="38"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="41"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="38"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="39"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="38"/>
+      <c r="BE27" s="39"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
@@ -7092,16 +7112,16 @@
       <c r="CC28" s="4"/>
     </row>
     <row r="29" ht="13.8" spans="2:80">
-      <c r="B29" s="38"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="37"/>
       <c r="T29" s="5"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="38"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="37"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -7145,7 +7165,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="38"/>
+      <c r="CC36" s="39"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7182,7 +7202,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="25"/>
+      <c r="CB43" s="26"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7201,12 +7221,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="25"/>
+      <c r="CB49" s="26"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="25"/>
-      <c r="CC50" s="36"/>
+      <c r="CB50" s="26"/>
+      <c r="CC50" s="37"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7242,7 +7262,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7254,28 +7274,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7284,13 +7304,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7300,14 +7320,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7428,14 +7448,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7445,28 +7465,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7475,28 +7495,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -7505,16 +7525,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1104</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1106</v>
+        <v>1117</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7570,28 +7590,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1107</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1108</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1109</v>
+        <v>1120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7600,50 +7620,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1119</v>
+        <v>1130</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>54</v>
@@ -7652,16 +7672,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1128</v>
+        <v>1139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7670,142 +7690,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1135</v>
+        <v>1146</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1136</v>
+        <v>1147</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1139</v>
+        <v>1150</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1140</v>
+        <v>1151</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7813,78 +7833,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1170</v>
+        <v>1181</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1179</v>
+        <v>1190</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1180</v>
+        <v>1191</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7914,28 +7934,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7944,14 +7964,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7960,140 +7980,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -8101,55 +8121,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1231</v>
+        <v>1242</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1233</v>
+        <v>1244</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8172,150 +8192,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8346,14 +8366,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8363,14 +8383,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1273</v>
+        <v>1284</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1275</v>
+        <v>1286</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8382,16 +8402,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8403,16 +8423,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -8426,14 +8446,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8445,16 +8465,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8466,46 +8486,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -8547,14 +8567,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8565,10 +8585,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8576,16 +8596,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8593,112 +8613,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8771,7 +8791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3"/>
@@ -8896,7 +8916,7 @@
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
@@ -9359,7 +9379,7 @@
         <v>261</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>262</v>
       </c>
       <c r="E23" s="3"/>
@@ -9782,7 +9802,7 @@
       <c r="B2" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3" t="s">
         <v>351</v>
       </c>
@@ -10169,7 +10189,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -10235,7 +10255,7 @@
       <c r="B3" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
         <v>429</v>
       </c>
@@ -10449,7 +10469,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>482</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -10687,38 +10707,50 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>543</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>549</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10729,14 +10761,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10746,15 +10778,15 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="26" t="s">
-        <v>550</v>
+      <c r="G23" s="27" t="s">
+        <v>556</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10781,92 +10813,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="22" t="s">
-        <v>553</v>
+      <c r="A1" s="23" t="s">
+        <v>559</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>555</v>
+        <v>560</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>561</v>
       </c>
       <c r="H1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>564</v>
+      </c>
+      <c r="C2" s="25"/>
       <c r="D2" s="3" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -10881,123 +10913,123 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
@@ -11005,29 +11037,29 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -11038,7 +11070,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11068,8 +11100,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -11093,7 +11125,7 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="11" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>110</v>
@@ -11102,626 +11134,626 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="M1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="S1" s="4" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M2" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="S2" s="3" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="19" t="s">
-        <v>645</v>
+      <c r="A3" s="21" t="s">
+        <v>651</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="S3" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>666</v>
+      <c r="A4" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="M4" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="S4" s="3" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="M5" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="O5"/>
       <c r="P5" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="Q5"/>
-      <c r="S5" s="19" t="s">
-        <v>645</v>
+      <c r="S5" s="21" t="s">
+        <v>651</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="M6" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="O6"/>
       <c r="P6" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="Q6"/>
       <c r="S6" s="3" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="M7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="Q7"/>
       <c r="S7" s="3" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="AO7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="M8" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="Q8"/>
       <c r="S8" s="3" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>23</v>
@@ -11733,30 +11765,30 @@
         <v>527</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10"/>
@@ -11765,16 +11797,16 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="Y10" s="3" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11783,16 +11815,16 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AK10" s="4" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="AO10" s="3"/>
       <c r="AP10" s="1"/>
@@ -11800,241 +11832,241 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="4" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="K11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="K12" s="3"/>
       <c r="AK12" s="4" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21" t="s">
-        <v>841</v>
+      <c r="A15" s="22" t="s">
+        <v>847</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12076,8 +12108,8 @@
   <sheetPr/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -12093,134 +12125,134 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
@@ -12228,669 +12260,689 @@
     </row>
     <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="O4" s="3"/>
+        <v>916</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>917</v>
+      </c>
       <c r="P4" s="3" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="8" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="O5" s="3"/>
+        <v>916</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>929</v>
+      </c>
       <c r="P5" s="3" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="O9" s="15"/>
+        <v>980</v>
+      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>984</v>
+        <v>988</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>989</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="Q10"/>
+        <v>990</v>
+      </c>
+      <c r="Q10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="M11" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
+      <c r="M12" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>1009</v>
+      </c>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="3"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
       <c r="S13" s="3" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="3" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
       <c r="S14" s="4" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -12898,14 +12950,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>
@@ -12919,6 +12971,9 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1" display="https://www.amazon.co.jp/stylesnap"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13500" firstSheet="1" activeTab="8"/>
+    <workbookView windowHeight="13644" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1355">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -765,6 +765,63 @@
     <t>在线建筑设计博客网站，涵盖设计的方方面面，更新速度非常快，内容更新每天至少更新两至三篇，拥有十分丰富的案例资源库。</t>
   </si>
   <si>
+    <t>大厂复盘</t>
+  </si>
+  <si>
+    <t>https://www.yuque.com/wikidesign/ykf0s9</t>
+  </si>
+  <si>
+    <t>收集各大厂项目复盘文章</t>
+  </si>
+  <si>
+    <t>ArtStation&lt;sup&gt; *&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>https://www.artstation.com</t>
+  </si>
+  <si>
+    <t>ArtStation 是一个在线 CG 网站，在上面有很多神级的大触</t>
+  </si>
+  <si>
+    <t>gooood</t>
+  </si>
+  <si>
+    <t>https://www.gooood.cn/</t>
+  </si>
+  <si>
+    <t>gooood是中国第一影响力与受欢迎的建筑/景观/设计门户与平台</t>
+  </si>
+  <si>
+    <t>大厂AI</t>
+  </si>
+  <si>
+    <t>https://www.yuque.com/wikidesign/vngzgk</t>
+  </si>
+  <si>
+    <t>看大厂如何用AI做设计</t>
+  </si>
+  <si>
+    <t>notefolio</t>
+  </si>
+  <si>
+    <t>https://notefolio.net</t>
+  </si>
+  <si>
+    <t>https://cdn-bastani.stunning.kr/static/feature/notefolioFavicon/favicon.ico</t>
+  </si>
+  <si>
+    <t>像国内站酷，是韩国一个综合型设计师交流社区，有平面设计、摄影、C4D、UX、UI设计、插画等</t>
+  </si>
+  <si>
+    <t>ARCHINA</t>
+  </si>
+  <si>
+    <t>http://archina.com</t>
+  </si>
+  <si>
+    <t>专注于建筑设计作品的传播，网站可以搜索到全球各个国家的项目作品</t>
+  </si>
+  <si>
     <t>纹藏</t>
   </si>
   <si>
@@ -777,22 +834,22 @@
     <t>纹藏Wenzang.art中国纹样线上博物馆</t>
   </si>
   <si>
-    <t>ArtStation&lt;sup&gt; *&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>https://www.artstation.com</t>
-  </si>
-  <si>
-    <t>ArtStation 是一个在线 CG 网站，在上面有很多神级的大触</t>
-  </si>
-  <si>
-    <t>gooood</t>
-  </si>
-  <si>
-    <t>https://www.gooood.cn/</t>
-  </si>
-  <si>
-    <t>gooood是中国第一影响力与受欢迎的建筑/景观/设计门户与平台</t>
+    <t>Another Graphic</t>
+  </si>
+  <si>
+    <t>https://anothergraphic.org</t>
+  </si>
+  <si>
+    <t>专注于排版处理的平面设计档案 形式新颖独特,工作之余可以参考学习</t>
+  </si>
+  <si>
+    <t>Gensler</t>
+  </si>
+  <si>
+    <t>https://www.gensler.com</t>
+  </si>
+  <si>
+    <t>全球最大建筑事务所,业务覆盖全球的建筑、设计及规划公司</t>
   </si>
   <si>
     <t>动效设计学习网</t>
@@ -807,25 +864,13 @@
     <t>Motion Great动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
   </si>
   <si>
-    <t>notefolio</t>
-  </si>
-  <si>
-    <t>https://notefolio.net</t>
-  </si>
-  <si>
-    <t>https://cdn-bastani.stunning.kr/static/feature/notefolioFavicon/favicon.ico</t>
-  </si>
-  <si>
-    <t>像国内站酷，是韩国一个综合型设计师交流社区，有平面设计、摄影、C4D、UX、UI设计、插画等</t>
-  </si>
-  <si>
-    <t>ARCHINA</t>
-  </si>
-  <si>
-    <t>http://archina.com</t>
-  </si>
-  <si>
-    <t>专注于建筑设计作品的传播，网站可以搜索到全球各个国家的项目作品</t>
+    <t>Visual Journal</t>
+  </si>
+  <si>
+    <t>https://visualjournal.it</t>
+  </si>
+  <si>
+    <t>汇集全球顶尖工作室的品牌设计案例，可通过案例页面左下角访问工作室网址</t>
   </si>
   <si>
     <t>Boss设计</t>
@@ -837,22 +882,13 @@
     <t>收集国外设计素材网站的资源平台</t>
   </si>
   <si>
-    <t>Another Graphic</t>
-  </si>
-  <si>
-    <t>https://anothergraphic.org</t>
-  </si>
-  <si>
-    <t>专注于排版处理的平面设计档案 形式新颖独特,工作之余可以参考学习</t>
-  </si>
-  <si>
-    <t>Gensler</t>
-  </si>
-  <si>
-    <t>https://www.gensler.com</t>
-  </si>
-  <si>
-    <t>全球最大建筑事务所,业务覆盖全球的建筑、设计及规划公司</t>
+    <t>Fonts in Use</t>
+  </si>
+  <si>
+    <t>https://fontsinuse.com</t>
+  </si>
+  <si>
+    <t>以案例为载体，呈现不同字体应用效果的网站，案例表明应用字体的名称，以成功案例学习不同字体的应用和搭配</t>
   </si>
   <si>
     <t>Canva可画</t>
@@ -864,13 +900,13 @@
     <t>一款在线设计工具</t>
   </si>
   <si>
-    <t>Visual Journal</t>
-  </si>
-  <si>
-    <t>https://visualjournal.it</t>
-  </si>
-  <si>
-    <t>汇集全球顶尖工作室的品牌设计案例，可通过案例页面左下角访问工作室网址</t>
+    <t>The moving poster</t>
+  </si>
+  <si>
+    <t>https://themovingposter.com</t>
+  </si>
+  <si>
+    <t>专注收录动态海报设计，作品新锐大胆</t>
   </si>
   <si>
     <t>创客贴</t>
@@ -882,13 +918,13 @@
     <t>在线编辑名片、海报、ppt、邀请函、贺卡、宣传单、展架、公众号推文图片等社交媒体图片。</t>
   </si>
   <si>
-    <t>Fonts in Use</t>
-  </si>
-  <si>
-    <t>https://fontsinuse.com</t>
-  </si>
-  <si>
-    <t>以案例为载体，呈现不同字体应用效果的网站，案例表明应用字体的名称，以成功案例学习不同字体的应用和搭配</t>
+    <t>One Page Love</t>
+  </si>
+  <si>
+    <t>https://onepagelove.com</t>
+  </si>
+  <si>
+    <t>全球最佳单页网站设计</t>
   </si>
   <si>
     <t>比格设计</t>
@@ -900,13 +936,13 @@
     <t>比格设计是一款在线图片编辑器网站，提供海量正版图片、海报图片、公众号配图、图片模板设计素材，大量图片素材均可免费在线图片制作设计，正版配图设计素材，商用无忧。</t>
   </si>
   <si>
-    <t>The moving poster</t>
-  </si>
-  <si>
-    <t>https://themovingposter.com</t>
-  </si>
-  <si>
-    <t>专注收录动态海报设计，作品新锐大胆</t>
+    <t>Bestfolios</t>
+  </si>
+  <si>
+    <t>https://www.bestfolios.com</t>
+  </si>
+  <si>
+    <t>收录全球优秀的 UI/UX 设计作品集，旨在激发设计人员创作思路，更好的将设计应用到产品中</t>
   </si>
   <si>
     <t>比格设计去水印</t>
@@ -921,13 +957,16 @@
     <t>搭配这个插件可以免 &lt;b&gt; vip&lt;sup&gt;+&lt;/sup&gt;&lt;/b&gt;下载比格设计的图</t>
   </si>
   <si>
-    <t>One Page Love</t>
-  </si>
-  <si>
-    <t>https://onepagelove.com</t>
-  </si>
-  <si>
-    <t>全球最佳单页网站设计</t>
+    <t>UI8</t>
+  </si>
+  <si>
+    <t>https://ui8.net</t>
+  </si>
+  <si>
+    <t>https://ui8.net/apple-touch-icon.png</t>
+  </si>
+  <si>
+    <t>收集来自世界各地三十多万优秀设计师和制造商分享的 UI 设计资源网站</t>
   </si>
   <si>
     <t>像素画</t>
@@ -942,13 +981,16 @@
     <t>一个分享好看的像素画的网站</t>
   </si>
   <si>
-    <t>Bestfolios</t>
-  </si>
-  <si>
-    <t>https://www.bestfolios.com</t>
-  </si>
-  <si>
-    <t>收录全球优秀的 UI/UX 设计作品集，旨在激发设计人员创作思路，更好的将设计应用到产品中</t>
+    <t>原研哉</t>
+  </si>
+  <si>
+    <t>https://www.ndc.co.jp/hara/cn</t>
+  </si>
+  <si>
+    <t>https://www.abc.design/wp-content/uploads/2022/07/2022072002541073.png</t>
+  </si>
+  <si>
+    <t>日本平面设计师</t>
   </si>
   <si>
     <t>迅排设计</t>
@@ -963,18 +1005,6 @@
     <t>源在线海报图片设计器,适用于多种场景: 海报图片生成、电商分享图、文章长图、视频/公众号封面等，无需下载软件即可轻松实现创意、迅速完成排版。</t>
   </si>
   <si>
-    <t>UI8</t>
-  </si>
-  <si>
-    <t>https://ui8.net</t>
-  </si>
-  <si>
-    <t>https://ui8.net/apple-touch-icon.png</t>
-  </si>
-  <si>
-    <t>收集来自世界各地三十多万优秀设计师和制造商分享的 UI 设计资源网站</t>
-  </si>
-  <si>
     <t>稿定设计</t>
   </si>
   <si>
@@ -982,18 +1012,6 @@
   </si>
   <si>
     <t>做图做视频必备_在线设计神器_海量版权素材模板</t>
-  </si>
-  <si>
-    <t>原研哉</t>
-  </si>
-  <si>
-    <t>https://www.ndc.co.jp/hara/cn</t>
-  </si>
-  <si>
-    <t>https://www.abc.design/wp-content/uploads/2022/07/2022072002541073.png</t>
-  </si>
-  <si>
-    <t>日本平面设计师</t>
   </si>
   <si>
     <t>即时设计</t>
@@ -5759,10 +5777,6 @@
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -5791,6 +5805,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -6216,7 +6234,7 @@
       </c>
       <c r="C1" s="34" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年5月20日</v>
+        <v>最后更新⌚ 2024年5月28日</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
@@ -7047,7 +7065,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="26"/>
+      <c r="AX21" s="25"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7088,7 +7106,7 @@
       <c r="B26" s="39"/>
       <c r="C26" s="41"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="26"/>
+      <c r="BD26" s="25"/>
       <c r="BE26" s="39"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
@@ -7202,7 +7220,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="26"/>
+      <c r="CB43" s="25"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7221,11 +7239,11 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="26"/>
+      <c r="CB49" s="25"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="26"/>
+      <c r="CB50" s="25"/>
       <c r="CC50" s="37"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
@@ -7262,40 +7280,40 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7304,13 +7322,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7320,14 +7338,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7448,14 +7466,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7465,28 +7483,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7495,28 +7513,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -7525,16 +7543,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7590,28 +7608,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7620,50 +7638,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>54</v>
@@ -7672,16 +7690,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7690,142 +7708,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7833,78 +7851,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7934,28 +7952,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7964,14 +7982,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -7980,140 +7998,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -8121,55 +8139,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8192,150 +8210,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8366,14 +8384,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8383,14 +8401,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8402,16 +8420,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8423,16 +8441,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -8446,14 +8464,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8465,16 +8483,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8486,46 +8504,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -8567,14 +8585,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8585,10 +8603,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8596,16 +8614,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -8613,112 +8631,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8773,10 +8791,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -8791,7 +8809,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3"/>
@@ -8916,7 +8934,7 @@
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
@@ -9018,117 +9036,113 @@
       <c r="A8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="P10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>199</v>
       </c>
@@ -9156,7 +9170,9 @@
       <c r="D12" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>206</v>
       </c>
@@ -9170,7 +9186,7 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -9200,50 +9216,44 @@
       <c r="B14" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>15</v>
@@ -9251,77 +9261,83 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>246</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C19" s="3"/>
@@ -9337,77 +9353,80 @@
       <c r="B20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" ht="22.8" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" ht="22.8" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>269</v>
       </c>
@@ -9417,6 +9436,7 @@
       <c r="D26" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
@@ -9427,6 +9447,28 @@
       </c>
       <c r="D27" s="4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -9453,168 +9495,168 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E3" s="7"/>
       <c r="G3" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="3"/>
@@ -9630,10 +9672,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>26</v>
@@ -9646,31 +9688,31 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
@@ -9678,78 +9720,78 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9785,26 +9827,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="25"/>
+        <v>356</v>
+      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
@@ -9815,14 +9857,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
@@ -9833,14 +9875,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9851,14 +9893,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -9869,16 +9911,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -9889,14 +9931,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -9907,62 +9949,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -10025,70 +10067,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -10097,74 +10139,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10199,22 +10241,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10223,133 +10265,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="25"/>
+        <v>434</v>
+      </c>
+      <c r="C3" s="24"/>
       <c r="D3" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>54</v>
@@ -10358,286 +10400,286 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22" t="s">
-        <v>482</v>
+      <c r="A11" s="21" t="s">
+        <v>488</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -10647,10 +10689,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>54</v>
@@ -10658,99 +10700,99 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10761,14 +10803,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10778,15 +10820,15 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="27" t="s">
-        <v>556</v>
+      <c r="G23" s="26" t="s">
+        <v>562</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10813,92 +10855,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="23" t="s">
-        <v>559</v>
+      <c r="A1" s="22" t="s">
+        <v>565</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>561</v>
+        <v>566</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>567</v>
       </c>
       <c r="H1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" s="25"/>
+        <v>570</v>
+      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -10906,130 +10948,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>584</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
@@ -11037,29 +11079,29 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -11070,7 +11112,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11125,7 +11167,7 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="11" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>110</v>
@@ -11134,626 +11176,626 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="M1" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="S1" s="4" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="M2" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="S2" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="21" t="s">
-        <v>651</v>
+      <c r="A3" s="20" t="s">
+        <v>657</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="S3" s="3" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="21" t="s">
-        <v>671</v>
+      <c r="A4" s="20" t="s">
+        <v>677</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="M4" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="S4" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="M5" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="O5"/>
       <c r="P5" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="Q5"/>
-      <c r="S5" s="21" t="s">
-        <v>651</v>
+      <c r="S5" s="20" t="s">
+        <v>657</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M6" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="O6"/>
       <c r="P6" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="Q6"/>
       <c r="S6" s="3" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="M7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="Q7"/>
       <c r="S7" s="3" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="AO7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="M8" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="Q8"/>
       <c r="S8" s="3" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>23</v>
@@ -11762,33 +11804,33 @@
         <v>24</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10"/>
@@ -11797,16 +11839,16 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="Y10" s="3" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>54</v>
@@ -11815,16 +11857,16 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AK10" s="4" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="AO10" s="3"/>
       <c r="AP10" s="1"/>
@@ -11832,241 +11874,241 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="4" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="K11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="K12" s="3"/>
       <c r="AK12" s="4" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="22" t="s">
-        <v>847</v>
+      <c r="A15" s="21" t="s">
+        <v>853</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12108,7 +12150,7 @@
   <sheetPr/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -12125,134 +12167,134 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="S1" s="4" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="8" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="E2" s="8"/>
       <c r="G2" s="3" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="8" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>26</v>
@@ -12260,406 +12302,406 @@
     </row>
     <row r="4" ht="15.6" spans="1:23">
       <c r="A4" s="8" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>917</v>
+        <v>922</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>923</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="8" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="3" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>929</v>
+        <v>922</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>935</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="3" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="3" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="3" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="Q12"/>
       <c r="S12" s="3" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="3" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -12670,29 +12712,29 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="S13" s="3" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="3" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -12701,27 +12743,27 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="S14" s="4" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -12730,219 +12772,219 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -12950,14 +12992,14 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13644" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19788" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1378">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
   <si>
-    <t>本站支持 &lt;b style="color:#bc37e79e;"&gt;站内搜索&lt;/b&gt; 分类不够细致，推荐直接搜索关键词，搜索框输入文字试试吧</t>
+    <t>本站支持 &lt;b style="color:#bc37e79e;"&gt;站内搜索&lt;/b&gt; 推荐直接搜索关键词，搜索框输入文字试试吧</t>
   </si>
   <si>
     <r>
@@ -236,6 +236,27 @@
     <t>在Dribbble上查找顶级设计师和创意专家。我们是设计师获得灵感、反馈、社区和工作的地方。您最好的资源来发现和联系世界各地的设计师</t>
   </si>
   <si>
+    <t>素材资源站</t>
+  </si>
+  <si>
+    <t>https://www.sucaizy.com</t>
+  </si>
+  <si>
+    <t>高质量免费设计剪辑后期建模资源收集网</t>
+  </si>
+  <si>
+    <t>紫 🔥</t>
+  </si>
+  <si>
+    <t>Collect UI</t>
+  </si>
+  <si>
+    <t>https://collectui.com</t>
+  </si>
+  <si>
+    <t>每日更新， UI设计师社区网站，展示和分享用户界面设计的灵感和创意</t>
+  </si>
+  <si>
     <t>资源汇社区</t>
   </si>
   <si>
@@ -245,16 +266,58 @@
     <t>👍全网最大优质免费资源分享社区</t>
   </si>
   <si>
-    <t>紫 🔥</t>
-  </si>
-  <si>
-    <t>Collect UI</t>
-  </si>
-  <si>
-    <t>https://collectui.com</t>
-  </si>
-  <si>
-    <t>每日更新， UI设计师社区网站，展示和分享用户界面设计的灵感和创意</t>
+    <t>Uiverse.io</t>
+  </si>
+  <si>
+    <t>https://uiverse.io</t>
+  </si>
+  <si>
+    <t>一个开源免费的UI组件库，包含丰富的UI组件 如按钮、复选框、开关、卡片、加载动画、输入框等</t>
+  </si>
+  <si>
+    <t>办公摩的</t>
+  </si>
+  <si>
+    <t>https://www.officemod.net</t>
+  </si>
+  <si>
+    <t>FICEMOD提供freepink素材解析，下载服务</t>
+  </si>
+  <si>
+    <t>Pixso</t>
+  </si>
+  <si>
+    <t>https://pixso.cn/community/home</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/15/842b696c-19e6-4eb9-9d3b-7febc94aa3977c7d15d4bee28992.png</t>
+  </si>
+  <si>
+    <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
+  </si>
+  <si>
+    <t>克隆窝</t>
+  </si>
+  <si>
+    <t>https://www.uy5.net/?aff=7168</t>
+  </si>
+  <si>
+    <t>优质免费资源,技术学习资源交流平台, 找资源可以先上这里看看</t>
+  </si>
+  <si>
+    <t>荐</t>
+  </si>
+  <si>
+    <t>Streamline</t>
+  </si>
+  <si>
+    <t>https://www.streamlinehq.com</t>
+  </si>
+  <si>
+    <t>https://framerusercontent.com/images/xYWUE6fSnRyPyBimyskHG7Gws.png</t>
+  </si>
+  <si>
+    <t>世界上最大的图标、插图、表情符号和元素集</t>
   </si>
   <si>
     <t>🏫框框大学</t>
@@ -266,13 +329,16 @@
     <t>各专业前辈们的学习建议</t>
   </si>
   <si>
-    <t>Uiverse.io</t>
-  </si>
-  <si>
-    <t>https://uiverse.io</t>
-  </si>
-  <si>
-    <t>一个开源免费的UI组件库，包含丰富的UI组件 如按钮、复选框、开关、卡片、加载动画、输入框等</t>
+    <t>Muzli Search</t>
+  </si>
+  <si>
+    <t>https://search.muz.li</t>
+  </si>
+  <si>
+    <t>https://search.muz.li/assets/images/favicon.png</t>
+  </si>
+  <si>
+    <t>搜索、发现、测试并为您的项目创建漂亮的调色板</t>
   </si>
   <si>
     <t>FreeOK - 追剧也很卷</t>
@@ -287,61 +353,16 @@
     <t>追剧FreeOK,最新电视剧,最新电影,动漫番剧,学习课程,免费在线观看,电影网站,电视剧大全,免费追剧</t>
   </si>
   <si>
-    <t>Pixso</t>
-  </si>
-  <si>
-    <t>https://pixso.cn/community/home</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/08/15/842b696c-19e6-4eb9-9d3b-7febc94aa3977c7d15d4bee28992.png</t>
-  </si>
-  <si>
-    <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
-  </si>
-  <si>
-    <t>Vega AI</t>
-  </si>
-  <si>
-    <t>https://www.vegaai.net</t>
-  </si>
-  <si>
-    <t>国内免费的ai绘画网站</t>
-  </si>
-  <si>
-    <t>Streamline</t>
-  </si>
-  <si>
-    <t>https://www.streamlinehq.com</t>
-  </si>
-  <si>
-    <t>https://framerusercontent.com/images/xYWUE6fSnRyPyBimyskHG7Gws.png</t>
-  </si>
-  <si>
-    <t>世界上最大的图标、插图、表情符号和元素集</t>
-  </si>
-  <si>
-    <t>克隆窝</t>
-  </si>
-  <si>
-    <t>https://www.uy5.net/?aff=7168</t>
-  </si>
-  <si>
-    <t>优质免费资源,技术学习资源交流平台, 找资源可以先上这里看看</t>
-  </si>
-  <si>
-    <t>荐</t>
-  </si>
-  <si>
-    <t>Muzli Search</t>
-  </si>
-  <si>
-    <t>https://search.muz.li</t>
-  </si>
-  <si>
-    <t>https://search.muz.li/assets/images/favicon.png</t>
-  </si>
-  <si>
-    <t>搜索、发现、测试并为您的项目创建漂亮的调色板</t>
+    <t>lottie</t>
+  </si>
+  <si>
+    <t>https://lottiefiles.com</t>
+  </si>
+  <si>
+    <t>https://static.lottiefiles.com/favicons-new/favicon-96x96.png</t>
+  </si>
+  <si>
+    <t>世界上最大的 lottie 动画平台,嵌入性很高。</t>
   </si>
   <si>
     <t>免费ChatGpt</t>
@@ -353,40 +374,19 @@
     <t>可以使用，来自没用的研究所收集的chatgpt</t>
   </si>
   <si>
-    <t>lottie</t>
-  </si>
-  <si>
-    <t>https://lottiefiles.com</t>
-  </si>
-  <si>
-    <t>https://static.lottiefiles.com/favicons-new/favicon-96x96.png</t>
-  </si>
-  <si>
-    <t>世界上最大的 lottie 动画平台,嵌入性很高。</t>
+    <t>lordicon</t>
+  </si>
+  <si>
+    <t>https://lordicon.com</t>
+  </si>
+  <si>
+    <t>一个提供动态图标集合的网站,同时提供html lottie gif等多种格式</t>
   </si>
   <si>
     <t>https://dw.dwai.life/list</t>
   </si>
   <si>
     <t>&lt;b&gt;授权码&lt;/b&gt;扫码关注公众号可获取</t>
-  </si>
-  <si>
-    <t>lordicon</t>
-  </si>
-  <si>
-    <t>https://lordicon.com</t>
-  </si>
-  <si>
-    <t>一个提供动态图标集合的网站,同时提供html lottie gif等多种格式</t>
-  </si>
-  <si>
-    <t>文件传输网页</t>
-  </si>
-  <si>
-    <t>https://wormhole.app</t>
-  </si>
-  <si>
-    <t>室友小白推荐：不限速单文件传输最大10G (免注册)</t>
   </si>
   <si>
     <t>后期屋（国内）</t>
@@ -2814,6 +2814,15 @@
     <t>相互搭配的1,345,300个免费图标</t>
   </si>
   <si>
+    <t>3ddd</t>
+  </si>
+  <si>
+    <t>https://3ddd.ru/</t>
+  </si>
+  <si>
+    <t>在线素材模型资源共享网是俄罗斯一个3D和2D素材共享下载的站点</t>
+  </si>
+  <si>
     <t>搜字体</t>
   </si>
   <si>
@@ -2826,16 +2835,7 @@
     <t>搜字体网提供图片字体识别、字体搜索、找字体、字体查询、求字体、识别字体、字体在线演示与字体下载服务，是提供给设计师的免费字体识别在线网站</t>
   </si>
   <si>
-    <t>素材资源</t>
-  </si>
-  <si>
-    <t>https://sucaizy.com</t>
-  </si>
-  <si>
-    <t>https://sucaizy.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>免费CG素材免费设计素材分享软件工具分享剪辑模板 PS插件 AE插件 后期模板 建模模型</t>
+    <t>https://www.rs1314.cn/wp-content/uploads/2024/04/877687687878.png</t>
   </si>
   <si>
     <t>Gratisography</t>
@@ -2856,6 +2856,15 @@
     <t>2600+基础图标icon，29 种图标分类，提供更多的选择</t>
   </si>
   <si>
+    <t>3dsky</t>
+  </si>
+  <si>
+    <t>https://3dsky.org</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
     <t>识字体网</t>
   </si>
   <si>
@@ -2892,6 +2901,18 @@
     <t>国外免费开源的图标库</t>
   </si>
   <si>
+    <t>8font</t>
+  </si>
+  <si>
+    <t>https://8font.com</t>
+  </si>
+  <si>
+    <t>https://8font.com/wp-content/uploads/logo-1.png</t>
+  </si>
+  <si>
+    <t>免费的，高质量的英文字体</t>
+  </si>
+  <si>
     <t>Istockphoto</t>
   </si>
   <si>
@@ -2916,6 +2937,15 @@
     <t>免费提供下载的矢量标志库</t>
   </si>
   <si>
+    <t>你的字体</t>
+  </si>
+  <si>
+    <t>https://www.ufonts.cn</t>
+  </si>
+  <si>
+    <t>免费可商用字体收录平台，还提供设计素材、样机模板以及实用的设计教程分享</t>
+  </si>
+  <si>
     <t>视觉传达</t>
   </si>
   <si>
@@ -3048,6 +3078,12 @@
     <t>icon-gongju</t>
   </si>
   <si>
+    <t>🤗A I工具</t>
+  </si>
+  <si>
+    <t>一些好用的ai工具网站</t>
+  </si>
+  <si>
     <t>🖼️ 在线抠图</t>
   </si>
   <si>
@@ -3055,204 +3091,6 @@
   </si>
   <si>
     <t>🔁 转换工具</t>
-  </si>
-  <si>
-    <t>Bigjpg</t>
-  </si>
-  <si>
-    <t>https://bigjpg.com</t>
-  </si>
-  <si>
-    <t>AI人工智能图片无损放大 - 使用人工智能深度卷积神经网络(CNN)无损放大图片</t>
-  </si>
-  <si>
-    <t>在线抠图</t>
-  </si>
-  <si>
-    <t>https://www.remove.bg/zh</t>
-  </si>
-  <si>
-    <t>上传图片即可在5秒钟内自动删除图像背景 &lt;a rel="noopener external nofollow noreferrer" target="_blank" href="https://www.remove.bg/r/pUvF2eAR6p4Z1sqHBqh5sz6s?locale=zh"&gt;👉领积分&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>百度识图</t>
-  </si>
-  <si>
-    <t>http://image.baidu.com/?fr=shitu/</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>百度以图搜图</t>
-  </si>
-  <si>
-    <t>PDF工具</t>
-  </si>
-  <si>
-    <t>http://www.bossdesign.cn/pdftools</t>
-  </si>
-  <si>
-    <t>👍免费PDF在线转换工具合辑——boss设计</t>
-  </si>
-  <si>
-    <t>图片清晰吧</t>
-  </si>
-  <si>
-    <t>https://www.tpqxb.com</t>
-  </si>
-  <si>
-    <t>https://www.tpqxb.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>专业的图片处理网站，提供图片变清晰和人像修图两大功能</t>
-  </si>
-  <si>
-    <t>佐糖在线抠图</t>
-  </si>
-  <si>
-    <t>https://picwish.cn/remove-background</t>
-  </si>
-  <si>
-    <t>https://qncdn.aoscdn.com/astro/picwish/_astro/favicon@30w.61721eae.png</t>
-  </si>
-  <si>
-    <t>上传图片，智能AI自动识别并抠图，支持一键更换背景，适用于电商、证件照等。</t>
-  </si>
-  <si>
-    <t>Yandex搜图</t>
-  </si>
-  <si>
-    <t>https://yandex.com/images</t>
-  </si>
-  <si>
-    <t>Yandex以图搜图</t>
-  </si>
-  <si>
-    <t>iLovePDF</t>
-  </si>
-  <si>
-    <t>https://www.ilovepdf.com/zh-cn</t>
-  </si>
-  <si>
-    <t>https://www.ilovepdf.com/img/app-icon.png</t>
-  </si>
-  <si>
-    <t>为PDF爱好者提供的PDF文件在线处理工具，解锁 合并 压缩 拆分 转换…</t>
-  </si>
-  <si>
-    <t>清图</t>
-  </si>
-  <si>
-    <t>https://qingtu.cn</t>
-  </si>
-  <si>
-    <t>将模糊图片变清晰的在线工具，每天签到可获取免费无水印处理次数</t>
-  </si>
-  <si>
-    <t>千图抠图工具</t>
-  </si>
-  <si>
-    <t>http://koutu.58pic.com</t>
-  </si>
-  <si>
-    <t>AI自动抠图-千图网旗下抠图工具</t>
-  </si>
-  <si>
-    <t>亚马逊 搜图</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/stylesnap</t>
-  </si>
-  <si>
-    <t>亚马逊以图搜图 shop the look</t>
-  </si>
-  <si>
-    <t>在线PDF</t>
-  </si>
-  <si>
-    <t>https://www.pdf2go.com/zh</t>
-  </si>
-  <si>
-    <t>免费PDF在线转换工具</t>
-  </si>
-  <si>
-    <t>老照片修复</t>
-  </si>
-  <si>
-    <t>https://jpghd.com</t>
-  </si>
-  <si>
-    <t>https://jpghd.com/htdocs/favicon.ico</t>
-  </si>
-  <si>
-    <t>利用2023年最先进人工智能 AI 将老照片无损高清修复（支持老照片修复、老照片上色和魔法动态照片）</t>
-  </si>
-  <si>
-    <t>去除gif背景</t>
-  </si>
-  <si>
-    <t>http://www.unscreen.com/upload</t>
-  </si>
-  <si>
-    <t>AI自动抠图去除gif背景 unscreen.com</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/stylesnap</t>
-  </si>
-  <si>
-    <t>小日本站亚马逊以图搜图，需科学上网</t>
-  </si>
-  <si>
-    <t>迅捷PDF转换器</t>
-  </si>
-  <si>
-    <t>http://app.xunjiepdf.com</t>
-  </si>
-  <si>
-    <t>👍迅捷PDF转换器，免费版可以借我的会员有效期：2023-4-3</t>
-  </si>
-  <si>
-    <t>水印一键去去去</t>
-  </si>
-  <si>
-    <t>https://quququ.cn</t>
-  </si>
-  <si>
-    <t>https://quququ.cn/icon.png</t>
-  </si>
-  <si>
-    <t>一款图片在线去水印网站，永久免费，使用人工智能技术，支持批量去除图片中的文字、标志，多余物体等多种水印，去水印不留痕，不压画质， 高质不糊图！</t>
-  </si>
-  <si>
-    <t>Pixian.ai(抠图) &lt;sup&gt; *&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>https://pixian.ai</t>
-  </si>
-  <si>
-    <t>https://dq2gn5p12glyq.cloudfront.net/p/assets/m/favicons/pixian/apple-touch-icon-180_e5c5e123409b599a279b94c9a92e643f.png</t>
-  </si>
-  <si>
-    <t>基于AI能力的一键轻松实现在线免费抠图的智能工具</t>
-  </si>
-  <si>
-    <t>whatanime</t>
-  </si>
-  <si>
-    <t>http://trace.moe</t>
-  </si>
-  <si>
-    <t>whatanime（以图搜动画）</t>
-  </si>
-  <si>
-    <t>文档格式在线转换</t>
-  </si>
-  <si>
-    <t>http://smallpdf.com</t>
-  </si>
-  <si>
-    <t>英文的网站，文档格式在线转换</t>
   </si>
   <si>
     <t>excalidraw流程图</t>
@@ -3293,6 +3131,267 @@
     </r>
   </si>
   <si>
+    <t>在线消除笔</t>
+  </si>
+  <si>
+    <t>https://remove.photos/zh-cn/remove-unwanted-object-result</t>
+  </si>
+  <si>
+    <t>https://remove.photos/images/menu-remove-uwo.jpg</t>
+  </si>
+  <si>
+    <t>轻松移除图片上的多余物体</t>
+  </si>
+  <si>
+    <t>在线抠图</t>
+  </si>
+  <si>
+    <t>https://www.remove.bg/zh</t>
+  </si>
+  <si>
+    <t>上传图片即可在5秒钟内自动删除图像背景 &lt;a rel="noopener external nofollow noreferrer" target="_blank" href="https://www.remove.bg/r/pUvF2eAR6p4Z1sqHBqh5sz6s?locale=zh"&gt;👉领积分&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>百度识图</t>
+  </si>
+  <si>
+    <t>http://image.baidu.com/?fr=shitu/</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>百度以图搜图</t>
+  </si>
+  <si>
+    <t>PDF工具</t>
+  </si>
+  <si>
+    <t>http://www.bossdesign.cn/pdftools</t>
+  </si>
+  <si>
+    <t>👍免费PDF在线转换工具合辑——boss设计</t>
+  </si>
+  <si>
+    <t>在线xmind</t>
+  </si>
+  <si>
+    <t>https://tools.fun/xmind.html</t>
+  </si>
+  <si>
+    <t>https://tools.fun/assets/image/6f33286edb.png</t>
+  </si>
+  <si>
+    <t>Xmind在线思维导图制作,和前面的流程图互补使用</t>
+  </si>
+  <si>
+    <t>Bigjpg</t>
+  </si>
+  <si>
+    <t>https://bigjpg.com</t>
+  </si>
+  <si>
+    <t>AI人工智能图片无损放大 - 使用人工智能深度卷积神经网络(CNN)无损放大图片</t>
+  </si>
+  <si>
+    <t>佐糖在线抠图</t>
+  </si>
+  <si>
+    <t>https://picwish.cn/remove-background</t>
+  </si>
+  <si>
+    <t>https://qncdn.aoscdn.com/astro/picwish/_astro/favicon@30w.61721eae.png</t>
+  </si>
+  <si>
+    <t>上传图片，智能AI自动识别并抠图，支持一键更换背景，适用于电商、证件照等。</t>
+  </si>
+  <si>
+    <t>Yandex搜图</t>
+  </si>
+  <si>
+    <t>https://yandex.com/images</t>
+  </si>
+  <si>
+    <t>Yandex以图搜图</t>
+  </si>
+  <si>
+    <t>iLovePDF</t>
+  </si>
+  <si>
+    <t>https://www.ilovepdf.com/zh-cn</t>
+  </si>
+  <si>
+    <t>https://www.ilovepdf.com/img/app-icon.png</t>
+  </si>
+  <si>
+    <t>为PDF爱好者提供的PDF文件在线处理工具，解锁 合并 压缩 拆分 转换…</t>
+  </si>
+  <si>
+    <t>ProcessOn</t>
+  </si>
+  <si>
+    <t>http://www.processon.com</t>
+  </si>
+  <si>
+    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
+  </si>
+  <si>
+    <t>图片清晰吧</t>
+  </si>
+  <si>
+    <t>https://www.tpqxb.com</t>
+  </si>
+  <si>
+    <t>https://www.tpqxb.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>专业的图片处理网站，提供图片变清晰和人像修图两大功能</t>
+  </si>
+  <si>
+    <t>千图抠图工具</t>
+  </si>
+  <si>
+    <t>http://koutu.58pic.com</t>
+  </si>
+  <si>
+    <t>AI自动抠图-千图网旗下抠图工具</t>
+  </si>
+  <si>
+    <t>亚马逊 搜图</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/stylesnap</t>
+  </si>
+  <si>
+    <t>亚马逊以图搜图 shop the look</t>
+  </si>
+  <si>
+    <t>在线PDF</t>
+  </si>
+  <si>
+    <t>https://www.pdf2go.com/zh</t>
+  </si>
+  <si>
+    <t>免费PDF在线转换工具</t>
+  </si>
+  <si>
+    <t>改图鸭</t>
+  </si>
+  <si>
+    <t>https://www.gaituya.com</t>
+  </si>
+  <si>
+    <t>在线证件照、图片压缩、图片编辑、图片格式转换工具</t>
+  </si>
+  <si>
+    <t>清图</t>
+  </si>
+  <si>
+    <t>https://qingtu.cn</t>
+  </si>
+  <si>
+    <t>将模糊图片变清晰的在线工具，每天签到可获取免费无水印处理次数</t>
+  </si>
+  <si>
+    <t>去除gif背景</t>
+  </si>
+  <si>
+    <t>http://www.unscreen.com/upload</t>
+  </si>
+  <si>
+    <t>AI自动抠图去除gif背景 unscreen.com</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/stylesnap</t>
+  </si>
+  <si>
+    <t>小日本站亚马逊以图搜图，需科学上网</t>
+  </si>
+  <si>
+    <t>迅捷PDF转换器</t>
+  </si>
+  <si>
+    <t>http://app.xunjiepdf.com</t>
+  </si>
+  <si>
+    <t>👍迅捷PDF转换器，免费版可以借我的会员有效期：2023-4-3</t>
+  </si>
+  <si>
+    <t>改图神器</t>
+  </si>
+  <si>
+    <t>https://img.logosc.cn</t>
+  </si>
+  <si>
+    <t>这是一款完全免费简单好用的在线万能图片编辑器，无需注册即开即用，支持多种格式图片。功能包括：图片编辑、一键抠图、格式转换、水印添加、图片压缩、无损放大、漫画头像、证件照制作、转矢量图、透明背景、GIF编辑器</t>
+  </si>
+  <si>
+    <t>老照片修复</t>
+  </si>
+  <si>
+    <t>https://jpghd.com</t>
+  </si>
+  <si>
+    <t>https://jpghd.com/htdocs/favicon.ico</t>
+  </si>
+  <si>
+    <t>利用2023年最先进人工智能 AI 将老照片无损高清修复（支持老照片修复、老照片上色和魔法动态照片）</t>
+  </si>
+  <si>
+    <t>Pixian.ai(抠图) &lt;sup&gt; *&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>https://pixian.ai</t>
+  </si>
+  <si>
+    <t>https://dq2gn5p12glyq.cloudfront.net/p/assets/m/favicons/pixian/apple-touch-icon-180_e5c5e123409b599a279b94c9a92e643f.png</t>
+  </si>
+  <si>
+    <t>基于AI能力的一键轻松实现在线免费抠图的智能工具</t>
+  </si>
+  <si>
+    <t>whatanime</t>
+  </si>
+  <si>
+    <t>http://trace.moe</t>
+  </si>
+  <si>
+    <t>whatanime（以图搜动画）</t>
+  </si>
+  <si>
+    <t>文档格式在线转换</t>
+  </si>
+  <si>
+    <t>http://smallpdf.com</t>
+  </si>
+  <si>
+    <t>英文的网站，文档格式在线转换</t>
+  </si>
+  <si>
+    <t>免费视频压缩</t>
+  </si>
+  <si>
+    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
+  </si>
+  <si>
+    <t>兵哥推荐，免费的视频压缩工具</t>
+  </si>
+  <si>
+    <t>水印一键去去去</t>
+  </si>
+  <si>
+    <t>https://quququ.cn</t>
+  </si>
+  <si>
+    <t>https://quququ.cn/icon.png</t>
+  </si>
+  <si>
+    <t>一款图片在线去水印网站，永久免费，使用人工智能技术，支持批量去除图片中的文字、标志，多余物体等多种水印，去水印不留痕，不压画质， 高质不糊图！</t>
+  </si>
+  <si>
     <t>https://create.pixelcut.ai/background-remover</t>
   </si>
   <si>
@@ -3317,16 +3416,25 @@
     <t>👍 文档转换，视频压缩，可以转换各种文件类型，如影片、音讯、文件、文件和图像</t>
   </si>
   <si>
-    <t>在线xmind</t>
-  </si>
-  <si>
-    <t>https://tools.fun/xmind.html</t>
-  </si>
-  <si>
-    <t>https://tools.fun/assets/image/6f33286edb.png</t>
-  </si>
-  <si>
-    <t>Xmind在线思维导图制作,和前面的流程图互补使用</t>
+    <t>png压缩</t>
+  </si>
+  <si>
+    <t>http://tinify.cn</t>
+  </si>
+  <si>
+    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低，图片压缩</t>
+  </si>
+  <si>
+    <t>AI 视频无损放大/补帧</t>
+  </si>
+  <si>
+    <t>https://bigmp4.com</t>
+  </si>
+  <si>
+    <t>https://bigmp4.com/htdocs/favicon.ico</t>
+  </si>
+  <si>
+    <t>人工智能视频无损放大, 使用2023年最先进人工智能 AI 模型，能将视频无损高清放大、增强画质、智能补帧使画面丝滑流畅栩栩如生同时支持黑白视频上色和慢动作</t>
   </si>
   <si>
     <t>BgSub</t>
@@ -3356,13 +3464,22 @@
     <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
   </si>
   <si>
-    <t>ProcessOn</t>
-  </si>
-  <si>
-    <t>http://www.processon.com</t>
-  </si>
-  <si>
-    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
+    <t>图片压缩</t>
+  </si>
+  <si>
+    <t>http://www.yasuotu.com</t>
+  </si>
+  <si>
+    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
+  </si>
+  <si>
+    <t>ai扩图</t>
+  </si>
+  <si>
+    <t>https://clipdrop.co/uncrop</t>
+  </si>
+  <si>
+    <t>Uncrop 可以将现有图像向外进行绘制拓展，并且支持用户自定义外绘的宽高比以及原始图像的位置。</t>
   </si>
   <si>
     <t>Dewatermark</t>
@@ -3392,13 +3509,22 @@
     <t>打开是英文的，英语不是很好也能差不多能看懂</t>
   </si>
   <si>
-    <t>改图鸭</t>
-  </si>
-  <si>
-    <t>https://www.gaituya.com</t>
-  </si>
-  <si>
-    <t>在线证件照、图片压缩、图片编辑、图片格式转换工具</t>
+    <t>https://wch666.com/api/b/img_zip_new/</t>
+  </si>
+  <si>
+    <t>https://pc3.gtimg.com/softmgr/logo/48/26881_48_1607329820.png</t>
+  </si>
+  <si>
+    <t>特色地方: 非常美的UI，让你的体验更上一层楼</t>
+  </si>
+  <si>
+    <t>Cleapup智能修图</t>
+  </si>
+  <si>
+    <t>https://clipdrop.co/cleanup</t>
+  </si>
+  <si>
+    <t>智能识别用户所圈选的对象，如人物、物品、文字等，然后在十几秒内进行无痕抹除处理。</t>
   </si>
   <si>
     <t>iPlant 植物智</t>
@@ -3419,13 +3545,22 @@
     <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
   </si>
   <si>
-    <t>改图神器</t>
-  </si>
-  <si>
-    <t>https://img.logosc.cn</t>
-  </si>
-  <si>
-    <t>这是一款完全免费简单好用的在线万能图片编辑器，无需注册即开即用，支持多种格式图片。功能包括：图片编辑、一键抠图、格式转换、水印添加、图片压缩、无损放大、漫画头像、证件照制作、转矢量图、透明背景、GIF编辑器</t>
+    <t>GIF闪图在线制作</t>
+  </si>
+  <si>
+    <t>https://tools.kalvinbg.cn/image/gif</t>
+  </si>
+  <si>
+    <t>多张静态图片合成Gif动态图片，支持生成表情包动图、自定义配置顺序、gif闪动速度等</t>
+  </si>
+  <si>
+    <t>Clipdrop</t>
+  </si>
+  <si>
+    <t>https://clipdrop.co</t>
+  </si>
+  <si>
+    <t>一个AI设计编辑工具平台，提供了多种基于AI的图片编辑工具，如AI抠图去除背景，图像无损放大，AI绘画文本到图像，替换背景，文本去除等。</t>
   </si>
   <si>
     <t>搜图神器</t>
@@ -3446,16 +3581,22 @@
     <t>将您的 3D 网格/模型 STP 文件转换为 BLEND</t>
   </si>
   <si>
-    <t>免费视频压缩</t>
-  </si>
-  <si>
-    <t>https://www.flexclip.com/cn/tools/compress-video/</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/www.flexclip.com.png</t>
-  </si>
-  <si>
-    <t>兵哥推荐，免费的视频压缩工具</t>
+    <t>gif编辑器</t>
+  </si>
+  <si>
+    <t>https://ezgif.com</t>
+  </si>
+  <si>
+    <t>亲测可以制作动态qq头像</t>
+  </si>
+  <si>
+    <t>产品主图生成</t>
+  </si>
+  <si>
+    <t>https://create.pixelcut.ai/photo-shoot</t>
+  </si>
+  <si>
+    <t>扣产品，换背景，对一些普通的产品主图快速出图</t>
   </si>
   <si>
     <t>谷歌搜图</t>
@@ -3479,13 +3620,28 @@
     <t>将 PNG、JPG 文件在线转换为 SVG 矢量图 - Vectorizer.AI</t>
   </si>
   <si>
-    <t>png压缩</t>
-  </si>
-  <si>
-    <t>http://tinify.cn</t>
-  </si>
-  <si>
-    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低，图片压缩</t>
+    <t>UI尺寸规范</t>
+  </si>
+  <si>
+    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
+  </si>
+  <si>
+    <t>https://pic.zhaotu.me/2023/08/17/tmp9C5F031035118aaa34a7.png</t>
+  </si>
+  <si>
+    <t>iPhone/iPad/Android UI尺寸规范</t>
+  </si>
+  <si>
+    <t>学术优化</t>
+  </si>
+  <si>
+    <t>http://znsoft.x3322.net:88</t>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20240613/725728370223452160.png</t>
+  </si>
+  <si>
+    <t>GPT 学术优化 3.8</t>
   </si>
   <si>
     <t>png→svg</t>
@@ -3500,13 +3656,13 @@
     <t>在线png→svg,在线图片转矢量，png转矢量，png转svg</t>
   </si>
   <si>
-    <t>图片压缩</t>
-  </si>
-  <si>
-    <t>http://www.yasuotu.com</t>
-  </si>
-  <si>
-    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
+    <t>Screen Sizes</t>
+  </si>
+  <si>
+    <t>http://screensiz.es/</t>
+  </si>
+  <si>
+    <t>在线查询不同设备的屏幕尺寸</t>
   </si>
   <si>
     <t>Kbps→Mbps</t>
@@ -3518,54 +3674,6 @@
     <t>将 Kbps 转换为 Mbps</t>
   </si>
   <si>
-    <t>https://wch666.com/api/b/img_zip_new/</t>
-  </si>
-  <si>
-    <t>https://pc3.gtimg.com/softmgr/logo/48/26881_48_1607329820.png</t>
-  </si>
-  <si>
-    <t>特色地方: 非常美的UI，让你的体验更上一层楼</t>
-  </si>
-  <si>
-    <t>GIF闪图在线制作</t>
-  </si>
-  <si>
-    <t>https://tools.kalvinbg.cn/image/gif</t>
-  </si>
-  <si>
-    <t>多张静态图片合成Gif动态图片，支持生成表情包动图、自定义配置顺序、gif闪动速度等</t>
-  </si>
-  <si>
-    <t>gif编辑器</t>
-  </si>
-  <si>
-    <t>https://ezgif.com</t>
-  </si>
-  <si>
-    <t>亲测可以制作动态qq头像</t>
-  </si>
-  <si>
-    <t>UI尺寸规范</t>
-  </si>
-  <si>
-    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
-  </si>
-  <si>
-    <t>https://pic.zhaotu.me/2023/08/17/tmp9C5F031035118aaa34a7.png</t>
-  </si>
-  <si>
-    <t>iPhone/iPad/Android UI尺寸规范</t>
-  </si>
-  <si>
-    <t>Screen Sizes</t>
-  </si>
-  <si>
-    <t>http://screensiz.es/</t>
-  </si>
-  <si>
-    <t>在线查询不同设备的屏幕尺寸</t>
-  </si>
-  <si>
     <t>iOS设计规范</t>
   </si>
   <si>
@@ -3626,18 +3734,6 @@
     <t>免费在线二维码解码器</t>
   </si>
   <si>
-    <t>AI 视频无损放大/补帧</t>
-  </si>
-  <si>
-    <t>https://bigmp4.com</t>
-  </si>
-  <si>
-    <t>https://bigmp4.com/htdocs/favicon.ico</t>
-  </si>
-  <si>
-    <t>人工智能视频无损放大, 使用2023年最先进人工智能 AI 模型，能将视频无损高清放大、增强画质、智能补帧使画面丝滑流畅栩栩如生同时支持黑白视频上色和慢动作</t>
-  </si>
-  <si>
     <t>像素转换器</t>
   </si>
   <si>
@@ -3662,40 +3758,13 @@
     <t>在线文本比较工具,本工具可以方便大家快速对比两个文本文件中的不同之处，可以自动对两段文本比较，标注不同之处，结果清晰明了，可快速替换差异内容并将结果直接下载。</t>
   </si>
   <si>
-    <t>ai扩图</t>
-  </si>
-  <si>
-    <t>https://clipdrop.co/uncrop</t>
-  </si>
-  <si>
-    <t>Uncrop 可以将现有图像向外进行绘制拓展，并且支持用户自定义外绘的宽高比以及原始图像的位置。</t>
-  </si>
-  <si>
-    <t>Cleapup智能修图</t>
-  </si>
-  <si>
-    <t>https://clipdrop.co/cleanup</t>
-  </si>
-  <si>
-    <t>智能识别用户所圈选的对象，如人物、物品、文字等，然后在十几秒内进行无痕抹除处理。</t>
-  </si>
-  <si>
-    <t>Clipdrop</t>
-  </si>
-  <si>
-    <t>https://clipdrop.co</t>
-  </si>
-  <si>
-    <t>一个AI设计编辑工具平台，提供了多种基于AI的图片编辑工具，如AI抠图去除背景，图像无损放大，AI绘画文本到图像，替换背景，文本去除等。</t>
-  </si>
-  <si>
-    <t>产品主图生成</t>
-  </si>
-  <si>
-    <t>https://create.pixelcut.ai/photo-shoot</t>
-  </si>
-  <si>
-    <t>扣产品，换背景，对一些普通的产品主图快速出图</t>
+    <t>文件传输网页</t>
+  </si>
+  <si>
+    <t>https://wormhole.app</t>
+  </si>
+  <si>
+    <t>室友小白推荐：不限速单文件传输最大10G (免注册)</t>
   </si>
   <si>
     <t>💎 3D参考</t>
@@ -5026,14 +5095,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF1D232B"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线 Light"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5252,12 +5321,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5591,7 +5666,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5615,16 +5690,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5633,89 +5708,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5767,7 +5842,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5777,15 +5865,22 @@
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5800,26 +5895,22 @@
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5834,17 +5925,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -5853,7 +5948,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6180,75 +6275,75 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="29"/>
-    <col min="6" max="6" width="9" style="30"/>
-    <col min="7" max="11" width="9" style="29"/>
-    <col min="12" max="12" width="9" style="30"/>
-    <col min="13" max="17" width="9" style="29"/>
-    <col min="18" max="18" width="9" style="30"/>
-    <col min="19" max="23" width="9" style="29"/>
-    <col min="24" max="24" width="9" style="30"/>
-    <col min="25" max="29" width="9" style="29"/>
-    <col min="30" max="30" width="9" style="30"/>
-    <col min="31" max="35" width="9" style="29"/>
-    <col min="36" max="36" width="9" style="30"/>
-    <col min="37" max="41" width="9" style="29"/>
-    <col min="42" max="42" width="9" style="30"/>
-    <col min="43" max="47" width="9" style="29"/>
-    <col min="48" max="48" width="9" style="30"/>
-    <col min="49" max="53" width="9" style="29"/>
-    <col min="54" max="54" width="9" style="30"/>
-    <col min="55" max="59" width="9" style="29"/>
-    <col min="60" max="60" width="9" style="31"/>
-    <col min="61" max="65" width="9" style="29"/>
-    <col min="66" max="66" width="9" style="30"/>
-    <col min="67" max="71" width="9" style="29"/>
-    <col min="72" max="72" width="9" style="30"/>
-    <col min="73" max="77" width="9" style="29"/>
-    <col min="78" max="78" width="9" style="30"/>
-    <col min="79" max="83" width="9" style="29"/>
-    <col min="84" max="84" width="9" style="30"/>
-    <col min="85" max="89" width="9" style="29"/>
-    <col min="90" max="90" width="9" style="30"/>
-    <col min="91" max="95" width="9" style="29"/>
-    <col min="96" max="96" width="9" style="32"/>
-    <col min="97" max="101" width="9" style="29"/>
-    <col min="102" max="102" width="9" style="32"/>
-    <col min="103" max="107" width="9" style="29"/>
-    <col min="108" max="108" width="9" style="32"/>
-    <col min="109" max="16384" width="9" style="29"/>
+    <col min="1" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="9" style="35"/>
+    <col min="7" max="11" width="9" style="19"/>
+    <col min="12" max="12" width="9" style="35"/>
+    <col min="13" max="17" width="9" style="19"/>
+    <col min="18" max="18" width="9" style="35"/>
+    <col min="19" max="23" width="9" style="19"/>
+    <col min="24" max="24" width="9" style="35"/>
+    <col min="25" max="29" width="9" style="19"/>
+    <col min="30" max="30" width="9" style="35"/>
+    <col min="31" max="35" width="9" style="19"/>
+    <col min="36" max="36" width="9" style="35"/>
+    <col min="37" max="41" width="9" style="19"/>
+    <col min="42" max="42" width="9" style="35"/>
+    <col min="43" max="47" width="9" style="19"/>
+    <col min="48" max="48" width="9" style="35"/>
+    <col min="49" max="53" width="9" style="19"/>
+    <col min="54" max="54" width="9" style="35"/>
+    <col min="55" max="59" width="9" style="19"/>
+    <col min="60" max="60" width="9" style="36"/>
+    <col min="61" max="65" width="9" style="19"/>
+    <col min="66" max="66" width="9" style="35"/>
+    <col min="67" max="71" width="9" style="19"/>
+    <col min="72" max="72" width="9" style="35"/>
+    <col min="73" max="77" width="9" style="19"/>
+    <col min="78" max="78" width="9" style="35"/>
+    <col min="79" max="83" width="9" style="19"/>
+    <col min="84" max="84" width="9" style="35"/>
+    <col min="85" max="89" width="9" style="19"/>
+    <col min="90" max="90" width="9" style="35"/>
+    <col min="91" max="95" width="9" style="19"/>
+    <col min="96" max="96" width="9" style="37"/>
+    <col min="97" max="101" width="9" style="19"/>
+    <col min="102" max="102" width="9" style="37"/>
+    <col min="103" max="107" width="9" style="19"/>
+    <col min="108" max="108" width="9" style="37"/>
+    <col min="109" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="str">
+      <c r="C1" s="39" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年5月28日</v>
-      </c>
-      <c r="D1" s="35" t="s">
+        <v>最后更新⌚ 2024年6月13日</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="13"/>
@@ -6260,7 +6355,7 @@
       <c r="AW1" s="13"/>
       <c r="BC1" s="13"/>
       <c r="BI1" s="13"/>
-      <c r="BN1" s="31"/>
+      <c r="BN1" s="36"/>
       <c r="BO1" s="13"/>
       <c r="BU1" s="13"/>
       <c r="CA1" s="13"/>
@@ -6270,22 +6365,22 @@
       <c r="CY1" s="13"/>
       <c r="DE1" s="13"/>
     </row>
-    <row r="2" s="29" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="29" t="s">
+    <row r="2" s="19" customFormat="1" ht="13.8" spans="1:113">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -6294,76 +6389,76 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BH2" s="31"/>
-      <c r="BN2" s="31"/>
-      <c r="BT2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CF2" s="30"/>
-      <c r="CL2" s="30"/>
-      <c r="CR2" s="32"/>
-      <c r="CX2" s="32"/>
-      <c r="DD2" s="32"/>
-      <c r="DI2" s="29" t="s">
+      <c r="L2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BH2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BT2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CF2" s="35"/>
+      <c r="CL2" s="35"/>
+      <c r="CR2" s="37"/>
+      <c r="CX2" s="37"/>
+      <c r="DD2" s="37"/>
+      <c r="DI2" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="43"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="38"/>
+      <c r="Q3" s="43"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="41"/>
-      <c r="AC3" s="38"/>
+      <c r="AA3" s="47"/>
+      <c r="AC3" s="43"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="38"/>
+      <c r="AI3" s="43"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="41"/>
-      <c r="BA3" s="38"/>
+      <c r="AY3" s="47"/>
+      <c r="BA3" s="43"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="39"/>
-      <c r="BN3" s="31"/>
+      <c r="BK3" s="45"/>
+      <c r="BN3" s="36"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6375,56 +6470,56 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="43"/>
+      <c r="CX3" s="49"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="43"/>
+      <c r="DD3" s="49"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="29" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="43"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="39"/>
+      <c r="Q4" s="45"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="39"/>
-      <c r="AC4" s="39"/>
+      <c r="AA4" s="45"/>
+      <c r="AC4" s="45"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="41"/>
-      <c r="AU4" s="38"/>
+      <c r="AS4" s="47"/>
+      <c r="AU4" s="43"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="38"/>
+      <c r="BG4" s="43"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="39"/>
+      <c r="BK4" s="45"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6435,50 +6530,50 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="44"/>
+      <c r="CV4" s="50"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
     <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="43"/>
+      <c r="G5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="29" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="43"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="43"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="38"/>
+      <c r="AU5" s="43"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="42"/>
+      <c r="BF5" s="48"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6495,38 +6590,36 @@
       <c r="DF5" s="4"/>
       <c r="DG5" s="4"/>
     </row>
-    <row r="6" ht="13.8" spans="1:112">
-      <c r="A6" s="29" t="s">
+    <row r="6" ht="45.6" spans="1:112">
+      <c r="A6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="G6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="38"/>
+      <c r="K6" s="43"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="38"/>
+      <c r="Q6" s="43"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="41"/>
-      <c r="W6" s="38"/>
+      <c r="U6" s="47"/>
+      <c r="W6" s="43"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6535,9 +6628,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="38"/>
+      <c r="BG6" s="43"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="39"/>
+      <c r="BK6" s="45"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6548,22 +6641,25 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="37"/>
-      <c r="DG6" s="37"/>
-      <c r="DH6" s="44"/>
+      <c r="DF6" s="20"/>
+      <c r="DG6" s="20"/>
+      <c r="DH6" s="50"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6572,16 +6668,16 @@
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="43"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="39"/>
-      <c r="Q7" s="38"/>
+      <c r="O7" s="45"/>
+      <c r="Q7" s="43"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="39"/>
-      <c r="W7" s="39"/>
+      <c r="U7" s="45"/>
+      <c r="W7" s="45"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6602,37 +6698,35 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="37"/>
+      <c r="DF7" s="20"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="43"/>
+      <c r="G8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>58</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="38"/>
+      <c r="Q8" s="43"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6642,7 +6736,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="39"/>
+      <c r="AU8" s="45"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6659,21 +6753,23 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="37"/>
-      <c r="DG8" s="37"/>
+      <c r="DF8" s="20"/>
+      <c r="DG8" s="20"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="19" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6682,12 +6778,12 @@
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="19" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="43"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6706,39 +6802,36 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="37"/>
+      <c r="CU9" s="20"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="37"/>
-      <c r="DG9" s="37"/>
+      <c r="DF9" s="20"/>
+      <c r="DG9" s="20"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="G10" s="19" t="s">
         <v>69</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="29" t="s">
-        <v>70</v>
+      <c r="J10" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="38"/>
+      <c r="Q10" s="43"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6747,7 +6840,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="38"/>
+      <c r="AO10" s="43"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6756,7 +6849,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="37"/>
+      <c r="BQ10" s="20"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6765,37 +6858,40 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="19" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="43"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="39"/>
-      <c r="AO11" s="39"/>
+      <c r="AM11" s="45"/>
+      <c r="AO11" s="45"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6804,35 +6900,35 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="37"/>
+      <c r="BQ11" s="20"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="37"/>
-      <c r="DG11" s="37"/>
+      <c r="DF11" s="20"/>
+      <c r="DG11" s="20"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="19" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="19" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="5"/>
@@ -6850,20 +6946,20 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="37"/>
+      <c r="CU12" s="20"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="19" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6872,7 +6968,7 @@
       <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="19" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="4"/>
@@ -6882,18 +6978,18 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="39"/>
+      <c r="BE13" s="45"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="37"/>
+      <c r="CN13" s="20"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="19" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -6902,11 +6998,11 @@
       <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="29" t="s">
-        <v>54</v>
+      <c r="K14" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="N14" s="4"/>
       <c r="T14" s="4"/>
@@ -6922,18 +7018,18 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="37"/>
+      <c r="CN14" s="20"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="19" t="s">
         <v>96</v>
       </c>
       <c r="N15" s="4"/>
@@ -6944,7 +7040,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="39"/>
+      <c r="BE15" s="45"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -6953,14 +7049,14 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="19" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="29" t="s">
+      <c r="I16" s="20"/>
+      <c r="J16" s="19" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="4"/>
@@ -6979,13 +7075,13 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="19" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="19" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="4"/>
@@ -6996,16 +7092,16 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="39"/>
+      <c r="BE17" s="45"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="39"/>
+      <c r="BK17" s="45"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="19" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -7014,7 +7110,7 @@
       <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="19" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="4"/>
@@ -7050,7 +7146,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="39"/>
+      <c r="AF20" s="45"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -7065,7 +7161,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="25"/>
+      <c r="AX21" s="31"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7092,10 +7188,7 @@
       <c r="CB24" s="4"/>
       <c r="CC24" s="4"/>
     </row>
-    <row r="25" ht="13.8" spans="2:80">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="E25" s="38"/>
+    <row r="25" ht="13.8" spans="20:80">
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="BV25" s="5"/>
@@ -7103,50 +7196,53 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="39"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="E26" s="43"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="39"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="45"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="47"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="39"/>
+      <c r="BE27" s="45"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
     </row>
-    <row r="28" ht="13.8" spans="20:81">
+    <row r="28" ht="13.8" spans="2:81">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="BV28" s="4"/>
       <c r="CB28" s="4"/>
       <c r="CC28" s="4"/>
     </row>
-    <row r="29" ht="13.8" spans="2:80">
-      <c r="B29" s="39"/>
-      <c r="C29" s="37"/>
+    <row r="29" ht="13.8" spans="20:80">
       <c r="T29" s="5"/>
       <c r="BV29" s="4"/>
       <c r="BW29" s="4"/>
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="39"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="20"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
       <c r="CB30" s="4"/>
       <c r="CC30" s="4"/>
     </row>
-    <row r="31" ht="13.8" spans="20:80">
+    <row r="31" ht="13.8" spans="2:80">
+      <c r="B31" s="45"/>
+      <c r="C31" s="20"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="BV31" s="4"/>
@@ -7156,7 +7252,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="17"/>
+      <c r="BU32" s="18"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7183,7 +7279,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="39"/>
+      <c r="CC36" s="45"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7203,7 +7299,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="18"/>
+      <c r="BW40" s="22"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7220,7 +7316,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="25"/>
+      <c r="CB43" s="31"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7239,12 +7335,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="25"/>
+      <c r="CB49" s="31"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="25"/>
-      <c r="CC50" s="37"/>
+      <c r="CB50" s="31"/>
+      <c r="CC50" s="20"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7280,7 +7376,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7292,28 +7388,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1095</v>
+        <v>1118</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1096</v>
+        <v>1119</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1097</v>
+        <v>1120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1098</v>
+        <v>1121</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1099</v>
+        <v>1122</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7322,13 +7418,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1100</v>
+        <v>1123</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1101</v>
+        <v>1124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1102</v>
+        <v>1125</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7338,14 +7434,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7466,14 +7562,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7483,76 +7579,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1108</v>
+        <v>1131</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1113</v>
+        <v>1136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1118</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1119</v>
+        <v>1142</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1121</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1122</v>
+        <v>1145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1123</v>
+        <v>1146</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7601,35 +7697,35 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1124</v>
+        <v>1147</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1125</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1126</v>
+        <v>1149</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1128</v>
+        <v>1151</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1129</v>
+        <v>1152</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7638,68 +7734,68 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1130</v>
+        <v>1153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1132</v>
+        <v>1155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1133</v>
+        <v>1156</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1135</v>
+        <v>1158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1136</v>
+        <v>1159</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1137</v>
+        <v>1160</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1139</v>
+        <v>1162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1140</v>
+        <v>1163</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1142</v>
+        <v>1165</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1143</v>
+        <v>1166</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1144</v>
+        <v>1167</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1145</v>
+        <v>1168</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1146</v>
+        <v>1169</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7708,142 +7804,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1149</v>
+        <v>1172</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1150</v>
+        <v>1173</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1151</v>
+        <v>1174</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1152</v>
+        <v>1175</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1153</v>
+        <v>1176</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1154</v>
+        <v>1177</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1155</v>
+        <v>1178</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1156</v>
+        <v>1179</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1157</v>
+        <v>1180</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1154</v>
+        <v>1177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1158</v>
+        <v>1181</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1159</v>
+        <v>1182</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1160</v>
+        <v>1183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1161</v>
+        <v>1184</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1162</v>
+        <v>1185</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1163</v>
+        <v>1186</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1164</v>
+        <v>1187</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1165</v>
+        <v>1188</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1166</v>
+        <v>1189</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1167</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1168</v>
+        <v>1191</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1169</v>
+        <v>1192</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1170</v>
+        <v>1193</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1171</v>
+        <v>1194</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1172</v>
+        <v>1195</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1174</v>
+        <v>1197</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1175</v>
+        <v>1198</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1176</v>
+        <v>1199</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1177</v>
+        <v>1200</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1179</v>
+        <v>1202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1180</v>
+        <v>1203</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1181</v>
+        <v>1204</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7851,78 +7947,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1183</v>
+        <v>1206</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1184</v>
+        <v>1207</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1185</v>
+        <v>1208</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1187</v>
+        <v>1210</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1188</v>
+        <v>1211</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1189</v>
+        <v>1212</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1190</v>
+        <v>1213</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1191</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1193</v>
+        <v>1216</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1194</v>
+        <v>1217</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1195</v>
+        <v>1218</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1196</v>
+        <v>1219</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1197</v>
+        <v>1220</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1199</v>
+        <v>1222</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1200</v>
+        <v>1223</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1201</v>
+        <v>1224</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1202</v>
+        <v>1225</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1203</v>
+        <v>1226</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -7952,28 +8048,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1204</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1205</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1206</v>
+        <v>1229</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1207</v>
+        <v>1230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1208</v>
+        <v>1231</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1209</v>
+        <v>1232</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -7982,212 +8078,212 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1210</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1211</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1212</v>
+        <v>1235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1213</v>
+        <v>1236</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1214</v>
+        <v>1237</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1216</v>
+        <v>1239</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1217</v>
+        <v>1240</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1218</v>
+        <v>1241</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1219</v>
+        <v>1242</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1220</v>
+        <v>1243</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1221</v>
+        <v>1244</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1222</v>
+        <v>1245</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1223</v>
+        <v>1246</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1225</v>
+        <v>1248</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1226</v>
+        <v>1249</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1228</v>
+        <v>1251</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1229</v>
+        <v>1252</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1231</v>
+        <v>1254</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1232</v>
+        <v>1255</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1233</v>
+        <v>1256</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1234</v>
+        <v>1257</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1235</v>
+        <v>1258</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1236</v>
+        <v>1259</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1238</v>
+        <v>1261</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1239</v>
+        <v>1262</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1241</v>
+        <v>1264</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1242</v>
+        <v>1265</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1243</v>
+        <v>1266</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1245</v>
+        <v>1268</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1246</v>
+        <v>1269</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1247</v>
+        <v>1270</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1248</v>
+        <v>1271</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1249</v>
+        <v>1272</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1250</v>
+        <v>1273</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1251</v>
+        <v>1274</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1252</v>
+        <v>1275</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1253</v>
+        <v>1276</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1254</v>
+        <v>1277</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8210,150 +8306,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1255</v>
+        <v>1278</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1256</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1257</v>
+        <v>1280</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1258</v>
+        <v>1281</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1259</v>
+        <v>1282</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1260</v>
+        <v>1283</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1261</v>
+        <v>1284</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1262</v>
+        <v>1285</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1264</v>
+        <v>1287</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1265</v>
+        <v>1288</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1266</v>
+        <v>1289</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1268</v>
+        <v>1291</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1272</v>
+        <v>1295</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1273</v>
+        <v>1296</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1274</v>
+        <v>1297</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1275</v>
+        <v>1298</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1276</v>
+        <v>1299</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1277</v>
+        <v>1300</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1278</v>
+        <v>1301</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1279</v>
+        <v>1302</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1280</v>
+        <v>1303</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1281</v>
+        <v>1304</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1282</v>
+        <v>1305</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1283</v>
+        <v>1306</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1284</v>
+        <v>1307</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1285</v>
+        <v>1308</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1286</v>
+        <v>1309</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1287</v>
+        <v>1310</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1288</v>
+        <v>1311</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8384,14 +8480,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1289</v>
+        <v>1312</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8401,14 +8497,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1290</v>
+        <v>1313</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1291</v>
+        <v>1314</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1292</v>
+        <v>1315</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8420,16 +8516,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1293</v>
+        <v>1316</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1294</v>
+        <v>1317</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1295</v>
+        <v>1318</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1296</v>
+        <v>1319</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8441,19 +8537,19 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1239</v>
+        <v>1262</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1298</v>
+        <v>1321</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
@@ -8464,14 +8560,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1299</v>
+        <v>1322</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1300</v>
+        <v>1323</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1301</v>
+        <v>1324</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8483,16 +8579,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1302</v>
+        <v>1325</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1303</v>
+        <v>1326</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1304</v>
+        <v>1327</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1305</v>
+        <v>1328</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8504,46 +8600,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1306</v>
+        <v>1329</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1307</v>
+        <v>1330</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1310</v>
+        <v>1333</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1311</v>
+        <v>1334</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1312</v>
+        <v>1335</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1313</v>
+        <v>1336</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1314</v>
+        <v>1337</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1315</v>
+        <v>1338</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1316</v>
+        <v>1339</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -8585,14 +8681,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1317</v>
+        <v>1340</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1318</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8603,10 +8699,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1319</v>
+        <v>1342</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1320</v>
+        <v>1343</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8614,129 +8710,129 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1321</v>
+        <v>1344</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1322</v>
+        <v>1345</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1323</v>
+        <v>1346</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1324</v>
+        <v>1347</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1325</v>
+        <v>1348</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1326</v>
+        <v>1349</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1327</v>
+        <v>1350</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1328</v>
+        <v>1351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1330</v>
+        <v>1353</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1331</v>
+        <v>1354</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1332</v>
+        <v>1355</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1333</v>
+        <v>1356</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1334</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1335</v>
+        <v>1358</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1337</v>
+        <v>1360</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1338</v>
+        <v>1361</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1339</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1340</v>
+        <v>1363</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1341</v>
+        <v>1364</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1208</v>
+        <v>1231</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1344</v>
+        <v>1367</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1345</v>
+        <v>1368</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1346</v>
+        <v>1369</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1347</v>
+        <v>1370</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1348</v>
+        <v>1371</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1350</v>
+        <v>1373</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1351</v>
+        <v>1374</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1352</v>
+        <v>1375</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1354</v>
+        <v>1377</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8793,8 +8889,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -8809,7 +8905,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3"/>
@@ -8841,7 +8937,7 @@
         <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>115</v>
@@ -8934,7 +9030,7 @@
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
@@ -9036,13 +9132,15 @@
       <c r="A8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="6" t="s">
         <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>170</v>
       </c>
@@ -9068,7 +9166,7 @@
       <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -9171,7 +9269,7 @@
         <v>205</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>206</v>
@@ -9273,7 +9371,7 @@
         <v>230</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>231</v>
@@ -9410,7 +9508,7 @@
         <v>265</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="22.8" spans="1:5">
@@ -9421,7 +9519,7 @@
         <v>267</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="32" t="s">
         <v>268</v>
       </c>
       <c r="E25" s="3"/>
@@ -9666,10 +9764,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>325</v>
@@ -9715,7 +9813,7 @@
         <v>334</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9844,7 +9942,7 @@
       <c r="B2" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="3" t="s">
         <v>357</v>
       </c>
@@ -10133,7 +10231,7 @@
         <v>403</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -10297,7 +10395,7 @@
       <c r="B3" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="3" t="s">
         <v>435</v>
       </c>
@@ -10356,7 +10454,7 @@
         <v>448</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>449</v>
@@ -10394,7 +10492,7 @@
         <v>457</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -10511,7 +10609,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="32" t="s">
         <v>488</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -10550,7 +10648,7 @@
         <v>498</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>499</v>
@@ -10652,7 +10750,7 @@
         <v>524</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>525</v>
@@ -10683,10 +10781,10 @@
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>533</v>
@@ -10695,7 +10793,7 @@
         <v>326</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10820,7 +10918,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="33" t="s">
         <v>562</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -10855,7 +10953,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>565</v>
       </c>
       <c r="B1" s="3"/>
@@ -10865,7 +10963,7 @@
       <c r="F1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="29" t="s">
         <v>567</v>
       </c>
       <c r="H1" t="s">
@@ -10879,7 +10977,7 @@
       <c r="B2" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="3" t="s">
         <v>571</v>
       </c>
@@ -11074,7 +11172,7 @@
         <v>617</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11089,7 +11187,7 @@
         <v>620</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>621</v>
@@ -11112,7 +11210,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11142,8 +11240,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -11181,13 +11279,13 @@
       <c r="G1" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
       <c r="S1" s="4" t="s">
         <v>629</v>
       </c>
@@ -11226,21 +11324,21 @@
       <c r="G2" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="23" t="s">
         <v>640</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
       <c r="S2" s="3" t="s">
         <v>644</v>
       </c>
@@ -11267,7 +11365,7 @@
       <c r="AE2" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="23" t="s">
         <v>652</v>
       </c>
       <c r="AH2" s="4" t="s">
@@ -11284,11 +11382,11 @@
         <v>656</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>657</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -11299,12 +11397,12 @@
         <v>659</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="23" t="s">
         <v>661</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -11313,15 +11411,15 @@
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
       <c r="S3" s="3" t="s">
         <v>665</v>
       </c>
@@ -11346,7 +11444,7 @@
       <c r="AE3" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="23" t="s">
         <v>672</v>
       </c>
       <c r="AK3" s="3" t="s">
@@ -11355,7 +11453,7 @@
       <c r="AL3" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AM3" s="23" t="s">
         <v>675</v>
       </c>
       <c r="AN3" s="3" t="s">
@@ -11364,10 +11462,10 @@
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="23" t="s">
         <v>678</v>
       </c>
       <c r="C4" s="3"/>
@@ -11378,21 +11476,21 @@
       <c r="G4" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="23" t="s">
         <v>681</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="23" t="s">
         <v>684</v>
       </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
       <c r="S4" s="3" t="s">
         <v>685</v>
       </c>
@@ -11416,12 +11514,12 @@
         <v>691</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="23" t="s">
         <v>693</v>
       </c>
       <c r="AH4" s="4" t="s">
@@ -11443,7 +11541,7 @@
       <c r="A5" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="23" t="s">
         <v>699</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -11452,24 +11550,24 @@
       <c r="G5" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="23" t="s">
         <v>702</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="O5"/>
-      <c r="P5" t="s">
+      <c r="O5" s="25"/>
+      <c r="P5" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="Q5"/>
-      <c r="S5" s="20" t="s">
+      <c r="Q5" s="25"/>
+      <c r="S5" s="24" t="s">
         <v>657</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -11490,12 +11588,12 @@
         <v>709</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="23" t="s">
         <v>711</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -11519,7 +11617,7 @@
       <c r="A6" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="23" t="s">
         <v>718</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -11528,20 +11626,20 @@
       <c r="G6" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="O6"/>
-      <c r="P6" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="Q6"/>
+      <c r="Q6" s="25"/>
       <c r="S6" s="3" t="s">
         <v>725</v>
       </c>
@@ -11566,7 +11664,7 @@
       <c r="AE6" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AF6" s="23" t="s">
         <v>731</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -11588,7 +11686,7 @@
       <c r="A7" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="23" t="s">
         <v>737</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -11597,23 +11695,23 @@
       <c r="G7" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="23" t="s">
         <v>740</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="O7"/>
-      <c r="P7" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="Q7"/>
+      <c r="Q7" s="25"/>
       <c r="S7" s="3" t="s">
         <v>745</v>
       </c>
@@ -11638,7 +11736,7 @@
       <c r="AE7" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AF7" s="23" t="s">
         <v>752</v>
       </c>
       <c r="AH7" s="4" t="s">
@@ -11662,7 +11760,7 @@
       <c r="A8" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="23" t="s">
         <v>759</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -11681,17 +11779,17 @@
       <c r="K8" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="O8"/>
-      <c r="P8" t="s">
+      <c r="O8" s="25"/>
+      <c r="P8" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="Q8"/>
+      <c r="Q8" s="25"/>
       <c r="S8" s="3" t="s">
         <v>768</v>
       </c>
@@ -11718,7 +11816,7 @@
       <c r="AE8" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AF8" s="23" t="s">
         <v>776</v>
       </c>
       <c r="AH8" s="4" t="s">
@@ -11739,7 +11837,7 @@
       <c r="A9" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="23" t="s">
         <v>782</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -11759,7 +11857,7 @@
       <c r="M9" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="23" t="s">
         <v>788</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -11791,17 +11889,17 @@
       <c r="AE9" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AF9" s="23" t="s">
         <v>798</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>799</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AM9" s="4" t="s">
         <v>533</v>
@@ -11815,7 +11913,7 @@
       <c r="A10" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="23" t="s">
         <v>802</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11825,7 +11923,7 @@
       <c r="G10" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="23" t="s">
         <v>805</v>
       </c>
       <c r="I10" s="3"/>
@@ -11833,50 +11931,55 @@
         <v>806</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="M10" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q10" s="25"/>
       <c r="Y10" s="3" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AK10" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AK10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10"/>
+      <c r="AN10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="25"/>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>816</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -11886,7 +11989,7 @@
       <c r="G11" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="23" t="s">
         <v>819</v>
       </c>
       <c r="I11" s="3"/>
@@ -11894,221 +11997,252 @@
         <v>820</v>
       </c>
       <c r="K11" s="3"/>
+      <c r="M11" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25" t="s">
+        <v>823</v>
+      </c>
       <c r="Y11" s="3" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>825</v>
+        <v>827</v>
+      </c>
+      <c r="AL11" s="23" t="s">
+        <v>828</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="AP11" s="1"/>
-      <c r="AQ11"/>
+        <v>829</v>
+      </c>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="25"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>831</v>
+        <v>833</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>834</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="K12" s="3"/>
+      <c r="Y12" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>839</v>
+      </c>
       <c r="AK12" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="AL12" s="6" t="s">
-        <v>834</v>
+        <v>840</v>
+      </c>
+      <c r="AL12" s="23" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>839</v>
+        <v>845</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>846</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>840</v>
+        <v>847</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>845</v>
+        <v>854</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>855</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>848</v>
+        <v>857</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>858</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="AL14" s="6" t="s">
-        <v>851</v>
+        <v>860</v>
+      </c>
+      <c r="AL14" s="23" t="s">
+        <v>861</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21" t="s">
-        <v>853</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>854</v>
+      <c r="A15" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>864</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>857</v>
+        <v>866</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>867</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>860</v>
+        <v>869</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>870</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>863</v>
+        <v>872</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>873</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>869</v>
+        <v>878</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>871</v>
+        <v>880</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>881</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>874</v>
+        <v>883</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>884</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>877</v>
+        <v>886</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>887</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12140,6 +12274,9 @@
       <c r="E50" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Z13" r:id="rId1" display="https://www.ufonts.cn"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -12148,10 +12285,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -12162,579 +12299,731 @@
     <col min="12" max="12" width="8.88888888888889" style="12"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
     <col min="18" max="18" width="8.88888888888889" style="12"/>
-    <col min="19" max="16384" width="8.88888888888889" style="4"/>
+    <col min="19" max="23" width="8.88888888888889" style="4"/>
+    <col min="24" max="24" width="8.88888888888889" style="16"/>
+    <col min="25" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="S1" s="4" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="8" t="s">
-        <v>888</v>
+      <c r="S1" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="Y1" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="3" t="s">
+        <v>900</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>901</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>896</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="Q2" s="3"/>
+        <v>910</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="S2" s="3" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="U2" s="3"/>
+        <v>912</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>913</v>
+      </c>
       <c r="V2" s="3" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="8" t="s">
-        <v>901</v>
+      <c r="Y2" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="G3" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>920</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="K3" s="8"/>
       <c r="M3" s="3" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>910</v>
+        <v>926</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>927</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>914</v>
+        <v>929</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>930</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:23">
-      <c r="A4" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="3" t="s">
-        <v>919</v>
+    <row r="4" spans="1:29">
+      <c r="A4" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>940</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="K4" s="8"/>
       <c r="M4" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>923</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>924</v>
+        <v>945</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="U4" s="3"/>
+        <v>946</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>947</v>
+      </c>
       <c r="V4" s="3" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="8" t="s">
-        <v>928</v>
+      <c r="Y4" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:29">
+      <c r="A5" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="G5" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>953</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="M5" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>935</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="U5" s="3"/>
+        <v>946</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>961</v>
+      </c>
       <c r="V5" s="3" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="Y5" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>942</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="K6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="K6" s="8"/>
       <c r="M6" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="O6" s="3"/>
+        <v>973</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>975</v>
+      </c>
       <c r="P6" s="3" t="s">
-        <v>950</v>
+        <v>976</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>951</v>
+        <v>977</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>952</v>
+        <v>978</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>953</v>
+        <v>979</v>
       </c>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="Y6" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>986</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>987</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>989</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>959</v>
+        <v>990</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>961</v>
+        <v>908</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>991</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>962</v>
+        <v>992</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>964</v>
+        <v>994</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>965</v>
+        <v>995</v>
       </c>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="Y7" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>968</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>1001</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>1002</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1004</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>1005</v>
+      </c>
       <c r="M8" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>974</v>
+        <v>1006</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>1007</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="Y8" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>979</v>
+        <v>1015</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>980</v>
+        <v>1016</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>981</v>
+        <v>1017</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>983</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="Q9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1023</v>
+      </c>
       <c r="S9" s="3" t="s">
-        <v>988</v>
+        <v>1024</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>989</v>
+        <v>1025</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>990</v>
+        <v>1026</v>
       </c>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="Y9" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>1030</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1031</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="Q10" s="3"/>
+        <v>1032</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1035</v>
+      </c>
       <c r="S10" s="3" t="s">
-        <v>997</v>
+        <v>1036</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>998</v>
+        <v>1037</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>999</v>
+        <v>1038</v>
       </c>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="Y10" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
-        <v>1000</v>
+        <v>1042</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1001</v>
+        <v>1043</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1002</v>
+        <v>1044</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="S11" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="U11" s="3"/>
+        <v>1048</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U11" s="15"/>
       <c r="V11" s="3" t="s">
-        <v>1008</v>
+        <v>1050</v>
       </c>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="Y11" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
-        <v>1009</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1011</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1012</v>
+        <v>1056</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="Q12"/>
+      <c r="G12" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>1016</v>
+        <v>1060</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>1018</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23">
+        <v>1062</v>
+      </c>
+      <c r="W12"/>
+      <c r="Y12" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
-        <v>1020</v>
+        <v>1067</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>1068</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1069</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>1070</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>1074</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="S13" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="Y13" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>1027</v>
+        <v>1079</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1028</v>
+        <v>1080</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1029</v>
+        <v>1081</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -12742,268 +13031,150 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="S14" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>1032</v>
+      <c r="Y14" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1027</v>
+        <v>1085</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1033</v>
+        <v>1086</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1034</v>
+        <v>1087</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>1036</v>
+      <c r="A16" s="18" t="s">
+        <v>1089</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1037</v>
+        <v>1090</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1038</v>
+        <v>1091</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1039</v>
+        <v>1092</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>1093</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1094</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>1041</v>
+        <v>1095</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1042</v>
+        <v>1096</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1044</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1045</v>
+        <v>1098</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1046</v>
+        <v>1099</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1047</v>
+        <v>1100</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1048</v>
+        <v>1101</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1049</v>
+        <v>1102</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>1051</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>1052</v>
+        <v>1104</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="17" t="s">
-        <v>1053</v>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>1105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>1106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1107</v>
+      </c>
       <c r="D21" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1057</v>
+        <v>1109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1110</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1058</v>
+        <v>1111</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>1060</v>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="19" t="s">
+        <v>1113</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1072</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1076</v>
-      </c>
+    <row r="27" spans="5:5">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1080</v>
-      </c>
+    <row r="28" spans="5:5">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>54</v>
-      </c>
+    <row r="33" spans="5:5">
+      <c r="E33" s="19"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
@@ -13014,7 +13185,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" display="https://www.amazon.co.jp/stylesnap"/>
+    <hyperlink ref="H13" r:id="rId1" display="http://znsoft.x3322.net:88"/>
+    <hyperlink ref="I13" r:id="rId2" display="https://cdn.h5ds.com/space/files/600972551685382144/20240613/725728370223452160.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13644"/>
+    <workbookView windowWidth="19788" windowHeight="13644" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1381">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -1237,6 +1237,15 @@
   </si>
   <si>
     <t>设计百宝箱-全球高质量设计师网址导航大全</t>
+  </si>
+  <si>
+    <t>AI导航</t>
+  </si>
+  <si>
+    <t>http://nav.geekape.net/nav/page/home?id=ai</t>
+  </si>
+  <si>
+    <t>超全的ai导航网站</t>
   </si>
   <si>
     <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
@@ -6275,8 +6284,8 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
@@ -6329,7 +6338,7 @@
       </c>
       <c r="C1" s="39" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年6月13日</v>
+        <v>最后更新⌚ 2024年6月14日</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>2</v>
@@ -7376,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7388,28 +7397,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7418,13 +7427,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3"/>
@@ -7434,14 +7443,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="3"/>
@@ -7562,14 +7571,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7579,28 +7588,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -7609,28 +7618,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -7639,16 +7648,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7704,28 +7713,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>26</v>
@@ -7734,50 +7743,50 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>46</v>
@@ -7786,16 +7795,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7804,142 +7813,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1177</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7947,78 +7956,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -8048,28 +8057,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8078,14 +8087,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8094,140 +8103,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
@@ -8235,55 +8244,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8306,150 +8315,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8480,14 +8489,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8497,14 +8506,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8516,16 +8525,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8537,16 +8546,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>
@@ -8560,14 +8569,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8579,16 +8588,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8600,46 +8609,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -8681,14 +8690,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8699,10 +8708,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8710,16 +8719,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8727,112 +8736,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -9580,8 +9589,8 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -9757,10 +9766,19 @@
         <v>324</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>326</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
@@ -9770,10 +9788,10 @@
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>26</v>
@@ -9786,31 +9804,31 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
@@ -9818,78 +9836,78 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9925,26 +9943,26 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
@@ -9955,14 +9973,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
@@ -9973,14 +9991,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -9991,14 +10009,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -10009,16 +10027,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -10029,14 +10047,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -10047,62 +10065,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -10165,70 +10183,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -10237,74 +10255,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10339,22 +10357,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10363,133 +10381,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>46</v>
@@ -10498,286 +10516,286 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="32" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -10787,10 +10805,10 @@
         <v>31</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>46</v>
@@ -10798,99 +10816,99 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -10901,14 +10919,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -10919,14 +10937,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="G23" s="33" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -10954,91 +10972,91 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
@@ -11046,130 +11064,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>46</v>
@@ -11177,29 +11195,29 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -11265,7 +11283,7 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="11" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>110</v>
@@ -11274,112 +11292,112 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
       <c r="S1" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="S2" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AF2" s="23" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>46</v>
@@ -11387,513 +11405,513 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="24" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="S3" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AM3" s="23" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="24" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="S4" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="AF4" s="23" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="25" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="Q5" s="25"/>
       <c r="S5" s="24" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AF5" s="23" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="Q6" s="25"/>
       <c r="S6" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AF6" s="23" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="Q7" s="25"/>
       <c r="S7" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AO7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="S8" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="AF8" s="23" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="AA9" s="15"/>
       <c r="AB9" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="AF9" s="23" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>30</v>
@@ -11902,56 +11920,56 @@
         <v>31</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="Q10" s="25"/>
       <c r="Y10" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>46</v>
@@ -11966,7 +11984,7 @@
         <v>24</v>
       </c>
       <c r="AM10" s="17" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="AN10" s="19" t="s">
         <v>25</v>
@@ -11977,272 +11995,272 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="4" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="25" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="25" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="AL11" s="23" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="AP11" s="27"/>
       <c r="AQ11" s="25"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="K12" s="3"/>
       <c r="Y12" s="4" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="AL12" s="23" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AL14" s="23" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12306,170 +12324,170 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="12" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="8" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="K3" s="8"/>
       <c r="M3" s="3" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>26</v>
@@ -12477,523 +12495,523 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="8" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="K4" s="8"/>
       <c r="M4" s="3" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="W4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" ht="15.6" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="K5" s="8"/>
       <c r="M5" s="3" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="K6" s="8"/>
       <c r="M6" s="3" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="W6" s="3"/>
       <c r="Y6" s="3" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="W7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="W8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="3" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="W9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="W10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="3" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="W11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="K12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="W12"/>
       <c r="Y12" s="3" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -13001,29 +13019,29 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="Y13" s="3" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -13032,136 +13050,136 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="Y14" s="4" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="18" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="19" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="19" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="26" spans="5:5">

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13644" activeTab="2"/>
+    <workbookView windowWidth="19788" windowHeight="13644" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1390">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -2928,6 +2928,9 @@
     <t>https://www.istockphoto.com</t>
   </si>
   <si>
+    <t>一个免费高质量照片资源平台，提供多种主题和风格的照片，供个人和商业项目使用。</t>
+  </si>
+  <si>
     <t>PNG素材网</t>
   </si>
   <si>
@@ -3774,6 +3777,18 @@
   </si>
   <si>
     <t>室友小白推荐：不限速单文件传输最大10G (免注册)</t>
+  </si>
+  <si>
+    <t>Qwerty Learner</t>
+  </si>
+  <si>
+    <t>https://qwerty.z-l.top</t>
+  </si>
+  <si>
+    <t>https://qwerty.z-l.top/favicon.ico</t>
+  </si>
+  <si>
+    <t>为键盘工作者设计的单词记忆与英语肌肉记忆锻炼软件</t>
   </si>
   <si>
     <t>💎 3D参考</t>
@@ -4849,6 +4864,18 @@
     <t>在线解析抖音/头条/快手/小红书等短视频信息，通过短视频分享链接一键解析无水印视频链接</t>
   </si>
   <si>
+    <t>短视频/图集在线去水印解析</t>
+  </si>
+  <si>
+    <t>https://watermark.liumingye.cn/</t>
+  </si>
+  <si>
+    <t>https://fastly.jsdelivr.net/gh/5ime/img/avatar.jpg</t>
+  </si>
+  <si>
+    <t>抖音快手等16个平台视频去水印下载</t>
+  </si>
+  <si>
     <t>🙇 友情链接 &lt;span&gt;&lt;a target="_blank" href="https://blog.z-l.top/posts/djly.html"&gt;点我申请友情链接&lt;/a&gt;  共同进步！&lt;/span&gt;</t>
   </si>
   <si>
@@ -5072,6 +5099,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="等线 Light"/>
@@ -5094,13 +5128,6 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5330,18 +5357,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5668,14 +5689,14 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5699,16 +5720,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5717,89 +5738,89 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5823,19 +5844,23 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5844,19 +5869,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -5864,32 +5878,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5900,7 +5900,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -5913,13 +5913,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5934,30 +5934,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6290,106 +6282,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="19"/>
-    <col min="6" max="6" width="9" style="35"/>
-    <col min="7" max="11" width="9" style="19"/>
-    <col min="12" max="12" width="9" style="35"/>
-    <col min="13" max="17" width="9" style="19"/>
-    <col min="18" max="18" width="9" style="35"/>
-    <col min="19" max="23" width="9" style="19"/>
-    <col min="24" max="24" width="9" style="35"/>
-    <col min="25" max="29" width="9" style="19"/>
-    <col min="30" max="30" width="9" style="35"/>
-    <col min="31" max="35" width="9" style="19"/>
-    <col min="36" max="36" width="9" style="35"/>
-    <col min="37" max="41" width="9" style="19"/>
-    <col min="42" max="42" width="9" style="35"/>
-    <col min="43" max="47" width="9" style="19"/>
-    <col min="48" max="48" width="9" style="35"/>
-    <col min="49" max="53" width="9" style="19"/>
-    <col min="54" max="54" width="9" style="35"/>
-    <col min="55" max="59" width="9" style="19"/>
-    <col min="60" max="60" width="9" style="36"/>
-    <col min="61" max="65" width="9" style="19"/>
-    <col min="66" max="66" width="9" style="35"/>
-    <col min="67" max="71" width="9" style="19"/>
-    <col min="72" max="72" width="9" style="35"/>
-    <col min="73" max="77" width="9" style="19"/>
-    <col min="78" max="78" width="9" style="35"/>
-    <col min="79" max="83" width="9" style="19"/>
-    <col min="84" max="84" width="9" style="35"/>
-    <col min="85" max="89" width="9" style="19"/>
-    <col min="90" max="90" width="9" style="35"/>
-    <col min="91" max="95" width="9" style="19"/>
-    <col min="96" max="96" width="9" style="37"/>
-    <col min="97" max="101" width="9" style="19"/>
-    <col min="102" max="102" width="9" style="37"/>
-    <col min="103" max="107" width="9" style="19"/>
-    <col min="108" max="108" width="9" style="37"/>
-    <col min="109" max="16384" width="9" style="19"/>
+    <col min="1" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="9" style="29"/>
+    <col min="7" max="11" width="9" style="17"/>
+    <col min="12" max="12" width="9" style="29"/>
+    <col min="13" max="17" width="9" style="17"/>
+    <col min="18" max="18" width="9" style="29"/>
+    <col min="19" max="23" width="9" style="17"/>
+    <col min="24" max="24" width="9" style="29"/>
+    <col min="25" max="29" width="9" style="17"/>
+    <col min="30" max="30" width="9" style="29"/>
+    <col min="31" max="35" width="9" style="17"/>
+    <col min="36" max="36" width="9" style="29"/>
+    <col min="37" max="41" width="9" style="17"/>
+    <col min="42" max="42" width="9" style="29"/>
+    <col min="43" max="47" width="9" style="17"/>
+    <col min="48" max="48" width="9" style="29"/>
+    <col min="49" max="53" width="9" style="17"/>
+    <col min="54" max="54" width="9" style="29"/>
+    <col min="55" max="59" width="9" style="17"/>
+    <col min="60" max="60" width="9" style="30"/>
+    <col min="61" max="65" width="9" style="17"/>
+    <col min="66" max="66" width="9" style="29"/>
+    <col min="67" max="71" width="9" style="17"/>
+    <col min="72" max="72" width="9" style="29"/>
+    <col min="73" max="77" width="9" style="17"/>
+    <col min="78" max="78" width="9" style="29"/>
+    <col min="79" max="83" width="9" style="17"/>
+    <col min="84" max="84" width="9" style="29"/>
+    <col min="85" max="89" width="9" style="17"/>
+    <col min="90" max="90" width="9" style="29"/>
+    <col min="91" max="95" width="9" style="17"/>
+    <col min="96" max="96" width="9" style="31"/>
+    <col min="97" max="101" width="9" style="17"/>
+    <col min="102" max="102" width="9" style="31"/>
+    <col min="103" max="107" width="9" style="17"/>
+    <col min="108" max="108" width="9" style="31"/>
+    <col min="109" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="str">
+      <c r="C1" s="33" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年6月14日</v>
-      </c>
-      <c r="D1" s="40" t="s">
+        <v>最后更新⌚ 2024年6月22日</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="DE1" s="13"/>
-    </row>
-    <row r="2" s="19" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="19" t="s">
+      <c r="M1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CY1" s="14"/>
+      <c r="DE1" s="14"/>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="13.8" spans="1:113">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -6398,76 +6390,76 @@
       <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BH2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BT2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CF2" s="35"/>
-      <c r="CL2" s="35"/>
-      <c r="CR2" s="37"/>
-      <c r="CX2" s="37"/>
-      <c r="DD2" s="37"/>
-      <c r="DI2" s="19" t="s">
+      <c r="L2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BH2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BT2" s="29"/>
+      <c r="BZ2" s="29"/>
+      <c r="CF2" s="29"/>
+      <c r="CL2" s="29"/>
+      <c r="CR2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DI2" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="36"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="43"/>
+      <c r="Q3" s="36"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="47"/>
-      <c r="AC3" s="43"/>
+      <c r="AA3" s="39"/>
+      <c r="AC3" s="36"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="43"/>
+      <c r="AI3" s="36"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="47"/>
-      <c r="BA3" s="43"/>
+      <c r="AY3" s="39"/>
+      <c r="BA3" s="36"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="45"/>
-      <c r="BN3" s="36"/>
+      <c r="BK3" s="38"/>
+      <c r="BN3" s="30"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6479,56 +6471,56 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="49"/>
+      <c r="CX3" s="41"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="49"/>
+      <c r="DD3" s="41"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="36"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="38"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="45"/>
-      <c r="AC4" s="45"/>
+      <c r="AA4" s="38"/>
+      <c r="AC4" s="38"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="47"/>
-      <c r="AU4" s="43"/>
+      <c r="AS4" s="39"/>
+      <c r="AU4" s="36"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="43"/>
+      <c r="BG4" s="36"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="45"/>
+      <c r="BK4" s="38"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6539,50 +6531,50 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="50"/>
+      <c r="CV4" s="42"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
     <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="36"/>
+      <c r="G5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="36"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="36"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="43"/>
+      <c r="AU5" s="36"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="48"/>
+      <c r="BF5" s="40"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6600,17 +6592,17 @@
       <c r="DG5" s="4"/>
     </row>
     <row r="6" ht="45.6" spans="1:112">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6619,16 +6611,16 @@
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="36"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="36"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="47"/>
-      <c r="W6" s="43"/>
+      <c r="U6" s="39"/>
+      <c r="W6" s="36"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6637,9 +6629,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="43"/>
+      <c r="BG6" s="36"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="45"/>
+      <c r="BK6" s="38"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6650,25 +6642,25 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="20"/>
-      <c r="DG6" s="20"/>
-      <c r="DH6" s="50"/>
+      <c r="DF6" s="18"/>
+      <c r="DG6" s="18"/>
+      <c r="DH6" s="42"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -6677,16 +6669,16 @@
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="36"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="45"/>
-      <c r="Q7" s="43"/>
+      <c r="O7" s="38"/>
+      <c r="Q7" s="36"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="U7" s="38"/>
+      <c r="W7" s="38"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6707,21 +6699,21 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="20"/>
+      <c r="DF7" s="18"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="G8" s="19" t="s">
+      <c r="E8" s="36"/>
+      <c r="G8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -6730,12 +6722,12 @@
       <c r="I8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="43"/>
+      <c r="Q8" s="36"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6745,7 +6737,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="45"/>
+      <c r="AU8" s="38"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6762,11 +6754,11 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="20"/>
-      <c r="DG8" s="20"/>
+      <c r="DF8" s="18"/>
+      <c r="DG8" s="18"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6775,10 +6767,10 @@
       <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -6787,12 +6779,12 @@
       <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="43"/>
+      <c r="Q9" s="36"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6811,36 +6803,36 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="20"/>
+      <c r="CU9" s="18"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="20"/>
-      <c r="DG9" s="20"/>
+      <c r="DF9" s="18"/>
+      <c r="DG9" s="18"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>71</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="43"/>
+      <c r="Q10" s="36"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6849,7 +6841,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="43"/>
+      <c r="AO10" s="36"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6858,7 +6850,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="20"/>
+      <c r="BQ10" s="18"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6867,40 +6859,40 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="17" t="s">
         <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="43"/>
+      <c r="Q11" s="36"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="45"/>
-      <c r="AO11" s="45"/>
+      <c r="AM11" s="38"/>
+      <c r="AO11" s="38"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6909,35 +6901,35 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="20"/>
+      <c r="BQ11" s="18"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="20"/>
-      <c r="DG11" s="20"/>
+      <c r="DF11" s="18"/>
+      <c r="DG11" s="18"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="17" t="s">
         <v>82</v>
       </c>
       <c r="N12" s="5"/>
@@ -6955,20 +6947,20 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="20"/>
+      <c r="CU12" s="18"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -6977,7 +6969,7 @@
       <c r="I13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="17" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="4"/>
@@ -6987,18 +6979,18 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="45"/>
+      <c r="BE13" s="38"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="20"/>
+      <c r="CN13" s="18"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -7007,10 +6999,10 @@
       <c r="I14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="N14" s="4"/>
@@ -7027,18 +7019,18 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="20"/>
+      <c r="CN14" s="18"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="17" t="s">
         <v>96</v>
       </c>
       <c r="N15" s="4"/>
@@ -7049,7 +7041,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="45"/>
+      <c r="BE15" s="38"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -7058,14 +7050,14 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="17" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="4"/>
@@ -7084,13 +7076,13 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="4"/>
@@ -7101,16 +7093,16 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="45"/>
+      <c r="BE17" s="38"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="45"/>
+      <c r="BK17" s="38"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -7119,7 +7111,7 @@
       <c r="I18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="17" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="4"/>
@@ -7155,7 +7147,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="45"/>
+      <c r="AF20" s="38"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -7170,7 +7162,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="31"/>
+      <c r="AX21" s="25"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7205,29 +7197,29 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="36"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="45"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="38"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="45"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="45"/>
+      <c r="BE27" s="38"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
     </row>
     <row r="28" ht="13.8" spans="2:81">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="BV28" s="4"/>
@@ -7241,8 +7233,8 @@
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="45"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="18"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -7250,8 +7242,8 @@
       <c r="CC30" s="4"/>
     </row>
     <row r="31" ht="13.8" spans="2:80">
-      <c r="B31" s="45"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="18"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="BV31" s="4"/>
@@ -7261,7 +7253,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="18"/>
+      <c r="BU32" s="16"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7288,7 +7280,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="45"/>
+      <c r="CC36" s="38"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7308,7 +7300,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="22"/>
+      <c r="BW40" s="20"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7325,7 +7317,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="31"/>
+      <c r="CB43" s="25"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7344,12 +7336,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="31"/>
+      <c r="CB49" s="25"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="31"/>
-      <c r="CC50" s="20"/>
+      <c r="CB50" s="25"/>
+      <c r="CC50" s="18"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7377,48 +7369,48 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>1119</v>
+      <c r="A1" s="14" t="s">
+        <v>1124</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7427,15 +7419,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>1133</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7443,25 +7435,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>1136</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="G6" s="3"/>
       <c r="I6" s="15"/>
       <c r="J6" s="3"/>
@@ -7470,7 +7462,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7479,7 +7471,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7489,14 +7481,14 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -7536,7 +7528,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -7570,15 +7562,15 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>1132</v>
+      <c r="A1" s="12" t="s">
+        <v>1137</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7588,28 +7580,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -7618,28 +7610,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>46</v>
@@ -7648,16 +7640,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7713,98 +7705,98 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>1152</v>
+      <c r="A2" s="9" t="s">
+        <v>1157</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1160</v>
+        <v>1164</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1165</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>1164</v>
+        <v>1168</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1169</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E5" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -7813,142 +7805,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>26</v>
@@ -7956,78 +7948,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -8057,28 +8049,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8087,14 +8079,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8103,140 +8095,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>46</v>
@@ -8244,55 +8236,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8315,150 +8307,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>1289</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="3" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>1292</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>1299</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8482,21 +8474,21 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8506,14 +8498,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8525,16 +8517,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8546,16 +8538,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>
@@ -8569,14 +8561,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -8588,16 +8580,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8609,55 +8601,63 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1351</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
@@ -8669,6 +8669,10 @@
       <c r="E11" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://watermark.liumingye.cn/"/>
+    <hyperlink ref="C10" r:id="rId2" display="https://fastly.jsdelivr.net/gh/5ime/img/avatar.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8690,14 +8694,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8708,10 +8712,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -8719,16 +8723,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1349</v>
+        <v>1358</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1350</v>
+        <v>1359</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>46</v>
@@ -8736,112 +8740,112 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1352</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1353</v>
+        <v>1362</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1354</v>
+        <v>1363</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1356</v>
+        <v>1365</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1357</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1360</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1361</v>
+        <v>1370</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1362</v>
+        <v>1371</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1372</v>
+        <v>1381</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1377</v>
+        <v>1386</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1379</v>
+        <v>1388</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -8898,30 +8902,30 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="13"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -9039,11 +9043,11 @@
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>141</v>
       </c>
@@ -9074,11 +9078,11 @@
       <c r="B6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="3" t="s">
         <v>150</v>
       </c>
@@ -9528,7 +9532,7 @@
         <v>267</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="26" t="s">
         <v>268</v>
       </c>
       <c r="E25" s="3"/>
@@ -9589,19 +9593,19 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9610,7 +9614,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>283</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -9633,7 +9637,7 @@
       <c r="D2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="G2" s="3" t="s">
         <v>290</v>
       </c>
@@ -9659,7 +9663,7 @@
       <c r="D3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="G3" s="3" t="s">
         <v>297</v>
       </c>
@@ -9685,7 +9689,7 @@
       <c r="D4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>303</v>
       </c>
@@ -9711,7 +9715,7 @@
       <c r="D5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>310</v>
       </c>
@@ -9733,11 +9737,11 @@
       <c r="B6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="G6" s="3" t="s">
         <v>317</v>
       </c>
@@ -9750,7 +9754,7 @@
       <c r="J6" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
@@ -9765,11 +9769,11 @@
       <c r="D7" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="G7" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="6" t="s">
         <v>326</v>
       </c>
       <c r="I7" s="3"/>
@@ -9793,7 +9797,7 @@
       <c r="D8" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="3"/>
@@ -9815,7 +9819,7 @@
       <c r="D9" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
@@ -9960,11 +9964,11 @@
       <c r="B2" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -9978,11 +9982,11 @@
       <c r="B3" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -10206,7 +10210,7 @@
       <c r="D2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
@@ -10413,11 +10417,11 @@
       <c r="B3" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -10446,7 +10450,7 @@
       <c r="D4" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>446</v>
       </c>
@@ -10527,7 +10531,7 @@
       <c r="D7" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="G7" s="3" t="s">
         <v>465</v>
       </c>
@@ -10596,7 +10600,7 @@
       <c r="J9" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
@@ -10619,15 +10623,15 @@
       <c r="H10" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="26" t="s">
         <v>491</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -10936,7 +10940,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="27" t="s">
         <v>565</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -10971,7 +10975,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>568</v>
       </c>
       <c r="B1" s="3"/>
@@ -10981,7 +10985,7 @@
       <c r="F1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
         <v>570</v>
       </c>
       <c r="H1" t="s">
@@ -10995,11 +10999,11 @@
       <c r="B2" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="G2" s="3" t="s">
         <v>575</v>
       </c>
@@ -11228,7 +11232,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11256,33 +11260,33 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="13"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="12"/>
+    <col min="24" max="24" width="8.88888888888889" style="13"/>
     <col min="25" max="29" width="8.88888888888889" style="4"/>
-    <col min="30" max="30" width="8.88888888888889" style="12"/>
+    <col min="30" max="30" width="8.88888888888889" style="13"/>
     <col min="31" max="35" width="8.88888888888889" style="4"/>
-    <col min="36" max="36" width="8.88888888888889" style="12"/>
+    <col min="36" max="36" width="8.88888888888889" style="13"/>
     <col min="37" max="41" width="8.88888888888889" style="4"/>
-    <col min="42" max="42" width="8.88888888888889" style="12"/>
+    <col min="42" max="42" width="8.88888888888889" style="13"/>
     <col min="43" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>628</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11291,19 +11295,15 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>629</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
       <c r="S1" s="4" t="s">
         <v>632</v>
       </c>
@@ -11342,21 +11342,18 @@
       <c r="G2" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="5" t="s">
         <v>643</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
       <c r="S2" s="3" t="s">
         <v>647</v>
       </c>
@@ -11383,7 +11380,7 @@
       <c r="AE2" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="5" t="s">
         <v>655</v>
       </c>
       <c r="AH2" s="4" t="s">
@@ -11404,7 +11401,7 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>660</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -11420,7 +11417,7 @@
       <c r="G3" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="5" t="s">
         <v>664</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -11429,15 +11426,12 @@
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
       <c r="S3" s="3" t="s">
         <v>668</v>
       </c>
@@ -11462,7 +11456,7 @@
       <c r="AE3" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="5" t="s">
         <v>675</v>
       </c>
       <c r="AK3" s="3" t="s">
@@ -11471,7 +11465,7 @@
       <c r="AL3" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="AM3" s="23" t="s">
+      <c r="AM3" s="5" t="s">
         <v>678</v>
       </c>
       <c r="AN3" s="3" t="s">
@@ -11480,10 +11474,10 @@
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="5" t="s">
         <v>681</v>
       </c>
       <c r="C4" s="3"/>
@@ -11494,21 +11488,18 @@
       <c r="G4" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="5" t="s">
         <v>684</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
       <c r="S4" s="3" t="s">
         <v>688</v>
       </c>
@@ -11537,7 +11528,7 @@
       <c r="AE4" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="AF4" s="23" t="s">
+      <c r="AF4" s="5" t="s">
         <v>696</v>
       </c>
       <c r="AH4" s="4" t="s">
@@ -11559,7 +11550,7 @@
       <c r="A5" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="5" t="s">
         <v>702</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -11568,24 +11559,22 @@
       <c r="G5" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="5" t="s">
         <v>705</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="21" t="s">
         <v>660</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -11611,7 +11600,7 @@
       <c r="AE5" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AF5" s="5" t="s">
         <v>714</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -11635,7 +11624,7 @@
       <c r="A6" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="5" t="s">
         <v>721</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -11644,20 +11633,21 @@
       <c r="G6" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="J6" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="Q6" s="25"/>
       <c r="S6" s="3" t="s">
         <v>728</v>
       </c>
@@ -11682,7 +11672,7 @@
       <c r="AE6" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="AF6" s="23" t="s">
+      <c r="AF6" s="5" t="s">
         <v>734</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -11704,7 +11694,7 @@
       <c r="A7" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="5" t="s">
         <v>740</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -11713,23 +11703,21 @@
       <c r="G7" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="5" t="s">
         <v>743</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="Q7" s="25"/>
       <c r="S7" s="3" t="s">
         <v>748</v>
       </c>
@@ -11754,7 +11742,7 @@
       <c r="AE7" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="AF7" s="23" t="s">
+      <c r="AF7" s="5" t="s">
         <v>755</v>
       </c>
       <c r="AH7" s="4" t="s">
@@ -11778,7 +11766,7 @@
       <c r="A8" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="5" t="s">
         <v>762</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -11797,17 +11785,15 @@
       <c r="K8" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="Q8" s="25"/>
       <c r="S8" s="3" t="s">
         <v>771</v>
       </c>
@@ -11834,7 +11820,7 @@
       <c r="AE8" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="AF8" s="23" t="s">
+      <c r="AF8" s="5" t="s">
         <v>779</v>
       </c>
       <c r="AH8" s="4" t="s">
@@ -11855,7 +11841,7 @@
       <c r="A9" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="5" t="s">
         <v>785</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -11875,7 +11861,7 @@
       <c r="M9" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="5" t="s">
         <v>791</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -11907,7 +11893,7 @@
       <c r="AE9" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AF9" s="5" t="s">
         <v>801</v>
       </c>
       <c r="AH9" s="4" t="s">
@@ -11927,11 +11913,11 @@
       </c>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:41">
       <c r="A10" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="5" t="s">
         <v>805</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11941,7 +11927,7 @@
       <c r="G10" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="5" t="s">
         <v>808</v>
       </c>
       <c r="I10" s="3"/>
@@ -11952,13 +11938,12 @@
       <c r="M10" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="5" t="s">
         <v>811</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="Q10" s="25"/>
       <c r="Y10" s="3" t="s">
         <v>813</v>
       </c>
@@ -11977,27 +11962,25 @@
       <c r="AE10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AK10" s="19" t="s">
+      <c r="AK10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AL10" s="26" t="s">
+      <c r="AL10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AM10" s="17" t="s">
+      <c r="AM10" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="AN10" s="19" t="s">
+      <c r="AN10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="25"/>
-    </row>
-    <row r="11" spans="1:43">
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="5" t="s">
         <v>819</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -12007,7 +11990,7 @@
       <c r="G11" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="5" t="s">
         <v>822</v>
       </c>
       <c r="I11" s="3"/>
@@ -12015,14 +11998,13 @@
         <v>823</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="4" t="s">
         <v>826</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -12039,23 +12021,21 @@
       <c r="AK11" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="AL11" s="23" t="s">
+      <c r="AL11" s="5" t="s">
         <v>831</v>
       </c>
       <c r="AN11" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="25"/>
-    </row>
-    <row r="12" spans="1:38">
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="3" t="s">
         <v>833</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
         <v>835</v>
       </c>
@@ -12065,7 +12045,7 @@
       <c r="G12" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="5" t="s">
         <v>837</v>
       </c>
       <c r="I12" s="3"/>
@@ -12076,10 +12056,10 @@
       <c r="Y12" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="6" t="s">
         <v>841</v>
       </c>
       <c r="AB12" s="4" t="s">
@@ -12088,179 +12068,182 @@
       <c r="AK12" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="AL12" s="23" t="s">
+      <c r="AL12" s="5" t="s">
         <v>844</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="H13" s="23" t="s">
         <v>849</v>
       </c>
+      <c r="H13" s="5" t="s">
+        <v>850</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="Z13" s="14" t="s">
         <v>852</v>
       </c>
+      <c r="Z13" s="7" t="s">
+        <v>853</v>
+      </c>
       <c r="AB13" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="B14" s="23" t="s">
         <v>858</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>859</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="H14" s="23" t="s">
         <v>861</v>
       </c>
+      <c r="H14" s="5" t="s">
+        <v>862</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="AL14" s="23" t="s">
         <v>864</v>
       </c>
+      <c r="AL14" s="5" t="s">
+        <v>865</v>
+      </c>
       <c r="AN14" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B15" s="23" t="s">
         <v>867</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="H15" s="23" t="s">
         <v>870</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>871</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="B16" s="23" t="s">
         <v>873</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>874</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="H16" s="23" t="s">
         <v>876</v>
       </c>
+      <c r="H16" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="H17" s="23" t="s">
         <v>882</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="B18" s="23" t="s">
         <v>884</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>885</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="H18" s="23" t="s">
         <v>887</v>
       </c>
+      <c r="H18" s="5" t="s">
+        <v>888</v>
+      </c>
       <c r="J18" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="B19" s="23" t="s">
         <v>890</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>891</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12306,188 +12289,188 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="12"/>
+    <col min="6" max="6" width="8.88888888888889" style="13"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="12"/>
+    <col min="12" max="12" width="8.88888888888889" style="13"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="12"/>
+    <col min="18" max="18" width="8.88888888888889" style="13"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="16"/>
+    <col min="24" max="24" width="8.88888888888889" style="13"/>
     <col min="25" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
-        <v>897</v>
+      <c r="F1" s="13" t="s">
+        <v>898</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="H2" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="6" t="s">
         <v>909</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>910</v>
+      </c>
       <c r="J2" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="8" t="s">
-        <v>925</v>
+      <c r="G3" s="9" t="s">
+        <v>926</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="K3" s="9"/>
       <c r="M3" s="3" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>26</v>
@@ -12495,523 +12478,523 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" s="8" t="s">
-        <v>942</v>
+      <c r="G4" s="9" t="s">
+        <v>943</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="J4" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="K4" s="9"/>
       <c r="M4" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="W4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" ht="15.6" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="8" t="s">
-        <v>958</v>
+      <c r="G5" s="9" t="s">
+        <v>959</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="J5" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="J5" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="M5" s="3" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>964</v>
+        <v>950</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>965</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="G6" s="8" t="s">
-        <v>972</v>
+      <c r="G6" s="9" t="s">
+        <v>973</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="J6" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="J6" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="K6" s="9"/>
       <c r="M6" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="W6" s="3"/>
       <c r="Y6" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="W7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="W8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I9" s="22"/>
+        <v>1023</v>
+      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="W9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="W10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="W11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="K12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="W12"/>
       <c r="Y12" s="3" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H13" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="6" t="s">
         <v>1076</v>
       </c>
+      <c r="I13" s="6" t="s">
+        <v>1077</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -13019,29 +13002,29 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="Y13" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -13050,136 +13033,150 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="Y14" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18" t="s">
-        <v>1092</v>
+      <c r="A16" s="16" t="s">
+        <v>1093</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>1116</v>
+      <c r="A23" s="17" t="s">
+        <v>1117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19" t="s">
         <v>1118</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="26" spans="5:5">
@@ -13192,7 +13189,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="19"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
@@ -13202,10 +13199,6 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H13" r:id="rId1" display="http://znsoft.x3322.net:88"/>
-    <hyperlink ref="I13" r:id="rId2" display="https://cdn.h5ds.com/space/files/600972551685382144/20240613/725728370223452160.png"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13644" activeTab="7"/>
+    <workbookView windowWidth="19788" windowHeight="13644" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="软件插件" sheetId="8" r:id="rId7"/>
     <sheet name="素材下载" sheetId="14" r:id="rId8"/>
     <sheet name="在线工具" sheetId="13" r:id="rId9"/>
-    <sheet name="参考网站" sheetId="19" r:id="rId10"/>
+    <sheet name="网盘资源" sheetId="19" r:id="rId10"/>
     <sheet name="PPT模板" sheetId="18" r:id="rId11"/>
     <sheet name="B站大学" sheetId="9" r:id="rId12"/>
     <sheet name="学术论文" sheetId="15" r:id="rId13"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="1450">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -162,10 +162,13 @@
     <t>（毕设导师推荐的一些有用的网站 &lt;i  style="color:#bc37e79e;"&gt; UI/UX &lt;/i&gt;较多）&lt;style&gt;#\7F6E\9876\7F51\7AD9 &gt; .sub-category{display:none;}&lt;/style&gt;</t>
   </si>
   <si>
-    <t>&lt;i style="color:hotpink;"&gt;发布页&lt;/i&gt;</t>
+    <t>&lt;i style="font-size:0px"&gt;vip&lt;/i&gt;&lt;i style="color:hotpink;"&gt;发布页&lt;/i&gt;</t>
   </si>
   <si>
     <t>https://link3.cc/xiadj</t>
+  </si>
+  <si>
+    <t>https://cdn.jsdmirror.com/gh/xiaolongmr/test@main/1.png</t>
   </si>
   <si>
     <r>
@@ -245,43 +248,34 @@
     <t>高质量免费设计剪辑后期建模资源收集网</t>
   </si>
   <si>
+    <t>Collect UI</t>
+  </si>
+  <si>
+    <t>https://collectui.com</t>
+  </si>
+  <si>
+    <t>每日更新， UI设计师社区网站，展示和分享用户界面设计的灵感和创意</t>
+  </si>
+  <si>
+    <t>Uiverse.io</t>
+  </si>
+  <si>
+    <t>https://uiverse.io</t>
+  </si>
+  <si>
+    <t>一个开源免费的UI组件库，包含丰富的UI组件 如按钮、复选框、开关、卡片、加载动画、输入框等</t>
+  </si>
+  <si>
+    <t>办公摩的</t>
+  </si>
+  <si>
+    <t>https://www.officemod.net/?ref=26</t>
+  </si>
+  <si>
+    <t>FICEMOD提供freepink素材解析，下载服务</t>
+  </si>
+  <si>
     <t>紫 🔥</t>
-  </si>
-  <si>
-    <t>Collect UI</t>
-  </si>
-  <si>
-    <t>https://collectui.com</t>
-  </si>
-  <si>
-    <t>每日更新， UI设计师社区网站，展示和分享用户界面设计的灵感和创意</t>
-  </si>
-  <si>
-    <t>资源汇社区</t>
-  </si>
-  <si>
-    <t>http://ziyuanhuishequ.ys168.com</t>
-  </si>
-  <si>
-    <t>👍全网最大优质免费资源分享社区</t>
-  </si>
-  <si>
-    <t>Uiverse.io</t>
-  </si>
-  <si>
-    <t>https://uiverse.io</t>
-  </si>
-  <si>
-    <t>一个开源免费的UI组件库，包含丰富的UI组件 如按钮、复选框、开关、卡片、加载动画、输入框等</t>
-  </si>
-  <si>
-    <t>办公摩的</t>
-  </si>
-  <si>
-    <t>https://www.officemod.net</t>
-  </si>
-  <si>
-    <t>FICEMOD提供freepink素材解析，下载服务</t>
   </si>
   <si>
     <t>Pixso</t>
@@ -1050,6 +1044,9 @@
     <t>https://jelly.jd.com</t>
   </si>
   <si>
+    <t>https://storage.360buyimg.com/jelly-weapp/jellylogo.ico</t>
+  </si>
+  <si>
     <t>设计师的经验能量补给站！</t>
   </si>
   <si>
@@ -1068,7 +1065,10 @@
     <t>https://jelly.jd.com/jellyStore/5fead12eb402750151b51d2e#expandAll?0=_&amp;1=b&amp;2=l&amp;3=a&amp;4=n&amp;5=k</t>
   </si>
   <si>
-    <t>设计精品双周更新</t>
+    <t>https://jelly.jd.com/3.0/fonts/6d7427f711853e9fc61f6f02a9e108df.svg</t>
+  </si>
+  <si>
+    <t>设计精品双周更新(停更了，也值得学习)</t>
   </si>
   <si>
     <t>陈幼坚</t>
@@ -1194,13 +1194,13 @@
     <t>优设精选设计师网站导航</t>
   </si>
   <si>
-    <t>设一个计&lt;i style="font-size:0px"&gt;考研kaoyan设计书籍shejishuji&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>https://kzdh.landall.cn</t>
-  </si>
-  <si>
-    <t>https://kzdh.landall.cn/wp-content/uploads/2022/09/logoliangfssss.png</t>
+    <t>设一个计</t>
+  </si>
+  <si>
+    <t>https://www.landall.cn</t>
+  </si>
+  <si>
+    <t>https://www.landall.cn/source/plugin/orange_down/static//images/d2/detail_logo_magapp.png</t>
   </si>
   <si>
     <t>设一个计 | 私人收藏夹,蓝代旗下，考研设计书籍下载</t>
@@ -1239,19 +1239,34 @@
     <t>设计百宝箱-全球高质量设计师网址导航大全</t>
   </si>
   <si>
+    <t>AI工具集</t>
+  </si>
+  <si>
+    <t>https://ai-bot.cn</t>
+  </si>
+  <si>
+    <t>专注于收录和推荐国内外热门、创意、有趣、前沿的A工具和网站</t>
+  </si>
+  <si>
+    <t>资源汇社区</t>
+  </si>
+  <si>
+    <t>http://ziyuanhuishequ.ys168.com</t>
+  </si>
+  <si>
+    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
+  </si>
+  <si>
+    <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
+  </si>
+  <si>
     <t>AI导航</t>
   </si>
   <si>
-    <t>http://nav.geekape.net/nav/page/home?id=ai</t>
-  </si>
-  <si>
-    <t>超全的ai导航网站</t>
-  </si>
-  <si>
-    <t>https://cdn.h5ds.com/space/files/600972551685382144/20230815/615722555340984320.png</t>
-  </si>
-  <si>
-    <t>👍教程Ⅰ软件Ⅰ黑科技Ⅰ心得Ⅰ素材，全网最大优质免费资源分享社区</t>
+    <t>https://www.chatgptdh.com</t>
+  </si>
+  <si>
+    <t>AI工具,AI导航,AI人工智能,AI绘画,AI智能对话,AI翻译,AI提示词,AI工具,AI智能写作,AI 3D设计,AI视频,AI语音</t>
   </si>
   <si>
     <t>灰大字体导航</t>
@@ -1332,6 +1347,15 @@
     <t>航整理收录了优秀国外设计网站，包含各式各样优质的设计资源和设计神器，比如创意灵感、素材图库、在线配色、UI/UX 设计，设计师必备设计导航站。</t>
   </si>
   <si>
+    <t>瓜皮导航</t>
+  </si>
+  <si>
+    <t>https://getquicker.net/Guides/Guide?id=52593d69-c99a-4367-8b98-08d9a65be47e&amp;step=5d80abcc-00b2-47b8-55d8-08dc0b31097f</t>
+  </si>
+  <si>
+    <t>实用工具 科技酷站 资源搜索 影音资源 漫画阅读 趣味休闲</t>
+  </si>
+  <si>
     <t>🎨 配色网站</t>
   </si>
   <si>
@@ -1950,6 +1974,18 @@
     <t>一个专注于手机应用分享网站，为用户提供各种绿色、实用、有趣的、好玩的应用和技术教程分享交流的平台</t>
   </si>
   <si>
+    <t>Bandizip</t>
+  </si>
+  <si>
+    <t>https://www.uy5.net/bandizip</t>
+  </si>
+  <si>
+    <t>https://vip.123pan.cn/1815052847/kelongwo/uploads/2024/06/2024062521020713.png</t>
+  </si>
+  <si>
+    <t>号称速度最快的压缩和解压软件</t>
+  </si>
+  <si>
     <t>Sordum</t>
   </si>
   <si>
@@ -1959,6 +1995,18 @@
     <t>专注开发Windows系统优化小工具的网站</t>
   </si>
   <si>
+    <t>Geek Uninstaller</t>
+  </si>
+  <si>
+    <t>https://www.uy5.net/geek-uninstaller</t>
+  </si>
+  <si>
+    <t>https://geekuninstaller.com/favicon.ico</t>
+  </si>
+  <si>
+    <t>高效快速小巧的免费的软件卸载工具</t>
+  </si>
+  <si>
     <t>马小帮</t>
   </si>
   <si>
@@ -1966,6 +2014,54 @@
   </si>
   <si>
     <t>各种电脑手机使用技巧，以及好玩有用的互联网经验</t>
+  </si>
+  <si>
+    <t>typora</t>
+  </si>
+  <si>
+    <t>https://www.uy5.net/typora</t>
+  </si>
+  <si>
+    <t>https://typoraio.cn/img/favicon-32.png</t>
+  </si>
+  <si>
+    <t>一款 Markdown 编辑器和阅读器</t>
+  </si>
+  <si>
+    <t>vscode</t>
+  </si>
+  <si>
+    <t>https://code.visualstudio.com/download</t>
+  </si>
+  <si>
+    <t>制作这个导航网站使用的软件</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>https://www.voidtools.com/zh-cn/downloads</t>
+  </si>
+  <si>
+    <t>基于名称快速定位文件和文件夹</t>
+  </si>
+  <si>
+    <t>TrafficMonitor</t>
+  </si>
+  <si>
+    <t>https://gitee.com/zhongyang219/TrafficMonitor</t>
+  </si>
+  <si>
+    <t>网速监控悬浮窗软件，可以显示当前网速、CPU及内存利用率，支持嵌入到任务栏</t>
+  </si>
+  <si>
+    <t>Motrix</t>
+  </si>
+  <si>
+    <t>https://motrix.app/zh-CN/</t>
+  </si>
+  <si>
+    <t>一款全能的下载工具支持下载 HTTP、FTP、BT、磁力链接等资源</t>
   </si>
   <si>
     <r>
@@ -2422,7 +2518,7 @@
     <t>https://www.52pojie.cn/thread-1852691-1-1.html</t>
   </si>
   <si>
-    <t>可下载皇冠素材</t>
+    <t>可下载皇冠素材，可通过置顶推荐或友情链接&lt;i style="color:hotpink;"&gt;办公摩的&lt;/i&gt;下载</t>
   </si>
   <si>
     <t>icon搜索</t>
@@ -3009,6 +3105,9 @@
     <t>https://icon.zhheo.com</t>
   </si>
   <si>
+    <t>https://apps.apple.com/assets/images/icons/apps-02daf211a48ed1f493ea452fb3e1ca38.png</t>
+  </si>
+  <si>
     <t>应用图标库 - App高清图标下载，搜索app名称即可下载</t>
   </si>
   <si>
@@ -3079,6 +3178,15 @@
   </si>
   <si>
     <t>全国电影高清海报下载，中文搜不到搜电影的英文名</t>
+  </si>
+  <si>
+    <t>PxHere</t>
+  </si>
+  <si>
+    <t>https://pxhere.com/zh</t>
+  </si>
+  <si>
+    <t>（CC0）许可证 个人和商业用途免费</t>
   </si>
   <si>
     <t>🧰 在线工具</t>
@@ -3698,6 +3806,15 @@
     <t>每年都会发一下最新的iOS的设计尺寸介绍，由产设学长撰写更新，值得推荐的一位博主~</t>
   </si>
   <si>
+    <t>工具列表</t>
+  </si>
+  <si>
+    <t>https://www.strerr.com/cn/tools.html</t>
+  </si>
+  <si>
+    <t>开发工具 图片工具 缩略图下载</t>
+  </si>
+  <si>
     <t>安卓尺寸</t>
   </si>
   <si>
@@ -3707,6 +3824,12 @@
     <t>Google安卓主流设备尺寸</t>
   </si>
   <si>
+    <t>订阅转换</t>
+  </si>
+  <si>
+    <t>https://acl4ssr-sub.github.io</t>
+  </si>
+  <si>
     <t>图片像素转换器</t>
   </si>
   <si>
@@ -3791,7 +3914,19 @@
     <t>为键盘工作者设计的单词记忆与英语肌肉记忆锻炼软件</t>
   </si>
   <si>
-    <t>💎 3D参考</t>
+    <t>在线PS</t>
+  </si>
+  <si>
+    <t>https://ps.gaoding.com</t>
+  </si>
+  <si>
+    <t>精简的在线ps图片处理软件，免下载、免安装</t>
+  </si>
+  <si>
+    <t>💎 网盘资源</t>
+  </si>
+  <si>
+    <t>白嫖党福利,这些网站聚集了一些付费资源</t>
   </si>
   <si>
     <t>reolink</t>
@@ -3828,6 +3963,45 @@
   </si>
   <si>
     <t>汽车数字艺术</t>
+  </si>
+  <si>
+    <t>阿里云盘资源发布</t>
+  </si>
+  <si>
+    <t>https://www.aliyunpub.com</t>
+  </si>
+  <si>
+    <t>无为盘搜</t>
+  </si>
+  <si>
+    <t>https://wuweipansou.top</t>
+  </si>
+  <si>
+    <t>学霸盘</t>
+  </si>
+  <si>
+    <t>https://www.xuebapan.com</t>
+  </si>
+  <si>
+    <t>UP云搜</t>
+  </si>
+  <si>
+    <t>https://www.upyunso.com</t>
+  </si>
+  <si>
+    <t>千帆搜索</t>
+  </si>
+  <si>
+    <t>https://pan.qianfan.app</t>
+  </si>
+  <si>
+    <t>需登录，关注公号获取激活码</t>
+  </si>
+  <si>
+    <t>爱盼</t>
+  </si>
+  <si>
+    <t>https://so.aicompasspro.com</t>
   </si>
   <si>
     <r>
@@ -4114,13 +4288,13 @@
     <t>卑微美工Garry</t>
   </si>
   <si>
-    <t>https://garryui.cn</t>
-  </si>
-  <si>
-    <t>https://garryui.cn/favicon.8de18.ico</t>
-  </si>
-  <si>
-    <t>Garry大佬的个人网站，很牛</t>
+    <t>https://space.bilibili.com/177987365</t>
+  </si>
+  <si>
+    <t>https://ice.frostsky.com/2024/07/06/83bddc66f7efd527a836dd87af78de14.webp</t>
+  </si>
+  <si>
+    <t>Garry大佬的个人网站，很牛，已经出教程了</t>
   </si>
   <si>
     <t>字体设计up主</t>
@@ -4804,6 +4978,18 @@
     <t>提供简单方便的网易云音乐无损解析下载服务</t>
   </si>
   <si>
+    <t>素材解析</t>
+  </si>
+  <si>
+    <t>http://121.40.25.9:8080</t>
+  </si>
+  <si>
+    <t>https://icon.qiantucdn.com/static/images/public/pwa/32x32.png</t>
+  </si>
+  <si>
+    <t>邀请码：1474728874  (千图包图摄图网等）</t>
+  </si>
+  <si>
     <t>百度文库解析</t>
   </si>
   <si>
@@ -4876,6 +5062,15 @@
     <t>抖音快手等16个平台视频去水印下载</t>
   </si>
   <si>
+    <t>下歌吧</t>
+  </si>
+  <si>
+    <t>https://xiageba.liumingye.cn/</t>
+  </si>
+  <si>
+    <t>在线免费下载全网MP3付费歌曲</t>
+  </si>
+  <si>
     <t>🙇 友情链接 &lt;span&gt;&lt;a target="_blank" href="https://blog.z-l.top/posts/djly.html"&gt;点我申请友情链接&lt;/a&gt;  共同进步！&lt;/span&gt;</t>
   </si>
   <si>
@@ -4913,21 +5108,6 @@
   </si>
   <si>
     <t>黄 公益大使</t>
-  </si>
-  <si>
-    <t>の我了麽</t>
-  </si>
-  <si>
-    <t>https://elm.188855.xyz</t>
-  </si>
-  <si>
-    <t>https://elm.188855.xyz/images/aa.png</t>
-  </si>
-  <si>
-    <t>JD公益大使的饿了么代挂</t>
-  </si>
-  <si>
-    <t>绿 yyds</t>
   </si>
   <si>
     <t>京东代挂Pro</t>
@@ -5820,7 +6000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5844,9 +6024,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5869,16 +6058,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5907,8 +6094,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5936,9 +6130,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -6277,189 +6468,191 @@
   <dimension ref="A1:DI53"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="9" style="29"/>
-    <col min="7" max="11" width="9" style="17"/>
-    <col min="12" max="12" width="9" style="29"/>
-    <col min="13" max="17" width="9" style="17"/>
-    <col min="18" max="18" width="9" style="29"/>
-    <col min="19" max="23" width="9" style="17"/>
-    <col min="24" max="24" width="9" style="29"/>
-    <col min="25" max="29" width="9" style="17"/>
-    <col min="30" max="30" width="9" style="29"/>
-    <col min="31" max="35" width="9" style="17"/>
-    <col min="36" max="36" width="9" style="29"/>
-    <col min="37" max="41" width="9" style="17"/>
-    <col min="42" max="42" width="9" style="29"/>
-    <col min="43" max="47" width="9" style="17"/>
-    <col min="48" max="48" width="9" style="29"/>
-    <col min="49" max="53" width="9" style="17"/>
-    <col min="54" max="54" width="9" style="29"/>
-    <col min="55" max="59" width="9" style="17"/>
-    <col min="60" max="60" width="9" style="30"/>
-    <col min="61" max="65" width="9" style="17"/>
-    <col min="66" max="66" width="9" style="29"/>
-    <col min="67" max="71" width="9" style="17"/>
-    <col min="72" max="72" width="9" style="29"/>
-    <col min="73" max="77" width="9" style="17"/>
-    <col min="78" max="78" width="9" style="29"/>
-    <col min="79" max="83" width="9" style="17"/>
-    <col min="84" max="84" width="9" style="29"/>
-    <col min="85" max="89" width="9" style="17"/>
-    <col min="90" max="90" width="9" style="29"/>
-    <col min="91" max="95" width="9" style="17"/>
-    <col min="96" max="96" width="9" style="31"/>
-    <col min="97" max="101" width="9" style="17"/>
-    <col min="102" max="102" width="9" style="31"/>
-    <col min="103" max="107" width="9" style="17"/>
-    <col min="108" max="108" width="9" style="31"/>
-    <col min="109" max="16384" width="9" style="17"/>
+    <col min="1" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="9" style="33"/>
+    <col min="7" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="9" style="33"/>
+    <col min="13" max="17" width="9" style="7"/>
+    <col min="18" max="18" width="9" style="33"/>
+    <col min="19" max="23" width="9" style="7"/>
+    <col min="24" max="24" width="9" style="33"/>
+    <col min="25" max="29" width="9" style="7"/>
+    <col min="30" max="30" width="9" style="33"/>
+    <col min="31" max="35" width="9" style="7"/>
+    <col min="36" max="36" width="9" style="33"/>
+    <col min="37" max="41" width="9" style="7"/>
+    <col min="42" max="42" width="9" style="33"/>
+    <col min="43" max="47" width="9" style="7"/>
+    <col min="48" max="48" width="9" style="33"/>
+    <col min="49" max="53" width="9" style="7"/>
+    <col min="54" max="54" width="9" style="33"/>
+    <col min="55" max="59" width="9" style="7"/>
+    <col min="60" max="60" width="9" style="34"/>
+    <col min="61" max="65" width="9" style="7"/>
+    <col min="66" max="66" width="9" style="33"/>
+    <col min="67" max="71" width="9" style="7"/>
+    <col min="72" max="72" width="9" style="33"/>
+    <col min="73" max="77" width="9" style="7"/>
+    <col min="78" max="78" width="9" style="33"/>
+    <col min="79" max="83" width="9" style="7"/>
+    <col min="84" max="84" width="9" style="33"/>
+    <col min="85" max="89" width="9" style="7"/>
+    <col min="90" max="90" width="9" style="33"/>
+    <col min="91" max="95" width="9" style="7"/>
+    <col min="96" max="96" width="9" style="35"/>
+    <col min="97" max="101" width="9" style="7"/>
+    <col min="102" max="102" width="9" style="35"/>
+    <col min="103" max="107" width="9" style="7"/>
+    <col min="108" max="108" width="9" style="35"/>
+    <col min="109" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="str">
+      <c r="C1" s="37" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年6月22日</v>
-      </c>
-      <c r="D1" s="34" t="s">
+        <v>最后更新⌚ 2024年7月6日</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BN1" s="30"/>
-      <c r="BO1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="DE1" s="14"/>
-    </row>
-    <row r="2" s="17" customFormat="1" ht="13.8" spans="1:113">
-      <c r="A2" s="17" t="s">
+      <c r="M1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="DE1" s="17"/>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="13.8" spans="1:113">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BH2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BT2" s="29"/>
-      <c r="BZ2" s="29"/>
-      <c r="CF2" s="29"/>
-      <c r="CL2" s="29"/>
-      <c r="CR2" s="31"/>
-      <c r="CX2" s="31"/>
-      <c r="DD2" s="31"/>
-      <c r="DI2" s="17" t="s">
+      <c r="K2" s="40" t="s">
         <v>16</v>
       </c>
+      <c r="L2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BH2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BT2" s="33"/>
+      <c r="BZ2" s="33"/>
+      <c r="CF2" s="33"/>
+      <c r="CL2" s="33"/>
+      <c r="CR2" s="35"/>
+      <c r="CX2" s="35"/>
+      <c r="DD2" s="35"/>
+      <c r="DI2" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" ht="13.8" spans="1:111">
-      <c r="A3" s="17" t="s">
-        <v>17</v>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="40"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="36"/>
+      <c r="Q3" s="40"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="39"/>
-      <c r="AC3" s="36"/>
+      <c r="AA3" s="42"/>
+      <c r="AC3" s="40"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="40"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="39"/>
-      <c r="BA3" s="36"/>
+      <c r="AY3" s="42"/>
+      <c r="BA3" s="40"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="38"/>
-      <c r="BN3" s="30"/>
+      <c r="BK3" s="41"/>
+      <c r="BN3" s="34"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6471,56 +6664,54 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="41"/>
+      <c r="CX3" s="44"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="41"/>
+      <c r="DD3" s="44"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:111">
-      <c r="A4" s="17" t="s">
-        <v>23</v>
+      <c r="A4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="40"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="38"/>
+      <c r="Q4" s="41"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="38"/>
-      <c r="AC4" s="38"/>
+      <c r="AA4" s="41"/>
+      <c r="AC4" s="41"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="39"/>
-      <c r="AU4" s="36"/>
+      <c r="AS4" s="42"/>
+      <c r="AU4" s="40"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="36"/>
+      <c r="BG4" s="40"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="38"/>
+      <c r="BK4" s="41"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6531,50 +6722,43 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="42"/>
+      <c r="CV4" s="45"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
     </row>
-    <row r="5" ht="13.8" spans="1:111">
-      <c r="A5" s="17" t="s">
+    <row r="5" ht="13.8" spans="2:111">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="40"/>
+      <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="G5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="40"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="40"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="36"/>
+      <c r="AU5" s="40"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="40"/>
+      <c r="BF5" s="43"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6592,35 +6776,38 @@
       <c r="DG5" s="4"/>
     </row>
     <row r="6" ht="45.6" spans="1:112">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="37" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="I6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="40"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="40"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="39"/>
-      <c r="W6" s="36"/>
+      <c r="U6" s="42"/>
+      <c r="W6" s="40"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6629,9 +6816,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="36"/>
+      <c r="BG6" s="40"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="38"/>
+      <c r="BK6" s="41"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6642,43 +6829,43 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="18"/>
-      <c r="DG6" s="18"/>
-      <c r="DH6" s="42"/>
+      <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="45"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="I7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="40"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="38"/>
-      <c r="Q7" s="36"/>
+      <c r="O7" s="41"/>
+      <c r="Q7" s="40"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="38"/>
-      <c r="W7" s="38"/>
+      <c r="U7" s="41"/>
+      <c r="W7" s="41"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6699,35 +6886,35 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="18"/>
+      <c r="DF7" s="9"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="E8" s="40"/>
+      <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="H8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="G8" s="17" t="s">
+      <c r="I8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="36"/>
+      <c r="Q8" s="40"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6737,7 +6924,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="38"/>
+      <c r="AU8" s="41"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6754,37 +6941,37 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="18"/>
-      <c r="DG8" s="18"/>
+      <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="36"/>
+      <c r="Q9" s="40"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6803,36 +6990,36 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="18"/>
+      <c r="CU9" s="9"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="18"/>
-      <c r="DG9" s="18"/>
+      <c r="DF9" s="9"/>
+      <c r="DG9" s="9"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
+      <c r="H10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="36"/>
+      <c r="Q10" s="40"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -6841,7 +7028,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="36"/>
+      <c r="AO10" s="40"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -6850,7 +7037,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="18"/>
+      <c r="BQ10" s="9"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -6859,40 +7046,38 @@
       <c r="DA10" s="4"/>
     </row>
     <row r="11" ht="13.8" spans="1:111">
-      <c r="A11" s="17" t="s">
-        <v>66</v>
+      <c r="A11" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
+      <c r="H11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="I11" s="42"/>
+      <c r="J11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="40"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="38"/>
-      <c r="AO11" s="38"/>
+      <c r="AM11" s="41"/>
+      <c r="AO11" s="41"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -6901,36 +7086,36 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="18"/>
+      <c r="BQ11" s="9"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="18"/>
-      <c r="DG11" s="18"/>
+      <c r="DF11" s="9"/>
+      <c r="DG11" s="9"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="H12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="I12" s="42"/>
+      <c r="J12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -6947,30 +7132,30 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="18"/>
+      <c r="CU12" s="9"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17" t="s">
+      <c r="H13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="I13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="N13" s="4"/>
       <c r="T13" s="4"/>
@@ -6979,31 +7164,31 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="38"/>
+      <c r="BE13" s="41"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="18"/>
+      <c r="CN13" s="9"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>46</v>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="N14" s="4"/>
       <c r="T14" s="4"/>
@@ -7019,19 +7204,19 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="18"/>
+      <c r="CN14" s="9"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="N15" s="4"/>
       <c r="T15" s="5"/>
@@ -7041,7 +7226,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="38"/>
+      <c r="BE15" s="41"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -7050,15 +7235,15 @@
       <c r="CU15" s="5"/>
     </row>
     <row r="16" ht="13.8" spans="7:98">
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="N16" s="4"/>
       <c r="T16" s="4"/>
@@ -7076,14 +7261,14 @@
       <c r="CT16" s="5"/>
     </row>
     <row r="17" ht="13.8" spans="7:86">
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="N17" s="4"/>
       <c r="T17" s="5"/>
@@ -7093,26 +7278,26 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="38"/>
+      <c r="BE17" s="41"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="38"/>
+      <c r="BK17" s="41"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CH17" s="4"/>
     </row>
     <row r="18" ht="13.8" spans="7:86">
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="N18" s="4"/>
       <c r="T18" s="5"/>
@@ -7147,7 +7332,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="38"/>
+      <c r="AF20" s="41"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -7162,7 +7347,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="25"/>
+      <c r="AX21" s="27"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7197,29 +7382,29 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="E26" s="40"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="38"/>
+      <c r="BD26" s="27"/>
+      <c r="BE26" s="41"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="38"/>
+      <c r="BE27" s="41"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
     </row>
     <row r="28" ht="13.8" spans="2:81">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="BV28" s="4"/>
@@ -7233,8 +7418,8 @@
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="38"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="9"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -7242,8 +7427,8 @@
       <c r="CC30" s="4"/>
     </row>
     <row r="31" ht="13.8" spans="2:80">
-      <c r="B31" s="38"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="9"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="BV31" s="4"/>
@@ -7253,7 +7438,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="16"/>
+      <c r="BU32" s="20"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7280,7 +7465,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="38"/>
+      <c r="CC36" s="41"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7300,7 +7485,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="20"/>
+      <c r="BW40" s="22"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7317,7 +7502,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="25"/>
+      <c r="CB43" s="27"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7336,12 +7521,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="25"/>
+      <c r="CB49" s="27"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="25"/>
-      <c r="CC50" s="18"/>
+      <c r="CB50" s="27"/>
+      <c r="CC50" s="9"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7363,54 +7548,56 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="13"/>
+    <col min="6" max="6" width="8.88888888888889" style="16"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="13"/>
+    <col min="12" max="12" width="8.88888888888889" style="16"/>
     <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1169</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1125</v>
+        <v>1170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1126</v>
+        <v>1171</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1127</v>
+        <v>1172</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1128</v>
+        <v>1173</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1129</v>
+        <v>1174</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1130</v>
+        <v>1175</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7419,15 +7606,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1131</v>
+        <v>1176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1132</v>
+        <v>1177</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>1178</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7435,43 +7622,58 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1134</v>
+        <v>1179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1135</v>
+        <v>1180</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>1181</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="13"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1185</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1187</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="13"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7479,20 +7681,35 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1189</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1191</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1194</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -7528,7 +7745,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -7562,15 +7779,15 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
-        <v>1137</v>
+      <c r="A1" s="15" t="s">
+        <v>1195</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1138</v>
+        <v>1196</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7580,76 +7797,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1139</v>
+        <v>1197</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1140</v>
+        <v>1198</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1141</v>
+        <v>1199</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1142</v>
+        <v>1200</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1143</v>
+        <v>1201</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1144</v>
+        <v>1202</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1145</v>
+        <v>1203</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1146</v>
+        <v>1204</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1147</v>
+        <v>1205</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1148</v>
+        <v>1206</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1149</v>
+        <v>1207</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1150</v>
+        <v>1208</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1151</v>
+        <v>1209</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1152</v>
+        <v>1210</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1153</v>
+        <v>1211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1154</v>
+        <v>1212</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7698,328 +7915,328 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1155</v>
+        <v>1213</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1156</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>1157</v>
+      <c r="A2" s="12" t="s">
+        <v>1215</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>1217</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1161</v>
+        <v>1219</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1162</v>
+        <v>1220</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1163</v>
+        <v>1221</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1165</v>
+        <v>1222</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1223</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1166</v>
+        <v>1224</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1167</v>
+        <v>1225</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>1169</v>
+        <v>1226</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>1227</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1170</v>
+        <v>1228</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1171</v>
+        <v>1229</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1172</v>
+        <v>1230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
+        <v>1231</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1174</v>
+        <v>1232</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1175</v>
+        <v>1233</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1176</v>
+        <v>1234</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1177</v>
+        <v>1235</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1178</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1179</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1180</v>
+        <v>1238</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1181</v>
+        <v>1239</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1182</v>
+        <v>1240</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1183</v>
+        <v>1241</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1184</v>
+        <v>1242</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1185</v>
+        <v>1243</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1186</v>
+        <v>1244</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1187</v>
+        <v>1245</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1188</v>
+        <v>1246</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1185</v>
+        <v>1243</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1189</v>
+        <v>1247</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1192</v>
+        <v>1248</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1250</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1193</v>
+        <v>1251</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1194</v>
+        <v>1252</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1195</v>
+        <v>1253</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1196</v>
+        <v>1254</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1197</v>
+        <v>1255</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1198</v>
+        <v>1256</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1199</v>
+        <v>1257</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1200</v>
+        <v>1258</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1201</v>
+        <v>1259</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1202</v>
+        <v>1260</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1203</v>
+        <v>1261</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1204</v>
+        <v>1262</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1205</v>
+        <v>1263</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1206</v>
+        <v>1264</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1207</v>
+        <v>1265</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1208</v>
+        <v>1266</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1209</v>
+        <v>1267</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1210</v>
+        <v>1268</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1211</v>
+        <v>1269</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1212</v>
+        <v>1270</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1213</v>
+        <v>1271</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1214</v>
+        <v>1272</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1215</v>
+        <v>1273</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1216</v>
+        <v>1274</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1217</v>
+        <v>1275</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1218</v>
+        <v>1276</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1219</v>
+        <v>1277</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1220</v>
+        <v>1278</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1221</v>
+        <v>1279</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1222</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1223</v>
+        <v>1281</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1224</v>
+        <v>1282</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1225</v>
+        <v>1283</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1226</v>
+        <v>1284</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1227</v>
+        <v>1285</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1228</v>
+        <v>1286</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1229</v>
+        <v>1287</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1230</v>
+        <v>1288</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1231</v>
+        <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1232</v>
+        <v>1290</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1233</v>
+        <v>1291</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1234</v>
+        <v>1292</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -8049,242 +8266,242 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1235</v>
+        <v>1293</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1236</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1237</v>
+        <v>1295</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1238</v>
+        <v>1296</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1239</v>
+        <v>1297</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1240</v>
+        <v>1298</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1241</v>
+        <v>1299</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1242</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1243</v>
+        <v>1301</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1244</v>
+        <v>1302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1245</v>
+        <v>1303</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1246</v>
+        <v>1304</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1247</v>
+        <v>1305</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1248</v>
+        <v>1306</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1249</v>
+        <v>1307</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1250</v>
+        <v>1308</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1251</v>
+        <v>1309</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1252</v>
+        <v>1310</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1253</v>
+        <v>1311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1254</v>
+        <v>1312</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1255</v>
+        <v>1313</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1256</v>
+        <v>1314</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1257</v>
+        <v>1315</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1255</v>
+        <v>1313</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1258</v>
+        <v>1316</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1259</v>
+        <v>1317</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1255</v>
+        <v>1313</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1260</v>
+        <v>1318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1261</v>
+        <v>1319</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1262</v>
+        <v>1320</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1263</v>
+        <v>1321</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1264</v>
+        <v>1322</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1265</v>
+        <v>1323</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1266</v>
+        <v>1324</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1267</v>
+        <v>1325</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1268</v>
+        <v>1326</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1269</v>
+        <v>1327</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1270</v>
+        <v>1328</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1271</v>
+        <v>1329</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1272</v>
+        <v>1330</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1273</v>
+        <v>1331</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1274</v>
+        <v>1332</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1275</v>
+        <v>1333</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1276</v>
+        <v>1334</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1277</v>
+        <v>1335</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1278</v>
+        <v>1336</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1279</v>
+        <v>1337</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1280</v>
+        <v>1338</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1281</v>
+        <v>1339</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1282</v>
+        <v>1340</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1283</v>
+        <v>1341</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1284</v>
+        <v>1342</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8307,150 +8524,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1286</v>
+        <v>1344</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1287</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1288</v>
+        <v>1346</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C2" s="8"/>
+        <v>1347</v>
+      </c>
+      <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
-        <v>1290</v>
+        <v>1348</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1291</v>
+        <v>1349</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>1350</v>
+      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
-        <v>1293</v>
+        <v>1351</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1294</v>
+        <v>1352</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1295</v>
+        <v>1353</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1296</v>
+        <v>1354</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1297</v>
+        <v>1355</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1298</v>
+        <v>1356</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>1357</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="3" t="s">
-        <v>1298</v>
+        <v>1356</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1300</v>
+        <v>1358</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1301</v>
+        <v>1359</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1302</v>
+        <v>1360</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1303</v>
+        <v>1361</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1304</v>
+        <v>1362</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1305</v>
+        <v>1363</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1306</v>
+        <v>1364</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1307</v>
+        <v>1365</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1308</v>
+        <v>1366</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1309</v>
+        <v>1367</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1310</v>
+        <v>1368</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1311</v>
+        <v>1369</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1312</v>
+        <v>1370</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1313</v>
+        <v>1371</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1314</v>
+        <v>1372</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1315</v>
+        <v>1373</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1316</v>
+        <v>1374</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1317</v>
+        <v>1375</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1318</v>
+        <v>1376</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1319</v>
+        <v>1377</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8471,24 +8688,24 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1320</v>
+        <v>1378</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1138</v>
+        <v>1196</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8498,14 +8715,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1321</v>
+        <v>1379</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1323</v>
+        <v>1381</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8517,16 +8734,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1324</v>
+        <v>1382</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1325</v>
+        <v>1383</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1326</v>
+        <v>1384</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1327</v>
+        <v>1385</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8538,20 +8755,18 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1271</v>
+        <v>1386</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1388</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>1389</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -8561,16 +8776,20 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>1390</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1329</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>1391</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
@@ -8580,16 +8799,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1333</v>
+        <v>1392</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1335</v>
-      </c>
+        <v>1393</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>1336</v>
+        <v>1394</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8601,78 +8818,95 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>1395</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1397</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>1339</v>
+        <v>1398</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1342</v>
-      </c>
+        <v>1399</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1343</v>
+        <v>1401</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1345</v>
+        <v>1402</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1403</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1346</v>
+        <v>1404</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1347</v>
+        <v>1405</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>1350</v>
+        <v>1406</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1408</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1351</v>
+        <v>1409</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1413</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://watermark.liumingye.cn/"/>
-    <hyperlink ref="C10" r:id="rId2" display="https://fastly.jsdelivr.net/gh/5ime/img/avatar.jpg"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8684,7 +8918,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G18" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -8694,160 +8928,155 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1352</v>
+        <v>1417</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1353</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1354</v>
+        <v>1419</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1355</v>
+        <v>1420</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1356</v>
+        <v>1421</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1357</v>
+        <v>1422</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1358</v>
+        <v>1423</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1359</v>
+        <v>1424</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1360</v>
+        <v>1425</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1361</v>
+        <v>1426</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1362</v>
+        <v>1427</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1363</v>
+        <v>1428</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1364</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1365</v>
+        <v>1430</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1366</v>
+        <v>1431</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1367</v>
+        <v>1432</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1368</v>
+        <v>1433</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1369</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1372</v>
+        <v>1435</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1297</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1374</v>
-      </c>
+        <v>1437</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1375</v>
+        <v>1438</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1376</v>
+        <v>1439</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1239</v>
+        <v>1440</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1377</v>
+        <v>1441</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1378</v>
+        <v>1442</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1379</v>
+        <v>1443</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1380</v>
+        <v>1444</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1381</v>
+        <v>1445</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1382</v>
+        <v>1446</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1383</v>
+        <v>1447</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1384</v>
+        <v>1448</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1385</v>
+        <v>1449</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E10" s="3"/>
+    <row r="10" ht="57" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -8902,637 +9131,642 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="13"/>
+    <col min="6" max="6" width="8.88888888888889" style="16"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="13"/>
+    <col min="12" max="12" width="8.88888888888889" style="16"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="13"/>
+    <col min="18" max="18" width="8.88888888888889" style="16"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="28" t="s">
-        <v>107</v>
+      <c r="A1" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="13"/>
+      <c r="G5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="G6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="45.6" spans="1:5">
+      <c r="A25" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" ht="22.8" spans="1:5">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="28" t="s">
         <v>268</v>
       </c>
       <c r="E25" s="3"/>
@@ -9583,6 +9817,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" display="https://storage.360buyimg.com/jelly-weapp/jellylogo.ico"/>
+    <hyperlink ref="C25" r:id="rId2" display="https://jelly.jd.com/3.0/fonts/6d7427f711853e9fc61f6f02a9e108df.svg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9594,18 +9832,18 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="13"/>
+    <col min="6" max="6" width="8.88888888888889" style="16"/>
     <col min="7" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9614,7 +9852,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>283</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -9637,7 +9875,7 @@
       <c r="D2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="3" t="s">
         <v>290</v>
       </c>
@@ -9663,7 +9901,7 @@
       <c r="D3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="11"/>
       <c r="G3" s="3" t="s">
         <v>297</v>
       </c>
@@ -9689,7 +9927,7 @@
       <c r="D4" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="3" t="s">
         <v>303</v>
       </c>
@@ -9715,14 +9953,14 @@
       <c r="D5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>312</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -9737,11 +9975,11 @@
       <c r="B6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="13"/>
       <c r="G6" s="3" t="s">
         <v>317</v>
       </c>
@@ -9754,7 +9992,7 @@
       <c r="J6" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
@@ -9769,149 +10007,164 @@
       <c r="D7" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>326</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
+        <v>331</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>338</v>
+      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9947,28 +10200,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>367</v>
+      </c>
+      <c r="C2" s="26"/>
       <c r="D2" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="10"/>
+        <v>368</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -9977,16 +10230,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="8"/>
+        <v>370</v>
+      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E3" s="8"/>
+        <v>371</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -9995,14 +10248,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -10013,34 +10266,34 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -10051,14 +10304,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -10069,62 +10322,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -10187,146 +10440,146 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E2" s="10"/>
+        <v>405</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10348,10 +10601,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -10361,22 +10614,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10385,574 +10638,660 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="24"/>
+        <v>445</v>
+      </c>
+      <c r="C3" s="26"/>
       <c r="D3" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>26</v>
+        <v>446</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>453</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="G4" s="3" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>472</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="G7" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K9" s="10"/>
+        <v>491</v>
+      </c>
+      <c r="K9" s="13"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>497</v>
+      </c>
+      <c r="I10" s="11"/>
       <c r="J10" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="K10" s="8"/>
+        <v>498</v>
+      </c>
+      <c r="K10" s="11"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="26" t="s">
-        <v>491</v>
+      <c r="A11" s="28" t="s">
+        <v>499</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>573</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="17.4" spans="1:11">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>580</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="G23" s="27" t="s">
-        <v>565</v>
+      <c r="G23" s="30" t="s">
+        <v>581</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="K23" s="3"/>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>588</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="D25" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>591</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="D26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>594</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="D27" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" ht="110.4" spans="1:4">
+      <c r="A28" t="s">
+        <v>597</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" display="https://www.uy5.net/bandizip"/>
+    <hyperlink ref="C22" r:id="rId2" display="https://vip.123pan.cn/1815052847/kelongwo/uploads/2024/06/2024062521020713.png"/>
+    <hyperlink ref="B23" r:id="rId3" display="https://www.uy5.net/geek-uninstaller"/>
+    <hyperlink ref="C23" r:id="rId4" display="https://geekuninstaller.com/favicon.ico" tooltip="https://geekuninstaller.com/favicon.ico"/>
+    <hyperlink ref="B25" r:id="rId5" display="https://code.visualstudio.com/download"/>
+    <hyperlink ref="B24" r:id="rId6" display="https://www.uy5.net/typora"/>
+    <hyperlink ref="C24" r:id="rId7" display="https://typoraio.cn/img/favicon-32.png" tooltip="https://typoraio.cn/img/favicon-32.png"/>
+    <hyperlink ref="B26" r:id="rId8" display="https://www.voidtools.com/zh-cn/downloads"/>
+    <hyperlink ref="B27" r:id="rId9" display="https://gitee.com/zhongyang219/TrafficMonitor"/>
+    <hyperlink ref="B28" r:id="rId10" display="https://motrix.app/zh-CN/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10975,253 +11314,253 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="22" t="s">
-        <v>568</v>
+      <c r="A1" s="24" t="s">
+        <v>600</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>570</v>
+        <v>601</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>602</v>
       </c>
       <c r="H1" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="24"/>
+        <v>605</v>
+      </c>
+      <c r="C2" s="26"/>
       <c r="D2" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E2" s="10"/>
+        <v>606</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="G2" s="3" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -11232,7 +11571,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11262,994 +11601,1004 @@
   <sheetPr/>
   <dimension ref="A1:AO50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="13"/>
+    <col min="6" max="6" width="8.88888888888889" style="16"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="13"/>
+    <col min="12" max="12" width="8.88888888888889" style="16"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="13"/>
+    <col min="18" max="18" width="8.88888888888889" style="16"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="13"/>
+    <col min="24" max="24" width="8.88888888888889" style="16"/>
     <col min="25" max="29" width="8.88888888888889" style="4"/>
-    <col min="30" max="30" width="8.88888888888889" style="13"/>
+    <col min="30" max="30" width="8.88888888888889" style="16"/>
     <col min="31" max="35" width="8.88888888888889" style="4"/>
-    <col min="36" max="36" width="8.88888888888889" style="13"/>
+    <col min="36" max="36" width="8.88888888888889" style="16"/>
     <col min="37" max="41" width="8.88888888888889" style="4"/>
-    <col min="42" max="42" width="8.88888888888889" style="13"/>
+    <col min="42" max="42" width="8.88888888888889" style="16"/>
     <col min="43" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="12" t="s">
-        <v>628</v>
+      <c r="A1" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="13" t="s">
-        <v>629</v>
+      <c r="F1" s="16" t="s">
+        <v>661</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="21" t="s">
-        <v>660</v>
+      <c r="A3" s="23" t="s">
+        <v>692</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="21" t="s">
-        <v>680</v>
+      <c r="A4" s="23" t="s">
+        <v>712</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>660</v>
+        <v>741</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>692</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>759</v>
+        <v>791</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="AO7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>764</v>
+        <v>796</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>795</v>
+        <v>827</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>796</v>
+        <v>828</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="AA9" s="15"/>
+        <v>830</v>
+      </c>
+      <c r="AA9" s="19"/>
       <c r="AB9" s="3" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>802</v>
+        <v>834</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>803</v>
+        <v>835</v>
       </c>
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="4" t="s">
-        <v>804</v>
+        <v>836</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AK10" s="17" t="s">
-        <v>23</v>
+      <c r="AK10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="AN10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO10" s="17"/>
+        <v>849</v>
+      </c>
+      <c r="AN10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="4" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>826</v>
+        <v>858</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>827</v>
+        <v>859</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>828</v>
+        <v>860</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="3" t="s">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="C12" s="8"/>
+        <v>866</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="3" t="s">
-        <v>835</v>
+        <v>867</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>836</v>
+        <v>868</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>837</v>
+        <v>869</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="K12" s="3"/>
       <c r="Y12" s="4" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>853</v>
+        <v>884</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>885</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>854</v>
+        <v>886</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>856</v>
+        <v>888</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>857</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>867</v>
+        <v>899</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>869</v>
+        <v>901</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>871</v>
+        <v>903</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>904</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>875</v>
+        <v>908</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>876</v>
+        <v>909</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>877</v>
+        <v>910</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>878</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>880</v>
+        <v>913</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>882</v>
+        <v>915</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>883</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>885</v>
+        <v>918</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>886</v>
+        <v>919</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>887</v>
+        <v>920</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>889</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>891</v>
+        <v>924</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>892</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>894</v>
+        <v>927</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>930</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="3"/>
@@ -12275,9 +12624,6 @@
       <c r="E50" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Z13" r:id="rId1" display="https://www.ufonts.cn"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -12288,713 +12634,713 @@
   <sheetPr/>
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="13"/>
+    <col min="6" max="6" width="8.88888888888889" style="16"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="13"/>
+    <col min="12" max="12" width="8.88888888888889" style="16"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="13"/>
+    <col min="18" max="18" width="8.88888888888889" style="16"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="13"/>
+    <col min="24" max="24" width="8.88888888888889" style="16"/>
     <col min="25" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>896</v>
+        <v>932</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>897</v>
+        <v>933</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="13" t="s">
-        <v>898</v>
+      <c r="F1" s="16" t="s">
+        <v>934</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>899</v>
+        <v>935</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>900</v>
+        <v>936</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>901</v>
+        <v>937</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>902</v>
+        <v>938</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>903</v>
+        <v>939</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>904</v>
+        <v>940</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>905</v>
+        <v>941</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>907</v>
+        <v>943</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>908</v>
+        <v>944</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>910</v>
+        <v>946</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>911</v>
+        <v>947</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>913</v>
+        <v>949</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>914</v>
+        <v>950</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>915</v>
+        <v>951</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>916</v>
+        <v>952</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>917</v>
+        <v>953</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>918</v>
+        <v>954</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>919</v>
+        <v>955</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>920</v>
+        <v>956</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>921</v>
+        <v>957</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>923</v>
+        <v>959</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="9" t="s">
-        <v>926</v>
+      <c r="G3" s="12" t="s">
+        <v>962</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="K3" s="9"/>
+        <v>963</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="K3" s="12"/>
       <c r="M3" s="3" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>930</v>
+        <v>966</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>937</v>
+        <v>973</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>938</v>
+        <v>974</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>939</v>
+        <v>975</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="3" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>941</v>
+        <v>977</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" s="9" t="s">
-        <v>943</v>
+      <c r="G4" s="12" t="s">
+        <v>979</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>946</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>981</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="K4" s="12"/>
       <c r="M4" s="3" t="s">
-        <v>947</v>
+        <v>983</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>948</v>
+        <v>984</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>950</v>
+        <v>986</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>951</v>
+        <v>987</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>952</v>
+        <v>988</v>
       </c>
       <c r="W4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>954</v>
+        <v>990</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>955</v>
+        <v>991</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" ht="15.6" spans="1:29">
       <c r="A5" s="3" t="s">
-        <v>956</v>
+        <v>992</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>957</v>
+        <v>993</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>958</v>
+        <v>994</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="G5" s="9" t="s">
-        <v>959</v>
+      <c r="G5" s="12" t="s">
+        <v>995</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>961</v>
-      </c>
-      <c r="K5" s="9"/>
+        <v>996</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>997</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="M5" s="3" t="s">
-        <v>962</v>
+        <v>998</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>963</v>
+        <v>999</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>950</v>
+        <v>986</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>965</v>
+        <v>1001</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>966</v>
+        <v>1002</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" s="3" t="s">
-        <v>967</v>
+        <v>1003</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>968</v>
+        <v>1004</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>969</v>
+        <v>1005</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="3" t="s">
-        <v>970</v>
+        <v>1006</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>971</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>972</v>
+        <v>1008</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="G6" s="9" t="s">
-        <v>973</v>
+      <c r="G6" s="12" t="s">
+        <v>1009</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>974</v>
+        <v>1010</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="K6" s="9"/>
+        <v>1011</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K6" s="12"/>
       <c r="M6" s="3" t="s">
-        <v>977</v>
+        <v>1013</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>978</v>
+        <v>1014</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>979</v>
+        <v>1015</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>980</v>
+        <v>1016</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>981</v>
+        <v>1017</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>982</v>
+        <v>1018</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>983</v>
+        <v>1019</v>
       </c>
       <c r="W6" s="3"/>
       <c r="Y6" s="3" t="s">
-        <v>984</v>
+        <v>1020</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>985</v>
+        <v>1021</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>986</v>
+        <v>1022</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="3" t="s">
-        <v>987</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>988</v>
+        <v>1024</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>989</v>
+        <v>1025</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>990</v>
+        <v>1026</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>991</v>
+        <v>1027</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>992</v>
+        <v>1028</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>993</v>
+        <v>1029</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>994</v>
+        <v>1030</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>995</v>
+        <v>1031</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>996</v>
+        <v>1032</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>997</v>
+        <v>1033</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>998</v>
+        <v>1034</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>999</v>
+        <v>1035</v>
       </c>
       <c r="W7" s="3"/>
       <c r="Y7" s="3" t="s">
-        <v>1000</v>
+        <v>1036</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>1001</v>
+        <v>1037</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>1002</v>
+        <v>1038</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="3" t="s">
-        <v>1003</v>
+        <v>1039</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1004</v>
+        <v>1040</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1005</v>
+        <v>1041</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1006</v>
+        <v>1042</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1007</v>
+        <v>1043</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1008</v>
+        <v>1044</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>1010</v>
+        <v>1046</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>1011</v>
+        <v>1047</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>1012</v>
+        <v>1048</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>1013</v>
+        <v>1049</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>1014</v>
+        <v>1050</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>1015</v>
+        <v>1051</v>
       </c>
       <c r="W8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>1016</v>
+        <v>1052</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1017</v>
+        <v>1053</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3" t="s">
-        <v>1018</v>
+        <v>1054</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="3" t="s">
-        <v>1019</v>
+        <v>1055</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1020</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1021</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>1022</v>
+        <v>1058</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I9" s="20"/>
+        <v>1059</v>
+      </c>
+      <c r="I9" s="22"/>
       <c r="J9" s="3" t="s">
-        <v>1024</v>
+        <v>1060</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>1025</v>
+        <v>1061</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1026</v>
+        <v>1062</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1027</v>
+        <v>1063</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1028</v>
+        <v>1064</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>1029</v>
+        <v>1065</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>1030</v>
+        <v>1066</v>
       </c>
       <c r="W9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>1031</v>
+        <v>1067</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1032</v>
+        <v>1068</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>1033</v>
+        <v>1069</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="3" t="s">
-        <v>1019</v>
+        <v>1055</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1035</v>
+        <v>1071</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1036</v>
+        <v>1072</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1037</v>
+        <v>1073</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1038</v>
+        <v>1074</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1039</v>
+        <v>1075</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1040</v>
+        <v>1076</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>1041</v>
+        <v>1077</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>1042</v>
+        <v>1078</v>
       </c>
       <c r="W10" s="3"/>
       <c r="Y10" s="3" t="s">
-        <v>1043</v>
+        <v>1079</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>1044</v>
+        <v>1080</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>1045</v>
+        <v>1081</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="3" t="s">
-        <v>1046</v>
+        <v>1082</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1047</v>
+        <v>1083</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1048</v>
+        <v>1084</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>1049</v>
+        <v>1085</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1050</v>
+        <v>1086</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>1051</v>
+        <v>1087</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1052</v>
+        <v>1088</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="U11" s="15"/>
+        <v>1089</v>
+      </c>
+      <c r="U11" s="19"/>
       <c r="V11" s="3" t="s">
-        <v>1054</v>
+        <v>1090</v>
       </c>
       <c r="W11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>1055</v>
+        <v>1091</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1056</v>
+        <v>1092</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>1057</v>
+        <v>1093</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="3" t="s">
-        <v>1058</v>
+        <v>1094</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1059</v>
+        <v>1095</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1060</v>
+        <v>1096</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>1061</v>
+        <v>1097</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1062</v>
+        <v>1098</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>1063</v>
+        <v>1099</v>
       </c>
       <c r="K12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>1064</v>
+        <v>1100</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1065</v>
+        <v>1101</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>1066</v>
+        <v>1102</v>
       </c>
       <c r="W12"/>
       <c r="Y12" s="3" t="s">
-        <v>1067</v>
+        <v>1103</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1069</v>
+        <v>1105</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>1070</v>
+        <v>1106</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="3" t="s">
-        <v>1071</v>
+        <v>1107</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1072</v>
+        <v>1108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1073</v>
+        <v>1109</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1074</v>
+        <v>1110</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>1075</v>
+        <v>1111</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>1076</v>
+        <v>1112</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1077</v>
+        <v>1113</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1078</v>
+        <v>1114</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -13002,29 +13348,29 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="Y13" s="3" t="s">
-        <v>1079</v>
+        <v>1115</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1080</v>
+        <v>1116</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1081</v>
+        <v>1117</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1082</v>
+        <v>1118</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
-        <v>1083</v>
+        <v>1119</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1084</v>
+        <v>1120</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1085</v>
+        <v>1121</v>
       </c>
       <c r="E14" s="3"/>
       <c r="M14"/>
@@ -13033,150 +13379,179 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="Y14" s="4" t="s">
-        <v>1086</v>
+        <v>1122</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>1087</v>
+        <v>1123</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="3" t="s">
-        <v>1089</v>
+        <v>1125</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1090</v>
+        <v>1126</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1091</v>
+        <v>1127</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1092</v>
+        <v>1128</v>
       </c>
       <c r="E15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="16" t="s">
-        <v>1093</v>
+      <c r="Y15" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="20" t="s">
+        <v>1132</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1094</v>
+        <v>1133</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1095</v>
+        <v>1134</v>
       </c>
       <c r="E16" s="3"/>
+      <c r="Y16" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1096</v>
+        <v>1137</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1097</v>
+        <v>1138</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1098</v>
+        <v>1139</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1099</v>
+        <v>1140</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1100</v>
+        <v>1141</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1101</v>
+        <v>1142</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>1102</v>
+        <v>1143</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1103</v>
+        <v>1144</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1104</v>
+        <v>1145</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>1105</v>
+        <v>1146</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1106</v>
+        <v>1147</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1107</v>
+        <v>1148</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>1108</v>
+        <v>1149</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>1109</v>
+        <v>1150</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1110</v>
+        <v>1151</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1111</v>
+        <v>1152</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1112</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>1113</v>
+        <v>1154</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1114</v>
+        <v>1155</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1115</v>
+        <v>1156</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1116</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="17" t="s">
-        <v>1117</v>
+      <c r="A23" s="7" t="s">
+        <v>1158</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17" t="s">
-        <v>1119</v>
+        <v>1159</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>1120</v>
+        <v>1161</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1121</v>
+        <v>1162</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1122</v>
+        <v>1163</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1123</v>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="5:5">
@@ -13189,7 +13564,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="17"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>

--- a/zl.xlsx
+++ b/zl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19788" windowHeight="13644" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="19788" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="置顶网站" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="1452">
   <si>
     <t>✨ 置顶推荐</t>
   </si>
@@ -377,10 +377,36 @@
     <t>一个提供动态图标集合的网站,同时提供html lottie gif等多种格式</t>
   </si>
   <si>
-    <t>https://dw.dwai.life/list</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;授权码&lt;/b&gt;扫码关注公众号可获取</t>
+    <t>免费GPT-4o</t>
+  </si>
+  <si>
+    <t>https://bus.hematown.com</t>
+  </si>
+  <si>
+    <t>河马小镇 Bus 免费 GPT-4o 车队</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">紫 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>🕜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线 Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7月14</t>
+    </r>
   </si>
   <si>
     <t>后期屋（国内）</t>
@@ -6000,7 +6026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6026,10 +6052,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -6132,6 +6154,13 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6467,95 +6496,95 @@
   <sheetPr/>
   <dimension ref="A1:DI53"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="9" style="33"/>
+    <col min="6" max="6" width="9" style="32"/>
     <col min="7" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="9" style="33"/>
+    <col min="12" max="12" width="9" style="32"/>
     <col min="13" max="17" width="9" style="7"/>
-    <col min="18" max="18" width="9" style="33"/>
+    <col min="18" max="18" width="9" style="32"/>
     <col min="19" max="23" width="9" style="7"/>
-    <col min="24" max="24" width="9" style="33"/>
+    <col min="24" max="24" width="9" style="32"/>
     <col min="25" max="29" width="9" style="7"/>
-    <col min="30" max="30" width="9" style="33"/>
+    <col min="30" max="30" width="9" style="32"/>
     <col min="31" max="35" width="9" style="7"/>
-    <col min="36" max="36" width="9" style="33"/>
+    <col min="36" max="36" width="9" style="32"/>
     <col min="37" max="41" width="9" style="7"/>
-    <col min="42" max="42" width="9" style="33"/>
+    <col min="42" max="42" width="9" style="32"/>
     <col min="43" max="47" width="9" style="7"/>
-    <col min="48" max="48" width="9" style="33"/>
+    <col min="48" max="48" width="9" style="32"/>
     <col min="49" max="53" width="9" style="7"/>
-    <col min="54" max="54" width="9" style="33"/>
+    <col min="54" max="54" width="9" style="32"/>
     <col min="55" max="59" width="9" style="7"/>
-    <col min="60" max="60" width="9" style="34"/>
+    <col min="60" max="60" width="9" style="33"/>
     <col min="61" max="65" width="9" style="7"/>
-    <col min="66" max="66" width="9" style="33"/>
+    <col min="66" max="66" width="9" style="32"/>
     <col min="67" max="71" width="9" style="7"/>
-    <col min="72" max="72" width="9" style="33"/>
+    <col min="72" max="72" width="9" style="32"/>
     <col min="73" max="77" width="9" style="7"/>
-    <col min="78" max="78" width="9" style="33"/>
+    <col min="78" max="78" width="9" style="32"/>
     <col min="79" max="83" width="9" style="7"/>
-    <col min="84" max="84" width="9" style="33"/>
+    <col min="84" max="84" width="9" style="32"/>
     <col min="85" max="89" width="9" style="7"/>
-    <col min="90" max="90" width="9" style="33"/>
+    <col min="90" max="90" width="9" style="32"/>
     <col min="91" max="95" width="9" style="7"/>
-    <col min="96" max="96" width="9" style="35"/>
+    <col min="96" max="96" width="9" style="34"/>
     <col min="97" max="101" width="9" style="7"/>
-    <col min="102" max="102" width="9" style="35"/>
+    <col min="102" max="102" width="9" style="34"/>
     <col min="103" max="107" width="9" style="7"/>
-    <col min="108" max="108" width="9" style="35"/>
+    <col min="108" max="108" width="9" style="34"/>
     <col min="109" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:109">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="str">
+      <c r="C1" s="36" t="str">
         <f ca="1">"最后更新⌚ "&amp;TEXT(TODAY(),"yyyy年m月d日")</f>
-        <v>最后更新⌚ 2024年7月6日</v>
-      </c>
-      <c r="D1" s="38" t="s">
+        <v>最后更新⌚ 2024年7月14日</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="DE1" s="17"/>
+      <c r="M1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="DE1" s="16"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="13.8" spans="1:113">
       <c r="A2" s="7" t="s">
@@ -6564,7 +6593,7 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -6573,7 +6602,7 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
@@ -6586,26 +6615,26 @@
       <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BH2" s="34"/>
-      <c r="BN2" s="34"/>
-      <c r="BT2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CL2" s="33"/>
-      <c r="CR2" s="35"/>
-      <c r="CX2" s="35"/>
-      <c r="DD2" s="35"/>
+      <c r="L2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BH2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BT2" s="32"/>
+      <c r="BZ2" s="32"/>
+      <c r="CF2" s="32"/>
+      <c r="CL2" s="32"/>
+      <c r="CR2" s="34"/>
+      <c r="CX2" s="34"/>
+      <c r="DD2" s="34"/>
       <c r="DI2" s="7" t="s">
         <v>17</v>
       </c>
@@ -6617,7 +6646,7 @@
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
@@ -6627,32 +6656,32 @@
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="39"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="Q3" s="40"/>
+      <c r="Q3" s="39"/>
       <c r="T3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="42"/>
-      <c r="AC3" s="40"/>
+      <c r="AA3" s="43"/>
+      <c r="AC3" s="39"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AI3" s="40"/>
+      <c r="AI3" s="39"/>
       <c r="AL3" s="5"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" s="42"/>
-      <c r="BA3" s="40"/>
+      <c r="AY3" s="43"/>
+      <c r="BA3" s="39"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="41"/>
-      <c r="BN3" s="34"/>
+      <c r="BK3" s="40"/>
+      <c r="BN3" s="33"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
       <c r="BV3" s="4"/>
@@ -6664,10 +6693,10 @@
       <c r="CO3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
-      <c r="CX3" s="44"/>
+      <c r="CX3" s="45"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
-      <c r="DD3" s="44"/>
+      <c r="DD3" s="45"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
     </row>
@@ -6678,40 +6707,39 @@
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7"/>
       <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="41"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="39"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="40"/>
       <c r="T4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="41"/>
-      <c r="AC4" s="41"/>
+      <c r="AA4" s="40"/>
+      <c r="AC4" s="40"/>
       <c r="AF4" s="4"/>
       <c r="AL4" s="5"/>
       <c r="AR4" s="4"/>
-      <c r="AS4" s="42"/>
-      <c r="AU4" s="40"/>
+      <c r="AS4" s="43"/>
+      <c r="AU4" s="39"/>
       <c r="AX4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="5"/>
-      <c r="BG4" s="40"/>
+      <c r="BG4" s="39"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="41"/>
+      <c r="BK4" s="40"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="4"/>
       <c r="BV4" s="4"/>
@@ -6722,7 +6750,7 @@
       <c r="CO4" s="5"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
-      <c r="CV4" s="45"/>
+      <c r="CV4" s="46"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DF4" s="4"/>
@@ -6730,35 +6758,34 @@
     </row>
     <row r="5" ht="13.8" spans="2:111">
       <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="39"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="39"/>
       <c r="T5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="40"/>
+      <c r="AU5" s="39"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BD5" s="4"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="43"/>
+      <c r="BF5" s="44"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BP5" s="4"/>
@@ -6779,11 +6806,11 @@
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6801,13 +6828,13 @@
       <c r="J6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="39"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="39"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="42"/>
-      <c r="W6" s="40"/>
+      <c r="U6" s="43"/>
+      <c r="W6" s="39"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AF6" s="4"/>
@@ -6816,9 +6843,9 @@
       <c r="AX6" s="4"/>
       <c r="BD6" s="4"/>
       <c r="BE6" s="4"/>
-      <c r="BG6" s="40"/>
+      <c r="BG6" s="39"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="41"/>
+      <c r="BK6" s="40"/>
       <c r="BP6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -6829,9 +6856,9 @@
       <c r="CU6" s="5"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
-      <c r="DF6" s="9"/>
-      <c r="DG6" s="9"/>
-      <c r="DH6" s="45"/>
+      <c r="DF6" s="8"/>
+      <c r="DG6" s="8"/>
+      <c r="DH6" s="46"/>
     </row>
     <row r="7" ht="13.8" spans="1:110">
       <c r="A7" s="7" t="s">
@@ -6840,11 +6867,11 @@
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -6859,13 +6886,13 @@
       <c r="J7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="39"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="41"/>
-      <c r="Q7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="Q7" s="39"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="41"/>
-      <c r="W7" s="41"/>
+      <c r="U7" s="40"/>
+      <c r="W7" s="40"/>
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AL7" s="4"/>
@@ -6886,20 +6913,20 @@
       <c r="CU7" s="4"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DF7" s="9"/>
+      <c r="DF7" s="8"/>
     </row>
     <row r="8" ht="13.8" spans="1:111">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="39"/>
       <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
@@ -6914,7 +6941,7 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="39"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Z8" s="4"/>
@@ -6924,7 +6951,7 @@
       <c r="AM8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AU8" s="41"/>
+      <c r="AU8" s="40"/>
       <c r="AX8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BE8" s="4"/>
@@ -6941,8 +6968,8 @@
       <c r="CU8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
-      <c r="DF8" s="9"/>
-      <c r="DG8" s="9"/>
+      <c r="DF8" s="8"/>
+      <c r="DG8" s="8"/>
     </row>
     <row r="9" ht="13.8" spans="1:111">
       <c r="A9" s="7" t="s">
@@ -6971,7 +6998,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="Q9" s="40"/>
+      <c r="Q9" s="39"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="Z9" s="4"/>
@@ -6990,11 +7017,11 @@
       <c r="CB9" s="4"/>
       <c r="CH9" s="4"/>
       <c r="CT9" s="4"/>
-      <c r="CU9" s="9"/>
+      <c r="CU9" s="8"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
-      <c r="DF9" s="9"/>
-      <c r="DG9" s="9"/>
+      <c r="DF9" s="8"/>
+      <c r="DG9" s="8"/>
     </row>
     <row r="10" ht="13.8" spans="1:105">
       <c r="A10" s="7" t="s">
@@ -7003,7 +7030,7 @@
       <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="7" t="s">
         <v>66</v>
       </c>
@@ -7019,7 +7046,7 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="Q10" s="40"/>
+      <c r="Q10" s="39"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="Z10" s="4"/>
@@ -7028,7 +7055,7 @@
       <c r="AG10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AO10" s="40"/>
+      <c r="AO10" s="39"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AX10" s="4"/>
@@ -7037,7 +7064,7 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BP10" s="4"/>
-      <c r="BQ10" s="9"/>
+      <c r="BQ10" s="8"/>
       <c r="BV10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CH10" s="4"/>
@@ -7047,37 +7074,39 @@
     </row>
     <row r="11" ht="13.8" spans="1:111">
       <c r="A11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="B11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>73</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="42"/>
+        <v>75</v>
+      </c>
+      <c r="I11" s="43"/>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="40"/>
+      <c r="Q11" s="39"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="41"/>
-      <c r="AO11" s="41"/>
+      <c r="AM11" s="40"/>
+      <c r="AO11" s="40"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AX11" s="4"/>
@@ -7086,36 +7115,36 @@
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BP11" s="5"/>
-      <c r="BQ11" s="9"/>
+      <c r="BQ11" s="8"/>
       <c r="BV11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
-      <c r="DF11" s="9"/>
-      <c r="DG11" s="9"/>
+      <c r="DF11" s="8"/>
+      <c r="DG11" s="8"/>
     </row>
     <row r="12" ht="13.8" spans="1:99">
       <c r="A12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="42"/>
+        <v>81</v>
+      </c>
+      <c r="I12" s="43"/>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -7132,30 +7161,30 @@
       <c r="CB12" s="4"/>
       <c r="CH12" s="4"/>
       <c r="CT12" s="4"/>
-      <c r="CU12" s="9"/>
+      <c r="CU12" s="8"/>
     </row>
     <row r="13" ht="13.8" spans="1:98">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N13" s="4"/>
       <c r="T13" s="4"/>
@@ -7164,28 +7193,28 @@
       <c r="AS13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="41"/>
+      <c r="BE13" s="40"/>
       <c r="BP13" s="5"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CN13" s="9"/>
+      <c r="CN13" s="8"/>
       <c r="CT13" s="4"/>
     </row>
     <row r="14" ht="13.8" spans="7:99">
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>44</v>
@@ -7204,19 +7233,19 @@
       <c r="CC14" s="4"/>
       <c r="CH14" s="4"/>
       <c r="CI14" s="5"/>
-      <c r="CN14" s="9"/>
+      <c r="CN14" s="8"/>
       <c r="CT14" s="5"/>
       <c r="CU14" s="5"/>
     </row>
     <row r="15" ht="13.8" spans="7:99">
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N15" s="4"/>
       <c r="T15" s="5"/>
@@ -7226,7 +7255,7 @@
       <c r="AR15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="41"/>
+      <c r="BE15" s="40"/>
       <c r="BP15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="CB15" s="4"/>
@@ -7236,14 +7265,14 @@
     </row>
     <row r="16" ht="13.8" spans="7:98">
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N16" s="4"/>
       <c r="T16" s="4"/>
@@ -7262,13 +7291,13 @@
     </row>
     <row r="17" ht="13.8" spans="7:86">
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N17" s="4"/>
       <c r="T17" s="5"/>
@@ -7278,9 +7307,9 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="41"/>
+      <c r="BE17" s="40"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="41"/>
+      <c r="BK17" s="40"/>
       <c r="BP17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="CB17" s="4"/>
@@ -7288,16 +7317,16 @@
     </row>
     <row r="18" ht="13.8" spans="7:86">
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N18" s="4"/>
       <c r="T18" s="5"/>
@@ -7332,7 +7361,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="AF20" s="41"/>
+      <c r="AF20" s="40"/>
       <c r="AL20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -7347,7 +7376,7 @@
     <row r="21" ht="13.8" spans="14:80">
       <c r="N21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="AX21" s="27"/>
+      <c r="AX21" s="26"/>
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
       <c r="BV21" s="4"/>
@@ -7382,29 +7411,29 @@
       <c r="CB25" s="4"/>
     </row>
     <row r="26" ht="13.8" spans="2:80">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="39"/>
       <c r="T26" s="4"/>
-      <c r="BD26" s="27"/>
-      <c r="BE26" s="41"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="40"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
       <c r="CB26" s="4"/>
     </row>
     <row r="27" ht="13.8" spans="2:81">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="43"/>
       <c r="T27" s="4"/>
       <c r="BD27" s="4"/>
-      <c r="BE27" s="41"/>
+      <c r="BE27" s="40"/>
       <c r="BV27" s="4"/>
       <c r="CB27" s="4"/>
       <c r="CC27" s="4"/>
     </row>
     <row r="28" ht="13.8" spans="2:81">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="BV28" s="4"/>
@@ -7418,8 +7447,8 @@
       <c r="CB29" s="4"/>
     </row>
     <row r="30" ht="13.8" spans="2:81">
-      <c r="B30" s="41"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="8"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="BV30" s="4"/>
@@ -7427,8 +7456,8 @@
       <c r="CC30" s="4"/>
     </row>
     <row r="31" ht="13.8" spans="2:80">
-      <c r="B31" s="41"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="8"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="BV31" s="4"/>
@@ -7438,7 +7467,7 @@
     <row r="32" ht="13.8" spans="19:80">
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="BU32" s="20"/>
+      <c r="BU32" s="19"/>
       <c r="BV32" s="4"/>
       <c r="CB32" s="4"/>
     </row>
@@ -7465,7 +7494,7 @@
       <c r="T36" s="5"/>
       <c r="BV36" s="4"/>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="41"/>
+      <c r="CC36" s="40"/>
     </row>
     <row r="37" ht="13.8" spans="74:80">
       <c r="BV37" s="4"/>
@@ -7485,7 +7514,7 @@
     </row>
     <row r="40" ht="13.8" spans="74:80">
       <c r="BV40" s="5"/>
-      <c r="BW40" s="22"/>
+      <c r="BW40" s="21"/>
       <c r="CB40" s="4"/>
     </row>
     <row r="41" ht="13.8" spans="73:80">
@@ -7502,7 +7531,7 @@
     </row>
     <row r="43" ht="13.8" spans="74:80">
       <c r="BV43" s="5"/>
-      <c r="CB43" s="27"/>
+      <c r="CB43" s="26"/>
     </row>
     <row r="44" ht="13.8" spans="74:74">
       <c r="BV44" s="5"/>
@@ -7521,12 +7550,12 @@
       <c r="CB48" s="4"/>
     </row>
     <row r="49" ht="13.8" spans="80:81">
-      <c r="CB49" s="27"/>
+      <c r="CB49" s="26"/>
       <c r="CC49" s="4"/>
     </row>
     <row r="50" ht="13.8" spans="80:81">
-      <c r="CB50" s="27"/>
-      <c r="CC50" s="9"/>
+      <c r="CB50" s="26"/>
+      <c r="CC50" s="8"/>
     </row>
     <row r="52" ht="13.8" spans="74:75">
       <c r="BV52" s="5"/>
@@ -7554,50 +7583,50 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="16"/>
+    <col min="6" max="6" width="8.88888888888889" style="15"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="16"/>
+    <col min="12" max="12" width="8.88888888888889" style="15"/>
     <col min="13" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>1168</v>
+      <c r="A1" s="16" t="s">
+        <v>1170</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
-        <v>283</v>
+      <c r="F1" s="15" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="E2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="E3"/>
       <c r="I3" s="3"/>
@@ -7606,15 +7635,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>1180</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="G4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7622,44 +7651,44 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>1183</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>1185</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -7667,13 +7696,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="12"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -7682,33 +7711,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>1194</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
@@ -7745,7 +7774,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
@@ -7779,15 +7808,15 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
-        <v>1195</v>
+      <c r="A1" s="14" t="s">
+        <v>1197</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7797,28 +7826,28 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
@@ -7827,28 +7856,28 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
@@ -7857,16 +7886,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -7922,98 +7951,98 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>1215</v>
+      <c r="A2" s="11" t="s">
+        <v>1217</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1223</v>
+        <v>1224</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1225</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>1227</v>
+        <v>1228</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1229</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E5" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>36</v>
@@ -8022,142 +8051,142 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1243</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>1250</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1252</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>36</v>
@@ -8165,78 +8194,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -8266,28 +8295,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
@@ -8296,14 +8325,14 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
@@ -8312,140 +8341,140 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>44</v>
@@ -8453,55 +8482,55 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -8524,150 +8553,150 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C2" s="11"/>
+        <v>1349</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>1352</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>1359</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="3" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -8698,14 +8727,14 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8715,14 +8744,14 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -8734,16 +8763,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -8755,16 +8784,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>1388</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1390</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -8776,16 +8805,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
@@ -8799,14 +8828,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -8818,91 +8847,91 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -8928,14 +8957,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8946,10 +8975,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
@@ -8957,16 +8986,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
@@ -8974,95 +9003,95 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -9070,11 +9099,11 @@
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9138,462 +9167,462 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="16"/>
+    <col min="6" max="6" width="8.88888888888889" style="15"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="16"/>
+    <col min="12" max="12" width="8.88888888888889" style="15"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="16"/>
+    <col min="18" max="18" width="8.88888888888889" style="15"/>
     <col min="19" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="32" t="s">
-        <v>105</v>
+      <c r="A1" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
-        <v>106</v>
+      <c r="F1" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="26"/>
+        <v>139</v>
+      </c>
+      <c r="C5" s="25"/>
       <c r="D5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>140</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="G5" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="G6" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>16</v>
@@ -9601,31 +9630,31 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>16</v>
@@ -9633,124 +9662,124 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>44</v>
@@ -9758,62 +9787,62 @@
     </row>
     <row r="25" ht="45.6" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" s="28" t="s">
         <v>268</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -9838,243 +9867,243 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="16"/>
+    <col min="6" max="6" width="8.88888888888889" style="15"/>
     <col min="7" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
-        <v>281</v>
+      <c r="A1" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
-        <v>283</v>
+      <c r="F1" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="13"/>
+        <v>291</v>
+      </c>
+      <c r="E2" s="12"/>
       <c r="G2" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="E3" s="10"/>
       <c r="G3" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="G4" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>311</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="G5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>312</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>317</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>318</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="G6" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>322</v>
+      </c>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>326</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="G7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E8" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>340</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>44</v>
@@ -10082,89 +10111,89 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10200,28 +10229,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="26"/>
+        <v>369</v>
+      </c>
+      <c r="C2" s="25"/>
       <c r="D2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" s="13"/>
+        <v>370</v>
+      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -10230,16 +10259,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>372</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>373</v>
+      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -10248,14 +10277,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -10266,34 +10295,34 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -10304,14 +10333,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -10322,62 +10351,62 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -10440,70 +10469,70 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="13"/>
+        <v>407</v>
+      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
@@ -10512,74 +10541,74 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -10614,22 +10643,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10638,133 +10667,133 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>455</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="G4" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>44</v>
@@ -10773,299 +10802,299 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>474</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="G7" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="K9" s="13"/>
+        <v>493</v>
+      </c>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="I10" s="11"/>
+        <v>499</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="K10" s="11"/>
+        <v>500</v>
+      </c>
+      <c r="K10" s="10"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="28" t="s">
-        <v>499</v>
+      <c r="A11" s="27" t="s">
+        <v>501</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>44</v>
@@ -11073,210 +11102,210 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="C22" s="18" t="s">
         <v>572</v>
       </c>
+      <c r="B22" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>574</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="17.4" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="C23" s="29" t="s">
         <v>579</v>
       </c>
+      <c r="B23" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>581</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="G23" s="30" t="s">
-        <v>581</v>
+      <c r="G23" s="29" t="s">
+        <v>583</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>584</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="C24" s="18" t="s">
         <v>586</v>
       </c>
+      <c r="B24" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>588</v>
+      </c>
       <c r="D24" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>588</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>591</v>
       </c>
       <c r="D25" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>591</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>594</v>
       </c>
       <c r="D26" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>594</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>597</v>
       </c>
       <c r="D27" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" ht="110.4" spans="1:4">
       <c r="A28" t="s">
-        <v>597</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>598</v>
-      </c>
-      <c r="D28" s="31" t="s">
         <v>599</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -11314,92 +11343,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" spans="1:8">
-      <c r="A1" s="24" t="s">
-        <v>600</v>
+      <c r="A1" s="23" t="s">
+        <v>602</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>604</v>
       </c>
       <c r="H1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C2" s="26"/>
+        <v>607</v>
+      </c>
+      <c r="C2" s="25"/>
       <c r="D2" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E2" s="13"/>
+        <v>608</v>
+      </c>
+      <c r="E2" s="12"/>
       <c r="G2" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>36</v>
@@ -11407,130 +11436,130 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>44</v>
@@ -11538,29 +11567,29 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -11571,7 +11600,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11608,692 +11637,692 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="16"/>
+    <col min="6" max="6" width="8.88888888888889" style="15"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="16"/>
+    <col min="12" max="12" width="8.88888888888889" style="15"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="16"/>
+    <col min="18" max="18" width="8.88888888888889" style="15"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="16"/>
+    <col min="24" max="24" width="8.88888888888889" style="15"/>
     <col min="25" max="29" width="8.88888888888889" style="4"/>
-    <col min="30" max="30" width="8.88888888888889" style="16"/>
+    <col min="30" max="30" width="8.88888888888889" style="15"/>
     <col min="31" max="35" width="8.88888888888889" style="4"/>
-    <col min="36" max="36" width="8.88888888888889" style="16"/>
+    <col min="36" max="36" width="8.88888888888889" style="15"/>
     <col min="37" max="41" width="8.88888888888889" style="4"/>
-    <col min="42" max="42" width="8.88888888888889" style="16"/>
+    <col min="42" max="42" width="8.88888888888889" style="15"/>
     <col min="43" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="15" t="s">
-        <v>660</v>
+      <c r="A1" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
-        <v>661</v>
+      <c r="F1" s="15" t="s">
+        <v>663</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AE2" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="23" t="s">
-        <v>692</v>
+      <c r="A3" s="22" t="s">
+        <v>694</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AE3" s="4" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AO3" s="3"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="23" t="s">
-        <v>712</v>
+      <c r="A4" s="22" t="s">
+        <v>714</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>692</v>
+        <v>743</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>694</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AE6" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AE7" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AO7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="AC8" s="3"/>
       <c r="AE8" s="4" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="AA9" s="19"/>
+        <v>832</v>
+      </c>
+      <c r="AA9" s="18"/>
       <c r="AB9" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AE9" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="4" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>44</v>
@@ -12308,7 +12337,7 @@
         <v>25</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AN10" s="7" t="s">
         <v>26</v>
@@ -12317,287 +12346,287 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="4" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AK11" s="4" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="3" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>868</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="K12" s="3"/>
       <c r="Y12" s="4" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>885</v>
+        <v>886</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>887</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>906</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="5:5">
@@ -12634,189 +12663,189 @@
   <sheetPr/>
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="5" width="8.88888888888889" style="4"/>
-    <col min="6" max="6" width="8.88888888888889" style="16"/>
+    <col min="6" max="6" width="8.88888888888889" style="15"/>
     <col min="7" max="11" width="8.88888888888889" style="4"/>
-    <col min="12" max="12" width="8.88888888888889" style="16"/>
+    <col min="12" max="12" width="8.88888888888889" style="15"/>
     <col min="13" max="17" width="8.88888888888889" style="4"/>
-    <col min="18" max="18" width="8.88888888888889" style="16"/>
+    <col min="18" max="18" width="8.88888888888889" style="15"/>
     <col min="19" max="23" width="8.88888888888889" style="4"/>
-    <col min="24" max="24" width="8.88888888888889" style="16"/>
+    <col min="24" max="24" width="8.88888888888889" style="15"/>
     <col min="25" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
-        <v>934</v>
+      <c r="F1" s="15" t="s">
+        <v>936</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="Y1" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="12" t="s">
-        <v>962</v>
+      <c r="G3" s="11" t="s">
+        <v>964</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="K3" s="12"/>
+        <v>965</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="M3" s="3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>973</v>
+     